--- a/modele/stocker_temp.xlsx
+++ b/modele/stocker_temp.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projets\stocker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POKORSSE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C366E9-D1A2-4207-981D-B5336A6F826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$553</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1097">
   <si>
     <t>Désignation:</t>
   </si>
@@ -3307,13 +3308,19 @@
   </si>
   <si>
     <t xml:space="preserve">SCT=E500329 </t>
+  </si>
+  <si>
+    <t>BOB FEUILLARD PP NOIR 5X0.45X7000 MESSERSI</t>
+  </si>
+  <si>
+    <t>BOB FEUILLARD PP BLANC 5X0.45X7000 MESSERSI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3331,6 +3338,18 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -3359,7 +3378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3373,6 +3392,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3588,14 +3610,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ551"/>
+  <dimension ref="A1:CQ553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A511" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
+      <selection activeCell="M531" sqref="M531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -62196,23 +62218,23 @@
       <c r="CQ529" s="3"/>
     </row>
     <row r="530" spans="2:95" ht="15">
-      <c r="B530" s="4">
-        <v>4352002</v>
-      </c>
-      <c r="C530" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D530" s="4">
-        <v>100</v>
-      </c>
-      <c r="E530" s="4" t="s">
-        <v>1065</v>
+      <c r="B530" s="5">
+        <v>4351144</v>
+      </c>
+      <c r="C530" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D530" s="5">
+        <v>30</v>
+      </c>
+      <c r="E530" s="5" t="s">
+        <v>1025</v>
       </c>
       <c r="F530" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="5"/>
-      <c r="H530" s="4" t="s">
+      <c r="H530" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I530" s="5"/>
@@ -62223,108 +62245,108 @@
       <c r="L530" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M530" s="3"/>
-      <c r="N530" s="3"/>
-      <c r="O530" s="3"/>
-      <c r="P530" s="3"/>
-      <c r="Q530" s="3"/>
-      <c r="R530" s="3"/>
-      <c r="S530" s="3"/>
-      <c r="T530" s="3"/>
-      <c r="U530" s="3"/>
-      <c r="V530" s="3"/>
-      <c r="W530" s="3"/>
-      <c r="X530" s="3"/>
-      <c r="Y530" s="3"/>
-      <c r="Z530" s="3"/>
-      <c r="AA530" s="3"/>
-      <c r="AB530" s="3"/>
-      <c r="AC530" s="3"/>
-      <c r="AD530" s="3"/>
-      <c r="AE530" s="3"/>
-      <c r="AF530" s="3"/>
-      <c r="AG530" s="3"/>
-      <c r="AH530" s="3"/>
-      <c r="AI530" s="3"/>
-      <c r="AJ530" s="3"/>
-      <c r="AK530" s="3"/>
-      <c r="AL530" s="3"/>
-      <c r="AM530" s="3"/>
-      <c r="AN530" s="3"/>
-      <c r="AO530" s="3"/>
-      <c r="AP530" s="3"/>
-      <c r="AQ530" s="3"/>
-      <c r="AR530" s="3"/>
-      <c r="AS530" s="3"/>
-      <c r="AT530" s="3"/>
-      <c r="AU530" s="3"/>
-      <c r="AV530" s="3"/>
-      <c r="AW530" s="3"/>
-      <c r="AX530" s="3"/>
-      <c r="AY530" s="3"/>
-      <c r="AZ530" s="3"/>
-      <c r="BA530" s="3"/>
-      <c r="BB530" s="3"/>
-      <c r="BC530" s="3"/>
-      <c r="BD530" s="3"/>
-      <c r="BE530" s="3"/>
-      <c r="BF530" s="3"/>
-      <c r="BG530" s="3"/>
-      <c r="BH530" s="3"/>
-      <c r="BI530" s="3"/>
-      <c r="BJ530" s="3"/>
-      <c r="BK530" s="3"/>
-      <c r="BL530" s="3"/>
-      <c r="BM530" s="3"/>
-      <c r="BN530" s="3"/>
-      <c r="BO530" s="3"/>
-      <c r="BP530" s="3"/>
-      <c r="BQ530" s="3"/>
-      <c r="BR530" s="3"/>
-      <c r="BS530" s="3"/>
-      <c r="BT530" s="3"/>
-      <c r="BU530" s="3"/>
-      <c r="BV530" s="3"/>
-      <c r="BW530" s="3"/>
-      <c r="BX530" s="3"/>
-      <c r="BY530" s="3"/>
-      <c r="BZ530" s="3"/>
-      <c r="CA530" s="3"/>
-      <c r="CB530" s="3"/>
-      <c r="CC530" s="3"/>
-      <c r="CD530" s="3"/>
-      <c r="CE530" s="3"/>
-      <c r="CF530" s="3"/>
-      <c r="CG530" s="3"/>
-      <c r="CH530" s="3"/>
-      <c r="CI530" s="3"/>
-      <c r="CJ530" s="3"/>
-      <c r="CK530" s="3"/>
-      <c r="CL530" s="3"/>
-      <c r="CM530" s="3"/>
-      <c r="CN530" s="3"/>
-      <c r="CO530" s="3"/>
-      <c r="CP530" s="3"/>
-      <c r="CQ530" s="3"/>
+      <c r="M530" s="6"/>
+      <c r="N530" s="6"/>
+      <c r="O530" s="6"/>
+      <c r="P530" s="6"/>
+      <c r="Q530" s="6"/>
+      <c r="R530" s="6"/>
+      <c r="S530" s="6"/>
+      <c r="T530" s="6"/>
+      <c r="U530" s="6"/>
+      <c r="V530" s="6"/>
+      <c r="W530" s="6"/>
+      <c r="X530" s="6"/>
+      <c r="Y530" s="6"/>
+      <c r="Z530" s="6"/>
+      <c r="AA530" s="6"/>
+      <c r="AB530" s="6"/>
+      <c r="AC530" s="6"/>
+      <c r="AD530" s="6"/>
+      <c r="AE530" s="6"/>
+      <c r="AF530" s="6"/>
+      <c r="AG530" s="6"/>
+      <c r="AH530" s="6"/>
+      <c r="AI530" s="6"/>
+      <c r="AJ530" s="6"/>
+      <c r="AK530" s="6"/>
+      <c r="AL530" s="6"/>
+      <c r="AM530" s="6"/>
+      <c r="AN530" s="6"/>
+      <c r="AO530" s="6"/>
+      <c r="AP530" s="6"/>
+      <c r="AQ530" s="6"/>
+      <c r="AR530" s="6"/>
+      <c r="AS530" s="6"/>
+      <c r="AT530" s="6"/>
+      <c r="AU530" s="6"/>
+      <c r="AV530" s="6"/>
+      <c r="AW530" s="6"/>
+      <c r="AX530" s="6"/>
+      <c r="AY530" s="6"/>
+      <c r="AZ530" s="6"/>
+      <c r="BA530" s="6"/>
+      <c r="BB530" s="6"/>
+      <c r="BC530" s="6"/>
+      <c r="BD530" s="6"/>
+      <c r="BE530" s="6"/>
+      <c r="BF530" s="6"/>
+      <c r="BG530" s="6"/>
+      <c r="BH530" s="6"/>
+      <c r="BI530" s="6"/>
+      <c r="BJ530" s="6"/>
+      <c r="BK530" s="6"/>
+      <c r="BL530" s="6"/>
+      <c r="BM530" s="6"/>
+      <c r="BN530" s="6"/>
+      <c r="BO530" s="6"/>
+      <c r="BP530" s="6"/>
+      <c r="BQ530" s="6"/>
+      <c r="BR530" s="6"/>
+      <c r="BS530" s="6"/>
+      <c r="BT530" s="6"/>
+      <c r="BU530" s="6"/>
+      <c r="BV530" s="6"/>
+      <c r="BW530" s="6"/>
+      <c r="BX530" s="6"/>
+      <c r="BY530" s="6"/>
+      <c r="BZ530" s="6"/>
+      <c r="CA530" s="6"/>
+      <c r="CB530" s="6"/>
+      <c r="CC530" s="6"/>
+      <c r="CD530" s="6"/>
+      <c r="CE530" s="6"/>
+      <c r="CF530" s="6"/>
+      <c r="CG530" s="6"/>
+      <c r="CH530" s="6"/>
+      <c r="CI530" s="6"/>
+      <c r="CJ530" s="6"/>
+      <c r="CK530" s="6"/>
+      <c r="CL530" s="6"/>
+      <c r="CM530" s="6"/>
+      <c r="CN530" s="6"/>
+      <c r="CO530" s="6"/>
+      <c r="CP530" s="6"/>
+      <c r="CQ530" s="6"/>
     </row>
     <row r="531" spans="2:95" ht="15">
-      <c r="B531" s="4">
-        <v>4352101</v>
-      </c>
-      <c r="C531" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D531" s="4">
-        <v>48</v>
-      </c>
-      <c r="E531" s="4" t="s">
+      <c r="B531" s="5">
+        <v>4351145</v>
+      </c>
+      <c r="C531" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D531" s="5">
+        <v>30</v>
+      </c>
+      <c r="E531" s="5" t="s">
         <v>1025</v>
       </c>
       <c r="F531" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G531" s="5"/>
-      <c r="H531" s="4" t="s">
+      <c r="H531" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I531" s="5"/>
@@ -62335,102 +62357,102 @@
       <c r="L531" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M531" s="3"/>
-      <c r="N531" s="3"/>
-      <c r="O531" s="3"/>
-      <c r="P531" s="3"/>
-      <c r="Q531" s="3"/>
-      <c r="R531" s="3"/>
-      <c r="S531" s="3"/>
-      <c r="T531" s="3"/>
-      <c r="U531" s="3"/>
-      <c r="V531" s="3"/>
-      <c r="W531" s="3"/>
-      <c r="X531" s="3"/>
-      <c r="Y531" s="3"/>
-      <c r="Z531" s="3"/>
-      <c r="AA531" s="3"/>
-      <c r="AB531" s="3"/>
-      <c r="AC531" s="3"/>
-      <c r="AD531" s="3"/>
-      <c r="AE531" s="3"/>
-      <c r="AF531" s="3"/>
-      <c r="AG531" s="3"/>
-      <c r="AH531" s="3"/>
-      <c r="AI531" s="3"/>
-      <c r="AJ531" s="3"/>
-      <c r="AK531" s="3"/>
-      <c r="AL531" s="3"/>
-      <c r="AM531" s="3"/>
-      <c r="AN531" s="3"/>
-      <c r="AO531" s="3"/>
-      <c r="AP531" s="3"/>
-      <c r="AQ531" s="3"/>
-      <c r="AR531" s="3"/>
-      <c r="AS531" s="3"/>
-      <c r="AT531" s="3"/>
-      <c r="AU531" s="3"/>
-      <c r="AV531" s="3"/>
-      <c r="AW531" s="3"/>
-      <c r="AX531" s="3"/>
-      <c r="AY531" s="3"/>
-      <c r="AZ531" s="3"/>
-      <c r="BA531" s="3"/>
-      <c r="BB531" s="3"/>
-      <c r="BC531" s="3"/>
-      <c r="BD531" s="3"/>
-      <c r="BE531" s="3"/>
-      <c r="BF531" s="3"/>
-      <c r="BG531" s="3"/>
-      <c r="BH531" s="3"/>
-      <c r="BI531" s="3"/>
-      <c r="BJ531" s="3"/>
-      <c r="BK531" s="3"/>
-      <c r="BL531" s="3"/>
-      <c r="BM531" s="3"/>
-      <c r="BN531" s="3"/>
-      <c r="BO531" s="3"/>
-      <c r="BP531" s="3"/>
-      <c r="BQ531" s="3"/>
-      <c r="BR531" s="3"/>
-      <c r="BS531" s="3"/>
-      <c r="BT531" s="3"/>
-      <c r="BU531" s="3"/>
-      <c r="BV531" s="3"/>
-      <c r="BW531" s="3"/>
-      <c r="BX531" s="3"/>
-      <c r="BY531" s="3"/>
-      <c r="BZ531" s="3"/>
-      <c r="CA531" s="3"/>
-      <c r="CB531" s="3"/>
-      <c r="CC531" s="3"/>
-      <c r="CD531" s="3"/>
-      <c r="CE531" s="3"/>
-      <c r="CF531" s="3"/>
-      <c r="CG531" s="3"/>
-      <c r="CH531" s="3"/>
-      <c r="CI531" s="3"/>
-      <c r="CJ531" s="3"/>
-      <c r="CK531" s="3"/>
-      <c r="CL531" s="3"/>
-      <c r="CM531" s="3"/>
-      <c r="CN531" s="3"/>
-      <c r="CO531" s="3"/>
-      <c r="CP531" s="3"/>
-      <c r="CQ531" s="3"/>
+      <c r="M531" s="6"/>
+      <c r="N531" s="6"/>
+      <c r="O531" s="6"/>
+      <c r="P531" s="6"/>
+      <c r="Q531" s="6"/>
+      <c r="R531" s="6"/>
+      <c r="S531" s="6"/>
+      <c r="T531" s="6"/>
+      <c r="U531" s="6"/>
+      <c r="V531" s="6"/>
+      <c r="W531" s="6"/>
+      <c r="X531" s="6"/>
+      <c r="Y531" s="6"/>
+      <c r="Z531" s="6"/>
+      <c r="AA531" s="6"/>
+      <c r="AB531" s="6"/>
+      <c r="AC531" s="6"/>
+      <c r="AD531" s="6"/>
+      <c r="AE531" s="6"/>
+      <c r="AF531" s="6"/>
+      <c r="AG531" s="6"/>
+      <c r="AH531" s="6"/>
+      <c r="AI531" s="6"/>
+      <c r="AJ531" s="6"/>
+      <c r="AK531" s="6"/>
+      <c r="AL531" s="6"/>
+      <c r="AM531" s="6"/>
+      <c r="AN531" s="6"/>
+      <c r="AO531" s="6"/>
+      <c r="AP531" s="6"/>
+      <c r="AQ531" s="6"/>
+      <c r="AR531" s="6"/>
+      <c r="AS531" s="6"/>
+      <c r="AT531" s="6"/>
+      <c r="AU531" s="6"/>
+      <c r="AV531" s="6"/>
+      <c r="AW531" s="6"/>
+      <c r="AX531" s="6"/>
+      <c r="AY531" s="6"/>
+      <c r="AZ531" s="6"/>
+      <c r="BA531" s="6"/>
+      <c r="BB531" s="6"/>
+      <c r="BC531" s="6"/>
+      <c r="BD531" s="6"/>
+      <c r="BE531" s="6"/>
+      <c r="BF531" s="6"/>
+      <c r="BG531" s="6"/>
+      <c r="BH531" s="6"/>
+      <c r="BI531" s="6"/>
+      <c r="BJ531" s="6"/>
+      <c r="BK531" s="6"/>
+      <c r="BL531" s="6"/>
+      <c r="BM531" s="6"/>
+      <c r="BN531" s="6"/>
+      <c r="BO531" s="6"/>
+      <c r="BP531" s="6"/>
+      <c r="BQ531" s="6"/>
+      <c r="BR531" s="6"/>
+      <c r="BS531" s="6"/>
+      <c r="BT531" s="6"/>
+      <c r="BU531" s="6"/>
+      <c r="BV531" s="6"/>
+      <c r="BW531" s="6"/>
+      <c r="BX531" s="6"/>
+      <c r="BY531" s="6"/>
+      <c r="BZ531" s="6"/>
+      <c r="CA531" s="6"/>
+      <c r="CB531" s="6"/>
+      <c r="CC531" s="6"/>
+      <c r="CD531" s="6"/>
+      <c r="CE531" s="6"/>
+      <c r="CF531" s="6"/>
+      <c r="CG531" s="6"/>
+      <c r="CH531" s="6"/>
+      <c r="CI531" s="6"/>
+      <c r="CJ531" s="6"/>
+      <c r="CK531" s="6"/>
+      <c r="CL531" s="6"/>
+      <c r="CM531" s="6"/>
+      <c r="CN531" s="6"/>
+      <c r="CO531" s="6"/>
+      <c r="CP531" s="6"/>
+      <c r="CQ531" s="6"/>
     </row>
     <row r="532" spans="2:95" ht="15">
       <c r="B532" s="4">
-        <v>4352105</v>
+        <v>4352002</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D532" s="5">
-        <v>0</v>
+        <v>1064</v>
+      </c>
+      <c r="D532" s="4">
+        <v>100</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="F532" s="5" t="s">
         <v>10</v>
@@ -62442,7 +62464,7 @@
       <c r="I532" s="5"/>
       <c r="J532" s="7"/>
       <c r="K532" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L532" s="6" t="s">
         <v>12</v>
@@ -62533,16 +62555,16 @@
     </row>
     <row r="533" spans="2:95" ht="15">
       <c r="B533" s="4">
-        <v>4352106</v>
+        <v>4352101</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D533" s="4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="F533" s="5" t="s">
         <v>10</v>
@@ -62554,7 +62576,7 @@
       <c r="I533" s="5"/>
       <c r="J533" s="7"/>
       <c r="K533" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L533" s="6" t="s">
         <v>12</v>
@@ -62645,16 +62667,16 @@
     </row>
     <row r="534" spans="2:95" ht="15">
       <c r="B534" s="4">
-        <v>4352107</v>
+        <v>4352105</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D534" s="4">
+        <v>1067</v>
+      </c>
+      <c r="D534" s="5">
         <v>0</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="F534" s="5" t="s">
         <v>10</v>
@@ -62756,17 +62778,17 @@
       <c r="CQ534" s="3"/>
     </row>
     <row r="535" spans="2:95" ht="15">
-      <c r="B535" s="4" t="s">
-        <v>870</v>
+      <c r="B535" s="4">
+        <v>4352106</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>871</v>
+        <v>1069</v>
       </c>
       <c r="D535" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="F535" s="5" t="s">
         <v>10</v>
@@ -62868,31 +62890,29 @@
       <c r="CQ535" s="3"/>
     </row>
     <row r="536" spans="2:95" ht="15">
-      <c r="B536" s="4" t="s">
-        <v>1072</v>
+      <c r="B536" s="4">
+        <v>4352107</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>813</v>
+        <v>1070</v>
       </c>
       <c r="D536" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>67</v>
+        <v>1071</v>
       </c>
       <c r="F536" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G536" s="4" t="s">
-        <v>1073</v>
-      </c>
+      <c r="G536" s="5"/>
       <c r="H536" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I536" s="5"/>
       <c r="J536" s="7"/>
       <c r="K536" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L536" s="6" t="s">
         <v>12</v>
@@ -62983,28 +63003,28 @@
     </row>
     <row r="537" spans="2:95" ht="15">
       <c r="B537" s="4" t="s">
-        <v>1074</v>
+        <v>870</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>263</v>
+        <v>871</v>
       </c>
       <c r="D537" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="F537" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G537" s="5"/>
       <c r="H537" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I537" s="5"/>
       <c r="J537" s="7"/>
       <c r="K537" s="6" t="s">
-        <v>1094</v>
+        <v>33</v>
       </c>
       <c r="L537" s="6" t="s">
         <v>12</v>
@@ -63095,21 +63115,23 @@
     </row>
     <row r="538" spans="2:95" ht="15">
       <c r="B538" s="4" t="s">
-        <v>27</v>
+        <v>1072</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>28</v>
+        <v>813</v>
       </c>
       <c r="D538" s="4">
         <v>1</v>
       </c>
       <c r="E538" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F538" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G538" s="5"/>
+      <c r="G538" s="4" t="s">
+        <v>1073</v>
+      </c>
       <c r="H538" s="4" t="s">
         <v>11</v>
       </c>
@@ -63206,29 +63228,29 @@
       <c r="CQ538" s="3"/>
     </row>
     <row r="539" spans="2:95" ht="15">
-      <c r="B539" s="4">
-        <v>4352001</v>
+      <c r="B539" s="4" t="s">
+        <v>1074</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>1075</v>
+        <v>263</v>
       </c>
       <c r="D539" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>1065</v>
+        <v>2</v>
       </c>
       <c r="F539" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G539" s="5"/>
       <c r="H539" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I539" s="5"/>
       <c r="J539" s="7"/>
       <c r="K539" s="6" t="s">
-        <v>127</v>
+        <v>1094</v>
       </c>
       <c r="L539" s="6" t="s">
         <v>12</v>
@@ -63319,13 +63341,13 @@
     </row>
     <row r="540" spans="2:95" ht="15">
       <c r="B540" s="4" t="s">
-        <v>1076</v>
+        <v>27</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>940</v>
+        <v>28</v>
       </c>
       <c r="D540" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E540" s="4" t="s">
         <v>2</v>
@@ -63431,16 +63453,16 @@
     </row>
     <row r="541" spans="2:95" ht="15">
       <c r="B541" s="4">
-        <v>3354134</v>
+        <v>4352001</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="D541" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>2</v>
+        <v>1065</v>
       </c>
       <c r="F541" s="5" t="s">
         <v>10</v>
@@ -63452,7 +63474,7 @@
       <c r="I541" s="5"/>
       <c r="J541" s="7"/>
       <c r="K541" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L541" s="6" t="s">
         <v>12</v>
@@ -63543,19 +63565,19 @@
     </row>
     <row r="542" spans="2:95" ht="15">
       <c r="B542" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1078</v>
+        <v>940</v>
       </c>
       <c r="D542" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E542" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F542" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G542" s="5"/>
       <c r="H542" s="4" t="s">
@@ -63564,7 +63586,7 @@
       <c r="I542" s="5"/>
       <c r="J542" s="7"/>
       <c r="K542" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L542" s="6" t="s">
         <v>12</v>
@@ -63655,13 +63677,13 @@
     </row>
     <row r="543" spans="2:95" ht="15">
       <c r="B543" s="4">
-        <v>3353217</v>
+        <v>3354134</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1047</v>
+        <v>1056</v>
       </c>
       <c r="D543" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E543" s="4" t="s">
         <v>2</v>
@@ -63766,11 +63788,11 @@
       <c r="CQ543" s="3"/>
     </row>
     <row r="544" spans="2:95" ht="15">
-      <c r="B544" s="4">
-        <v>3353213</v>
+      <c r="B544" s="4" t="s">
+        <v>1077</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1044</v>
+        <v>1078</v>
       </c>
       <c r="D544" s="4">
         <v>1</v>
@@ -63779,7 +63801,7 @@
         <v>2</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G544" s="5"/>
       <c r="H544" s="4" t="s">
@@ -63878,14 +63900,14 @@
       <c r="CQ544" s="3"/>
     </row>
     <row r="545" spans="2:95" ht="15">
-      <c r="B545" s="4" t="s">
-        <v>124</v>
+      <c r="B545" s="4">
+        <v>3353217</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>125</v>
+        <v>1047</v>
       </c>
       <c r="D545" s="4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E545" s="4" t="s">
         <v>2</v>
@@ -63895,12 +63917,12 @@
       </c>
       <c r="G545" s="5"/>
       <c r="H545" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I545" s="5"/>
       <c r="J545" s="7"/>
       <c r="K545" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L545" s="6" t="s">
         <v>12</v>
@@ -63990,14 +64012,14 @@
       <c r="CQ545" s="3"/>
     </row>
     <row r="546" spans="2:95" ht="15">
-      <c r="B546" s="4" t="s">
-        <v>1079</v>
+      <c r="B546" s="4">
+        <v>3353213</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1080</v>
+        <v>1044</v>
       </c>
       <c r="D546" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E546" s="4" t="s">
         <v>2</v>
@@ -64103,30 +64125,28 @@
     </row>
     <row r="547" spans="2:95" ht="15">
       <c r="B547" s="4" t="s">
-        <v>1081</v>
+        <v>124</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>956</v>
+        <v>125</v>
       </c>
       <c r="D547" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="F547" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G547" s="4" t="s">
-        <v>1082</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G547" s="5"/>
       <c r="H547" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I547" s="5"/>
       <c r="J547" s="7"/>
       <c r="K547" s="6" t="s">
-        <v>180</v>
+        <v>23</v>
       </c>
       <c r="L547" s="6" t="s">
         <v>12</v>
@@ -64217,13 +64237,13 @@
     </row>
     <row r="548" spans="2:95" ht="15">
       <c r="B548" s="4" t="s">
-        <v>815</v>
+        <v>1079</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>816</v>
+        <v>1080</v>
       </c>
       <c r="D548" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E548" s="4" t="s">
         <v>2</v>
@@ -64231,16 +64251,14 @@
       <c r="F548" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G548" s="4" t="s">
-        <v>1083</v>
-      </c>
+      <c r="G548" s="5"/>
       <c r="H548" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I548" s="5"/>
       <c r="J548" s="7"/>
       <c r="K548" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L548" s="6" t="s">
         <v>12</v>
@@ -64330,29 +64348,31 @@
       <c r="CQ548" s="3"/>
     </row>
     <row r="549" spans="2:95" ht="15">
-      <c r="B549" s="4">
-        <v>3350036</v>
+      <c r="B549" s="4" t="s">
+        <v>1081</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1084</v>
+        <v>956</v>
       </c>
       <c r="D549" s="4">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>526</v>
+        <v>736</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G549" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="G549" s="4" t="s">
+        <v>1082</v>
+      </c>
       <c r="H549" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I549" s="5"/>
       <c r="J549" s="7"/>
       <c r="K549" s="6" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L549" s="6" t="s">
         <v>12</v>
@@ -64443,10 +64463,10 @@
     </row>
     <row r="550" spans="2:95" ht="15">
       <c r="B550" s="4" t="s">
-        <v>1085</v>
+        <v>815</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1086</v>
+        <v>816</v>
       </c>
       <c r="D550" s="4">
         <v>1</v>
@@ -64457,14 +64477,16 @@
       <c r="F550" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G550" s="5"/>
+      <c r="G550" s="4" t="s">
+        <v>1083</v>
+      </c>
       <c r="H550" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I550" s="5"/>
       <c r="J550" s="7"/>
       <c r="K550" s="6" t="s">
-        <v>443</v>
+        <v>127</v>
       </c>
       <c r="L550" s="6" t="s">
         <v>12</v>
@@ -64554,17 +64576,17 @@
       <c r="CQ550" s="3"/>
     </row>
     <row r="551" spans="2:95" ht="15">
-      <c r="B551" s="4" t="s">
-        <v>1087</v>
+      <c r="B551" s="4">
+        <v>3350036</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D551" s="4">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="F551" s="5" t="s">
         <v>10</v>
@@ -64576,7 +64598,7 @@
       <c r="I551" s="5"/>
       <c r="J551" s="7"/>
       <c r="K551" s="6" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="L551" s="6" t="s">
         <v>12</v>
@@ -64665,8 +64687,234 @@
       <c r="CP551" s="3"/>
       <c r="CQ551" s="3"/>
     </row>
+    <row r="552" spans="2:95" ht="15">
+      <c r="B552" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C552" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D552" s="4">
+        <v>1</v>
+      </c>
+      <c r="E552" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G552" s="5"/>
+      <c r="H552" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I552" s="5"/>
+      <c r="J552" s="7"/>
+      <c r="K552" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="L552" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M552" s="3"/>
+      <c r="N552" s="3"/>
+      <c r="O552" s="3"/>
+      <c r="P552" s="3"/>
+      <c r="Q552" s="3"/>
+      <c r="R552" s="3"/>
+      <c r="S552" s="3"/>
+      <c r="T552" s="3"/>
+      <c r="U552" s="3"/>
+      <c r="V552" s="3"/>
+      <c r="W552" s="3"/>
+      <c r="X552" s="3"/>
+      <c r="Y552" s="3"/>
+      <c r="Z552" s="3"/>
+      <c r="AA552" s="3"/>
+      <c r="AB552" s="3"/>
+      <c r="AC552" s="3"/>
+      <c r="AD552" s="3"/>
+      <c r="AE552" s="3"/>
+      <c r="AF552" s="3"/>
+      <c r="AG552" s="3"/>
+      <c r="AH552" s="3"/>
+      <c r="AI552" s="3"/>
+      <c r="AJ552" s="3"/>
+      <c r="AK552" s="3"/>
+      <c r="AL552" s="3"/>
+      <c r="AM552" s="3"/>
+      <c r="AN552" s="3"/>
+      <c r="AO552" s="3"/>
+      <c r="AP552" s="3"/>
+      <c r="AQ552" s="3"/>
+      <c r="AR552" s="3"/>
+      <c r="AS552" s="3"/>
+      <c r="AT552" s="3"/>
+      <c r="AU552" s="3"/>
+      <c r="AV552" s="3"/>
+      <c r="AW552" s="3"/>
+      <c r="AX552" s="3"/>
+      <c r="AY552" s="3"/>
+      <c r="AZ552" s="3"/>
+      <c r="BA552" s="3"/>
+      <c r="BB552" s="3"/>
+      <c r="BC552" s="3"/>
+      <c r="BD552" s="3"/>
+      <c r="BE552" s="3"/>
+      <c r="BF552" s="3"/>
+      <c r="BG552" s="3"/>
+      <c r="BH552" s="3"/>
+      <c r="BI552" s="3"/>
+      <c r="BJ552" s="3"/>
+      <c r="BK552" s="3"/>
+      <c r="BL552" s="3"/>
+      <c r="BM552" s="3"/>
+      <c r="BN552" s="3"/>
+      <c r="BO552" s="3"/>
+      <c r="BP552" s="3"/>
+      <c r="BQ552" s="3"/>
+      <c r="BR552" s="3"/>
+      <c r="BS552" s="3"/>
+      <c r="BT552" s="3"/>
+      <c r="BU552" s="3"/>
+      <c r="BV552" s="3"/>
+      <c r="BW552" s="3"/>
+      <c r="BX552" s="3"/>
+      <c r="BY552" s="3"/>
+      <c r="BZ552" s="3"/>
+      <c r="CA552" s="3"/>
+      <c r="CB552" s="3"/>
+      <c r="CC552" s="3"/>
+      <c r="CD552" s="3"/>
+      <c r="CE552" s="3"/>
+      <c r="CF552" s="3"/>
+      <c r="CG552" s="3"/>
+      <c r="CH552" s="3"/>
+      <c r="CI552" s="3"/>
+      <c r="CJ552" s="3"/>
+      <c r="CK552" s="3"/>
+      <c r="CL552" s="3"/>
+      <c r="CM552" s="3"/>
+      <c r="CN552" s="3"/>
+      <c r="CO552" s="3"/>
+      <c r="CP552" s="3"/>
+      <c r="CQ552" s="3"/>
+    </row>
+    <row r="553" spans="2:95" ht="15">
+      <c r="B553" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C553" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D553" s="4">
+        <v>1</v>
+      </c>
+      <c r="E553" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F553" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G553" s="5"/>
+      <c r="H553" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I553" s="5"/>
+      <c r="J553" s="7"/>
+      <c r="K553" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L553" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M553" s="3"/>
+      <c r="N553" s="3"/>
+      <c r="O553" s="3"/>
+      <c r="P553" s="3"/>
+      <c r="Q553" s="3"/>
+      <c r="R553" s="3"/>
+      <c r="S553" s="3"/>
+      <c r="T553" s="3"/>
+      <c r="U553" s="3"/>
+      <c r="V553" s="3"/>
+      <c r="W553" s="3"/>
+      <c r="X553" s="3"/>
+      <c r="Y553" s="3"/>
+      <c r="Z553" s="3"/>
+      <c r="AA553" s="3"/>
+      <c r="AB553" s="3"/>
+      <c r="AC553" s="3"/>
+      <c r="AD553" s="3"/>
+      <c r="AE553" s="3"/>
+      <c r="AF553" s="3"/>
+      <c r="AG553" s="3"/>
+      <c r="AH553" s="3"/>
+      <c r="AI553" s="3"/>
+      <c r="AJ553" s="3"/>
+      <c r="AK553" s="3"/>
+      <c r="AL553" s="3"/>
+      <c r="AM553" s="3"/>
+      <c r="AN553" s="3"/>
+      <c r="AO553" s="3"/>
+      <c r="AP553" s="3"/>
+      <c r="AQ553" s="3"/>
+      <c r="AR553" s="3"/>
+      <c r="AS553" s="3"/>
+      <c r="AT553" s="3"/>
+      <c r="AU553" s="3"/>
+      <c r="AV553" s="3"/>
+      <c r="AW553" s="3"/>
+      <c r="AX553" s="3"/>
+      <c r="AY553" s="3"/>
+      <c r="AZ553" s="3"/>
+      <c r="BA553" s="3"/>
+      <c r="BB553" s="3"/>
+      <c r="BC553" s="3"/>
+      <c r="BD553" s="3"/>
+      <c r="BE553" s="3"/>
+      <c r="BF553" s="3"/>
+      <c r="BG553" s="3"/>
+      <c r="BH553" s="3"/>
+      <c r="BI553" s="3"/>
+      <c r="BJ553" s="3"/>
+      <c r="BK553" s="3"/>
+      <c r="BL553" s="3"/>
+      <c r="BM553" s="3"/>
+      <c r="BN553" s="3"/>
+      <c r="BO553" s="3"/>
+      <c r="BP553" s="3"/>
+      <c r="BQ553" s="3"/>
+      <c r="BR553" s="3"/>
+      <c r="BS553" s="3"/>
+      <c r="BT553" s="3"/>
+      <c r="BU553" s="3"/>
+      <c r="BV553" s="3"/>
+      <c r="BW553" s="3"/>
+      <c r="BX553" s="3"/>
+      <c r="BY553" s="3"/>
+      <c r="BZ553" s="3"/>
+      <c r="CA553" s="3"/>
+      <c r="CB553" s="3"/>
+      <c r="CC553" s="3"/>
+      <c r="CD553" s="3"/>
+      <c r="CE553" s="3"/>
+      <c r="CF553" s="3"/>
+      <c r="CG553" s="3"/>
+      <c r="CH553" s="3"/>
+      <c r="CI553" s="3"/>
+      <c r="CJ553" s="3"/>
+      <c r="CK553" s="3"/>
+      <c r="CL553" s="3"/>
+      <c r="CM553" s="3"/>
+      <c r="CN553" s="3"/>
+      <c r="CO553" s="3"/>
+      <c r="CP553" s="3"/>
+      <c r="CQ553" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CQ551"/>
+  <autoFilter ref="A1:CQ553" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/modele/stocker_temp.xlsx
+++ b/modele/stocker_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POKORSSE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2C366E9-D1A2-4207-981D-B5336A6F826B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F67F002-4D1E-4EE2-9B86-24B56BE1E60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$553</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3616,8 +3627,8 @@
   </sheetPr>
   <dimension ref="A1:CQ553"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A518" workbookViewId="0">
-      <selection activeCell="M531" sqref="M531"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H560" sqref="H560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -49815,7 +49826,7 @@
       </c>
       <c r="G418" s="5"/>
       <c r="H418" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I418" s="5"/>
       <c r="J418" s="7"/>

--- a/modele/stocker_temp.xlsx
+++ b/modele/stocker_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POKORSSE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F67F002-4D1E-4EE2-9B86-24B56BE1E60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED15A3B-40D6-443B-9F3A-6ECBDDD5E44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$553</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$554</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="1097">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="1099">
   <si>
     <t>Désignation:</t>
   </si>
@@ -3325,6 +3325,12 @@
   </si>
   <si>
     <t>BOB FEUILLARD PP BLANC 5X0.45X7000 MESSERSI</t>
+  </si>
+  <si>
+    <t>PAPIER THERMOSCELLANT 22G+4G /M² - LAIZE 480 MM FERAG</t>
+  </si>
+  <si>
+    <t>SCT=E390330</t>
   </si>
 </sst>
 </file>
@@ -3625,10 +3631,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ553"/>
+  <dimension ref="A1:CQ554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H560" sqref="H560"/>
+    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="M497" sqref="M497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -58767,127 +58773,129 @@
       <c r="CQ498" s="3"/>
     </row>
     <row r="499" spans="2:95" ht="15">
-      <c r="B499" s="4">
-        <v>3351310</v>
-      </c>
-      <c r="C499" s="4" t="s">
-        <v>1028</v>
+      <c r="B499" s="5">
+        <v>3350037</v>
+      </c>
+      <c r="C499" s="5" t="s">
+        <v>1097</v>
       </c>
       <c r="D499" s="5">
-        <v>0</v>
-      </c>
-      <c r="E499" s="4" t="s">
-        <v>112</v>
+        <v>368</v>
+      </c>
+      <c r="E499" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="F499" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="5"/>
-      <c r="H499" s="4" t="s">
+      <c r="H499" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I499" s="5"/>
       <c r="J499" s="7"/>
-      <c r="K499" s="3"/>
+      <c r="K499" s="6" t="s">
+        <v>1098</v>
+      </c>
       <c r="L499" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M499" s="3"/>
-      <c r="N499" s="3"/>
-      <c r="O499" s="3"/>
-      <c r="P499" s="3"/>
-      <c r="Q499" s="3"/>
-      <c r="R499" s="3"/>
-      <c r="S499" s="3"/>
-      <c r="T499" s="3"/>
-      <c r="U499" s="3"/>
-      <c r="V499" s="3"/>
-      <c r="W499" s="3"/>
-      <c r="X499" s="3"/>
-      <c r="Y499" s="3"/>
-      <c r="Z499" s="3"/>
-      <c r="AA499" s="3"/>
-      <c r="AB499" s="3"/>
-      <c r="AC499" s="3"/>
-      <c r="AD499" s="3"/>
-      <c r="AE499" s="3"/>
-      <c r="AF499" s="3"/>
-      <c r="AG499" s="3"/>
-      <c r="AH499" s="3"/>
-      <c r="AI499" s="3"/>
-      <c r="AJ499" s="3"/>
-      <c r="AK499" s="3"/>
-      <c r="AL499" s="3"/>
-      <c r="AM499" s="3"/>
-      <c r="AN499" s="3"/>
-      <c r="AO499" s="3"/>
-      <c r="AP499" s="3"/>
-      <c r="AQ499" s="3"/>
-      <c r="AR499" s="3"/>
-      <c r="AS499" s="3"/>
-      <c r="AT499" s="3"/>
-      <c r="AU499" s="3"/>
-      <c r="AV499" s="3"/>
-      <c r="AW499" s="3"/>
-      <c r="AX499" s="3"/>
-      <c r="AY499" s="3"/>
-      <c r="AZ499" s="3"/>
-      <c r="BA499" s="3"/>
-      <c r="BB499" s="3"/>
-      <c r="BC499" s="3"/>
-      <c r="BD499" s="3"/>
-      <c r="BE499" s="3"/>
-      <c r="BF499" s="3"/>
-      <c r="BG499" s="3"/>
-      <c r="BH499" s="3"/>
-      <c r="BI499" s="3"/>
-      <c r="BJ499" s="3"/>
-      <c r="BK499" s="3"/>
-      <c r="BL499" s="3"/>
-      <c r="BM499" s="3"/>
-      <c r="BN499" s="3"/>
-      <c r="BO499" s="3"/>
-      <c r="BP499" s="3"/>
-      <c r="BQ499" s="3"/>
-      <c r="BR499" s="3"/>
-      <c r="BS499" s="3"/>
-      <c r="BT499" s="3"/>
-      <c r="BU499" s="3"/>
-      <c r="BV499" s="3"/>
-      <c r="BW499" s="3"/>
-      <c r="BX499" s="3"/>
-      <c r="BY499" s="3"/>
-      <c r="BZ499" s="3"/>
-      <c r="CA499" s="3"/>
-      <c r="CB499" s="3"/>
-      <c r="CC499" s="3"/>
-      <c r="CD499" s="3"/>
-      <c r="CE499" s="3"/>
-      <c r="CF499" s="3"/>
-      <c r="CG499" s="3"/>
-      <c r="CH499" s="3"/>
-      <c r="CI499" s="3"/>
-      <c r="CJ499" s="3"/>
-      <c r="CK499" s="3"/>
-      <c r="CL499" s="3"/>
-      <c r="CM499" s="3"/>
-      <c r="CN499" s="3"/>
-      <c r="CO499" s="3"/>
-      <c r="CP499" s="3"/>
-      <c r="CQ499" s="3"/>
+      <c r="M499" s="6"/>
+      <c r="N499" s="6"/>
+      <c r="O499" s="6"/>
+      <c r="P499" s="6"/>
+      <c r="Q499" s="6"/>
+      <c r="R499" s="6"/>
+      <c r="S499" s="6"/>
+      <c r="T499" s="6"/>
+      <c r="U499" s="6"/>
+      <c r="V499" s="6"/>
+      <c r="W499" s="6"/>
+      <c r="X499" s="6"/>
+      <c r="Y499" s="6"/>
+      <c r="Z499" s="6"/>
+      <c r="AA499" s="6"/>
+      <c r="AB499" s="6"/>
+      <c r="AC499" s="6"/>
+      <c r="AD499" s="6"/>
+      <c r="AE499" s="6"/>
+      <c r="AF499" s="6"/>
+      <c r="AG499" s="6"/>
+      <c r="AH499" s="6"/>
+      <c r="AI499" s="6"/>
+      <c r="AJ499" s="6"/>
+      <c r="AK499" s="6"/>
+      <c r="AL499" s="6"/>
+      <c r="AM499" s="6"/>
+      <c r="AN499" s="6"/>
+      <c r="AO499" s="6"/>
+      <c r="AP499" s="6"/>
+      <c r="AQ499" s="6"/>
+      <c r="AR499" s="6"/>
+      <c r="AS499" s="6"/>
+      <c r="AT499" s="6"/>
+      <c r="AU499" s="6"/>
+      <c r="AV499" s="6"/>
+      <c r="AW499" s="6"/>
+      <c r="AX499" s="6"/>
+      <c r="AY499" s="6"/>
+      <c r="AZ499" s="6"/>
+      <c r="BA499" s="6"/>
+      <c r="BB499" s="6"/>
+      <c r="BC499" s="6"/>
+      <c r="BD499" s="6"/>
+      <c r="BE499" s="6"/>
+      <c r="BF499" s="6"/>
+      <c r="BG499" s="6"/>
+      <c r="BH499" s="6"/>
+      <c r="BI499" s="6"/>
+      <c r="BJ499" s="6"/>
+      <c r="BK499" s="6"/>
+      <c r="BL499" s="6"/>
+      <c r="BM499" s="6"/>
+      <c r="BN499" s="6"/>
+      <c r="BO499" s="6"/>
+      <c r="BP499" s="6"/>
+      <c r="BQ499" s="6"/>
+      <c r="BR499" s="6"/>
+      <c r="BS499" s="6"/>
+      <c r="BT499" s="6"/>
+      <c r="BU499" s="6"/>
+      <c r="BV499" s="6"/>
+      <c r="BW499" s="6"/>
+      <c r="BX499" s="6"/>
+      <c r="BY499" s="6"/>
+      <c r="BZ499" s="6"/>
+      <c r="CA499" s="6"/>
+      <c r="CB499" s="6"/>
+      <c r="CC499" s="6"/>
+      <c r="CD499" s="6"/>
+      <c r="CE499" s="6"/>
+      <c r="CF499" s="6"/>
+      <c r="CG499" s="6"/>
+      <c r="CH499" s="6"/>
+      <c r="CI499" s="6"/>
+      <c r="CJ499" s="6"/>
+      <c r="CK499" s="6"/>
+      <c r="CL499" s="6"/>
+      <c r="CM499" s="6"/>
+      <c r="CN499" s="6"/>
+      <c r="CO499" s="6"/>
+      <c r="CP499" s="6"/>
+      <c r="CQ499" s="6"/>
     </row>
     <row r="500" spans="2:95" ht="15">
       <c r="B500" s="4">
-        <v>3352102</v>
+        <v>3351310</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="D500" s="5">
         <v>0</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>1030</v>
+        <v>112</v>
       </c>
       <c r="F500" s="5" t="s">
         <v>10</v>
@@ -58988,18 +58996,18 @@
     </row>
     <row r="501" spans="2:95" ht="15">
       <c r="B501" s="4">
-        <v>3352411</v>
+        <v>3352102</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D501" s="4">
+        <v>1029</v>
+      </c>
+      <c r="D501" s="5">
         <v>0</v>
       </c>
       <c r="E501" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F501" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F501" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G501" s="5"/>
@@ -59008,9 +59016,7 @@
       </c>
       <c r="I501" s="5"/>
       <c r="J501" s="7"/>
-      <c r="K501" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K501" s="3"/>
       <c r="L501" s="6" t="s">
         <v>12</v>
       </c>
@@ -59100,13 +59106,13 @@
     </row>
     <row r="502" spans="2:95" ht="15">
       <c r="B502" s="4">
-        <v>3352412</v>
+        <v>3352411</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="D502" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E502" s="4" t="s">
         <v>72</v>
@@ -59114,9 +59120,7 @@
       <c r="F502" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G502" s="4" t="s">
-        <v>1033</v>
-      </c>
+      <c r="G502" s="5"/>
       <c r="H502" s="4" t="s">
         <v>727</v>
       </c>
@@ -59214,27 +59218,31 @@
     </row>
     <row r="503" spans="2:95" ht="15">
       <c r="B503" s="4">
-        <v>3353101</v>
+        <v>3352412</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D503" s="5">
-        <v>0</v>
+        <v>1032</v>
+      </c>
+      <c r="D503" s="4">
+        <v>2</v>
       </c>
       <c r="E503" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F503" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F503" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G503" s="5"/>
+      <c r="G503" s="4" t="s">
+        <v>1033</v>
+      </c>
       <c r="H503" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I503" s="5"/>
       <c r="J503" s="7"/>
-      <c r="K503" s="3"/>
+      <c r="K503" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="L503" s="6" t="s">
         <v>12</v>
       </c>
@@ -59324,16 +59332,16 @@
     </row>
     <row r="504" spans="2:95" ht="15">
       <c r="B504" s="4">
-        <v>3353105</v>
+        <v>3353101</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D504" s="4">
-        <v>1000</v>
+        <v>1034</v>
+      </c>
+      <c r="D504" s="5">
+        <v>0</v>
       </c>
       <c r="E504" s="4" t="s">
-        <v>77</v>
+        <v>523</v>
       </c>
       <c r="F504" s="5" t="s">
         <v>10</v>
@@ -59434,16 +59442,16 @@
     </row>
     <row r="505" spans="2:95" ht="15">
       <c r="B505" s="4">
-        <v>3353106</v>
+        <v>3353105</v>
       </c>
       <c r="C505" s="4" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D505" s="5">
-        <v>0</v>
+        <v>1035</v>
+      </c>
+      <c r="D505" s="4">
+        <v>1000</v>
       </c>
       <c r="E505" s="4" t="s">
-        <v>1037</v>
+        <v>77</v>
       </c>
       <c r="F505" s="5" t="s">
         <v>10</v>
@@ -59544,16 +59552,16 @@
     </row>
     <row r="506" spans="2:95" ht="15">
       <c r="B506" s="4">
-        <v>3353107</v>
+        <v>3353106</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D506" s="4">
-        <v>5</v>
+        <v>1036</v>
+      </c>
+      <c r="D506" s="5">
+        <v>0</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>77</v>
+        <v>1037</v>
       </c>
       <c r="F506" s="5" t="s">
         <v>10</v>
@@ -59564,9 +59572,7 @@
       </c>
       <c r="I506" s="5"/>
       <c r="J506" s="7"/>
-      <c r="K506" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="K506" s="3"/>
       <c r="L506" s="6" t="s">
         <v>12</v>
       </c>
@@ -59656,16 +59662,16 @@
     </row>
     <row r="507" spans="2:95" ht="15">
       <c r="B507" s="4">
-        <v>3353201</v>
+        <v>3353107</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D507" s="5">
-        <v>0</v>
+        <v>1038</v>
+      </c>
+      <c r="D507" s="4">
+        <v>5</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F507" s="5" t="s">
         <v>10</v>
@@ -59768,10 +59774,10 @@
     </row>
     <row r="508" spans="2:95" ht="15">
       <c r="B508" s="4">
-        <v>3353205</v>
+        <v>3353201</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="D508" s="5">
         <v>0</v>
@@ -59788,7 +59794,9 @@
       </c>
       <c r="I508" s="5"/>
       <c r="J508" s="7"/>
-      <c r="K508" s="3"/>
+      <c r="K508" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="L508" s="6" t="s">
         <v>12</v>
       </c>
@@ -59878,16 +59886,16 @@
     </row>
     <row r="509" spans="2:95" ht="15">
       <c r="B509" s="4">
-        <v>3353207</v>
+        <v>3353205</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D509" s="5">
         <v>0</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>1042</v>
+        <v>51</v>
       </c>
       <c r="F509" s="5" t="s">
         <v>10</v>
@@ -59898,9 +59906,7 @@
       </c>
       <c r="I509" s="5"/>
       <c r="J509" s="7"/>
-      <c r="K509" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K509" s="3"/>
       <c r="L509" s="6" t="s">
         <v>12</v>
       </c>
@@ -59990,16 +59996,16 @@
     </row>
     <row r="510" spans="2:95" ht="15">
       <c r="B510" s="4">
-        <v>3353211</v>
+        <v>3353207</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="D510" s="5">
         <v>0</v>
       </c>
       <c r="E510" s="4" t="s">
-        <v>51</v>
+        <v>1042</v>
       </c>
       <c r="F510" s="5" t="s">
         <v>10</v>
@@ -60102,10 +60108,10 @@
     </row>
     <row r="511" spans="2:95" ht="15">
       <c r="B511" s="4">
-        <v>3353213</v>
+        <v>3353211</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D511" s="5">
         <v>0</v>
@@ -60114,7 +60120,7 @@
         <v>51</v>
       </c>
       <c r="F511" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G511" s="5"/>
       <c r="H511" s="4" t="s">
@@ -60214,10 +60220,10 @@
     </row>
     <row r="512" spans="2:95" ht="15">
       <c r="B512" s="4">
-        <v>3353214</v>
+        <v>3353213</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D512" s="5">
         <v>0</v>
@@ -60226,7 +60232,7 @@
         <v>51</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G512" s="5"/>
       <c r="H512" s="4" t="s">
@@ -60326,16 +60332,16 @@
     </row>
     <row r="513" spans="2:95" ht="15">
       <c r="B513" s="4">
-        <v>3353216</v>
+        <v>3353214</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D513" s="4">
-        <v>4</v>
+        <v>1045</v>
+      </c>
+      <c r="D513" s="5">
+        <v>0</v>
       </c>
       <c r="E513" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F513" s="5" t="s">
         <v>10</v>
@@ -60438,16 +60444,16 @@
     </row>
     <row r="514" spans="2:95" ht="15">
       <c r="B514" s="4">
-        <v>3353217</v>
+        <v>3353216</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D514" s="5">
-        <v>0</v>
+        <v>1046</v>
+      </c>
+      <c r="D514" s="4">
+        <v>4</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F514" s="5" t="s">
         <v>10</v>
@@ -60550,10 +60556,10 @@
     </row>
     <row r="515" spans="2:95" ht="15">
       <c r="B515" s="4">
-        <v>3353309</v>
+        <v>3353217</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D515" s="5">
         <v>0</v>
@@ -60662,16 +60668,16 @@
     </row>
     <row r="516" spans="2:95" ht="15">
       <c r="B516" s="4">
-        <v>3353312</v>
+        <v>3353309</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D516" s="5">
         <v>0</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>1042</v>
+        <v>51</v>
       </c>
       <c r="F516" s="5" t="s">
         <v>10</v>
@@ -60774,16 +60780,16 @@
     </row>
     <row r="517" spans="2:95" ht="15">
       <c r="B517" s="4">
-        <v>3354110</v>
+        <v>3353312</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D517" s="5">
         <v>0</v>
       </c>
       <c r="E517" s="4" t="s">
-        <v>51</v>
+        <v>1042</v>
       </c>
       <c r="F517" s="5" t="s">
         <v>10</v>
@@ -60886,10 +60892,10 @@
     </row>
     <row r="518" spans="2:95" ht="15">
       <c r="B518" s="4">
-        <v>3354120</v>
+        <v>3354110</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D518" s="5">
         <v>0</v>
@@ -60998,10 +61004,10 @@
     </row>
     <row r="519" spans="2:95" ht="15">
       <c r="B519" s="4">
-        <v>3354121</v>
+        <v>3354120</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D519" s="5">
         <v>0</v>
@@ -61110,10 +61116,10 @@
     </row>
     <row r="520" spans="2:95" ht="15">
       <c r="B520" s="4">
-        <v>3354122</v>
+        <v>3354121</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D520" s="5">
         <v>0</v>
@@ -61222,10 +61228,10 @@
     </row>
     <row r="521" spans="2:95" ht="15">
       <c r="B521" s="4">
-        <v>3354123</v>
+        <v>3354122</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D521" s="5">
         <v>0</v>
@@ -61334,10 +61340,10 @@
     </row>
     <row r="522" spans="2:95" ht="15">
       <c r="B522" s="4">
-        <v>3354124</v>
+        <v>3354123</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D522" s="5">
         <v>0</v>
@@ -61446,10 +61452,10 @@
     </row>
     <row r="523" spans="2:95" ht="15">
       <c r="B523" s="4">
-        <v>3354134</v>
+        <v>3354124</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D523" s="5">
         <v>0</v>
@@ -61558,16 +61564,16 @@
     </row>
     <row r="524" spans="2:95" ht="15">
       <c r="B524" s="4">
-        <v>3354140</v>
+        <v>3354134</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D524" s="4">
+        <v>1056</v>
+      </c>
+      <c r="D524" s="5">
         <v>0</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F524" s="5" t="s">
         <v>10</v>
@@ -61670,13 +61676,13 @@
     </row>
     <row r="525" spans="2:95" ht="15">
       <c r="B525" s="4">
-        <v>3354220</v>
+        <v>3354140</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D525" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E525" s="4" t="s">
         <v>2</v>
@@ -61782,10 +61788,10 @@
     </row>
     <row r="526" spans="2:95" ht="15">
       <c r="B526" s="4">
-        <v>3354240</v>
+        <v>3354220</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D526" s="4">
         <v>10</v>
@@ -61894,16 +61900,16 @@
     </row>
     <row r="527" spans="2:95" ht="15">
       <c r="B527" s="4">
-        <v>4351138</v>
+        <v>3354240</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D527" s="5">
-        <v>0</v>
+        <v>1059</v>
+      </c>
+      <c r="D527" s="4">
+        <v>10</v>
       </c>
       <c r="E527" s="4" t="s">
-        <v>1061</v>
+        <v>2</v>
       </c>
       <c r="F527" s="5" t="s">
         <v>10</v>
@@ -61915,7 +61921,7 @@
       <c r="I527" s="5"/>
       <c r="J527" s="7"/>
       <c r="K527" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L527" s="6" t="s">
         <v>12</v>
@@ -62006,16 +62012,16 @@
     </row>
     <row r="528" spans="2:95" ht="15">
       <c r="B528" s="4">
-        <v>4351139</v>
+        <v>4351138</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D528" s="4">
+        <v>1060</v>
+      </c>
+      <c r="D528" s="5">
         <v>0</v>
       </c>
       <c r="E528" s="4" t="s">
-        <v>1025</v>
+        <v>1061</v>
       </c>
       <c r="F528" s="5" t="s">
         <v>10</v>
@@ -62118,13 +62124,13 @@
     </row>
     <row r="529" spans="2:95" ht="15">
       <c r="B529" s="4">
-        <v>4351143</v>
+        <v>4351139</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D529" s="4">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E529" s="4" t="s">
         <v>1025</v>
@@ -62229,23 +62235,23 @@
       <c r="CQ529" s="3"/>
     </row>
     <row r="530" spans="2:95" ht="15">
-      <c r="B530" s="5">
-        <v>4351144</v>
-      </c>
-      <c r="C530" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D530" s="5">
-        <v>30</v>
-      </c>
-      <c r="E530" s="5" t="s">
+      <c r="B530" s="4">
+        <v>4351143</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D530" s="4">
+        <v>48</v>
+      </c>
+      <c r="E530" s="4" t="s">
         <v>1025</v>
       </c>
       <c r="F530" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G530" s="5"/>
-      <c r="H530" s="5" t="s">
+      <c r="H530" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I530" s="5"/>
@@ -62256,96 +62262,96 @@
       <c r="L530" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M530" s="6"/>
-      <c r="N530" s="6"/>
-      <c r="O530" s="6"/>
-      <c r="P530" s="6"/>
-      <c r="Q530" s="6"/>
-      <c r="R530" s="6"/>
-      <c r="S530" s="6"/>
-      <c r="T530" s="6"/>
-      <c r="U530" s="6"/>
-      <c r="V530" s="6"/>
-      <c r="W530" s="6"/>
-      <c r="X530" s="6"/>
-      <c r="Y530" s="6"/>
-      <c r="Z530" s="6"/>
-      <c r="AA530" s="6"/>
-      <c r="AB530" s="6"/>
-      <c r="AC530" s="6"/>
-      <c r="AD530" s="6"/>
-      <c r="AE530" s="6"/>
-      <c r="AF530" s="6"/>
-      <c r="AG530" s="6"/>
-      <c r="AH530" s="6"/>
-      <c r="AI530" s="6"/>
-      <c r="AJ530" s="6"/>
-      <c r="AK530" s="6"/>
-      <c r="AL530" s="6"/>
-      <c r="AM530" s="6"/>
-      <c r="AN530" s="6"/>
-      <c r="AO530" s="6"/>
-      <c r="AP530" s="6"/>
-      <c r="AQ530" s="6"/>
-      <c r="AR530" s="6"/>
-      <c r="AS530" s="6"/>
-      <c r="AT530" s="6"/>
-      <c r="AU530" s="6"/>
-      <c r="AV530" s="6"/>
-      <c r="AW530" s="6"/>
-      <c r="AX530" s="6"/>
-      <c r="AY530" s="6"/>
-      <c r="AZ530" s="6"/>
-      <c r="BA530" s="6"/>
-      <c r="BB530" s="6"/>
-      <c r="BC530" s="6"/>
-      <c r="BD530" s="6"/>
-      <c r="BE530" s="6"/>
-      <c r="BF530" s="6"/>
-      <c r="BG530" s="6"/>
-      <c r="BH530" s="6"/>
-      <c r="BI530" s="6"/>
-      <c r="BJ530" s="6"/>
-      <c r="BK530" s="6"/>
-      <c r="BL530" s="6"/>
-      <c r="BM530" s="6"/>
-      <c r="BN530" s="6"/>
-      <c r="BO530" s="6"/>
-      <c r="BP530" s="6"/>
-      <c r="BQ530" s="6"/>
-      <c r="BR530" s="6"/>
-      <c r="BS530" s="6"/>
-      <c r="BT530" s="6"/>
-      <c r="BU530" s="6"/>
-      <c r="BV530" s="6"/>
-      <c r="BW530" s="6"/>
-      <c r="BX530" s="6"/>
-      <c r="BY530" s="6"/>
-      <c r="BZ530" s="6"/>
-      <c r="CA530" s="6"/>
-      <c r="CB530" s="6"/>
-      <c r="CC530" s="6"/>
-      <c r="CD530" s="6"/>
-      <c r="CE530" s="6"/>
-      <c r="CF530" s="6"/>
-      <c r="CG530" s="6"/>
-      <c r="CH530" s="6"/>
-      <c r="CI530" s="6"/>
-      <c r="CJ530" s="6"/>
-      <c r="CK530" s="6"/>
-      <c r="CL530" s="6"/>
-      <c r="CM530" s="6"/>
-      <c r="CN530" s="6"/>
-      <c r="CO530" s="6"/>
-      <c r="CP530" s="6"/>
-      <c r="CQ530" s="6"/>
+      <c r="M530" s="3"/>
+      <c r="N530" s="3"/>
+      <c r="O530" s="3"/>
+      <c r="P530" s="3"/>
+      <c r="Q530" s="3"/>
+      <c r="R530" s="3"/>
+      <c r="S530" s="3"/>
+      <c r="T530" s="3"/>
+      <c r="U530" s="3"/>
+      <c r="V530" s="3"/>
+      <c r="W530" s="3"/>
+      <c r="X530" s="3"/>
+      <c r="Y530" s="3"/>
+      <c r="Z530" s="3"/>
+      <c r="AA530" s="3"/>
+      <c r="AB530" s="3"/>
+      <c r="AC530" s="3"/>
+      <c r="AD530" s="3"/>
+      <c r="AE530" s="3"/>
+      <c r="AF530" s="3"/>
+      <c r="AG530" s="3"/>
+      <c r="AH530" s="3"/>
+      <c r="AI530" s="3"/>
+      <c r="AJ530" s="3"/>
+      <c r="AK530" s="3"/>
+      <c r="AL530" s="3"/>
+      <c r="AM530" s="3"/>
+      <c r="AN530" s="3"/>
+      <c r="AO530" s="3"/>
+      <c r="AP530" s="3"/>
+      <c r="AQ530" s="3"/>
+      <c r="AR530" s="3"/>
+      <c r="AS530" s="3"/>
+      <c r="AT530" s="3"/>
+      <c r="AU530" s="3"/>
+      <c r="AV530" s="3"/>
+      <c r="AW530" s="3"/>
+      <c r="AX530" s="3"/>
+      <c r="AY530" s="3"/>
+      <c r="AZ530" s="3"/>
+      <c r="BA530" s="3"/>
+      <c r="BB530" s="3"/>
+      <c r="BC530" s="3"/>
+      <c r="BD530" s="3"/>
+      <c r="BE530" s="3"/>
+      <c r="BF530" s="3"/>
+      <c r="BG530" s="3"/>
+      <c r="BH530" s="3"/>
+      <c r="BI530" s="3"/>
+      <c r="BJ530" s="3"/>
+      <c r="BK530" s="3"/>
+      <c r="BL530" s="3"/>
+      <c r="BM530" s="3"/>
+      <c r="BN530" s="3"/>
+      <c r="BO530" s="3"/>
+      <c r="BP530" s="3"/>
+      <c r="BQ530" s="3"/>
+      <c r="BR530" s="3"/>
+      <c r="BS530" s="3"/>
+      <c r="BT530" s="3"/>
+      <c r="BU530" s="3"/>
+      <c r="BV530" s="3"/>
+      <c r="BW530" s="3"/>
+      <c r="BX530" s="3"/>
+      <c r="BY530" s="3"/>
+      <c r="BZ530" s="3"/>
+      <c r="CA530" s="3"/>
+      <c r="CB530" s="3"/>
+      <c r="CC530" s="3"/>
+      <c r="CD530" s="3"/>
+      <c r="CE530" s="3"/>
+      <c r="CF530" s="3"/>
+      <c r="CG530" s="3"/>
+      <c r="CH530" s="3"/>
+      <c r="CI530" s="3"/>
+      <c r="CJ530" s="3"/>
+      <c r="CK530" s="3"/>
+      <c r="CL530" s="3"/>
+      <c r="CM530" s="3"/>
+      <c r="CN530" s="3"/>
+      <c r="CO530" s="3"/>
+      <c r="CP530" s="3"/>
+      <c r="CQ530" s="3"/>
     </row>
     <row r="531" spans="2:95" ht="15">
       <c r="B531" s="5">
-        <v>4351145</v>
+        <v>4351144</v>
       </c>
       <c r="C531" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D531" s="5">
         <v>30</v>
@@ -62453,23 +62459,23 @@
       <c r="CQ531" s="6"/>
     </row>
     <row r="532" spans="2:95" ht="15">
-      <c r="B532" s="4">
-        <v>4352002</v>
-      </c>
-      <c r="C532" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D532" s="4">
-        <v>100</v>
-      </c>
-      <c r="E532" s="4" t="s">
-        <v>1065</v>
+      <c r="B532" s="5">
+        <v>4351145</v>
+      </c>
+      <c r="C532" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D532" s="5">
+        <v>30</v>
+      </c>
+      <c r="E532" s="5" t="s">
+        <v>1025</v>
       </c>
       <c r="F532" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G532" s="5"/>
-      <c r="H532" s="4" t="s">
+      <c r="H532" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I532" s="5"/>
@@ -62480,102 +62486,102 @@
       <c r="L532" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M532" s="3"/>
-      <c r="N532" s="3"/>
-      <c r="O532" s="3"/>
-      <c r="P532" s="3"/>
-      <c r="Q532" s="3"/>
-      <c r="R532" s="3"/>
-      <c r="S532" s="3"/>
-      <c r="T532" s="3"/>
-      <c r="U532" s="3"/>
-      <c r="V532" s="3"/>
-      <c r="W532" s="3"/>
-      <c r="X532" s="3"/>
-      <c r="Y532" s="3"/>
-      <c r="Z532" s="3"/>
-      <c r="AA532" s="3"/>
-      <c r="AB532" s="3"/>
-      <c r="AC532" s="3"/>
-      <c r="AD532" s="3"/>
-      <c r="AE532" s="3"/>
-      <c r="AF532" s="3"/>
-      <c r="AG532" s="3"/>
-      <c r="AH532" s="3"/>
-      <c r="AI532" s="3"/>
-      <c r="AJ532" s="3"/>
-      <c r="AK532" s="3"/>
-      <c r="AL532" s="3"/>
-      <c r="AM532" s="3"/>
-      <c r="AN532" s="3"/>
-      <c r="AO532" s="3"/>
-      <c r="AP532" s="3"/>
-      <c r="AQ532" s="3"/>
-      <c r="AR532" s="3"/>
-      <c r="AS532" s="3"/>
-      <c r="AT532" s="3"/>
-      <c r="AU532" s="3"/>
-      <c r="AV532" s="3"/>
-      <c r="AW532" s="3"/>
-      <c r="AX532" s="3"/>
-      <c r="AY532" s="3"/>
-      <c r="AZ532" s="3"/>
-      <c r="BA532" s="3"/>
-      <c r="BB532" s="3"/>
-      <c r="BC532" s="3"/>
-      <c r="BD532" s="3"/>
-      <c r="BE532" s="3"/>
-      <c r="BF532" s="3"/>
-      <c r="BG532" s="3"/>
-      <c r="BH532" s="3"/>
-      <c r="BI532" s="3"/>
-      <c r="BJ532" s="3"/>
-      <c r="BK532" s="3"/>
-      <c r="BL532" s="3"/>
-      <c r="BM532" s="3"/>
-      <c r="BN532" s="3"/>
-      <c r="BO532" s="3"/>
-      <c r="BP532" s="3"/>
-      <c r="BQ532" s="3"/>
-      <c r="BR532" s="3"/>
-      <c r="BS532" s="3"/>
-      <c r="BT532" s="3"/>
-      <c r="BU532" s="3"/>
-      <c r="BV532" s="3"/>
-      <c r="BW532" s="3"/>
-      <c r="BX532" s="3"/>
-      <c r="BY532" s="3"/>
-      <c r="BZ532" s="3"/>
-      <c r="CA532" s="3"/>
-      <c r="CB532" s="3"/>
-      <c r="CC532" s="3"/>
-      <c r="CD532" s="3"/>
-      <c r="CE532" s="3"/>
-      <c r="CF532" s="3"/>
-      <c r="CG532" s="3"/>
-      <c r="CH532" s="3"/>
-      <c r="CI532" s="3"/>
-      <c r="CJ532" s="3"/>
-      <c r="CK532" s="3"/>
-      <c r="CL532" s="3"/>
-      <c r="CM532" s="3"/>
-      <c r="CN532" s="3"/>
-      <c r="CO532" s="3"/>
-      <c r="CP532" s="3"/>
-      <c r="CQ532" s="3"/>
+      <c r="M532" s="6"/>
+      <c r="N532" s="6"/>
+      <c r="O532" s="6"/>
+      <c r="P532" s="6"/>
+      <c r="Q532" s="6"/>
+      <c r="R532" s="6"/>
+      <c r="S532" s="6"/>
+      <c r="T532" s="6"/>
+      <c r="U532" s="6"/>
+      <c r="V532" s="6"/>
+      <c r="W532" s="6"/>
+      <c r="X532" s="6"/>
+      <c r="Y532" s="6"/>
+      <c r="Z532" s="6"/>
+      <c r="AA532" s="6"/>
+      <c r="AB532" s="6"/>
+      <c r="AC532" s="6"/>
+      <c r="AD532" s="6"/>
+      <c r="AE532" s="6"/>
+      <c r="AF532" s="6"/>
+      <c r="AG532" s="6"/>
+      <c r="AH532" s="6"/>
+      <c r="AI532" s="6"/>
+      <c r="AJ532" s="6"/>
+      <c r="AK532" s="6"/>
+      <c r="AL532" s="6"/>
+      <c r="AM532" s="6"/>
+      <c r="AN532" s="6"/>
+      <c r="AO532" s="6"/>
+      <c r="AP532" s="6"/>
+      <c r="AQ532" s="6"/>
+      <c r="AR532" s="6"/>
+      <c r="AS532" s="6"/>
+      <c r="AT532" s="6"/>
+      <c r="AU532" s="6"/>
+      <c r="AV532" s="6"/>
+      <c r="AW532" s="6"/>
+      <c r="AX532" s="6"/>
+      <c r="AY532" s="6"/>
+      <c r="AZ532" s="6"/>
+      <c r="BA532" s="6"/>
+      <c r="BB532" s="6"/>
+      <c r="BC532" s="6"/>
+      <c r="BD532" s="6"/>
+      <c r="BE532" s="6"/>
+      <c r="BF532" s="6"/>
+      <c r="BG532" s="6"/>
+      <c r="BH532" s="6"/>
+      <c r="BI532" s="6"/>
+      <c r="BJ532" s="6"/>
+      <c r="BK532" s="6"/>
+      <c r="BL532" s="6"/>
+      <c r="BM532" s="6"/>
+      <c r="BN532" s="6"/>
+      <c r="BO532" s="6"/>
+      <c r="BP532" s="6"/>
+      <c r="BQ532" s="6"/>
+      <c r="BR532" s="6"/>
+      <c r="BS532" s="6"/>
+      <c r="BT532" s="6"/>
+      <c r="BU532" s="6"/>
+      <c r="BV532" s="6"/>
+      <c r="BW532" s="6"/>
+      <c r="BX532" s="6"/>
+      <c r="BY532" s="6"/>
+      <c r="BZ532" s="6"/>
+      <c r="CA532" s="6"/>
+      <c r="CB532" s="6"/>
+      <c r="CC532" s="6"/>
+      <c r="CD532" s="6"/>
+      <c r="CE532" s="6"/>
+      <c r="CF532" s="6"/>
+      <c r="CG532" s="6"/>
+      <c r="CH532" s="6"/>
+      <c r="CI532" s="6"/>
+      <c r="CJ532" s="6"/>
+      <c r="CK532" s="6"/>
+      <c r="CL532" s="6"/>
+      <c r="CM532" s="6"/>
+      <c r="CN532" s="6"/>
+      <c r="CO532" s="6"/>
+      <c r="CP532" s="6"/>
+      <c r="CQ532" s="6"/>
     </row>
     <row r="533" spans="2:95" ht="15">
       <c r="B533" s="4">
-        <v>4352101</v>
+        <v>4352002</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D533" s="4">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>1025</v>
+        <v>1065</v>
       </c>
       <c r="F533" s="5" t="s">
         <v>10</v>
@@ -62678,16 +62684,16 @@
     </row>
     <row r="534" spans="2:95" ht="15">
       <c r="B534" s="4">
-        <v>4352105</v>
+        <v>4352101</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D534" s="5">
-        <v>0</v>
+        <v>1066</v>
+      </c>
+      <c r="D534" s="4">
+        <v>48</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>1068</v>
+        <v>1025</v>
       </c>
       <c r="F534" s="5" t="s">
         <v>10</v>
@@ -62699,7 +62705,7 @@
       <c r="I534" s="5"/>
       <c r="J534" s="7"/>
       <c r="K534" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L534" s="6" t="s">
         <v>12</v>
@@ -62790,16 +62796,16 @@
     </row>
     <row r="535" spans="2:95" ht="15">
       <c r="B535" s="4">
-        <v>4352106</v>
+        <v>4352105</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D535" s="4">
+        <v>1067</v>
+      </c>
+      <c r="D535" s="5">
         <v>0</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>2</v>
+        <v>1068</v>
       </c>
       <c r="F535" s="5" t="s">
         <v>10</v>
@@ -62902,16 +62908,16 @@
     </row>
     <row r="536" spans="2:95" ht="15">
       <c r="B536" s="4">
-        <v>4352107</v>
+        <v>4352106</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D536" s="4">
         <v>0</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>1071</v>
+        <v>2</v>
       </c>
       <c r="F536" s="5" t="s">
         <v>10</v>
@@ -63013,17 +63019,17 @@
       <c r="CQ536" s="3"/>
     </row>
     <row r="537" spans="2:95" ht="15">
-      <c r="B537" s="4" t="s">
-        <v>870</v>
+      <c r="B537" s="4">
+        <v>4352107</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>871</v>
+        <v>1070</v>
       </c>
       <c r="D537" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E537" s="4" t="s">
-        <v>501</v>
+        <v>1071</v>
       </c>
       <c r="F537" s="5" t="s">
         <v>10</v>
@@ -63126,30 +63132,28 @@
     </row>
     <row r="538" spans="2:95" ht="15">
       <c r="B538" s="4" t="s">
-        <v>1072</v>
+        <v>870</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>813</v>
+        <v>871</v>
       </c>
       <c r="D538" s="4">
         <v>1</v>
       </c>
       <c r="E538" s="4" t="s">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="F538" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G538" s="4" t="s">
-        <v>1073</v>
-      </c>
+      <c r="G538" s="5"/>
       <c r="H538" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I538" s="5"/>
       <c r="J538" s="7"/>
       <c r="K538" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L538" s="6" t="s">
         <v>12</v>
@@ -63240,28 +63244,30 @@
     </row>
     <row r="539" spans="2:95" ht="15">
       <c r="B539" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>263</v>
+        <v>813</v>
       </c>
       <c r="D539" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F539" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G539" s="5"/>
+      <c r="G539" s="4" t="s">
+        <v>1073</v>
+      </c>
       <c r="H539" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I539" s="5"/>
       <c r="J539" s="7"/>
       <c r="K539" s="6" t="s">
-        <v>1094</v>
+        <v>17</v>
       </c>
       <c r="L539" s="6" t="s">
         <v>12</v>
@@ -63352,13 +63358,13 @@
     </row>
     <row r="540" spans="2:95" ht="15">
       <c r="B540" s="4" t="s">
-        <v>27</v>
+        <v>1074</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="D540" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E540" s="4" t="s">
         <v>2</v>
@@ -63373,7 +63379,7 @@
       <c r="I540" s="5"/>
       <c r="J540" s="7"/>
       <c r="K540" s="6" t="s">
-        <v>17</v>
+        <v>1094</v>
       </c>
       <c r="L540" s="6" t="s">
         <v>12</v>
@@ -63463,29 +63469,29 @@
       <c r="CQ540" s="3"/>
     </row>
     <row r="541" spans="2:95" ht="15">
-      <c r="B541" s="4">
-        <v>4352001</v>
+      <c r="B541" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1075</v>
+        <v>28</v>
       </c>
       <c r="D541" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>1065</v>
+        <v>2</v>
       </c>
       <c r="F541" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G541" s="5"/>
       <c r="H541" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I541" s="5"/>
       <c r="J541" s="7"/>
       <c r="K541" s="6" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="L541" s="6" t="s">
         <v>12</v>
@@ -63575,29 +63581,29 @@
       <c r="CQ541" s="3"/>
     </row>
     <row r="542" spans="2:95" ht="15">
-      <c r="B542" s="4" t="s">
-        <v>1076</v>
+      <c r="B542" s="4">
+        <v>4352001</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>940</v>
+        <v>1075</v>
       </c>
       <c r="D542" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E542" s="4" t="s">
-        <v>2</v>
+        <v>1065</v>
       </c>
       <c r="F542" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="5"/>
       <c r="H542" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I542" s="5"/>
       <c r="J542" s="7"/>
       <c r="K542" s="6" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="L542" s="6" t="s">
         <v>12</v>
@@ -63687,14 +63693,14 @@
       <c r="CQ542" s="3"/>
     </row>
     <row r="543" spans="2:95" ht="15">
-      <c r="B543" s="4">
-        <v>3354134</v>
+      <c r="B543" s="4" t="s">
+        <v>1076</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1056</v>
+        <v>940</v>
       </c>
       <c r="D543" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E543" s="4" t="s">
         <v>2</v>
@@ -63704,12 +63710,12 @@
       </c>
       <c r="G543" s="5"/>
       <c r="H543" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I543" s="5"/>
       <c r="J543" s="7"/>
       <c r="K543" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L543" s="6" t="s">
         <v>12</v>
@@ -63799,24 +63805,24 @@
       <c r="CQ543" s="3"/>
     </row>
     <row r="544" spans="2:95" ht="15">
-      <c r="B544" s="4" t="s">
-        <v>1077</v>
+      <c r="B544" s="4">
+        <v>3354134</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="D544" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E544" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F544" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G544" s="5"/>
       <c r="H544" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I544" s="5"/>
       <c r="J544" s="7"/>
@@ -63911,11 +63917,11 @@
       <c r="CQ544" s="3"/>
     </row>
     <row r="545" spans="2:95" ht="15">
-      <c r="B545" s="4">
-        <v>3353217</v>
+      <c r="B545" s="4" t="s">
+        <v>1077</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>1047</v>
+        <v>1078</v>
       </c>
       <c r="D545" s="4">
         <v>1</v>
@@ -63924,11 +63930,11 @@
         <v>2</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G545" s="5"/>
       <c r="H545" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I545" s="5"/>
       <c r="J545" s="7"/>
@@ -64024,10 +64030,10 @@
     </row>
     <row r="546" spans="2:95" ht="15">
       <c r="B546" s="4">
-        <v>3353213</v>
+        <v>3353217</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D546" s="4">
         <v>1</v>
@@ -64040,7 +64046,7 @@
       </c>
       <c r="G546" s="5"/>
       <c r="H546" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I546" s="5"/>
       <c r="J546" s="7"/>
@@ -64135,14 +64141,14 @@
       <c r="CQ546" s="3"/>
     </row>
     <row r="547" spans="2:95" ht="15">
-      <c r="B547" s="4" t="s">
-        <v>124</v>
+      <c r="B547" s="4">
+        <v>3353213</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>125</v>
+        <v>1044</v>
       </c>
       <c r="D547" s="4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E547" s="4" t="s">
         <v>2</v>
@@ -64157,7 +64163,7 @@
       <c r="I547" s="5"/>
       <c r="J547" s="7"/>
       <c r="K547" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L547" s="6" t="s">
         <v>12</v>
@@ -64248,13 +64254,13 @@
     </row>
     <row r="548" spans="2:95" ht="15">
       <c r="B548" s="4" t="s">
-        <v>1079</v>
+        <v>124</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>1080</v>
+        <v>125</v>
       </c>
       <c r="D548" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E548" s="4" t="s">
         <v>2</v>
@@ -64269,7 +64275,7 @@
       <c r="I548" s="5"/>
       <c r="J548" s="7"/>
       <c r="K548" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L548" s="6" t="s">
         <v>12</v>
@@ -64360,30 +64366,28 @@
     </row>
     <row r="549" spans="2:95" ht="15">
       <c r="B549" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>956</v>
+        <v>1080</v>
       </c>
       <c r="D549" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="F549" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G549" s="4" t="s">
-        <v>1082</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G549" s="5"/>
       <c r="H549" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I549" s="5"/>
       <c r="J549" s="7"/>
       <c r="K549" s="6" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="L549" s="6" t="s">
         <v>12</v>
@@ -64474,22 +64478,22 @@
     </row>
     <row r="550" spans="2:95" ht="15">
       <c r="B550" s="4" t="s">
-        <v>815</v>
+        <v>1081</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>816</v>
+        <v>956</v>
       </c>
       <c r="D550" s="4">
         <v>1</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>2</v>
+        <v>736</v>
       </c>
       <c r="F550" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G550" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H550" s="4" t="s">
         <v>11</v>
@@ -64497,7 +64501,7 @@
       <c r="I550" s="5"/>
       <c r="J550" s="7"/>
       <c r="K550" s="6" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L550" s="6" t="s">
         <v>12</v>
@@ -64587,24 +64591,26 @@
       <c r="CQ550" s="3"/>
     </row>
     <row r="551" spans="2:95" ht="15">
-      <c r="B551" s="4">
-        <v>3350036</v>
+      <c r="B551" s="4" t="s">
+        <v>815</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>1084</v>
+        <v>816</v>
       </c>
       <c r="D551" s="4">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>526</v>
+        <v>2</v>
       </c>
       <c r="F551" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G551" s="5"/>
+      <c r="G551" s="4" t="s">
+        <v>1083</v>
+      </c>
       <c r="H551" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I551" s="5"/>
       <c r="J551" s="7"/>
@@ -64699,29 +64705,29 @@
       <c r="CQ551" s="3"/>
     </row>
     <row r="552" spans="2:95" ht="15">
-      <c r="B552" s="4" t="s">
-        <v>1085</v>
+      <c r="B552" s="4">
+        <v>3350036</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D552" s="4">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="F552" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G552" s="5"/>
       <c r="H552" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I552" s="5"/>
       <c r="J552" s="7"/>
       <c r="K552" s="6" t="s">
-        <v>443</v>
+        <v>127</v>
       </c>
       <c r="L552" s="6" t="s">
         <v>12</v>
@@ -64812,10 +64818,10 @@
     </row>
     <row r="553" spans="2:95" ht="15">
       <c r="B553" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D553" s="4">
         <v>1</v>
@@ -64828,12 +64834,12 @@
       </c>
       <c r="G553" s="5"/>
       <c r="H553" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I553" s="5"/>
       <c r="J553" s="7"/>
       <c r="K553" s="6" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="L553" s="6" t="s">
         <v>12</v>
@@ -64922,8 +64928,120 @@
       <c r="CP553" s="3"/>
       <c r="CQ553" s="3"/>
     </row>
+    <row r="554" spans="2:95" ht="15">
+      <c r="B554" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D554" s="4">
+        <v>1</v>
+      </c>
+      <c r="E554" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G554" s="5"/>
+      <c r="H554" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I554" s="5"/>
+      <c r="J554" s="7"/>
+      <c r="K554" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L554" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M554" s="3"/>
+      <c r="N554" s="3"/>
+      <c r="O554" s="3"/>
+      <c r="P554" s="3"/>
+      <c r="Q554" s="3"/>
+      <c r="R554" s="3"/>
+      <c r="S554" s="3"/>
+      <c r="T554" s="3"/>
+      <c r="U554" s="3"/>
+      <c r="V554" s="3"/>
+      <c r="W554" s="3"/>
+      <c r="X554" s="3"/>
+      <c r="Y554" s="3"/>
+      <c r="Z554" s="3"/>
+      <c r="AA554" s="3"/>
+      <c r="AB554" s="3"/>
+      <c r="AC554" s="3"/>
+      <c r="AD554" s="3"/>
+      <c r="AE554" s="3"/>
+      <c r="AF554" s="3"/>
+      <c r="AG554" s="3"/>
+      <c r="AH554" s="3"/>
+      <c r="AI554" s="3"/>
+      <c r="AJ554" s="3"/>
+      <c r="AK554" s="3"/>
+      <c r="AL554" s="3"/>
+      <c r="AM554" s="3"/>
+      <c r="AN554" s="3"/>
+      <c r="AO554" s="3"/>
+      <c r="AP554" s="3"/>
+      <c r="AQ554" s="3"/>
+      <c r="AR554" s="3"/>
+      <c r="AS554" s="3"/>
+      <c r="AT554" s="3"/>
+      <c r="AU554" s="3"/>
+      <c r="AV554" s="3"/>
+      <c r="AW554" s="3"/>
+      <c r="AX554" s="3"/>
+      <c r="AY554" s="3"/>
+      <c r="AZ554" s="3"/>
+      <c r="BA554" s="3"/>
+      <c r="BB554" s="3"/>
+      <c r="BC554" s="3"/>
+      <c r="BD554" s="3"/>
+      <c r="BE554" s="3"/>
+      <c r="BF554" s="3"/>
+      <c r="BG554" s="3"/>
+      <c r="BH554" s="3"/>
+      <c r="BI554" s="3"/>
+      <c r="BJ554" s="3"/>
+      <c r="BK554" s="3"/>
+      <c r="BL554" s="3"/>
+      <c r="BM554" s="3"/>
+      <c r="BN554" s="3"/>
+      <c r="BO554" s="3"/>
+      <c r="BP554" s="3"/>
+      <c r="BQ554" s="3"/>
+      <c r="BR554" s="3"/>
+      <c r="BS554" s="3"/>
+      <c r="BT554" s="3"/>
+      <c r="BU554" s="3"/>
+      <c r="BV554" s="3"/>
+      <c r="BW554" s="3"/>
+      <c r="BX554" s="3"/>
+      <c r="BY554" s="3"/>
+      <c r="BZ554" s="3"/>
+      <c r="CA554" s="3"/>
+      <c r="CB554" s="3"/>
+      <c r="CC554" s="3"/>
+      <c r="CD554" s="3"/>
+      <c r="CE554" s="3"/>
+      <c r="CF554" s="3"/>
+      <c r="CG554" s="3"/>
+      <c r="CH554" s="3"/>
+      <c r="CI554" s="3"/>
+      <c r="CJ554" s="3"/>
+      <c r="CK554" s="3"/>
+      <c r="CL554" s="3"/>
+      <c r="CM554" s="3"/>
+      <c r="CN554" s="3"/>
+      <c r="CO554" s="3"/>
+      <c r="CP554" s="3"/>
+      <c r="CQ554" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CQ553" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CQ554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/modele/stocker_temp.xlsx
+++ b/modele/stocker_temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POKORSSE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED15A3B-40D6-443B-9F3A-6ECBDDD5E44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED292113-5FA2-4CC4-AD68-EC16C8530F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$554</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$560</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="1099">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3520" uniqueCount="1111">
   <si>
     <t>Désignation:</t>
   </si>
@@ -3331,6 +3331,42 @@
   </si>
   <si>
     <t>SCT=E390330</t>
+  </si>
+  <si>
+    <t>E311500</t>
+  </si>
+  <si>
+    <t>E311501</t>
+  </si>
+  <si>
+    <t>E311502</t>
+  </si>
+  <si>
+    <t>E311503</t>
+  </si>
+  <si>
+    <t>E311504</t>
+  </si>
+  <si>
+    <t>E311505</t>
+  </si>
+  <si>
+    <t>CHAUSSURE DE SECURITE UPOWER - JACKSON - TAILLE : 40</t>
+  </si>
+  <si>
+    <t>CHAUSSURE DE SECURITE UPOWER - JACKSON - TAILLE : 41</t>
+  </si>
+  <si>
+    <t>CHAUSSURE DE SECURITE UPOWER - JACKSON - TAILLE : 42</t>
+  </si>
+  <si>
+    <t>CHAUSSURE DE SECURITE UPOWER - JACKSON - TAILLE : 43</t>
+  </si>
+  <si>
+    <t>CHAUSSURE DE SECURITE UPOWER - JACKSON - TAILLE : 44</t>
+  </si>
+  <si>
+    <t>CHAUSSURE DE SECURITE UPOWER - JACKSON - TAILLE : 45</t>
   </si>
 </sst>
 </file>
@@ -3631,10 +3667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ554"/>
+  <dimension ref="A1:CQ560"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" workbookViewId="0">
-      <selection activeCell="M497" sqref="M497"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="N402" sqref="N402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -47699,683 +47735,677 @@
       <c r="CQ398" s="3"/>
     </row>
     <row r="399" spans="2:95" ht="15">
-      <c r="B399" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>843</v>
+      <c r="B399" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>1105</v>
       </c>
       <c r="D399" s="5">
-        <v>0</v>
-      </c>
-      <c r="E399" s="4" t="s">
-        <v>161</v>
+        <v>1</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F399" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G399" s="5"/>
-      <c r="H399" s="4" t="s">
+      <c r="H399" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I399" s="5"/>
       <c r="J399" s="7"/>
-      <c r="K399" s="3"/>
+      <c r="K399" s="6"/>
       <c r="L399" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M399" s="3"/>
-      <c r="N399" s="3"/>
-      <c r="O399" s="3"/>
-      <c r="P399" s="3"/>
-      <c r="Q399" s="3"/>
-      <c r="R399" s="3"/>
-      <c r="S399" s="3"/>
-      <c r="T399" s="3"/>
-      <c r="U399" s="3"/>
-      <c r="V399" s="3"/>
-      <c r="W399" s="3"/>
-      <c r="X399" s="3"/>
-      <c r="Y399" s="3"/>
-      <c r="Z399" s="3"/>
-      <c r="AA399" s="3"/>
-      <c r="AB399" s="3"/>
-      <c r="AC399" s="3"/>
-      <c r="AD399" s="3"/>
-      <c r="AE399" s="3"/>
-      <c r="AF399" s="3"/>
-      <c r="AG399" s="3"/>
-      <c r="AH399" s="3"/>
-      <c r="AI399" s="3"/>
-      <c r="AJ399" s="3"/>
-      <c r="AK399" s="3"/>
-      <c r="AL399" s="3"/>
-      <c r="AM399" s="3"/>
-      <c r="AN399" s="3"/>
-      <c r="AO399" s="3"/>
-      <c r="AP399" s="3"/>
-      <c r="AQ399" s="3"/>
-      <c r="AR399" s="3"/>
-      <c r="AS399" s="3"/>
-      <c r="AT399" s="3"/>
-      <c r="AU399" s="3"/>
-      <c r="AV399" s="3"/>
-      <c r="AW399" s="3"/>
-      <c r="AX399" s="3"/>
-      <c r="AY399" s="3"/>
-      <c r="AZ399" s="3"/>
-      <c r="BA399" s="3"/>
-      <c r="BB399" s="3"/>
-      <c r="BC399" s="3"/>
-      <c r="BD399" s="3"/>
-      <c r="BE399" s="3"/>
-      <c r="BF399" s="3"/>
-      <c r="BG399" s="3"/>
-      <c r="BH399" s="3"/>
-      <c r="BI399" s="3"/>
-      <c r="BJ399" s="3"/>
-      <c r="BK399" s="3"/>
-      <c r="BL399" s="3"/>
-      <c r="BM399" s="3"/>
-      <c r="BN399" s="3"/>
-      <c r="BO399" s="3"/>
-      <c r="BP399" s="3"/>
-      <c r="BQ399" s="3"/>
-      <c r="BR399" s="3"/>
-      <c r="BS399" s="3"/>
-      <c r="BT399" s="3"/>
-      <c r="BU399" s="3"/>
-      <c r="BV399" s="3"/>
-      <c r="BW399" s="3"/>
-      <c r="BX399" s="3"/>
-      <c r="BY399" s="3"/>
-      <c r="BZ399" s="3"/>
-      <c r="CA399" s="3"/>
-      <c r="CB399" s="3"/>
-      <c r="CC399" s="3"/>
-      <c r="CD399" s="3"/>
-      <c r="CE399" s="3"/>
-      <c r="CF399" s="3"/>
-      <c r="CG399" s="3"/>
-      <c r="CH399" s="3"/>
-      <c r="CI399" s="3"/>
-      <c r="CJ399" s="3"/>
-      <c r="CK399" s="3"/>
-      <c r="CL399" s="3"/>
-      <c r="CM399" s="3"/>
-      <c r="CN399" s="3"/>
-      <c r="CO399" s="3"/>
-      <c r="CP399" s="3"/>
-      <c r="CQ399" s="3"/>
+      <c r="M399" s="6"/>
+      <c r="N399" s="6"/>
+      <c r="O399" s="6"/>
+      <c r="P399" s="6"/>
+      <c r="Q399" s="6"/>
+      <c r="R399" s="6"/>
+      <c r="S399" s="6"/>
+      <c r="T399" s="6"/>
+      <c r="U399" s="6"/>
+      <c r="V399" s="6"/>
+      <c r="W399" s="6"/>
+      <c r="X399" s="6"/>
+      <c r="Y399" s="6"/>
+      <c r="Z399" s="6"/>
+      <c r="AA399" s="6"/>
+      <c r="AB399" s="6"/>
+      <c r="AC399" s="6"/>
+      <c r="AD399" s="6"/>
+      <c r="AE399" s="6"/>
+      <c r="AF399" s="6"/>
+      <c r="AG399" s="6"/>
+      <c r="AH399" s="6"/>
+      <c r="AI399" s="6"/>
+      <c r="AJ399" s="6"/>
+      <c r="AK399" s="6"/>
+      <c r="AL399" s="6"/>
+      <c r="AM399" s="6"/>
+      <c r="AN399" s="6"/>
+      <c r="AO399" s="6"/>
+      <c r="AP399" s="6"/>
+      <c r="AQ399" s="6"/>
+      <c r="AR399" s="6"/>
+      <c r="AS399" s="6"/>
+      <c r="AT399" s="6"/>
+      <c r="AU399" s="6"/>
+      <c r="AV399" s="6"/>
+      <c r="AW399" s="6"/>
+      <c r="AX399" s="6"/>
+      <c r="AY399" s="6"/>
+      <c r="AZ399" s="6"/>
+      <c r="BA399" s="6"/>
+      <c r="BB399" s="6"/>
+      <c r="BC399" s="6"/>
+      <c r="BD399" s="6"/>
+      <c r="BE399" s="6"/>
+      <c r="BF399" s="6"/>
+      <c r="BG399" s="6"/>
+      <c r="BH399" s="6"/>
+      <c r="BI399" s="6"/>
+      <c r="BJ399" s="6"/>
+      <c r="BK399" s="6"/>
+      <c r="BL399" s="6"/>
+      <c r="BM399" s="6"/>
+      <c r="BN399" s="6"/>
+      <c r="BO399" s="6"/>
+      <c r="BP399" s="6"/>
+      <c r="BQ399" s="6"/>
+      <c r="BR399" s="6"/>
+      <c r="BS399" s="6"/>
+      <c r="BT399" s="6"/>
+      <c r="BU399" s="6"/>
+      <c r="BV399" s="6"/>
+      <c r="BW399" s="6"/>
+      <c r="BX399" s="6"/>
+      <c r="BY399" s="6"/>
+      <c r="BZ399" s="6"/>
+      <c r="CA399" s="6"/>
+      <c r="CB399" s="6"/>
+      <c r="CC399" s="6"/>
+      <c r="CD399" s="6"/>
+      <c r="CE399" s="6"/>
+      <c r="CF399" s="6"/>
+      <c r="CG399" s="6"/>
+      <c r="CH399" s="6"/>
+      <c r="CI399" s="6"/>
+      <c r="CJ399" s="6"/>
+      <c r="CK399" s="6"/>
+      <c r="CL399" s="6"/>
+      <c r="CM399" s="6"/>
+      <c r="CN399" s="6"/>
+      <c r="CO399" s="6"/>
+      <c r="CP399" s="6"/>
+      <c r="CQ399" s="6"/>
     </row>
     <row r="400" spans="2:95" ht="15">
-      <c r="B400" s="4" t="s">
-        <v>844</v>
-      </c>
-      <c r="C400" s="4" t="s">
-        <v>845</v>
-      </c>
-      <c r="D400" s="4">
+      <c r="B400" s="5" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D400" s="5">
         <v>1</v>
       </c>
-      <c r="E400" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F400" s="4" t="s">
+      <c r="E400" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F400" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G400" s="5"/>
-      <c r="H400" s="4" t="s">
+      <c r="H400" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I400" s="5"/>
       <c r="J400" s="7"/>
-      <c r="K400" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K400" s="6"/>
       <c r="L400" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M400" s="3"/>
-      <c r="N400" s="3"/>
-      <c r="O400" s="3"/>
-      <c r="P400" s="3"/>
-      <c r="Q400" s="3"/>
-      <c r="R400" s="3"/>
-      <c r="S400" s="3"/>
-      <c r="T400" s="3"/>
-      <c r="U400" s="3"/>
-      <c r="V400" s="3"/>
-      <c r="W400" s="3"/>
-      <c r="X400" s="3"/>
-      <c r="Y400" s="3"/>
-      <c r="Z400" s="3"/>
-      <c r="AA400" s="3"/>
-      <c r="AB400" s="3"/>
-      <c r="AC400" s="3"/>
-      <c r="AD400" s="3"/>
-      <c r="AE400" s="3"/>
-      <c r="AF400" s="3"/>
-      <c r="AG400" s="3"/>
-      <c r="AH400" s="3"/>
-      <c r="AI400" s="3"/>
-      <c r="AJ400" s="3"/>
-      <c r="AK400" s="3"/>
-      <c r="AL400" s="3"/>
-      <c r="AM400" s="3"/>
-      <c r="AN400" s="3"/>
-      <c r="AO400" s="3"/>
-      <c r="AP400" s="3"/>
-      <c r="AQ400" s="3"/>
-      <c r="AR400" s="3"/>
-      <c r="AS400" s="3"/>
-      <c r="AT400" s="3"/>
-      <c r="AU400" s="3"/>
-      <c r="AV400" s="3"/>
-      <c r="AW400" s="3"/>
-      <c r="AX400" s="3"/>
-      <c r="AY400" s="3"/>
-      <c r="AZ400" s="3"/>
-      <c r="BA400" s="3"/>
-      <c r="BB400" s="3"/>
-      <c r="BC400" s="3"/>
-      <c r="BD400" s="3"/>
-      <c r="BE400" s="3"/>
-      <c r="BF400" s="3"/>
-      <c r="BG400" s="3"/>
-      <c r="BH400" s="3"/>
-      <c r="BI400" s="3"/>
-      <c r="BJ400" s="3"/>
-      <c r="BK400" s="3"/>
-      <c r="BL400" s="3"/>
-      <c r="BM400" s="3"/>
-      <c r="BN400" s="3"/>
-      <c r="BO400" s="3"/>
-      <c r="BP400" s="3"/>
-      <c r="BQ400" s="3"/>
-      <c r="BR400" s="3"/>
-      <c r="BS400" s="3"/>
-      <c r="BT400" s="3"/>
-      <c r="BU400" s="3"/>
-      <c r="BV400" s="3"/>
-      <c r="BW400" s="3"/>
-      <c r="BX400" s="3"/>
-      <c r="BY400" s="3"/>
-      <c r="BZ400" s="3"/>
-      <c r="CA400" s="3"/>
-      <c r="CB400" s="3"/>
-      <c r="CC400" s="3"/>
-      <c r="CD400" s="3"/>
-      <c r="CE400" s="3"/>
-      <c r="CF400" s="3"/>
-      <c r="CG400" s="3"/>
-      <c r="CH400" s="3"/>
-      <c r="CI400" s="3"/>
-      <c r="CJ400" s="3"/>
-      <c r="CK400" s="3"/>
-      <c r="CL400" s="3"/>
-      <c r="CM400" s="3"/>
-      <c r="CN400" s="3"/>
-      <c r="CO400" s="3"/>
-      <c r="CP400" s="3"/>
-      <c r="CQ400" s="3"/>
+      <c r="M400" s="6"/>
+      <c r="N400" s="6"/>
+      <c r="O400" s="6"/>
+      <c r="P400" s="6"/>
+      <c r="Q400" s="6"/>
+      <c r="R400" s="6"/>
+      <c r="S400" s="6"/>
+      <c r="T400" s="6"/>
+      <c r="U400" s="6"/>
+      <c r="V400" s="6"/>
+      <c r="W400" s="6"/>
+      <c r="X400" s="6"/>
+      <c r="Y400" s="6"/>
+      <c r="Z400" s="6"/>
+      <c r="AA400" s="6"/>
+      <c r="AB400" s="6"/>
+      <c r="AC400" s="6"/>
+      <c r="AD400" s="6"/>
+      <c r="AE400" s="6"/>
+      <c r="AF400" s="6"/>
+      <c r="AG400" s="6"/>
+      <c r="AH400" s="6"/>
+      <c r="AI400" s="6"/>
+      <c r="AJ400" s="6"/>
+      <c r="AK400" s="6"/>
+      <c r="AL400" s="6"/>
+      <c r="AM400" s="6"/>
+      <c r="AN400" s="6"/>
+      <c r="AO400" s="6"/>
+      <c r="AP400" s="6"/>
+      <c r="AQ400" s="6"/>
+      <c r="AR400" s="6"/>
+      <c r="AS400" s="6"/>
+      <c r="AT400" s="6"/>
+      <c r="AU400" s="6"/>
+      <c r="AV400" s="6"/>
+      <c r="AW400" s="6"/>
+      <c r="AX400" s="6"/>
+      <c r="AY400" s="6"/>
+      <c r="AZ400" s="6"/>
+      <c r="BA400" s="6"/>
+      <c r="BB400" s="6"/>
+      <c r="BC400" s="6"/>
+      <c r="BD400" s="6"/>
+      <c r="BE400" s="6"/>
+      <c r="BF400" s="6"/>
+      <c r="BG400" s="6"/>
+      <c r="BH400" s="6"/>
+      <c r="BI400" s="6"/>
+      <c r="BJ400" s="6"/>
+      <c r="BK400" s="6"/>
+      <c r="BL400" s="6"/>
+      <c r="BM400" s="6"/>
+      <c r="BN400" s="6"/>
+      <c r="BO400" s="6"/>
+      <c r="BP400" s="6"/>
+      <c r="BQ400" s="6"/>
+      <c r="BR400" s="6"/>
+      <c r="BS400" s="6"/>
+      <c r="BT400" s="6"/>
+      <c r="BU400" s="6"/>
+      <c r="BV400" s="6"/>
+      <c r="BW400" s="6"/>
+      <c r="BX400" s="6"/>
+      <c r="BY400" s="6"/>
+      <c r="BZ400" s="6"/>
+      <c r="CA400" s="6"/>
+      <c r="CB400" s="6"/>
+      <c r="CC400" s="6"/>
+      <c r="CD400" s="6"/>
+      <c r="CE400" s="6"/>
+      <c r="CF400" s="6"/>
+      <c r="CG400" s="6"/>
+      <c r="CH400" s="6"/>
+      <c r="CI400" s="6"/>
+      <c r="CJ400" s="6"/>
+      <c r="CK400" s="6"/>
+      <c r="CL400" s="6"/>
+      <c r="CM400" s="6"/>
+      <c r="CN400" s="6"/>
+      <c r="CO400" s="6"/>
+      <c r="CP400" s="6"/>
+      <c r="CQ400" s="6"/>
     </row>
     <row r="401" spans="2:95" ht="15">
-      <c r="B401" s="4" t="s">
-        <v>846</v>
-      </c>
-      <c r="C401" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="D401" s="4">
+      <c r="B401" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C401" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D401" s="5">
         <v>1</v>
       </c>
-      <c r="E401" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F401" s="4" t="s">
+      <c r="E401" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F401" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G401" s="5"/>
-      <c r="H401" s="4" t="s">
+      <c r="H401" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I401" s="5"/>
       <c r="J401" s="7"/>
-      <c r="K401" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="K401" s="6"/>
       <c r="L401" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M401" s="3"/>
-      <c r="N401" s="3"/>
-      <c r="O401" s="3"/>
-      <c r="P401" s="3"/>
-      <c r="Q401" s="3"/>
-      <c r="R401" s="3"/>
-      <c r="S401" s="3"/>
-      <c r="T401" s="3"/>
-      <c r="U401" s="3"/>
-      <c r="V401" s="3"/>
-      <c r="W401" s="3"/>
-      <c r="X401" s="3"/>
-      <c r="Y401" s="3"/>
-      <c r="Z401" s="3"/>
-      <c r="AA401" s="3"/>
-      <c r="AB401" s="3"/>
-      <c r="AC401" s="3"/>
-      <c r="AD401" s="3"/>
-      <c r="AE401" s="3"/>
-      <c r="AF401" s="3"/>
-      <c r="AG401" s="3"/>
-      <c r="AH401" s="3"/>
-      <c r="AI401" s="3"/>
-      <c r="AJ401" s="3"/>
-      <c r="AK401" s="3"/>
-      <c r="AL401" s="3"/>
-      <c r="AM401" s="3"/>
-      <c r="AN401" s="3"/>
-      <c r="AO401" s="3"/>
-      <c r="AP401" s="3"/>
-      <c r="AQ401" s="3"/>
-      <c r="AR401" s="3"/>
-      <c r="AS401" s="3"/>
-      <c r="AT401" s="3"/>
-      <c r="AU401" s="3"/>
-      <c r="AV401" s="3"/>
-      <c r="AW401" s="3"/>
-      <c r="AX401" s="3"/>
-      <c r="AY401" s="3"/>
-      <c r="AZ401" s="3"/>
-      <c r="BA401" s="3"/>
-      <c r="BB401" s="3"/>
-      <c r="BC401" s="3"/>
-      <c r="BD401" s="3"/>
-      <c r="BE401" s="3"/>
-      <c r="BF401" s="3"/>
-      <c r="BG401" s="3"/>
-      <c r="BH401" s="3"/>
-      <c r="BI401" s="3"/>
-      <c r="BJ401" s="3"/>
-      <c r="BK401" s="3"/>
-      <c r="BL401" s="3"/>
-      <c r="BM401" s="3"/>
-      <c r="BN401" s="3"/>
-      <c r="BO401" s="3"/>
-      <c r="BP401" s="3"/>
-      <c r="BQ401" s="3"/>
-      <c r="BR401" s="3"/>
-      <c r="BS401" s="3"/>
-      <c r="BT401" s="3"/>
-      <c r="BU401" s="3"/>
-      <c r="BV401" s="3"/>
-      <c r="BW401" s="3"/>
-      <c r="BX401" s="3"/>
-      <c r="BY401" s="3"/>
-      <c r="BZ401" s="3"/>
-      <c r="CA401" s="3"/>
-      <c r="CB401" s="3"/>
-      <c r="CC401" s="3"/>
-      <c r="CD401" s="3"/>
-      <c r="CE401" s="3"/>
-      <c r="CF401" s="3"/>
-      <c r="CG401" s="3"/>
-      <c r="CH401" s="3"/>
-      <c r="CI401" s="3"/>
-      <c r="CJ401" s="3"/>
-      <c r="CK401" s="3"/>
-      <c r="CL401" s="3"/>
-      <c r="CM401" s="3"/>
-      <c r="CN401" s="3"/>
-      <c r="CO401" s="3"/>
-      <c r="CP401" s="3"/>
-      <c r="CQ401" s="3"/>
+      <c r="M401" s="6"/>
+      <c r="N401" s="6"/>
+      <c r="O401" s="6"/>
+      <c r="P401" s="6"/>
+      <c r="Q401" s="6"/>
+      <c r="R401" s="6"/>
+      <c r="S401" s="6"/>
+      <c r="T401" s="6"/>
+      <c r="U401" s="6"/>
+      <c r="V401" s="6"/>
+      <c r="W401" s="6"/>
+      <c r="X401" s="6"/>
+      <c r="Y401" s="6"/>
+      <c r="Z401" s="6"/>
+      <c r="AA401" s="6"/>
+      <c r="AB401" s="6"/>
+      <c r="AC401" s="6"/>
+      <c r="AD401" s="6"/>
+      <c r="AE401" s="6"/>
+      <c r="AF401" s="6"/>
+      <c r="AG401" s="6"/>
+      <c r="AH401" s="6"/>
+      <c r="AI401" s="6"/>
+      <c r="AJ401" s="6"/>
+      <c r="AK401" s="6"/>
+      <c r="AL401" s="6"/>
+      <c r="AM401" s="6"/>
+      <c r="AN401" s="6"/>
+      <c r="AO401" s="6"/>
+      <c r="AP401" s="6"/>
+      <c r="AQ401" s="6"/>
+      <c r="AR401" s="6"/>
+      <c r="AS401" s="6"/>
+      <c r="AT401" s="6"/>
+      <c r="AU401" s="6"/>
+      <c r="AV401" s="6"/>
+      <c r="AW401" s="6"/>
+      <c r="AX401" s="6"/>
+      <c r="AY401" s="6"/>
+      <c r="AZ401" s="6"/>
+      <c r="BA401" s="6"/>
+      <c r="BB401" s="6"/>
+      <c r="BC401" s="6"/>
+      <c r="BD401" s="6"/>
+      <c r="BE401" s="6"/>
+      <c r="BF401" s="6"/>
+      <c r="BG401" s="6"/>
+      <c r="BH401" s="6"/>
+      <c r="BI401" s="6"/>
+      <c r="BJ401" s="6"/>
+      <c r="BK401" s="6"/>
+      <c r="BL401" s="6"/>
+      <c r="BM401" s="6"/>
+      <c r="BN401" s="6"/>
+      <c r="BO401" s="6"/>
+      <c r="BP401" s="6"/>
+      <c r="BQ401" s="6"/>
+      <c r="BR401" s="6"/>
+      <c r="BS401" s="6"/>
+      <c r="BT401" s="6"/>
+      <c r="BU401" s="6"/>
+      <c r="BV401" s="6"/>
+      <c r="BW401" s="6"/>
+      <c r="BX401" s="6"/>
+      <c r="BY401" s="6"/>
+      <c r="BZ401" s="6"/>
+      <c r="CA401" s="6"/>
+      <c r="CB401" s="6"/>
+      <c r="CC401" s="6"/>
+      <c r="CD401" s="6"/>
+      <c r="CE401" s="6"/>
+      <c r="CF401" s="6"/>
+      <c r="CG401" s="6"/>
+      <c r="CH401" s="6"/>
+      <c r="CI401" s="6"/>
+      <c r="CJ401" s="6"/>
+      <c r="CK401" s="6"/>
+      <c r="CL401" s="6"/>
+      <c r="CM401" s="6"/>
+      <c r="CN401" s="6"/>
+      <c r="CO401" s="6"/>
+      <c r="CP401" s="6"/>
+      <c r="CQ401" s="6"/>
     </row>
     <row r="402" spans="2:95" ht="15">
-      <c r="B402" s="4" t="s">
-        <v>848</v>
-      </c>
-      <c r="C402" s="4" t="s">
-        <v>849</v>
+      <c r="B402" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C402" s="5" t="s">
+        <v>1108</v>
       </c>
       <c r="D402" s="5">
-        <v>0</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>130</v>
+        <v>1</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F402" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G402" s="5"/>
-      <c r="H402" s="4" t="s">
+      <c r="H402" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I402" s="5"/>
       <c r="J402" s="7"/>
-      <c r="K402" s="3"/>
+      <c r="K402" s="6"/>
       <c r="L402" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M402" s="3"/>
-      <c r="N402" s="3"/>
-      <c r="O402" s="3"/>
-      <c r="P402" s="3"/>
-      <c r="Q402" s="3"/>
-      <c r="R402" s="3"/>
-      <c r="S402" s="3"/>
-      <c r="T402" s="3"/>
-      <c r="U402" s="3"/>
-      <c r="V402" s="3"/>
-      <c r="W402" s="3"/>
-      <c r="X402" s="3"/>
-      <c r="Y402" s="3"/>
-      <c r="Z402" s="3"/>
-      <c r="AA402" s="3"/>
-      <c r="AB402" s="3"/>
-      <c r="AC402" s="3"/>
-      <c r="AD402" s="3"/>
-      <c r="AE402" s="3"/>
-      <c r="AF402" s="3"/>
-      <c r="AG402" s="3"/>
-      <c r="AH402" s="3"/>
-      <c r="AI402" s="3"/>
-      <c r="AJ402" s="3"/>
-      <c r="AK402" s="3"/>
-      <c r="AL402" s="3"/>
-      <c r="AM402" s="3"/>
-      <c r="AN402" s="3"/>
-      <c r="AO402" s="3"/>
-      <c r="AP402" s="3"/>
-      <c r="AQ402" s="3"/>
-      <c r="AR402" s="3"/>
-      <c r="AS402" s="3"/>
-      <c r="AT402" s="3"/>
-      <c r="AU402" s="3"/>
-      <c r="AV402" s="3"/>
-      <c r="AW402" s="3"/>
-      <c r="AX402" s="3"/>
-      <c r="AY402" s="3"/>
-      <c r="AZ402" s="3"/>
-      <c r="BA402" s="3"/>
-      <c r="BB402" s="3"/>
-      <c r="BC402" s="3"/>
-      <c r="BD402" s="3"/>
-      <c r="BE402" s="3"/>
-      <c r="BF402" s="3"/>
-      <c r="BG402" s="3"/>
-      <c r="BH402" s="3"/>
-      <c r="BI402" s="3"/>
-      <c r="BJ402" s="3"/>
-      <c r="BK402" s="3"/>
-      <c r="BL402" s="3"/>
-      <c r="BM402" s="3"/>
-      <c r="BN402" s="3"/>
-      <c r="BO402" s="3"/>
-      <c r="BP402" s="3"/>
-      <c r="BQ402" s="3"/>
-      <c r="BR402" s="3"/>
-      <c r="BS402" s="3"/>
-      <c r="BT402" s="3"/>
-      <c r="BU402" s="3"/>
-      <c r="BV402" s="3"/>
-      <c r="BW402" s="3"/>
-      <c r="BX402" s="3"/>
-      <c r="BY402" s="3"/>
-      <c r="BZ402" s="3"/>
-      <c r="CA402" s="3"/>
-      <c r="CB402" s="3"/>
-      <c r="CC402" s="3"/>
-      <c r="CD402" s="3"/>
-      <c r="CE402" s="3"/>
-      <c r="CF402" s="3"/>
-      <c r="CG402" s="3"/>
-      <c r="CH402" s="3"/>
-      <c r="CI402" s="3"/>
-      <c r="CJ402" s="3"/>
-      <c r="CK402" s="3"/>
-      <c r="CL402" s="3"/>
-      <c r="CM402" s="3"/>
-      <c r="CN402" s="3"/>
-      <c r="CO402" s="3"/>
-      <c r="CP402" s="3"/>
-      <c r="CQ402" s="3"/>
+      <c r="M402" s="6"/>
+      <c r="N402" s="6"/>
+      <c r="O402" s="6"/>
+      <c r="P402" s="6"/>
+      <c r="Q402" s="6"/>
+      <c r="R402" s="6"/>
+      <c r="S402" s="6"/>
+      <c r="T402" s="6"/>
+      <c r="U402" s="6"/>
+      <c r="V402" s="6"/>
+      <c r="W402" s="6"/>
+      <c r="X402" s="6"/>
+      <c r="Y402" s="6"/>
+      <c r="Z402" s="6"/>
+      <c r="AA402" s="6"/>
+      <c r="AB402" s="6"/>
+      <c r="AC402" s="6"/>
+      <c r="AD402" s="6"/>
+      <c r="AE402" s="6"/>
+      <c r="AF402" s="6"/>
+      <c r="AG402" s="6"/>
+      <c r="AH402" s="6"/>
+      <c r="AI402" s="6"/>
+      <c r="AJ402" s="6"/>
+      <c r="AK402" s="6"/>
+      <c r="AL402" s="6"/>
+      <c r="AM402" s="6"/>
+      <c r="AN402" s="6"/>
+      <c r="AO402" s="6"/>
+      <c r="AP402" s="6"/>
+      <c r="AQ402" s="6"/>
+      <c r="AR402" s="6"/>
+      <c r="AS402" s="6"/>
+      <c r="AT402" s="6"/>
+      <c r="AU402" s="6"/>
+      <c r="AV402" s="6"/>
+      <c r="AW402" s="6"/>
+      <c r="AX402" s="6"/>
+      <c r="AY402" s="6"/>
+      <c r="AZ402" s="6"/>
+      <c r="BA402" s="6"/>
+      <c r="BB402" s="6"/>
+      <c r="BC402" s="6"/>
+      <c r="BD402" s="6"/>
+      <c r="BE402" s="6"/>
+      <c r="BF402" s="6"/>
+      <c r="BG402" s="6"/>
+      <c r="BH402" s="6"/>
+      <c r="BI402" s="6"/>
+      <c r="BJ402" s="6"/>
+      <c r="BK402" s="6"/>
+      <c r="BL402" s="6"/>
+      <c r="BM402" s="6"/>
+      <c r="BN402" s="6"/>
+      <c r="BO402" s="6"/>
+      <c r="BP402" s="6"/>
+      <c r="BQ402" s="6"/>
+      <c r="BR402" s="6"/>
+      <c r="BS402" s="6"/>
+      <c r="BT402" s="6"/>
+      <c r="BU402" s="6"/>
+      <c r="BV402" s="6"/>
+      <c r="BW402" s="6"/>
+      <c r="BX402" s="6"/>
+      <c r="BY402" s="6"/>
+      <c r="BZ402" s="6"/>
+      <c r="CA402" s="6"/>
+      <c r="CB402" s="6"/>
+      <c r="CC402" s="6"/>
+      <c r="CD402" s="6"/>
+      <c r="CE402" s="6"/>
+      <c r="CF402" s="6"/>
+      <c r="CG402" s="6"/>
+      <c r="CH402" s="6"/>
+      <c r="CI402" s="6"/>
+      <c r="CJ402" s="6"/>
+      <c r="CK402" s="6"/>
+      <c r="CL402" s="6"/>
+      <c r="CM402" s="6"/>
+      <c r="CN402" s="6"/>
+      <c r="CO402" s="6"/>
+      <c r="CP402" s="6"/>
+      <c r="CQ402" s="6"/>
     </row>
     <row r="403" spans="2:95" ht="15">
-      <c r="B403" s="4" t="s">
-        <v>850</v>
-      </c>
-      <c r="C403" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="D403" s="4">
-        <v>2</v>
-      </c>
-      <c r="E403" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F403" s="4" t="s">
+      <c r="B403" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C403" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D403" s="5">
+        <v>1</v>
+      </c>
+      <c r="E403" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F403" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G403" s="5"/>
-      <c r="H403" s="4" t="s">
+      <c r="H403" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I403" s="5"/>
       <c r="J403" s="7"/>
-      <c r="K403" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K403" s="6"/>
       <c r="L403" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M403" s="3"/>
-      <c r="N403" s="3"/>
-      <c r="O403" s="3"/>
-      <c r="P403" s="3"/>
-      <c r="Q403" s="3"/>
-      <c r="R403" s="3"/>
-      <c r="S403" s="3"/>
-      <c r="T403" s="3"/>
-      <c r="U403" s="3"/>
-      <c r="V403" s="3"/>
-      <c r="W403" s="3"/>
-      <c r="X403" s="3"/>
-      <c r="Y403" s="3"/>
-      <c r="Z403" s="3"/>
-      <c r="AA403" s="3"/>
-      <c r="AB403" s="3"/>
-      <c r="AC403" s="3"/>
-      <c r="AD403" s="3"/>
-      <c r="AE403" s="3"/>
-      <c r="AF403" s="3"/>
-      <c r="AG403" s="3"/>
-      <c r="AH403" s="3"/>
-      <c r="AI403" s="3"/>
-      <c r="AJ403" s="3"/>
-      <c r="AK403" s="3"/>
-      <c r="AL403" s="3"/>
-      <c r="AM403" s="3"/>
-      <c r="AN403" s="3"/>
-      <c r="AO403" s="3"/>
-      <c r="AP403" s="3"/>
-      <c r="AQ403" s="3"/>
-      <c r="AR403" s="3"/>
-      <c r="AS403" s="3"/>
-      <c r="AT403" s="3"/>
-      <c r="AU403" s="3"/>
-      <c r="AV403" s="3"/>
-      <c r="AW403" s="3"/>
-      <c r="AX403" s="3"/>
-      <c r="AY403" s="3"/>
-      <c r="AZ403" s="3"/>
-      <c r="BA403" s="3"/>
-      <c r="BB403" s="3"/>
-      <c r="BC403" s="3"/>
-      <c r="BD403" s="3"/>
-      <c r="BE403" s="3"/>
-      <c r="BF403" s="3"/>
-      <c r="BG403" s="3"/>
-      <c r="BH403" s="3"/>
-      <c r="BI403" s="3"/>
-      <c r="BJ403" s="3"/>
-      <c r="BK403" s="3"/>
-      <c r="BL403" s="3"/>
-      <c r="BM403" s="3"/>
-      <c r="BN403" s="3"/>
-      <c r="BO403" s="3"/>
-      <c r="BP403" s="3"/>
-      <c r="BQ403" s="3"/>
-      <c r="BR403" s="3"/>
-      <c r="BS403" s="3"/>
-      <c r="BT403" s="3"/>
-      <c r="BU403" s="3"/>
-      <c r="BV403" s="3"/>
-      <c r="BW403" s="3"/>
-      <c r="BX403" s="3"/>
-      <c r="BY403" s="3"/>
-      <c r="BZ403" s="3"/>
-      <c r="CA403" s="3"/>
-      <c r="CB403" s="3"/>
-      <c r="CC403" s="3"/>
-      <c r="CD403" s="3"/>
-      <c r="CE403" s="3"/>
-      <c r="CF403" s="3"/>
-      <c r="CG403" s="3"/>
-      <c r="CH403" s="3"/>
-      <c r="CI403" s="3"/>
-      <c r="CJ403" s="3"/>
-      <c r="CK403" s="3"/>
-      <c r="CL403" s="3"/>
-      <c r="CM403" s="3"/>
-      <c r="CN403" s="3"/>
-      <c r="CO403" s="3"/>
-      <c r="CP403" s="3"/>
-      <c r="CQ403" s="3"/>
+      <c r="M403" s="6"/>
+      <c r="N403" s="6"/>
+      <c r="O403" s="6"/>
+      <c r="P403" s="6"/>
+      <c r="Q403" s="6"/>
+      <c r="R403" s="6"/>
+      <c r="S403" s="6"/>
+      <c r="T403" s="6"/>
+      <c r="U403" s="6"/>
+      <c r="V403" s="6"/>
+      <c r="W403" s="6"/>
+      <c r="X403" s="6"/>
+      <c r="Y403" s="6"/>
+      <c r="Z403" s="6"/>
+      <c r="AA403" s="6"/>
+      <c r="AB403" s="6"/>
+      <c r="AC403" s="6"/>
+      <c r="AD403" s="6"/>
+      <c r="AE403" s="6"/>
+      <c r="AF403" s="6"/>
+      <c r="AG403" s="6"/>
+      <c r="AH403" s="6"/>
+      <c r="AI403" s="6"/>
+      <c r="AJ403" s="6"/>
+      <c r="AK403" s="6"/>
+      <c r="AL403" s="6"/>
+      <c r="AM403" s="6"/>
+      <c r="AN403" s="6"/>
+      <c r="AO403" s="6"/>
+      <c r="AP403" s="6"/>
+      <c r="AQ403" s="6"/>
+      <c r="AR403" s="6"/>
+      <c r="AS403" s="6"/>
+      <c r="AT403" s="6"/>
+      <c r="AU403" s="6"/>
+      <c r="AV403" s="6"/>
+      <c r="AW403" s="6"/>
+      <c r="AX403" s="6"/>
+      <c r="AY403" s="6"/>
+      <c r="AZ403" s="6"/>
+      <c r="BA403" s="6"/>
+      <c r="BB403" s="6"/>
+      <c r="BC403" s="6"/>
+      <c r="BD403" s="6"/>
+      <c r="BE403" s="6"/>
+      <c r="BF403" s="6"/>
+      <c r="BG403" s="6"/>
+      <c r="BH403" s="6"/>
+      <c r="BI403" s="6"/>
+      <c r="BJ403" s="6"/>
+      <c r="BK403" s="6"/>
+      <c r="BL403" s="6"/>
+      <c r="BM403" s="6"/>
+      <c r="BN403" s="6"/>
+      <c r="BO403" s="6"/>
+      <c r="BP403" s="6"/>
+      <c r="BQ403" s="6"/>
+      <c r="BR403" s="6"/>
+      <c r="BS403" s="6"/>
+      <c r="BT403" s="6"/>
+      <c r="BU403" s="6"/>
+      <c r="BV403" s="6"/>
+      <c r="BW403" s="6"/>
+      <c r="BX403" s="6"/>
+      <c r="BY403" s="6"/>
+      <c r="BZ403" s="6"/>
+      <c r="CA403" s="6"/>
+      <c r="CB403" s="6"/>
+      <c r="CC403" s="6"/>
+      <c r="CD403" s="6"/>
+      <c r="CE403" s="6"/>
+      <c r="CF403" s="6"/>
+      <c r="CG403" s="6"/>
+      <c r="CH403" s="6"/>
+      <c r="CI403" s="6"/>
+      <c r="CJ403" s="6"/>
+      <c r="CK403" s="6"/>
+      <c r="CL403" s="6"/>
+      <c r="CM403" s="6"/>
+      <c r="CN403" s="6"/>
+      <c r="CO403" s="6"/>
+      <c r="CP403" s="6"/>
+      <c r="CQ403" s="6"/>
     </row>
     <row r="404" spans="2:95" ht="15">
-      <c r="B404" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="C404" s="4" t="s">
-        <v>853</v>
+      <c r="B404" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C404" s="5" t="s">
+        <v>1110</v>
       </c>
       <c r="D404" s="5">
-        <v>0</v>
-      </c>
-      <c r="E404" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E404" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F404" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G404" s="5"/>
-      <c r="H404" s="4" t="s">
+      <c r="H404" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I404" s="5"/>
       <c r="J404" s="7"/>
-      <c r="K404" s="3"/>
+      <c r="K404" s="6"/>
       <c r="L404" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M404" s="3"/>
-      <c r="N404" s="3"/>
-      <c r="O404" s="3"/>
-      <c r="P404" s="3"/>
-      <c r="Q404" s="3"/>
-      <c r="R404" s="3"/>
-      <c r="S404" s="3"/>
-      <c r="T404" s="3"/>
-      <c r="U404" s="3"/>
-      <c r="V404" s="3"/>
-      <c r="W404" s="3"/>
-      <c r="X404" s="3"/>
-      <c r="Y404" s="3"/>
-      <c r="Z404" s="3"/>
-      <c r="AA404" s="3"/>
-      <c r="AB404" s="3"/>
-      <c r="AC404" s="3"/>
-      <c r="AD404" s="3"/>
-      <c r="AE404" s="3"/>
-      <c r="AF404" s="3"/>
-      <c r="AG404" s="3"/>
-      <c r="AH404" s="3"/>
-      <c r="AI404" s="3"/>
-      <c r="AJ404" s="3"/>
-      <c r="AK404" s="3"/>
-      <c r="AL404" s="3"/>
-      <c r="AM404" s="3"/>
-      <c r="AN404" s="3"/>
-      <c r="AO404" s="3"/>
-      <c r="AP404" s="3"/>
-      <c r="AQ404" s="3"/>
-      <c r="AR404" s="3"/>
-      <c r="AS404" s="3"/>
-      <c r="AT404" s="3"/>
-      <c r="AU404" s="3"/>
-      <c r="AV404" s="3"/>
-      <c r="AW404" s="3"/>
-      <c r="AX404" s="3"/>
-      <c r="AY404" s="3"/>
-      <c r="AZ404" s="3"/>
-      <c r="BA404" s="3"/>
-      <c r="BB404" s="3"/>
-      <c r="BC404" s="3"/>
-      <c r="BD404" s="3"/>
-      <c r="BE404" s="3"/>
-      <c r="BF404" s="3"/>
-      <c r="BG404" s="3"/>
-      <c r="BH404" s="3"/>
-      <c r="BI404" s="3"/>
-      <c r="BJ404" s="3"/>
-      <c r="BK404" s="3"/>
-      <c r="BL404" s="3"/>
-      <c r="BM404" s="3"/>
-      <c r="BN404" s="3"/>
-      <c r="BO404" s="3"/>
-      <c r="BP404" s="3"/>
-      <c r="BQ404" s="3"/>
-      <c r="BR404" s="3"/>
-      <c r="BS404" s="3"/>
-      <c r="BT404" s="3"/>
-      <c r="BU404" s="3"/>
-      <c r="BV404" s="3"/>
-      <c r="BW404" s="3"/>
-      <c r="BX404" s="3"/>
-      <c r="BY404" s="3"/>
-      <c r="BZ404" s="3"/>
-      <c r="CA404" s="3"/>
-      <c r="CB404" s="3"/>
-      <c r="CC404" s="3"/>
-      <c r="CD404" s="3"/>
-      <c r="CE404" s="3"/>
-      <c r="CF404" s="3"/>
-      <c r="CG404" s="3"/>
-      <c r="CH404" s="3"/>
-      <c r="CI404" s="3"/>
-      <c r="CJ404" s="3"/>
-      <c r="CK404" s="3"/>
-      <c r="CL404" s="3"/>
-      <c r="CM404" s="3"/>
-      <c r="CN404" s="3"/>
-      <c r="CO404" s="3"/>
-      <c r="CP404" s="3"/>
-      <c r="CQ404" s="3"/>
+      <c r="M404" s="6"/>
+      <c r="N404" s="6"/>
+      <c r="O404" s="6"/>
+      <c r="P404" s="6"/>
+      <c r="Q404" s="6"/>
+      <c r="R404" s="6"/>
+      <c r="S404" s="6"/>
+      <c r="T404" s="6"/>
+      <c r="U404" s="6"/>
+      <c r="V404" s="6"/>
+      <c r="W404" s="6"/>
+      <c r="X404" s="6"/>
+      <c r="Y404" s="6"/>
+      <c r="Z404" s="6"/>
+      <c r="AA404" s="6"/>
+      <c r="AB404" s="6"/>
+      <c r="AC404" s="6"/>
+      <c r="AD404" s="6"/>
+      <c r="AE404" s="6"/>
+      <c r="AF404" s="6"/>
+      <c r="AG404" s="6"/>
+      <c r="AH404" s="6"/>
+      <c r="AI404" s="6"/>
+      <c r="AJ404" s="6"/>
+      <c r="AK404" s="6"/>
+      <c r="AL404" s="6"/>
+      <c r="AM404" s="6"/>
+      <c r="AN404" s="6"/>
+      <c r="AO404" s="6"/>
+      <c r="AP404" s="6"/>
+      <c r="AQ404" s="6"/>
+      <c r="AR404" s="6"/>
+      <c r="AS404" s="6"/>
+      <c r="AT404" s="6"/>
+      <c r="AU404" s="6"/>
+      <c r="AV404" s="6"/>
+      <c r="AW404" s="6"/>
+      <c r="AX404" s="6"/>
+      <c r="AY404" s="6"/>
+      <c r="AZ404" s="6"/>
+      <c r="BA404" s="6"/>
+      <c r="BB404" s="6"/>
+      <c r="BC404" s="6"/>
+      <c r="BD404" s="6"/>
+      <c r="BE404" s="6"/>
+      <c r="BF404" s="6"/>
+      <c r="BG404" s="6"/>
+      <c r="BH404" s="6"/>
+      <c r="BI404" s="6"/>
+      <c r="BJ404" s="6"/>
+      <c r="BK404" s="6"/>
+      <c r="BL404" s="6"/>
+      <c r="BM404" s="6"/>
+      <c r="BN404" s="6"/>
+      <c r="BO404" s="6"/>
+      <c r="BP404" s="6"/>
+      <c r="BQ404" s="6"/>
+      <c r="BR404" s="6"/>
+      <c r="BS404" s="6"/>
+      <c r="BT404" s="6"/>
+      <c r="BU404" s="6"/>
+      <c r="BV404" s="6"/>
+      <c r="BW404" s="6"/>
+      <c r="BX404" s="6"/>
+      <c r="BY404" s="6"/>
+      <c r="BZ404" s="6"/>
+      <c r="CA404" s="6"/>
+      <c r="CB404" s="6"/>
+      <c r="CC404" s="6"/>
+      <c r="CD404" s="6"/>
+      <c r="CE404" s="6"/>
+      <c r="CF404" s="6"/>
+      <c r="CG404" s="6"/>
+      <c r="CH404" s="6"/>
+      <c r="CI404" s="6"/>
+      <c r="CJ404" s="6"/>
+      <c r="CK404" s="6"/>
+      <c r="CL404" s="6"/>
+      <c r="CM404" s="6"/>
+      <c r="CN404" s="6"/>
+      <c r="CO404" s="6"/>
+      <c r="CP404" s="6"/>
+      <c r="CQ404" s="6"/>
     </row>
     <row r="405" spans="2:95" ht="15">
       <c r="B405" s="4" t="s">
-        <v>854</v>
+        <v>842</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="D405" s="5">
         <v>0</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="F405" s="5" t="s">
         <v>10</v>
@@ -48476,18 +48506,18 @@
     </row>
     <row r="406" spans="2:95" ht="15">
       <c r="B406" s="4" t="s">
-        <v>856</v>
+        <v>844</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>857</v>
-      </c>
-      <c r="D406" s="5">
-        <v>0</v>
+        <v>845</v>
+      </c>
+      <c r="D406" s="4">
+        <v>1</v>
       </c>
       <c r="E406" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F406" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F406" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G406" s="5"/>
@@ -48496,7 +48526,9 @@
       </c>
       <c r="I406" s="5"/>
       <c r="J406" s="7"/>
-      <c r="K406" s="3"/>
+      <c r="K406" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L406" s="6" t="s">
         <v>12</v>
       </c>
@@ -48586,16 +48618,16 @@
     </row>
     <row r="407" spans="2:95" ht="15">
       <c r="B407" s="4" t="s">
-        <v>858</v>
+        <v>846</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="D407" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E407" s="4" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="F407" s="4" t="s">
         <v>10</v>
@@ -48698,18 +48730,18 @@
     </row>
     <row r="408" spans="2:95" ht="15">
       <c r="B408" s="4" t="s">
-        <v>860</v>
+        <v>848</v>
       </c>
       <c r="C408" s="4" t="s">
-        <v>861</v>
-      </c>
-      <c r="D408" s="4">
-        <v>10</v>
+        <v>849</v>
+      </c>
+      <c r="D408" s="5">
+        <v>0</v>
       </c>
       <c r="E408" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F408" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F408" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G408" s="5"/>
@@ -48718,9 +48750,7 @@
       </c>
       <c r="I408" s="5"/>
       <c r="J408" s="7"/>
-      <c r="K408" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K408" s="3"/>
       <c r="L408" s="6" t="s">
         <v>12</v>
       </c>
@@ -48810,16 +48840,16 @@
     </row>
     <row r="409" spans="2:95" ht="15">
       <c r="B409" s="4" t="s">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>863</v>
+        <v>851</v>
       </c>
       <c r="D409" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E409" s="4" t="s">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="F409" s="4" t="s">
         <v>10</v>
@@ -48922,18 +48952,18 @@
     </row>
     <row r="410" spans="2:95" ht="15">
       <c r="B410" s="4" t="s">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="C410" s="4" t="s">
-        <v>865</v>
-      </c>
-      <c r="D410" s="4">
-        <v>10</v>
+        <v>853</v>
+      </c>
+      <c r="D410" s="5">
+        <v>0</v>
       </c>
       <c r="E410" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F410" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F410" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G410" s="5"/>
@@ -48942,9 +48972,7 @@
       </c>
       <c r="I410" s="5"/>
       <c r="J410" s="7"/>
-      <c r="K410" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K410" s="3"/>
       <c r="L410" s="6" t="s">
         <v>12</v>
       </c>
@@ -49034,18 +49062,18 @@
     </row>
     <row r="411" spans="2:95" ht="15">
       <c r="B411" s="4" t="s">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="C411" s="4" t="s">
-        <v>867</v>
-      </c>
-      <c r="D411" s="4">
-        <v>10</v>
+        <v>855</v>
+      </c>
+      <c r="D411" s="5">
+        <v>0</v>
       </c>
       <c r="E411" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F411" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F411" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G411" s="5"/>
@@ -49054,9 +49082,7 @@
       </c>
       <c r="I411" s="5"/>
       <c r="J411" s="7"/>
-      <c r="K411" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K411" s="3"/>
       <c r="L411" s="6" t="s">
         <v>12</v>
       </c>
@@ -49146,16 +49172,16 @@
     </row>
     <row r="412" spans="2:95" ht="15">
       <c r="B412" s="4" t="s">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>869</v>
+        <v>857</v>
       </c>
       <c r="D412" s="5">
         <v>0</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>529</v>
+        <v>51</v>
       </c>
       <c r="F412" s="5" t="s">
         <v>10</v>
@@ -49166,9 +49192,7 @@
       </c>
       <c r="I412" s="5"/>
       <c r="J412" s="7"/>
-      <c r="K412" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K412" s="3"/>
       <c r="L412" s="6" t="s">
         <v>12</v>
       </c>
@@ -49258,16 +49282,16 @@
     </row>
     <row r="413" spans="2:95" ht="15">
       <c r="B413" s="4" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>871</v>
+        <v>859</v>
       </c>
       <c r="D413" s="4">
+        <v>6</v>
+      </c>
+      <c r="E413" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="E413" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="F413" s="4" t="s">
         <v>10</v>
@@ -49279,7 +49303,7 @@
       <c r="I413" s="5"/>
       <c r="J413" s="7"/>
       <c r="K413" s="6" t="s">
-        <v>872</v>
+        <v>180</v>
       </c>
       <c r="L413" s="6" t="s">
         <v>12</v>
@@ -49370,16 +49394,16 @@
     </row>
     <row r="414" spans="2:95" ht="15">
       <c r="B414" s="4" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="D414" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E414" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F414" s="4" t="s">
         <v>10</v>
@@ -49390,7 +49414,9 @@
       </c>
       <c r="I414" s="5"/>
       <c r="J414" s="7"/>
-      <c r="K414" s="3"/>
+      <c r="K414" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L414" s="6" t="s">
         <v>12</v>
       </c>
@@ -49480,10 +49506,10 @@
     </row>
     <row r="415" spans="2:95" ht="15">
       <c r="B415" s="4" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="D415" s="4">
         <v>10</v>
@@ -49501,7 +49527,7 @@
       <c r="I415" s="5"/>
       <c r="J415" s="7"/>
       <c r="K415" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L415" s="6" t="s">
         <v>12</v>
@@ -49592,16 +49618,16 @@
     </row>
     <row r="416" spans="2:95" ht="15">
       <c r="B416" s="4" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="C416" s="4" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="D416" s="4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E416" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F416" s="4" t="s">
         <v>10</v>
@@ -49613,7 +49639,7 @@
       <c r="I416" s="5"/>
       <c r="J416" s="7"/>
       <c r="K416" s="6" t="s">
-        <v>872</v>
+        <v>33</v>
       </c>
       <c r="L416" s="6" t="s">
         <v>12</v>
@@ -49704,13 +49730,13 @@
     </row>
     <row r="417" spans="2:95" ht="15">
       <c r="B417" s="4" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="D417" s="4">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E417" s="4" t="s">
         <v>2</v>
@@ -49725,7 +49751,7 @@
       <c r="I417" s="5"/>
       <c r="J417" s="7"/>
       <c r="K417" s="6" t="s">
-        <v>872</v>
+        <v>33</v>
       </c>
       <c r="L417" s="6" t="s">
         <v>12</v>
@@ -49816,18 +49842,18 @@
     </row>
     <row r="418" spans="2:95" ht="15">
       <c r="B418" s="4" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>882</v>
-      </c>
-      <c r="D418" s="4">
-        <v>5</v>
+        <v>869</v>
+      </c>
+      <c r="D418" s="5">
+        <v>0</v>
       </c>
       <c r="E418" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="F418" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="F418" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G418" s="5"/>
@@ -49837,7 +49863,7 @@
       <c r="I418" s="5"/>
       <c r="J418" s="7"/>
       <c r="K418" s="6" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="L418" s="6" t="s">
         <v>12</v>
@@ -49928,16 +49954,16 @@
     </row>
     <row r="419" spans="2:95" ht="15">
       <c r="B419" s="4" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="D419" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F419" s="4" t="s">
         <v>10</v>
@@ -49949,7 +49975,7 @@
       <c r="I419" s="5"/>
       <c r="J419" s="7"/>
       <c r="K419" s="6" t="s">
-        <v>807</v>
+        <v>872</v>
       </c>
       <c r="L419" s="6" t="s">
         <v>12</v>
@@ -50040,16 +50066,16 @@
     </row>
     <row r="420" spans="2:95" ht="15">
       <c r="B420" s="4" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
       <c r="C420" s="4" t="s">
-        <v>886</v>
+        <v>874</v>
       </c>
       <c r="D420" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E420" s="4" t="s">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="F420" s="4" t="s">
         <v>10</v>
@@ -50060,9 +50086,7 @@
       </c>
       <c r="I420" s="5"/>
       <c r="J420" s="7"/>
-      <c r="K420" s="6" t="s">
-        <v>17</v>
-      </c>
+      <c r="K420" s="3"/>
       <c r="L420" s="6" t="s">
         <v>12</v>
       </c>
@@ -50152,16 +50176,16 @@
     </row>
     <row r="421" spans="2:95" ht="15">
       <c r="B421" s="4" t="s">
-        <v>887</v>
+        <v>875</v>
       </c>
       <c r="C421" s="4" t="s">
-        <v>888</v>
+        <v>876</v>
       </c>
       <c r="D421" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F421" s="4" t="s">
         <v>10</v>
@@ -50173,7 +50197,7 @@
       <c r="I421" s="5"/>
       <c r="J421" s="7"/>
       <c r="K421" s="6" t="s">
-        <v>872</v>
+        <v>127</v>
       </c>
       <c r="L421" s="6" t="s">
         <v>12</v>
@@ -50264,13 +50288,13 @@
     </row>
     <row r="422" spans="2:95" ht="15">
       <c r="B422" s="4" t="s">
-        <v>889</v>
+        <v>877</v>
       </c>
       <c r="C422" s="4" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
       <c r="D422" s="4">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="E422" s="4" t="s">
         <v>2</v>
@@ -50376,18 +50400,18 @@
     </row>
     <row r="423" spans="2:95" ht="15">
       <c r="B423" s="4" t="s">
-        <v>891</v>
+        <v>879</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>892</v>
-      </c>
-      <c r="D423" s="5">
-        <v>0</v>
+        <v>880</v>
+      </c>
+      <c r="D423" s="4">
+        <v>24</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="F423" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F423" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G423" s="5"/>
@@ -50396,7 +50420,9 @@
       </c>
       <c r="I423" s="5"/>
       <c r="J423" s="7"/>
-      <c r="K423" s="3"/>
+      <c r="K423" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="L423" s="6" t="s">
         <v>12</v>
       </c>
@@ -50486,18 +50512,18 @@
     </row>
     <row r="424" spans="2:95" ht="15">
       <c r="B424" s="4" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="D424" s="5">
-        <v>0</v>
+        <v>882</v>
+      </c>
+      <c r="D424" s="4">
+        <v>5</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="F424" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F424" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G424" s="5"/>
@@ -50506,7 +50532,9 @@
       </c>
       <c r="I424" s="5"/>
       <c r="J424" s="7"/>
-      <c r="K424" s="3"/>
+      <c r="K424" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="L424" s="6" t="s">
         <v>12</v>
       </c>
@@ -50596,18 +50624,18 @@
     </row>
     <row r="425" spans="2:95" ht="15">
       <c r="B425" s="4" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="D425" s="5">
-        <v>0</v>
+        <v>884</v>
+      </c>
+      <c r="D425" s="4">
+        <v>10</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="F425" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F425" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G425" s="5"/>
@@ -50616,7 +50644,9 @@
       </c>
       <c r="I425" s="5"/>
       <c r="J425" s="7"/>
-      <c r="K425" s="3"/>
+      <c r="K425" s="6" t="s">
+        <v>807</v>
+      </c>
       <c r="L425" s="6" t="s">
         <v>12</v>
       </c>
@@ -50706,18 +50736,18 @@
     </row>
     <row r="426" spans="2:95" ht="15">
       <c r="B426" s="4" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="C426" s="4" t="s">
-        <v>899</v>
-      </c>
-      <c r="D426" s="5">
-        <v>0</v>
+        <v>886</v>
+      </c>
+      <c r="D426" s="4">
+        <v>10</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="F426" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F426" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G426" s="5"/>
@@ -50726,7 +50756,9 @@
       </c>
       <c r="I426" s="5"/>
       <c r="J426" s="7"/>
-      <c r="K426" s="3"/>
+      <c r="K426" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="L426" s="6" t="s">
         <v>12</v>
       </c>
@@ -50816,18 +50848,18 @@
     </row>
     <row r="427" spans="2:95" ht="15">
       <c r="B427" s="4" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="D427" s="5">
-        <v>0</v>
+        <v>888</v>
+      </c>
+      <c r="D427" s="4">
+        <v>6</v>
       </c>
       <c r="E427" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="F427" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F427" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G427" s="5"/>
@@ -50836,7 +50868,9 @@
       </c>
       <c r="I427" s="5"/>
       <c r="J427" s="7"/>
-      <c r="K427" s="3"/>
+      <c r="K427" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="L427" s="6" t="s">
         <v>12</v>
       </c>
@@ -50926,18 +50960,18 @@
     </row>
     <row r="428" spans="2:95" ht="15">
       <c r="B428" s="4" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="C428" s="4" t="s">
-        <v>903</v>
-      </c>
-      <c r="D428" s="5">
-        <v>0</v>
+        <v>890</v>
+      </c>
+      <c r="D428" s="4">
+        <v>12</v>
       </c>
       <c r="E428" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="F428" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F428" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G428" s="5"/>
@@ -50946,7 +50980,9 @@
       </c>
       <c r="I428" s="5"/>
       <c r="J428" s="7"/>
-      <c r="K428" s="3"/>
+      <c r="K428" s="6" t="s">
+        <v>872</v>
+      </c>
       <c r="L428" s="6" t="s">
         <v>12</v>
       </c>
@@ -51036,10 +51072,10 @@
     </row>
     <row r="429" spans="2:95" ht="15">
       <c r="B429" s="4" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
       <c r="C429" s="4" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="D429" s="5">
         <v>0</v>
@@ -51146,10 +51182,10 @@
     </row>
     <row r="430" spans="2:95" ht="15">
       <c r="B430" s="4" t="s">
-        <v>906</v>
+        <v>894</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>907</v>
+        <v>895</v>
       </c>
       <c r="D430" s="5">
         <v>0</v>
@@ -51256,10 +51292,10 @@
     </row>
     <row r="431" spans="2:95" ht="15">
       <c r="B431" s="4" t="s">
-        <v>908</v>
+        <v>896</v>
       </c>
       <c r="C431" s="4" t="s">
-        <v>909</v>
+        <v>897</v>
       </c>
       <c r="D431" s="5">
         <v>0</v>
@@ -51366,16 +51402,16 @@
     </row>
     <row r="432" spans="2:95" ht="15">
       <c r="B432" s="4" t="s">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="C432" s="4" t="s">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="D432" s="5">
         <v>0</v>
       </c>
       <c r="E432" s="4" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
       <c r="F432" s="5" t="s">
         <v>10</v>
@@ -51476,10 +51512,10 @@
     </row>
     <row r="433" spans="2:95" ht="15">
       <c r="B433" s="4" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="D433" s="5">
         <v>0</v>
@@ -51586,16 +51622,16 @@
     </row>
     <row r="434" spans="2:95" ht="15">
       <c r="B434" s="4" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="C434" s="4" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="D434" s="5">
         <v>0</v>
       </c>
       <c r="E434" s="4" t="s">
-        <v>51</v>
+        <v>893</v>
       </c>
       <c r="F434" s="5" t="s">
         <v>10</v>
@@ -51696,18 +51732,18 @@
     </row>
     <row r="435" spans="2:95" ht="15">
       <c r="B435" s="4" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="C435" s="4" t="s">
-        <v>918</v>
-      </c>
-      <c r="D435" s="4">
-        <v>1</v>
+        <v>905</v>
+      </c>
+      <c r="D435" s="5">
+        <v>0</v>
       </c>
       <c r="E435" s="4" t="s">
-        <v>736</v>
-      </c>
-      <c r="F435" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="F435" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G435" s="5"/>
@@ -51716,9 +51752,7 @@
       </c>
       <c r="I435" s="5"/>
       <c r="J435" s="7"/>
-      <c r="K435" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="K435" s="3"/>
       <c r="L435" s="6" t="s">
         <v>12</v>
       </c>
@@ -51808,16 +51842,16 @@
     </row>
     <row r="436" spans="2:95" ht="15">
       <c r="B436" s="4" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="C436" s="4" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="D436" s="5">
         <v>0</v>
       </c>
       <c r="E436" s="4" t="s">
-        <v>51</v>
+        <v>893</v>
       </c>
       <c r="F436" s="5" t="s">
         <v>10</v>
@@ -51918,19 +51952,19 @@
     </row>
     <row r="437" spans="2:95" ht="15">
       <c r="B437" s="4" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="C437" s="4" t="s">
-        <v>922</v>
-      </c>
-      <c r="D437" s="4">
-        <v>4</v>
+        <v>909</v>
+      </c>
+      <c r="D437" s="5">
+        <v>0</v>
       </c>
       <c r="E437" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F437" s="4" t="s">
-        <v>32</v>
+        <v>893</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G437" s="5"/>
       <c r="H437" s="4" t="s">
@@ -51938,9 +51972,7 @@
       </c>
       <c r="I437" s="5"/>
       <c r="J437" s="7"/>
-      <c r="K437" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="K437" s="3"/>
       <c r="L437" s="6" t="s">
         <v>12</v>
       </c>
@@ -52030,16 +52062,16 @@
     </row>
     <row r="438" spans="2:95" ht="15">
       <c r="B438" s="4" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="C438" s="4" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="D438" s="5">
         <v>0</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>51</v>
+        <v>912</v>
       </c>
       <c r="F438" s="5" t="s">
         <v>10</v>
@@ -52140,16 +52172,16 @@
     </row>
     <row r="439" spans="2:95" ht="15">
       <c r="B439" s="4" t="s">
-        <v>925</v>
+        <v>913</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>926</v>
+        <v>914</v>
       </c>
       <c r="D439" s="5">
         <v>0</v>
       </c>
       <c r="E439" s="4" t="s">
-        <v>112</v>
+        <v>893</v>
       </c>
       <c r="F439" s="5" t="s">
         <v>10</v>
@@ -52250,18 +52282,18 @@
     </row>
     <row r="440" spans="2:95" ht="15">
       <c r="B440" s="4" t="s">
-        <v>927</v>
+        <v>915</v>
       </c>
       <c r="C440" s="4" t="s">
-        <v>928</v>
-      </c>
-      <c r="D440" s="4">
-        <v>4</v>
+        <v>916</v>
+      </c>
+      <c r="D440" s="5">
+        <v>0</v>
       </c>
       <c r="E440" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F440" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F440" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G440" s="5"/>
@@ -52270,9 +52302,7 @@
       </c>
       <c r="I440" s="5"/>
       <c r="J440" s="7"/>
-      <c r="K440" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K440" s="3"/>
       <c r="L440" s="6" t="s">
         <v>12</v>
       </c>
@@ -52362,18 +52392,18 @@
     </row>
     <row r="441" spans="2:95" ht="15">
       <c r="B441" s="4" t="s">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="C441" s="4" t="s">
-        <v>930</v>
-      </c>
-      <c r="D441" s="5">
-        <v>0</v>
+        <v>918</v>
+      </c>
+      <c r="D441" s="4">
+        <v>1</v>
       </c>
       <c r="E441" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F441" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="F441" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G441" s="5"/>
@@ -52382,7 +52412,9 @@
       </c>
       <c r="I441" s="5"/>
       <c r="J441" s="7"/>
-      <c r="K441" s="3"/>
+      <c r="K441" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="L441" s="6" t="s">
         <v>12</v>
       </c>
@@ -52472,16 +52504,16 @@
     </row>
     <row r="442" spans="2:95" ht="15">
       <c r="B442" s="4" t="s">
-        <v>931</v>
+        <v>919</v>
       </c>
       <c r="C442" s="4" t="s">
-        <v>932</v>
+        <v>920</v>
       </c>
       <c r="D442" s="5">
         <v>0</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F442" s="5" t="s">
         <v>10</v>
@@ -52582,19 +52614,19 @@
     </row>
     <row r="443" spans="2:95" ht="15">
       <c r="B443" s="4" t="s">
-        <v>933</v>
+        <v>921</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>934</v>
-      </c>
-      <c r="D443" s="5">
-        <v>0</v>
+        <v>922</v>
+      </c>
+      <c r="D443" s="4">
+        <v>4</v>
       </c>
       <c r="E443" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F443" s="5" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="F443" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G443" s="5"/>
       <c r="H443" s="4" t="s">
@@ -52602,7 +52634,9 @@
       </c>
       <c r="I443" s="5"/>
       <c r="J443" s="7"/>
-      <c r="K443" s="3"/>
+      <c r="K443" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="L443" s="6" t="s">
         <v>12</v>
       </c>
@@ -52692,16 +52726,16 @@
     </row>
     <row r="444" spans="2:95" ht="15">
       <c r="B444" s="4" t="s">
-        <v>935</v>
+        <v>923</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>936</v>
+        <v>924</v>
       </c>
       <c r="D444" s="5">
         <v>0</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="F444" s="5" t="s">
         <v>10</v>
@@ -52802,10 +52836,10 @@
     </row>
     <row r="445" spans="2:95" ht="15">
       <c r="B445" s="4" t="s">
-        <v>937</v>
+        <v>925</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>938</v>
+        <v>926</v>
       </c>
       <c r="D445" s="5">
         <v>0</v>
@@ -52912,23 +52946,21 @@
     </row>
     <row r="446" spans="2:95" ht="15">
       <c r="B446" s="4" t="s">
-        <v>939</v>
+        <v>927</v>
       </c>
       <c r="C446" s="4" t="s">
-        <v>940</v>
+        <v>928</v>
       </c>
       <c r="D446" s="4">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F446" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G446" s="4" t="s">
-        <v>941</v>
-      </c>
+      <c r="G446" s="5"/>
       <c r="H446" s="4" t="s">
         <v>727</v>
       </c>
@@ -53026,18 +53058,18 @@
     </row>
     <row r="447" spans="2:95" ht="15">
       <c r="B447" s="4" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="C447" s="4" t="s">
-        <v>943</v>
-      </c>
-      <c r="D447" s="4">
-        <v>18</v>
+        <v>930</v>
+      </c>
+      <c r="D447" s="5">
+        <v>0</v>
       </c>
       <c r="E447" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F447" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F447" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G447" s="5"/>
@@ -53046,9 +53078,7 @@
       </c>
       <c r="I447" s="5"/>
       <c r="J447" s="7"/>
-      <c r="K447" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K447" s="3"/>
       <c r="L447" s="6" t="s">
         <v>12</v>
       </c>
@@ -53138,16 +53168,16 @@
     </row>
     <row r="448" spans="2:95" ht="15">
       <c r="B448" s="4" t="s">
-        <v>240</v>
+        <v>931</v>
       </c>
       <c r="C448" s="4" t="s">
-        <v>241</v>
+        <v>932</v>
       </c>
       <c r="D448" s="5">
         <v>0</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="F448" s="5" t="s">
         <v>10</v>
@@ -53248,16 +53278,16 @@
     </row>
     <row r="449" spans="2:95" ht="15">
       <c r="B449" s="4" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="D449" s="5">
         <v>0</v>
       </c>
       <c r="E449" s="4" t="s">
-        <v>893</v>
+        <v>112</v>
       </c>
       <c r="F449" s="5" t="s">
         <v>10</v>
@@ -53358,16 +53388,16 @@
     </row>
     <row r="450" spans="2:95" ht="15">
       <c r="B450" s="4" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="D450" s="5">
         <v>0</v>
       </c>
       <c r="E450" s="4" t="s">
-        <v>893</v>
+        <v>112</v>
       </c>
       <c r="F450" s="5" t="s">
         <v>10</v>
@@ -53468,16 +53498,16 @@
     </row>
     <row r="451" spans="2:95" ht="15">
       <c r="B451" s="4" t="s">
-        <v>948</v>
+        <v>937</v>
       </c>
       <c r="C451" s="4" t="s">
-        <v>949</v>
+        <v>938</v>
       </c>
       <c r="D451" s="5">
         <v>0</v>
       </c>
       <c r="E451" s="4" t="s">
-        <v>893</v>
+        <v>112</v>
       </c>
       <c r="F451" s="5" t="s">
         <v>10</v>
@@ -53578,27 +53608,31 @@
     </row>
     <row r="452" spans="2:95" ht="15">
       <c r="B452" s="4" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="C452" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="D452" s="5">
-        <v>0</v>
+        <v>940</v>
+      </c>
+      <c r="D452" s="4">
+        <v>60</v>
       </c>
       <c r="E452" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F452" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F452" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G452" s="5"/>
+      <c r="G452" s="4" t="s">
+        <v>941</v>
+      </c>
       <c r="H452" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I452" s="5"/>
       <c r="J452" s="7"/>
-      <c r="K452" s="3"/>
+      <c r="K452" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L452" s="6" t="s">
         <v>12</v>
       </c>
@@ -53688,30 +53722,28 @@
     </row>
     <row r="453" spans="2:95" ht="15">
       <c r="B453" s="4" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
       <c r="C453" s="4" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
       <c r="D453" s="4">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E453" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F453" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G453" s="4" t="s">
-        <v>954</v>
-      </c>
+      <c r="G453" s="5"/>
       <c r="H453" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I453" s="5"/>
       <c r="J453" s="7"/>
       <c r="K453" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L453" s="6" t="s">
         <v>12</v>
@@ -53802,31 +53834,27 @@
     </row>
     <row r="454" spans="2:95" ht="15">
       <c r="B454" s="4" t="s">
-        <v>955</v>
+        <v>240</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>956</v>
-      </c>
-      <c r="D454" s="4">
-        <v>200</v>
+        <v>241</v>
+      </c>
+      <c r="D454" s="5">
+        <v>0</v>
       </c>
       <c r="E454" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="F454" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F454" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G454" s="4" t="s">
-        <v>958</v>
-      </c>
+      <c r="G454" s="5"/>
       <c r="H454" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I454" s="5"/>
       <c r="J454" s="7"/>
-      <c r="K454" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K454" s="3"/>
       <c r="L454" s="6" t="s">
         <v>12</v>
       </c>
@@ -53916,18 +53944,18 @@
     </row>
     <row r="455" spans="2:95" ht="15">
       <c r="B455" s="4" t="s">
-        <v>959</v>
+        <v>944</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="D455" s="4">
-        <v>120</v>
+        <v>945</v>
+      </c>
+      <c r="D455" s="5">
+        <v>0</v>
       </c>
       <c r="E455" s="4" t="s">
-        <v>957</v>
-      </c>
-      <c r="F455" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="F455" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G455" s="5"/>
@@ -53936,9 +53964,7 @@
       </c>
       <c r="I455" s="5"/>
       <c r="J455" s="7"/>
-      <c r="K455" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K455" s="3"/>
       <c r="L455" s="6" t="s">
         <v>12</v>
       </c>
@@ -54028,16 +54054,16 @@
     </row>
     <row r="456" spans="2:95" ht="15">
       <c r="B456" s="4" t="s">
-        <v>499</v>
+        <v>946</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>500</v>
+        <v>947</v>
       </c>
       <c r="D456" s="5">
         <v>0</v>
       </c>
       <c r="E456" s="4" t="s">
-        <v>51</v>
+        <v>893</v>
       </c>
       <c r="F456" s="5" t="s">
         <v>10</v>
@@ -54138,18 +54164,18 @@
     </row>
     <row r="457" spans="2:95" ht="15">
       <c r="B457" s="4" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>962</v>
-      </c>
-      <c r="D457" s="4">
+        <v>949</v>
+      </c>
+      <c r="D457" s="5">
         <v>0</v>
       </c>
       <c r="E457" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F457" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="F457" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G457" s="5"/>
@@ -54248,10 +54274,10 @@
     </row>
     <row r="458" spans="2:95" ht="15">
       <c r="B458" s="4" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="C458" s="4" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="D458" s="5">
         <v>0</v>
@@ -54358,13 +54384,13 @@
     </row>
     <row r="459" spans="2:95" ht="15">
       <c r="B459" s="4" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="D459" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E459" s="4" t="s">
         <v>2</v>
@@ -54372,13 +54398,17 @@
       <c r="F459" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G459" s="5"/>
+      <c r="G459" s="4" t="s">
+        <v>954</v>
+      </c>
       <c r="H459" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I459" s="5"/>
       <c r="J459" s="7"/>
-      <c r="K459" s="3"/>
+      <c r="K459" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="L459" s="6" t="s">
         <v>12</v>
       </c>
@@ -54468,27 +54498,31 @@
     </row>
     <row r="460" spans="2:95" ht="15">
       <c r="B460" s="4" t="s">
-        <v>967</v>
+        <v>955</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>968</v>
+        <v>956</v>
       </c>
       <c r="D460" s="4">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E460" s="4" t="s">
-        <v>2</v>
+        <v>957</v>
       </c>
       <c r="F460" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G460" s="5"/>
+      <c r="G460" s="4" t="s">
+        <v>958</v>
+      </c>
       <c r="H460" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I460" s="5"/>
       <c r="J460" s="7"/>
-      <c r="K460" s="3"/>
+      <c r="K460" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="L460" s="6" t="s">
         <v>12</v>
       </c>
@@ -54578,16 +54612,16 @@
     </row>
     <row r="461" spans="2:95" ht="15">
       <c r="B461" s="4" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
       <c r="C461" s="4" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
       <c r="D461" s="4">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="E461" s="4" t="s">
-        <v>2</v>
+        <v>957</v>
       </c>
       <c r="F461" s="4" t="s">
         <v>10</v>
@@ -54598,7 +54632,9 @@
       </c>
       <c r="I461" s="5"/>
       <c r="J461" s="7"/>
-      <c r="K461" s="3"/>
+      <c r="K461" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="L461" s="6" t="s">
         <v>12</v>
       </c>
@@ -54688,18 +54724,18 @@
     </row>
     <row r="462" spans="2:95" ht="15">
       <c r="B462" s="4" t="s">
-        <v>971</v>
+        <v>499</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>972</v>
-      </c>
-      <c r="D462" s="4">
+        <v>500</v>
+      </c>
+      <c r="D462" s="5">
         <v>0</v>
       </c>
       <c r="E462" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F462" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F462" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G462" s="5"/>
@@ -54798,10 +54834,10 @@
     </row>
     <row r="463" spans="2:95" ht="15">
       <c r="B463" s="4" t="s">
-        <v>973</v>
+        <v>961</v>
       </c>
       <c r="C463" s="4" t="s">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="D463" s="4">
         <v>0</v>
@@ -54908,18 +54944,18 @@
     </row>
     <row r="464" spans="2:95" ht="15">
       <c r="B464" s="4" t="s">
-        <v>975</v>
+        <v>963</v>
       </c>
       <c r="C464" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="D464" s="4">
+        <v>964</v>
+      </c>
+      <c r="D464" s="5">
         <v>0</v>
       </c>
       <c r="E464" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F464" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F464" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G464" s="5"/>
@@ -55018,10 +55054,10 @@
     </row>
     <row r="465" spans="2:95" ht="15">
       <c r="B465" s="4" t="s">
-        <v>977</v>
+        <v>965</v>
       </c>
       <c r="C465" s="4" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="D465" s="4">
         <v>0</v>
@@ -55128,10 +55164,10 @@
     </row>
     <row r="466" spans="2:95" ht="15">
       <c r="B466" s="4" t="s">
-        <v>979</v>
+        <v>967</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="D466" s="4">
         <v>0</v>
@@ -55238,18 +55274,18 @@
     </row>
     <row r="467" spans="2:95" ht="15">
       <c r="B467" s="4" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="C467" s="4" t="s">
-        <v>982</v>
-      </c>
-      <c r="D467" s="5">
+        <v>970</v>
+      </c>
+      <c r="D467" s="4">
         <v>0</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F467" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F467" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G467" s="5"/>
@@ -55348,10 +55384,10 @@
     </row>
     <row r="468" spans="2:95" ht="15">
       <c r="B468" s="4" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="D468" s="4">
         <v>0</v>
@@ -55458,10 +55494,10 @@
     </row>
     <row r="469" spans="2:95" ht="15">
       <c r="B469" s="4" t="s">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="C469" s="4" t="s">
-        <v>986</v>
+        <v>974</v>
       </c>
       <c r="D469" s="4">
         <v>0</v>
@@ -55568,10 +55604,10 @@
     </row>
     <row r="470" spans="2:95" ht="15">
       <c r="B470" s="4" t="s">
-        <v>987</v>
+        <v>975</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>988</v>
+        <v>976</v>
       </c>
       <c r="D470" s="4">
         <v>0</v>
@@ -55678,10 +55714,10 @@
     </row>
     <row r="471" spans="2:95" ht="15">
       <c r="B471" s="4" t="s">
-        <v>989</v>
+        <v>977</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>990</v>
+        <v>978</v>
       </c>
       <c r="D471" s="4">
         <v>0</v>
@@ -55788,10 +55824,10 @@
     </row>
     <row r="472" spans="2:95" ht="15">
       <c r="B472" s="4" t="s">
-        <v>991</v>
+        <v>979</v>
       </c>
       <c r="C472" s="4" t="s">
-        <v>992</v>
+        <v>980</v>
       </c>
       <c r="D472" s="4">
         <v>0</v>
@@ -55898,18 +55934,18 @@
     </row>
     <row r="473" spans="2:95" ht="15">
       <c r="B473" s="4" t="s">
-        <v>993</v>
+        <v>981</v>
       </c>
       <c r="C473" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="D473" s="4">
+        <v>982</v>
+      </c>
+      <c r="D473" s="5">
         <v>0</v>
       </c>
       <c r="E473" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F473" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F473" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G473" s="5"/>
@@ -56008,10 +56044,10 @@
     </row>
     <row r="474" spans="2:95" ht="15">
       <c r="B474" s="4" t="s">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="C474" s="4" t="s">
-        <v>996</v>
+        <v>984</v>
       </c>
       <c r="D474" s="4">
         <v>0</v>
@@ -56118,10 +56154,10 @@
     </row>
     <row r="475" spans="2:95" ht="15">
       <c r="B475" s="4" t="s">
-        <v>997</v>
+        <v>985</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>998</v>
+        <v>986</v>
       </c>
       <c r="D475" s="4">
         <v>0</v>
@@ -56228,10 +56264,10 @@
     </row>
     <row r="476" spans="2:95" ht="15">
       <c r="B476" s="4" t="s">
-        <v>999</v>
+        <v>987</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1000</v>
+        <v>988</v>
       </c>
       <c r="D476" s="4">
         <v>0</v>
@@ -56338,18 +56374,18 @@
     </row>
     <row r="477" spans="2:95" ht="15">
       <c r="B477" s="4" t="s">
-        <v>1001</v>
+        <v>989</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D477" s="5">
+        <v>990</v>
+      </c>
+      <c r="D477" s="4">
         <v>0</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F477" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F477" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G477" s="5"/>
@@ -56358,9 +56394,7 @@
       </c>
       <c r="I477" s="5"/>
       <c r="J477" s="7"/>
-      <c r="K477" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="K477" s="3"/>
       <c r="L477" s="6" t="s">
         <v>12</v>
       </c>
@@ -56450,18 +56484,18 @@
     </row>
     <row r="478" spans="2:95" ht="15">
       <c r="B478" s="4" t="s">
-        <v>1003</v>
+        <v>991</v>
       </c>
       <c r="C478" s="4" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D478" s="5">
+        <v>992</v>
+      </c>
+      <c r="D478" s="4">
         <v>0</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F478" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F478" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G478" s="5"/>
@@ -56560,18 +56594,18 @@
     </row>
     <row r="479" spans="2:95" ht="15">
       <c r="B479" s="4" t="s">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="C479" s="4" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D479" s="5">
+        <v>994</v>
+      </c>
+      <c r="D479" s="4">
         <v>0</v>
       </c>
       <c r="E479" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F479" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F479" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G479" s="5"/>
@@ -56670,18 +56704,18 @@
     </row>
     <row r="480" spans="2:95" ht="15">
       <c r="B480" s="4" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="C480" s="4" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D480" s="5">
+        <v>996</v>
+      </c>
+      <c r="D480" s="4">
         <v>0</v>
       </c>
       <c r="E480" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F480" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F480" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G480" s="5"/>
@@ -56779,19 +56813,19 @@
       <c r="CQ480" s="3"/>
     </row>
     <row r="481" spans="2:95" ht="15">
-      <c r="B481" s="4">
-        <v>1501501</v>
+      <c r="B481" s="4" t="s">
+        <v>997</v>
       </c>
       <c r="C481" s="4" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D481" s="5">
+        <v>998</v>
+      </c>
+      <c r="D481" s="4">
         <v>0</v>
       </c>
       <c r="E481" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F481" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F481" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G481" s="5"/>
@@ -56889,19 +56923,19 @@
       <c r="CQ481" s="3"/>
     </row>
     <row r="482" spans="2:95" ht="15">
-      <c r="B482" s="4">
-        <v>1502211</v>
+      <c r="B482" s="4" t="s">
+        <v>999</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D482" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D482" s="4">
         <v>0</v>
       </c>
       <c r="E482" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F482" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F482" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G482" s="5"/>
@@ -56999,17 +57033,17 @@
       <c r="CQ482" s="3"/>
     </row>
     <row r="483" spans="2:95" ht="15">
-      <c r="B483" s="4">
-        <v>1502218</v>
+      <c r="B483" s="4" t="s">
+        <v>1001</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>1011</v>
+        <v>1002</v>
       </c>
       <c r="D483" s="5">
         <v>0</v>
       </c>
       <c r="E483" s="4" t="s">
-        <v>523</v>
+        <v>51</v>
       </c>
       <c r="F483" s="5" t="s">
         <v>10</v>
@@ -57020,7 +57054,9 @@
       </c>
       <c r="I483" s="5"/>
       <c r="J483" s="7"/>
-      <c r="K483" s="3"/>
+      <c r="K483" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="L483" s="6" t="s">
         <v>12</v>
       </c>
@@ -57109,17 +57145,17 @@
       <c r="CQ483" s="3"/>
     </row>
     <row r="484" spans="2:95" ht="15">
-      <c r="B484" s="4">
-        <v>1502230</v>
+      <c r="B484" s="4" t="s">
+        <v>1003</v>
       </c>
       <c r="C484" s="4" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="D484" s="5">
         <v>0</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>523</v>
+        <v>51</v>
       </c>
       <c r="F484" s="5" t="s">
         <v>10</v>
@@ -57219,17 +57255,17 @@
       <c r="CQ484" s="3"/>
     </row>
     <row r="485" spans="2:95" ht="15">
-      <c r="B485" s="4">
-        <v>1502231</v>
+      <c r="B485" s="4" t="s">
+        <v>1005</v>
       </c>
       <c r="C485" s="4" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="D485" s="5">
         <v>0</v>
       </c>
       <c r="E485" s="4" t="s">
-        <v>523</v>
+        <v>51</v>
       </c>
       <c r="F485" s="5" t="s">
         <v>10</v>
@@ -57329,17 +57365,17 @@
       <c r="CQ485" s="3"/>
     </row>
     <row r="486" spans="2:95" ht="15">
-      <c r="B486" s="4">
-        <v>1502250</v>
+      <c r="B486" s="4" t="s">
+        <v>1007</v>
       </c>
       <c r="C486" s="4" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="D486" s="5">
         <v>0</v>
       </c>
       <c r="E486" s="4" t="s">
-        <v>523</v>
+        <v>51</v>
       </c>
       <c r="F486" s="5" t="s">
         <v>10</v>
@@ -57440,10 +57476,10 @@
     </row>
     <row r="487" spans="2:95" ht="15">
       <c r="B487" s="4">
-        <v>1502251</v>
+        <v>1501501</v>
       </c>
       <c r="C487" s="4" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D487" s="5">
         <v>0</v>
@@ -57550,10 +57586,10 @@
     </row>
     <row r="488" spans="2:95" ht="15">
       <c r="B488" s="4">
-        <v>1502252</v>
+        <v>1502211</v>
       </c>
       <c r="C488" s="4" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D488" s="5">
         <v>0</v>
@@ -57660,10 +57696,10 @@
     </row>
     <row r="489" spans="2:95" ht="15">
       <c r="B489" s="4">
-        <v>1502256</v>
+        <v>1502218</v>
       </c>
       <c r="C489" s="4" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="D489" s="5">
         <v>0</v>
@@ -57770,10 +57806,10 @@
     </row>
     <row r="490" spans="2:95" ht="15">
       <c r="B490" s="4">
-        <v>1502257</v>
+        <v>1502230</v>
       </c>
       <c r="C490" s="4" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="D490" s="5">
         <v>0</v>
@@ -57880,10 +57916,10 @@
     </row>
     <row r="491" spans="2:95" ht="15">
       <c r="B491" s="4">
-        <v>1502258</v>
+        <v>1502231</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="D491" s="5">
         <v>0</v>
@@ -57990,18 +58026,18 @@
     </row>
     <row r="492" spans="2:95" ht="15">
       <c r="B492" s="4">
-        <v>3341405</v>
+        <v>1502250</v>
       </c>
       <c r="C492" s="4" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D492" s="4">
-        <v>2</v>
+        <v>1014</v>
+      </c>
+      <c r="D492" s="5">
+        <v>0</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F492" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F492" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G492" s="5"/>
@@ -58010,9 +58046,7 @@
       </c>
       <c r="I492" s="5"/>
       <c r="J492" s="7"/>
-      <c r="K492" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K492" s="3"/>
       <c r="L492" s="6" t="s">
         <v>12</v>
       </c>
@@ -58102,18 +58136,18 @@
     </row>
     <row r="493" spans="2:95" ht="15">
       <c r="B493" s="4">
-        <v>3341407</v>
+        <v>1502251</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D493" s="4">
-        <v>2</v>
+        <v>1015</v>
+      </c>
+      <c r="D493" s="5">
+        <v>0</v>
       </c>
       <c r="E493" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F493" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F493" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G493" s="5"/>
@@ -58122,9 +58156,7 @@
       </c>
       <c r="I493" s="5"/>
       <c r="J493" s="7"/>
-      <c r="K493" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K493" s="3"/>
       <c r="L493" s="6" t="s">
         <v>12</v>
       </c>
@@ -58214,18 +58246,18 @@
     </row>
     <row r="494" spans="2:95" ht="15">
       <c r="B494" s="4">
-        <v>3341500</v>
+        <v>1502252</v>
       </c>
       <c r="C494" s="4" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D494" s="4">
-        <v>2</v>
+        <v>1016</v>
+      </c>
+      <c r="D494" s="5">
+        <v>0</v>
       </c>
       <c r="E494" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F494" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F494" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G494" s="5"/>
@@ -58234,9 +58266,7 @@
       </c>
       <c r="I494" s="5"/>
       <c r="J494" s="7"/>
-      <c r="K494" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K494" s="3"/>
       <c r="L494" s="6" t="s">
         <v>12</v>
       </c>
@@ -58326,10 +58356,10 @@
     </row>
     <row r="495" spans="2:95" ht="15">
       <c r="B495" s="4">
-        <v>3350012</v>
+        <v>1502256</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D495" s="5">
         <v>0</v>
@@ -58346,9 +58376,7 @@
       </c>
       <c r="I495" s="5"/>
       <c r="J495" s="7"/>
-      <c r="K495" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K495" s="3"/>
       <c r="L495" s="6" t="s">
         <v>12</v>
       </c>
@@ -58438,18 +58466,18 @@
     </row>
     <row r="496" spans="2:95" ht="15">
       <c r="B496" s="4">
-        <v>3350033</v>
+        <v>1502257</v>
       </c>
       <c r="C496" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D496" s="4">
+        <v>1018</v>
+      </c>
+      <c r="D496" s="5">
         <v>0</v>
       </c>
       <c r="E496" s="4" t="s">
-        <v>1025</v>
-      </c>
-      <c r="F496" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F496" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G496" s="5"/>
@@ -58458,9 +58486,7 @@
       </c>
       <c r="I496" s="5"/>
       <c r="J496" s="7"/>
-      <c r="K496" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K496" s="3"/>
       <c r="L496" s="6" t="s">
         <v>12</v>
       </c>
@@ -58550,18 +58576,18 @@
     </row>
     <row r="497" spans="2:95" ht="15">
       <c r="B497" s="4">
-        <v>3350034</v>
+        <v>1502258</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D497" s="4">
-        <v>533</v>
+        <v>1019</v>
+      </c>
+      <c r="D497" s="5">
+        <v>0</v>
       </c>
       <c r="E497" s="4" t="s">
-        <v>526</v>
-      </c>
-      <c r="F497" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="F497" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G497" s="5"/>
@@ -58570,9 +58596,7 @@
       </c>
       <c r="I497" s="5"/>
       <c r="J497" s="7"/>
-      <c r="K497" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K497" s="3"/>
       <c r="L497" s="6" t="s">
         <v>12</v>
       </c>
@@ -58662,18 +58686,18 @@
     </row>
     <row r="498" spans="2:95" ht="15">
       <c r="B498" s="4">
-        <v>3350035</v>
+        <v>3341405</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D498" s="5">
-        <v>0</v>
+        <v>1020</v>
+      </c>
+      <c r="D498" s="4">
+        <v>2</v>
       </c>
       <c r="E498" s="4" t="s">
-        <v>523</v>
-      </c>
-      <c r="F498" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F498" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G498" s="5"/>
@@ -58683,7 +58707,7 @@
       <c r="I498" s="5"/>
       <c r="J498" s="7"/>
       <c r="K498" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L498" s="6" t="s">
         <v>12</v>
@@ -58773,131 +58797,131 @@
       <c r="CQ498" s="3"/>
     </row>
     <row r="499" spans="2:95" ht="15">
-      <c r="B499" s="5">
-        <v>3350037</v>
-      </c>
-      <c r="C499" s="5" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D499" s="5">
-        <v>368</v>
-      </c>
-      <c r="E499" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="F499" s="5" t="s">
+      <c r="B499" s="4">
+        <v>3341407</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D499" s="4">
+        <v>2</v>
+      </c>
+      <c r="E499" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F499" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G499" s="5"/>
-      <c r="H499" s="5" t="s">
+      <c r="H499" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I499" s="5"/>
       <c r="J499" s="7"/>
       <c r="K499" s="6" t="s">
-        <v>1098</v>
+        <v>33</v>
       </c>
       <c r="L499" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M499" s="6"/>
-      <c r="N499" s="6"/>
-      <c r="O499" s="6"/>
-      <c r="P499" s="6"/>
-      <c r="Q499" s="6"/>
-      <c r="R499" s="6"/>
-      <c r="S499" s="6"/>
-      <c r="T499" s="6"/>
-      <c r="U499" s="6"/>
-      <c r="V499" s="6"/>
-      <c r="W499" s="6"/>
-      <c r="X499" s="6"/>
-      <c r="Y499" s="6"/>
-      <c r="Z499" s="6"/>
-      <c r="AA499" s="6"/>
-      <c r="AB499" s="6"/>
-      <c r="AC499" s="6"/>
-      <c r="AD499" s="6"/>
-      <c r="AE499" s="6"/>
-      <c r="AF499" s="6"/>
-      <c r="AG499" s="6"/>
-      <c r="AH499" s="6"/>
-      <c r="AI499" s="6"/>
-      <c r="AJ499" s="6"/>
-      <c r="AK499" s="6"/>
-      <c r="AL499" s="6"/>
-      <c r="AM499" s="6"/>
-      <c r="AN499" s="6"/>
-      <c r="AO499" s="6"/>
-      <c r="AP499" s="6"/>
-      <c r="AQ499" s="6"/>
-      <c r="AR499" s="6"/>
-      <c r="AS499" s="6"/>
-      <c r="AT499" s="6"/>
-      <c r="AU499" s="6"/>
-      <c r="AV499" s="6"/>
-      <c r="AW499" s="6"/>
-      <c r="AX499" s="6"/>
-      <c r="AY499" s="6"/>
-      <c r="AZ499" s="6"/>
-      <c r="BA499" s="6"/>
-      <c r="BB499" s="6"/>
-      <c r="BC499" s="6"/>
-      <c r="BD499" s="6"/>
-      <c r="BE499" s="6"/>
-      <c r="BF499" s="6"/>
-      <c r="BG499" s="6"/>
-      <c r="BH499" s="6"/>
-      <c r="BI499" s="6"/>
-      <c r="BJ499" s="6"/>
-      <c r="BK499" s="6"/>
-      <c r="BL499" s="6"/>
-      <c r="BM499" s="6"/>
-      <c r="BN499" s="6"/>
-      <c r="BO499" s="6"/>
-      <c r="BP499" s="6"/>
-      <c r="BQ499" s="6"/>
-      <c r="BR499" s="6"/>
-      <c r="BS499" s="6"/>
-      <c r="BT499" s="6"/>
-      <c r="BU499" s="6"/>
-      <c r="BV499" s="6"/>
-      <c r="BW499" s="6"/>
-      <c r="BX499" s="6"/>
-      <c r="BY499" s="6"/>
-      <c r="BZ499" s="6"/>
-      <c r="CA499" s="6"/>
-      <c r="CB499" s="6"/>
-      <c r="CC499" s="6"/>
-      <c r="CD499" s="6"/>
-      <c r="CE499" s="6"/>
-      <c r="CF499" s="6"/>
-      <c r="CG499" s="6"/>
-      <c r="CH499" s="6"/>
-      <c r="CI499" s="6"/>
-      <c r="CJ499" s="6"/>
-      <c r="CK499" s="6"/>
-      <c r="CL499" s="6"/>
-      <c r="CM499" s="6"/>
-      <c r="CN499" s="6"/>
-      <c r="CO499" s="6"/>
-      <c r="CP499" s="6"/>
-      <c r="CQ499" s="6"/>
+      <c r="M499" s="3"/>
+      <c r="N499" s="3"/>
+      <c r="O499" s="3"/>
+      <c r="P499" s="3"/>
+      <c r="Q499" s="3"/>
+      <c r="R499" s="3"/>
+      <c r="S499" s="3"/>
+      <c r="T499" s="3"/>
+      <c r="U499" s="3"/>
+      <c r="V499" s="3"/>
+      <c r="W499" s="3"/>
+      <c r="X499" s="3"/>
+      <c r="Y499" s="3"/>
+      <c r="Z499" s="3"/>
+      <c r="AA499" s="3"/>
+      <c r="AB499" s="3"/>
+      <c r="AC499" s="3"/>
+      <c r="AD499" s="3"/>
+      <c r="AE499" s="3"/>
+      <c r="AF499" s="3"/>
+      <c r="AG499" s="3"/>
+      <c r="AH499" s="3"/>
+      <c r="AI499" s="3"/>
+      <c r="AJ499" s="3"/>
+      <c r="AK499" s="3"/>
+      <c r="AL499" s="3"/>
+      <c r="AM499" s="3"/>
+      <c r="AN499" s="3"/>
+      <c r="AO499" s="3"/>
+      <c r="AP499" s="3"/>
+      <c r="AQ499" s="3"/>
+      <c r="AR499" s="3"/>
+      <c r="AS499" s="3"/>
+      <c r="AT499" s="3"/>
+      <c r="AU499" s="3"/>
+      <c r="AV499" s="3"/>
+      <c r="AW499" s="3"/>
+      <c r="AX499" s="3"/>
+      <c r="AY499" s="3"/>
+      <c r="AZ499" s="3"/>
+      <c r="BA499" s="3"/>
+      <c r="BB499" s="3"/>
+      <c r="BC499" s="3"/>
+      <c r="BD499" s="3"/>
+      <c r="BE499" s="3"/>
+      <c r="BF499" s="3"/>
+      <c r="BG499" s="3"/>
+      <c r="BH499" s="3"/>
+      <c r="BI499" s="3"/>
+      <c r="BJ499" s="3"/>
+      <c r="BK499" s="3"/>
+      <c r="BL499" s="3"/>
+      <c r="BM499" s="3"/>
+      <c r="BN499" s="3"/>
+      <c r="BO499" s="3"/>
+      <c r="BP499" s="3"/>
+      <c r="BQ499" s="3"/>
+      <c r="BR499" s="3"/>
+      <c r="BS499" s="3"/>
+      <c r="BT499" s="3"/>
+      <c r="BU499" s="3"/>
+      <c r="BV499" s="3"/>
+      <c r="BW499" s="3"/>
+      <c r="BX499" s="3"/>
+      <c r="BY499" s="3"/>
+      <c r="BZ499" s="3"/>
+      <c r="CA499" s="3"/>
+      <c r="CB499" s="3"/>
+      <c r="CC499" s="3"/>
+      <c r="CD499" s="3"/>
+      <c r="CE499" s="3"/>
+      <c r="CF499" s="3"/>
+      <c r="CG499" s="3"/>
+      <c r="CH499" s="3"/>
+      <c r="CI499" s="3"/>
+      <c r="CJ499" s="3"/>
+      <c r="CK499" s="3"/>
+      <c r="CL499" s="3"/>
+      <c r="CM499" s="3"/>
+      <c r="CN499" s="3"/>
+      <c r="CO499" s="3"/>
+      <c r="CP499" s="3"/>
+      <c r="CQ499" s="3"/>
     </row>
     <row r="500" spans="2:95" ht="15">
       <c r="B500" s="4">
-        <v>3351310</v>
+        <v>3341500</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D500" s="5">
-        <v>0</v>
+        <v>1022</v>
+      </c>
+      <c r="D500" s="4">
+        <v>2</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="F500" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F500" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G500" s="5"/>
@@ -58906,7 +58930,9 @@
       </c>
       <c r="I500" s="5"/>
       <c r="J500" s="7"/>
-      <c r="K500" s="3"/>
+      <c r="K500" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="L500" s="6" t="s">
         <v>12</v>
       </c>
@@ -58996,16 +59022,16 @@
     </row>
     <row r="501" spans="2:95" ht="15">
       <c r="B501" s="4">
-        <v>3352102</v>
+        <v>3350012</v>
       </c>
       <c r="C501" s="4" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="D501" s="5">
         <v>0</v>
       </c>
       <c r="E501" s="4" t="s">
-        <v>1030</v>
+        <v>523</v>
       </c>
       <c r="F501" s="5" t="s">
         <v>10</v>
@@ -59016,7 +59042,9 @@
       </c>
       <c r="I501" s="5"/>
       <c r="J501" s="7"/>
-      <c r="K501" s="3"/>
+      <c r="K501" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="L501" s="6" t="s">
         <v>12</v>
       </c>
@@ -59106,16 +59134,16 @@
     </row>
     <row r="502" spans="2:95" ht="15">
       <c r="B502" s="4">
-        <v>3352411</v>
+        <v>3350033</v>
       </c>
       <c r="C502" s="4" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="D502" s="4">
         <v>0</v>
       </c>
       <c r="E502" s="4" t="s">
-        <v>72</v>
+        <v>1025</v>
       </c>
       <c r="F502" s="4" t="s">
         <v>10</v>
@@ -59218,23 +59246,21 @@
     </row>
     <row r="503" spans="2:95" ht="15">
       <c r="B503" s="4">
-        <v>3352412</v>
+        <v>3350034</v>
       </c>
       <c r="C503" s="4" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="D503" s="4">
-        <v>2</v>
+        <v>533</v>
       </c>
       <c r="E503" s="4" t="s">
-        <v>72</v>
+        <v>526</v>
       </c>
       <c r="F503" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G503" s="4" t="s">
-        <v>1033</v>
-      </c>
+      <c r="G503" s="5"/>
       <c r="H503" s="4" t="s">
         <v>727</v>
       </c>
@@ -59332,10 +59358,10 @@
     </row>
     <row r="504" spans="2:95" ht="15">
       <c r="B504" s="4">
-        <v>3353101</v>
+        <v>3350035</v>
       </c>
       <c r="C504" s="4" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="D504" s="5">
         <v>0</v>
@@ -59352,7 +59378,9 @@
       </c>
       <c r="I504" s="5"/>
       <c r="J504" s="7"/>
-      <c r="K504" s="3"/>
+      <c r="K504" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="L504" s="6" t="s">
         <v>12</v>
       </c>
@@ -59441,127 +59469,129 @@
       <c r="CQ504" s="3"/>
     </row>
     <row r="505" spans="2:95" ht="15">
-      <c r="B505" s="4">
-        <v>3353105</v>
-      </c>
-      <c r="C505" s="4" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D505" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E505" s="4" t="s">
-        <v>77</v>
+      <c r="B505" s="5">
+        <v>3350037</v>
+      </c>
+      <c r="C505" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D505" s="5">
+        <v>368</v>
+      </c>
+      <c r="E505" s="5" t="s">
+        <v>523</v>
       </c>
       <c r="F505" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G505" s="5"/>
-      <c r="H505" s="4" t="s">
+      <c r="H505" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I505" s="5"/>
       <c r="J505" s="7"/>
-      <c r="K505" s="3"/>
+      <c r="K505" s="6" t="s">
+        <v>1098</v>
+      </c>
       <c r="L505" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M505" s="3"/>
-      <c r="N505" s="3"/>
-      <c r="O505" s="3"/>
-      <c r="P505" s="3"/>
-      <c r="Q505" s="3"/>
-      <c r="R505" s="3"/>
-      <c r="S505" s="3"/>
-      <c r="T505" s="3"/>
-      <c r="U505" s="3"/>
-      <c r="V505" s="3"/>
-      <c r="W505" s="3"/>
-      <c r="X505" s="3"/>
-      <c r="Y505" s="3"/>
-      <c r="Z505" s="3"/>
-      <c r="AA505" s="3"/>
-      <c r="AB505" s="3"/>
-      <c r="AC505" s="3"/>
-      <c r="AD505" s="3"/>
-      <c r="AE505" s="3"/>
-      <c r="AF505" s="3"/>
-      <c r="AG505" s="3"/>
-      <c r="AH505" s="3"/>
-      <c r="AI505" s="3"/>
-      <c r="AJ505" s="3"/>
-      <c r="AK505" s="3"/>
-      <c r="AL505" s="3"/>
-      <c r="AM505" s="3"/>
-      <c r="AN505" s="3"/>
-      <c r="AO505" s="3"/>
-      <c r="AP505" s="3"/>
-      <c r="AQ505" s="3"/>
-      <c r="AR505" s="3"/>
-      <c r="AS505" s="3"/>
-      <c r="AT505" s="3"/>
-      <c r="AU505" s="3"/>
-      <c r="AV505" s="3"/>
-      <c r="AW505" s="3"/>
-      <c r="AX505" s="3"/>
-      <c r="AY505" s="3"/>
-      <c r="AZ505" s="3"/>
-      <c r="BA505" s="3"/>
-      <c r="BB505" s="3"/>
-      <c r="BC505" s="3"/>
-      <c r="BD505" s="3"/>
-      <c r="BE505" s="3"/>
-      <c r="BF505" s="3"/>
-      <c r="BG505" s="3"/>
-      <c r="BH505" s="3"/>
-      <c r="BI505" s="3"/>
-      <c r="BJ505" s="3"/>
-      <c r="BK505" s="3"/>
-      <c r="BL505" s="3"/>
-      <c r="BM505" s="3"/>
-      <c r="BN505" s="3"/>
-      <c r="BO505" s="3"/>
-      <c r="BP505" s="3"/>
-      <c r="BQ505" s="3"/>
-      <c r="BR505" s="3"/>
-      <c r="BS505" s="3"/>
-      <c r="BT505" s="3"/>
-      <c r="BU505" s="3"/>
-      <c r="BV505" s="3"/>
-      <c r="BW505" s="3"/>
-      <c r="BX505" s="3"/>
-      <c r="BY505" s="3"/>
-      <c r="BZ505" s="3"/>
-      <c r="CA505" s="3"/>
-      <c r="CB505" s="3"/>
-      <c r="CC505" s="3"/>
-      <c r="CD505" s="3"/>
-      <c r="CE505" s="3"/>
-      <c r="CF505" s="3"/>
-      <c r="CG505" s="3"/>
-      <c r="CH505" s="3"/>
-      <c r="CI505" s="3"/>
-      <c r="CJ505" s="3"/>
-      <c r="CK505" s="3"/>
-      <c r="CL505" s="3"/>
-      <c r="CM505" s="3"/>
-      <c r="CN505" s="3"/>
-      <c r="CO505" s="3"/>
-      <c r="CP505" s="3"/>
-      <c r="CQ505" s="3"/>
+      <c r="M505" s="6"/>
+      <c r="N505" s="6"/>
+      <c r="O505" s="6"/>
+      <c r="P505" s="6"/>
+      <c r="Q505" s="6"/>
+      <c r="R505" s="6"/>
+      <c r="S505" s="6"/>
+      <c r="T505" s="6"/>
+      <c r="U505" s="6"/>
+      <c r="V505" s="6"/>
+      <c r="W505" s="6"/>
+      <c r="X505" s="6"/>
+      <c r="Y505" s="6"/>
+      <c r="Z505" s="6"/>
+      <c r="AA505" s="6"/>
+      <c r="AB505" s="6"/>
+      <c r="AC505" s="6"/>
+      <c r="AD505" s="6"/>
+      <c r="AE505" s="6"/>
+      <c r="AF505" s="6"/>
+      <c r="AG505" s="6"/>
+      <c r="AH505" s="6"/>
+      <c r="AI505" s="6"/>
+      <c r="AJ505" s="6"/>
+      <c r="AK505" s="6"/>
+      <c r="AL505" s="6"/>
+      <c r="AM505" s="6"/>
+      <c r="AN505" s="6"/>
+      <c r="AO505" s="6"/>
+      <c r="AP505" s="6"/>
+      <c r="AQ505" s="6"/>
+      <c r="AR505" s="6"/>
+      <c r="AS505" s="6"/>
+      <c r="AT505" s="6"/>
+      <c r="AU505" s="6"/>
+      <c r="AV505" s="6"/>
+      <c r="AW505" s="6"/>
+      <c r="AX505" s="6"/>
+      <c r="AY505" s="6"/>
+      <c r="AZ505" s="6"/>
+      <c r="BA505" s="6"/>
+      <c r="BB505" s="6"/>
+      <c r="BC505" s="6"/>
+      <c r="BD505" s="6"/>
+      <c r="BE505" s="6"/>
+      <c r="BF505" s="6"/>
+      <c r="BG505" s="6"/>
+      <c r="BH505" s="6"/>
+      <c r="BI505" s="6"/>
+      <c r="BJ505" s="6"/>
+      <c r="BK505" s="6"/>
+      <c r="BL505" s="6"/>
+      <c r="BM505" s="6"/>
+      <c r="BN505" s="6"/>
+      <c r="BO505" s="6"/>
+      <c r="BP505" s="6"/>
+      <c r="BQ505" s="6"/>
+      <c r="BR505" s="6"/>
+      <c r="BS505" s="6"/>
+      <c r="BT505" s="6"/>
+      <c r="BU505" s="6"/>
+      <c r="BV505" s="6"/>
+      <c r="BW505" s="6"/>
+      <c r="BX505" s="6"/>
+      <c r="BY505" s="6"/>
+      <c r="BZ505" s="6"/>
+      <c r="CA505" s="6"/>
+      <c r="CB505" s="6"/>
+      <c r="CC505" s="6"/>
+      <c r="CD505" s="6"/>
+      <c r="CE505" s="6"/>
+      <c r="CF505" s="6"/>
+      <c r="CG505" s="6"/>
+      <c r="CH505" s="6"/>
+      <c r="CI505" s="6"/>
+      <c r="CJ505" s="6"/>
+      <c r="CK505" s="6"/>
+      <c r="CL505" s="6"/>
+      <c r="CM505" s="6"/>
+      <c r="CN505" s="6"/>
+      <c r="CO505" s="6"/>
+      <c r="CP505" s="6"/>
+      <c r="CQ505" s="6"/>
     </row>
     <row r="506" spans="2:95" ht="15">
       <c r="B506" s="4">
-        <v>3353106</v>
+        <v>3351310</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="D506" s="5">
         <v>0</v>
       </c>
       <c r="E506" s="4" t="s">
-        <v>1037</v>
+        <v>112</v>
       </c>
       <c r="F506" s="5" t="s">
         <v>10</v>
@@ -59662,16 +59692,16 @@
     </row>
     <row r="507" spans="2:95" ht="15">
       <c r="B507" s="4">
-        <v>3353107</v>
+        <v>3352102</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D507" s="4">
-        <v>5</v>
+        <v>1029</v>
+      </c>
+      <c r="D507" s="5">
+        <v>0</v>
       </c>
       <c r="E507" s="4" t="s">
-        <v>77</v>
+        <v>1030</v>
       </c>
       <c r="F507" s="5" t="s">
         <v>10</v>
@@ -59682,9 +59712,7 @@
       </c>
       <c r="I507" s="5"/>
       <c r="J507" s="7"/>
-      <c r="K507" s="6" t="s">
-        <v>180</v>
-      </c>
+      <c r="K507" s="3"/>
       <c r="L507" s="6" t="s">
         <v>12</v>
       </c>
@@ -59774,18 +59802,18 @@
     </row>
     <row r="508" spans="2:95" ht="15">
       <c r="B508" s="4">
-        <v>3353201</v>
+        <v>3352411</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D508" s="5">
+        <v>1031</v>
+      </c>
+      <c r="D508" s="4">
         <v>0</v>
       </c>
       <c r="E508" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F508" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F508" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G508" s="5"/>
@@ -59795,7 +59823,7 @@
       <c r="I508" s="5"/>
       <c r="J508" s="7"/>
       <c r="K508" s="6" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="L508" s="6" t="s">
         <v>12</v>
@@ -59886,27 +59914,31 @@
     </row>
     <row r="509" spans="2:95" ht="15">
       <c r="B509" s="4">
-        <v>3353205</v>
+        <v>3352412</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D509" s="5">
-        <v>0</v>
+        <v>1032</v>
+      </c>
+      <c r="D509" s="4">
+        <v>2</v>
       </c>
       <c r="E509" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F509" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F509" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G509" s="5"/>
+      <c r="G509" s="4" t="s">
+        <v>1033</v>
+      </c>
       <c r="H509" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I509" s="5"/>
       <c r="J509" s="7"/>
-      <c r="K509" s="3"/>
+      <c r="K509" s="6" t="s">
+        <v>127</v>
+      </c>
       <c r="L509" s="6" t="s">
         <v>12</v>
       </c>
@@ -59996,16 +60028,16 @@
     </row>
     <row r="510" spans="2:95" ht="15">
       <c r="B510" s="4">
-        <v>3353207</v>
+        <v>3353101</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="D510" s="5">
         <v>0</v>
       </c>
       <c r="E510" s="4" t="s">
-        <v>1042</v>
+        <v>523</v>
       </c>
       <c r="F510" s="5" t="s">
         <v>10</v>
@@ -60016,9 +60048,7 @@
       </c>
       <c r="I510" s="5"/>
       <c r="J510" s="7"/>
-      <c r="K510" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K510" s="3"/>
       <c r="L510" s="6" t="s">
         <v>12</v>
       </c>
@@ -60108,16 +60138,16 @@
     </row>
     <row r="511" spans="2:95" ht="15">
       <c r="B511" s="4">
-        <v>3353211</v>
+        <v>3353105</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D511" s="5">
-        <v>0</v>
+        <v>1035</v>
+      </c>
+      <c r="D511" s="4">
+        <v>1000</v>
       </c>
       <c r="E511" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F511" s="5" t="s">
         <v>10</v>
@@ -60128,9 +60158,7 @@
       </c>
       <c r="I511" s="5"/>
       <c r="J511" s="7"/>
-      <c r="K511" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K511" s="3"/>
       <c r="L511" s="6" t="s">
         <v>12</v>
       </c>
@@ -60220,19 +60248,19 @@
     </row>
     <row r="512" spans="2:95" ht="15">
       <c r="B512" s="4">
-        <v>3353213</v>
+        <v>3353106</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="D512" s="5">
         <v>0</v>
       </c>
       <c r="E512" s="4" t="s">
-        <v>51</v>
+        <v>1037</v>
       </c>
       <c r="F512" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G512" s="5"/>
       <c r="H512" s="4" t="s">
@@ -60240,9 +60268,7 @@
       </c>
       <c r="I512" s="5"/>
       <c r="J512" s="7"/>
-      <c r="K512" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K512" s="3"/>
       <c r="L512" s="6" t="s">
         <v>12</v>
       </c>
@@ -60332,16 +60358,16 @@
     </row>
     <row r="513" spans="2:95" ht="15">
       <c r="B513" s="4">
-        <v>3353214</v>
+        <v>3353107</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D513" s="5">
-        <v>0</v>
+        <v>1038</v>
+      </c>
+      <c r="D513" s="4">
+        <v>5</v>
       </c>
       <c r="E513" s="4" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="F513" s="5" t="s">
         <v>10</v>
@@ -60353,7 +60379,7 @@
       <c r="I513" s="5"/>
       <c r="J513" s="7"/>
       <c r="K513" s="6" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="L513" s="6" t="s">
         <v>12</v>
@@ -60444,16 +60470,16 @@
     </row>
     <row r="514" spans="2:95" ht="15">
       <c r="B514" s="4">
-        <v>3353216</v>
+        <v>3353201</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D514" s="4">
-        <v>4</v>
+        <v>1039</v>
+      </c>
+      <c r="D514" s="5">
+        <v>0</v>
       </c>
       <c r="E514" s="4" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F514" s="5" t="s">
         <v>10</v>
@@ -60465,7 +60491,7 @@
       <c r="I514" s="5"/>
       <c r="J514" s="7"/>
       <c r="K514" s="6" t="s">
-        <v>33</v>
+        <v>180</v>
       </c>
       <c r="L514" s="6" t="s">
         <v>12</v>
@@ -60556,10 +60582,10 @@
     </row>
     <row r="515" spans="2:95" ht="15">
       <c r="B515" s="4">
-        <v>3353217</v>
+        <v>3353205</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D515" s="5">
         <v>0</v>
@@ -60576,9 +60602,7 @@
       </c>
       <c r="I515" s="5"/>
       <c r="J515" s="7"/>
-      <c r="K515" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="K515" s="3"/>
       <c r="L515" s="6" t="s">
         <v>12</v>
       </c>
@@ -60668,16 +60692,16 @@
     </row>
     <row r="516" spans="2:95" ht="15">
       <c r="B516" s="4">
-        <v>3353309</v>
+        <v>3353207</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D516" s="5">
         <v>0</v>
       </c>
       <c r="E516" s="4" t="s">
-        <v>51</v>
+        <v>1042</v>
       </c>
       <c r="F516" s="5" t="s">
         <v>10</v>
@@ -60780,16 +60804,16 @@
     </row>
     <row r="517" spans="2:95" ht="15">
       <c r="B517" s="4">
-        <v>3353312</v>
+        <v>3353211</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="D517" s="5">
         <v>0</v>
       </c>
       <c r="E517" s="4" t="s">
-        <v>1042</v>
+        <v>51</v>
       </c>
       <c r="F517" s="5" t="s">
         <v>10</v>
@@ -60892,10 +60916,10 @@
     </row>
     <row r="518" spans="2:95" ht="15">
       <c r="B518" s="4">
-        <v>3354110</v>
+        <v>3353213</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="D518" s="5">
         <v>0</v>
@@ -60904,7 +60928,7 @@
         <v>51</v>
       </c>
       <c r="F518" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G518" s="5"/>
       <c r="H518" s="4" t="s">
@@ -61004,10 +61028,10 @@
     </row>
     <row r="519" spans="2:95" ht="15">
       <c r="B519" s="4">
-        <v>3354120</v>
+        <v>3353214</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="D519" s="5">
         <v>0</v>
@@ -61116,16 +61140,16 @@
     </row>
     <row r="520" spans="2:95" ht="15">
       <c r="B520" s="4">
-        <v>3354121</v>
+        <v>3353216</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>1052</v>
-      </c>
-      <c r="D520" s="5">
-        <v>0</v>
+        <v>1046</v>
+      </c>
+      <c r="D520" s="4">
+        <v>4</v>
       </c>
       <c r="E520" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="F520" s="5" t="s">
         <v>10</v>
@@ -61228,10 +61252,10 @@
     </row>
     <row r="521" spans="2:95" ht="15">
       <c r="B521" s="4">
-        <v>3354122</v>
+        <v>3353217</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="D521" s="5">
         <v>0</v>
@@ -61340,10 +61364,10 @@
     </row>
     <row r="522" spans="2:95" ht="15">
       <c r="B522" s="4">
-        <v>3354123</v>
+        <v>3353309</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="D522" s="5">
         <v>0</v>
@@ -61452,16 +61476,16 @@
     </row>
     <row r="523" spans="2:95" ht="15">
       <c r="B523" s="4">
-        <v>3354124</v>
+        <v>3353312</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="D523" s="5">
         <v>0</v>
       </c>
       <c r="E523" s="4" t="s">
-        <v>51</v>
+        <v>1042</v>
       </c>
       <c r="F523" s="5" t="s">
         <v>10</v>
@@ -61564,10 +61588,10 @@
     </row>
     <row r="524" spans="2:95" ht="15">
       <c r="B524" s="4">
-        <v>3354134</v>
+        <v>3354110</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="D524" s="5">
         <v>0</v>
@@ -61676,16 +61700,16 @@
     </row>
     <row r="525" spans="2:95" ht="15">
       <c r="B525" s="4">
-        <v>3354140</v>
+        <v>3354120</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D525" s="4">
+        <v>1051</v>
+      </c>
+      <c r="D525" s="5">
         <v>0</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F525" s="5" t="s">
         <v>10</v>
@@ -61788,16 +61812,16 @@
     </row>
     <row r="526" spans="2:95" ht="15">
       <c r="B526" s="4">
-        <v>3354220</v>
+        <v>3354121</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D526" s="4">
-        <v>10</v>
+        <v>1052</v>
+      </c>
+      <c r="D526" s="5">
+        <v>0</v>
       </c>
       <c r="E526" s="4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F526" s="5" t="s">
         <v>10</v>
@@ -61900,16 +61924,16 @@
     </row>
     <row r="527" spans="2:95" ht="15">
       <c r="B527" s="4">
-        <v>3354240</v>
+        <v>3354122</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D527" s="4">
-        <v>10</v>
+        <v>1053</v>
+      </c>
+      <c r="D527" s="5">
+        <v>0</v>
       </c>
       <c r="E527" s="4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F527" s="5" t="s">
         <v>10</v>
@@ -62012,16 +62036,16 @@
     </row>
     <row r="528" spans="2:95" ht="15">
       <c r="B528" s="4">
-        <v>4351138</v>
+        <v>3354123</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="D528" s="5">
         <v>0</v>
       </c>
       <c r="E528" s="4" t="s">
-        <v>1061</v>
+        <v>51</v>
       </c>
       <c r="F528" s="5" t="s">
         <v>10</v>
@@ -62033,7 +62057,7 @@
       <c r="I528" s="5"/>
       <c r="J528" s="7"/>
       <c r="K528" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L528" s="6" t="s">
         <v>12</v>
@@ -62124,16 +62148,16 @@
     </row>
     <row r="529" spans="2:95" ht="15">
       <c r="B529" s="4">
-        <v>4351139</v>
+        <v>3354124</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D529" s="4">
+        <v>1055</v>
+      </c>
+      <c r="D529" s="5">
         <v>0</v>
       </c>
       <c r="E529" s="4" t="s">
-        <v>1025</v>
+        <v>51</v>
       </c>
       <c r="F529" s="5" t="s">
         <v>10</v>
@@ -62145,7 +62169,7 @@
       <c r="I529" s="5"/>
       <c r="J529" s="7"/>
       <c r="K529" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L529" s="6" t="s">
         <v>12</v>
@@ -62236,16 +62260,16 @@
     </row>
     <row r="530" spans="2:95" ht="15">
       <c r="B530" s="4">
-        <v>4351143</v>
+        <v>3354134</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D530" s="4">
-        <v>48</v>
+        <v>1056</v>
+      </c>
+      <c r="D530" s="5">
+        <v>0</v>
       </c>
       <c r="E530" s="4" t="s">
-        <v>1025</v>
+        <v>51</v>
       </c>
       <c r="F530" s="5" t="s">
         <v>10</v>
@@ -62257,7 +62281,7 @@
       <c r="I530" s="5"/>
       <c r="J530" s="7"/>
       <c r="K530" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L530" s="6" t="s">
         <v>12</v>
@@ -62347,241 +62371,241 @@
       <c r="CQ530" s="3"/>
     </row>
     <row r="531" spans="2:95" ht="15">
-      <c r="B531" s="5">
-        <v>4351144</v>
-      </c>
-      <c r="C531" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D531" s="5">
-        <v>30</v>
-      </c>
-      <c r="E531" s="5" t="s">
-        <v>1025</v>
+      <c r="B531" s="4">
+        <v>3354140</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D531" s="4">
+        <v>0</v>
+      </c>
+      <c r="E531" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="F531" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G531" s="5"/>
-      <c r="H531" s="5" t="s">
+      <c r="H531" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I531" s="5"/>
       <c r="J531" s="7"/>
       <c r="K531" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L531" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M531" s="6"/>
-      <c r="N531" s="6"/>
-      <c r="O531" s="6"/>
-      <c r="P531" s="6"/>
-      <c r="Q531" s="6"/>
-      <c r="R531" s="6"/>
-      <c r="S531" s="6"/>
-      <c r="T531" s="6"/>
-      <c r="U531" s="6"/>
-      <c r="V531" s="6"/>
-      <c r="W531" s="6"/>
-      <c r="X531" s="6"/>
-      <c r="Y531" s="6"/>
-      <c r="Z531" s="6"/>
-      <c r="AA531" s="6"/>
-      <c r="AB531" s="6"/>
-      <c r="AC531" s="6"/>
-      <c r="AD531" s="6"/>
-      <c r="AE531" s="6"/>
-      <c r="AF531" s="6"/>
-      <c r="AG531" s="6"/>
-      <c r="AH531" s="6"/>
-      <c r="AI531" s="6"/>
-      <c r="AJ531" s="6"/>
-      <c r="AK531" s="6"/>
-      <c r="AL531" s="6"/>
-      <c r="AM531" s="6"/>
-      <c r="AN531" s="6"/>
-      <c r="AO531" s="6"/>
-      <c r="AP531" s="6"/>
-      <c r="AQ531" s="6"/>
-      <c r="AR531" s="6"/>
-      <c r="AS531" s="6"/>
-      <c r="AT531" s="6"/>
-      <c r="AU531" s="6"/>
-      <c r="AV531" s="6"/>
-      <c r="AW531" s="6"/>
-      <c r="AX531" s="6"/>
-      <c r="AY531" s="6"/>
-      <c r="AZ531" s="6"/>
-      <c r="BA531" s="6"/>
-      <c r="BB531" s="6"/>
-      <c r="BC531" s="6"/>
-      <c r="BD531" s="6"/>
-      <c r="BE531" s="6"/>
-      <c r="BF531" s="6"/>
-      <c r="BG531" s="6"/>
-      <c r="BH531" s="6"/>
-      <c r="BI531" s="6"/>
-      <c r="BJ531" s="6"/>
-      <c r="BK531" s="6"/>
-      <c r="BL531" s="6"/>
-      <c r="BM531" s="6"/>
-      <c r="BN531" s="6"/>
-      <c r="BO531" s="6"/>
-      <c r="BP531" s="6"/>
-      <c r="BQ531" s="6"/>
-      <c r="BR531" s="6"/>
-      <c r="BS531" s="6"/>
-      <c r="BT531" s="6"/>
-      <c r="BU531" s="6"/>
-      <c r="BV531" s="6"/>
-      <c r="BW531" s="6"/>
-      <c r="BX531" s="6"/>
-      <c r="BY531" s="6"/>
-      <c r="BZ531" s="6"/>
-      <c r="CA531" s="6"/>
-      <c r="CB531" s="6"/>
-      <c r="CC531" s="6"/>
-      <c r="CD531" s="6"/>
-      <c r="CE531" s="6"/>
-      <c r="CF531" s="6"/>
-      <c r="CG531" s="6"/>
-      <c r="CH531" s="6"/>
-      <c r="CI531" s="6"/>
-      <c r="CJ531" s="6"/>
-      <c r="CK531" s="6"/>
-      <c r="CL531" s="6"/>
-      <c r="CM531" s="6"/>
-      <c r="CN531" s="6"/>
-      <c r="CO531" s="6"/>
-      <c r="CP531" s="6"/>
-      <c r="CQ531" s="6"/>
+      <c r="M531" s="3"/>
+      <c r="N531" s="3"/>
+      <c r="O531" s="3"/>
+      <c r="P531" s="3"/>
+      <c r="Q531" s="3"/>
+      <c r="R531" s="3"/>
+      <c r="S531" s="3"/>
+      <c r="T531" s="3"/>
+      <c r="U531" s="3"/>
+      <c r="V531" s="3"/>
+      <c r="W531" s="3"/>
+      <c r="X531" s="3"/>
+      <c r="Y531" s="3"/>
+      <c r="Z531" s="3"/>
+      <c r="AA531" s="3"/>
+      <c r="AB531" s="3"/>
+      <c r="AC531" s="3"/>
+      <c r="AD531" s="3"/>
+      <c r="AE531" s="3"/>
+      <c r="AF531" s="3"/>
+      <c r="AG531" s="3"/>
+      <c r="AH531" s="3"/>
+      <c r="AI531" s="3"/>
+      <c r="AJ531" s="3"/>
+      <c r="AK531" s="3"/>
+      <c r="AL531" s="3"/>
+      <c r="AM531" s="3"/>
+      <c r="AN531" s="3"/>
+      <c r="AO531" s="3"/>
+      <c r="AP531" s="3"/>
+      <c r="AQ531" s="3"/>
+      <c r="AR531" s="3"/>
+      <c r="AS531" s="3"/>
+      <c r="AT531" s="3"/>
+      <c r="AU531" s="3"/>
+      <c r="AV531" s="3"/>
+      <c r="AW531" s="3"/>
+      <c r="AX531" s="3"/>
+      <c r="AY531" s="3"/>
+      <c r="AZ531" s="3"/>
+      <c r="BA531" s="3"/>
+      <c r="BB531" s="3"/>
+      <c r="BC531" s="3"/>
+      <c r="BD531" s="3"/>
+      <c r="BE531" s="3"/>
+      <c r="BF531" s="3"/>
+      <c r="BG531" s="3"/>
+      <c r="BH531" s="3"/>
+      <c r="BI531" s="3"/>
+      <c r="BJ531" s="3"/>
+      <c r="BK531" s="3"/>
+      <c r="BL531" s="3"/>
+      <c r="BM531" s="3"/>
+      <c r="BN531" s="3"/>
+      <c r="BO531" s="3"/>
+      <c r="BP531" s="3"/>
+      <c r="BQ531" s="3"/>
+      <c r="BR531" s="3"/>
+      <c r="BS531" s="3"/>
+      <c r="BT531" s="3"/>
+      <c r="BU531" s="3"/>
+      <c r="BV531" s="3"/>
+      <c r="BW531" s="3"/>
+      <c r="BX531" s="3"/>
+      <c r="BY531" s="3"/>
+      <c r="BZ531" s="3"/>
+      <c r="CA531" s="3"/>
+      <c r="CB531" s="3"/>
+      <c r="CC531" s="3"/>
+      <c r="CD531" s="3"/>
+      <c r="CE531" s="3"/>
+      <c r="CF531" s="3"/>
+      <c r="CG531" s="3"/>
+      <c r="CH531" s="3"/>
+      <c r="CI531" s="3"/>
+      <c r="CJ531" s="3"/>
+      <c r="CK531" s="3"/>
+      <c r="CL531" s="3"/>
+      <c r="CM531" s="3"/>
+      <c r="CN531" s="3"/>
+      <c r="CO531" s="3"/>
+      <c r="CP531" s="3"/>
+      <c r="CQ531" s="3"/>
     </row>
     <row r="532" spans="2:95" ht="15">
-      <c r="B532" s="5">
-        <v>4351145</v>
-      </c>
-      <c r="C532" s="8" t="s">
-        <v>1096</v>
-      </c>
-      <c r="D532" s="5">
-        <v>30</v>
-      </c>
-      <c r="E532" s="5" t="s">
-        <v>1025</v>
+      <c r="B532" s="4">
+        <v>3354220</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D532" s="4">
+        <v>10</v>
+      </c>
+      <c r="E532" s="4" t="s">
+        <v>2</v>
       </c>
       <c r="F532" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G532" s="5"/>
-      <c r="H532" s="5" t="s">
+      <c r="H532" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I532" s="5"/>
       <c r="J532" s="7"/>
       <c r="K532" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L532" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M532" s="6"/>
-      <c r="N532" s="6"/>
-      <c r="O532" s="6"/>
-      <c r="P532" s="6"/>
-      <c r="Q532" s="6"/>
-      <c r="R532" s="6"/>
-      <c r="S532" s="6"/>
-      <c r="T532" s="6"/>
-      <c r="U532" s="6"/>
-      <c r="V532" s="6"/>
-      <c r="W532" s="6"/>
-      <c r="X532" s="6"/>
-      <c r="Y532" s="6"/>
-      <c r="Z532" s="6"/>
-      <c r="AA532" s="6"/>
-      <c r="AB532" s="6"/>
-      <c r="AC532" s="6"/>
-      <c r="AD532" s="6"/>
-      <c r="AE532" s="6"/>
-      <c r="AF532" s="6"/>
-      <c r="AG532" s="6"/>
-      <c r="AH532" s="6"/>
-      <c r="AI532" s="6"/>
-      <c r="AJ532" s="6"/>
-      <c r="AK532" s="6"/>
-      <c r="AL532" s="6"/>
-      <c r="AM532" s="6"/>
-      <c r="AN532" s="6"/>
-      <c r="AO532" s="6"/>
-      <c r="AP532" s="6"/>
-      <c r="AQ532" s="6"/>
-      <c r="AR532" s="6"/>
-      <c r="AS532" s="6"/>
-      <c r="AT532" s="6"/>
-      <c r="AU532" s="6"/>
-      <c r="AV532" s="6"/>
-      <c r="AW532" s="6"/>
-      <c r="AX532" s="6"/>
-      <c r="AY532" s="6"/>
-      <c r="AZ532" s="6"/>
-      <c r="BA532" s="6"/>
-      <c r="BB532" s="6"/>
-      <c r="BC532" s="6"/>
-      <c r="BD532" s="6"/>
-      <c r="BE532" s="6"/>
-      <c r="BF532" s="6"/>
-      <c r="BG532" s="6"/>
-      <c r="BH532" s="6"/>
-      <c r="BI532" s="6"/>
-      <c r="BJ532" s="6"/>
-      <c r="BK532" s="6"/>
-      <c r="BL532" s="6"/>
-      <c r="BM532" s="6"/>
-      <c r="BN532" s="6"/>
-      <c r="BO532" s="6"/>
-      <c r="BP532" s="6"/>
-      <c r="BQ532" s="6"/>
-      <c r="BR532" s="6"/>
-      <c r="BS532" s="6"/>
-      <c r="BT532" s="6"/>
-      <c r="BU532" s="6"/>
-      <c r="BV532" s="6"/>
-      <c r="BW532" s="6"/>
-      <c r="BX532" s="6"/>
-      <c r="BY532" s="6"/>
-      <c r="BZ532" s="6"/>
-      <c r="CA532" s="6"/>
-      <c r="CB532" s="6"/>
-      <c r="CC532" s="6"/>
-      <c r="CD532" s="6"/>
-      <c r="CE532" s="6"/>
-      <c r="CF532" s="6"/>
-      <c r="CG532" s="6"/>
-      <c r="CH532" s="6"/>
-      <c r="CI532" s="6"/>
-      <c r="CJ532" s="6"/>
-      <c r="CK532" s="6"/>
-      <c r="CL532" s="6"/>
-      <c r="CM532" s="6"/>
-      <c r="CN532" s="6"/>
-      <c r="CO532" s="6"/>
-      <c r="CP532" s="6"/>
-      <c r="CQ532" s="6"/>
+      <c r="M532" s="3"/>
+      <c r="N532" s="3"/>
+      <c r="O532" s="3"/>
+      <c r="P532" s="3"/>
+      <c r="Q532" s="3"/>
+      <c r="R532" s="3"/>
+      <c r="S532" s="3"/>
+      <c r="T532" s="3"/>
+      <c r="U532" s="3"/>
+      <c r="V532" s="3"/>
+      <c r="W532" s="3"/>
+      <c r="X532" s="3"/>
+      <c r="Y532" s="3"/>
+      <c r="Z532" s="3"/>
+      <c r="AA532" s="3"/>
+      <c r="AB532" s="3"/>
+      <c r="AC532" s="3"/>
+      <c r="AD532" s="3"/>
+      <c r="AE532" s="3"/>
+      <c r="AF532" s="3"/>
+      <c r="AG532" s="3"/>
+      <c r="AH532" s="3"/>
+      <c r="AI532" s="3"/>
+      <c r="AJ532" s="3"/>
+      <c r="AK532" s="3"/>
+      <c r="AL532" s="3"/>
+      <c r="AM532" s="3"/>
+      <c r="AN532" s="3"/>
+      <c r="AO532" s="3"/>
+      <c r="AP532" s="3"/>
+      <c r="AQ532" s="3"/>
+      <c r="AR532" s="3"/>
+      <c r="AS532" s="3"/>
+      <c r="AT532" s="3"/>
+      <c r="AU532" s="3"/>
+      <c r="AV532" s="3"/>
+      <c r="AW532" s="3"/>
+      <c r="AX532" s="3"/>
+      <c r="AY532" s="3"/>
+      <c r="AZ532" s="3"/>
+      <c r="BA532" s="3"/>
+      <c r="BB532" s="3"/>
+      <c r="BC532" s="3"/>
+      <c r="BD532" s="3"/>
+      <c r="BE532" s="3"/>
+      <c r="BF532" s="3"/>
+      <c r="BG532" s="3"/>
+      <c r="BH532" s="3"/>
+      <c r="BI532" s="3"/>
+      <c r="BJ532" s="3"/>
+      <c r="BK532" s="3"/>
+      <c r="BL532" s="3"/>
+      <c r="BM532" s="3"/>
+      <c r="BN532" s="3"/>
+      <c r="BO532" s="3"/>
+      <c r="BP532" s="3"/>
+      <c r="BQ532" s="3"/>
+      <c r="BR532" s="3"/>
+      <c r="BS532" s="3"/>
+      <c r="BT532" s="3"/>
+      <c r="BU532" s="3"/>
+      <c r="BV532" s="3"/>
+      <c r="BW532" s="3"/>
+      <c r="BX532" s="3"/>
+      <c r="BY532" s="3"/>
+      <c r="BZ532" s="3"/>
+      <c r="CA532" s="3"/>
+      <c r="CB532" s="3"/>
+      <c r="CC532" s="3"/>
+      <c r="CD532" s="3"/>
+      <c r="CE532" s="3"/>
+      <c r="CF532" s="3"/>
+      <c r="CG532" s="3"/>
+      <c r="CH532" s="3"/>
+      <c r="CI532" s="3"/>
+      <c r="CJ532" s="3"/>
+      <c r="CK532" s="3"/>
+      <c r="CL532" s="3"/>
+      <c r="CM532" s="3"/>
+      <c r="CN532" s="3"/>
+      <c r="CO532" s="3"/>
+      <c r="CP532" s="3"/>
+      <c r="CQ532" s="3"/>
     </row>
     <row r="533" spans="2:95" ht="15">
       <c r="B533" s="4">
-        <v>4352002</v>
+        <v>3354240</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D533" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E533" s="4" t="s">
-        <v>1065</v>
+        <v>2</v>
       </c>
       <c r="F533" s="5" t="s">
         <v>10</v>
@@ -62593,7 +62617,7 @@
       <c r="I533" s="5"/>
       <c r="J533" s="7"/>
       <c r="K533" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L533" s="6" t="s">
         <v>12</v>
@@ -62684,16 +62708,16 @@
     </row>
     <row r="534" spans="2:95" ht="15">
       <c r="B534" s="4">
-        <v>4352101</v>
+        <v>4351138</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D534" s="4">
-        <v>48</v>
+        <v>1060</v>
+      </c>
+      <c r="D534" s="5">
+        <v>0</v>
       </c>
       <c r="E534" s="4" t="s">
-        <v>1025</v>
+        <v>1061</v>
       </c>
       <c r="F534" s="5" t="s">
         <v>10</v>
@@ -62796,16 +62820,16 @@
     </row>
     <row r="535" spans="2:95" ht="15">
       <c r="B535" s="4">
-        <v>4352105</v>
+        <v>4351139</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D535" s="5">
+        <v>1062</v>
+      </c>
+      <c r="D535" s="4">
         <v>0</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>1068</v>
+        <v>1025</v>
       </c>
       <c r="F535" s="5" t="s">
         <v>10</v>
@@ -62817,7 +62841,7 @@
       <c r="I535" s="5"/>
       <c r="J535" s="7"/>
       <c r="K535" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L535" s="6" t="s">
         <v>12</v>
@@ -62908,16 +62932,16 @@
     </row>
     <row r="536" spans="2:95" ht="15">
       <c r="B536" s="4">
-        <v>4352106</v>
+        <v>4351143</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="D536" s="4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="F536" s="5" t="s">
         <v>10</v>
@@ -62929,7 +62953,7 @@
       <c r="I536" s="5"/>
       <c r="J536" s="7"/>
       <c r="K536" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L536" s="6" t="s">
         <v>12</v>
@@ -63019,255 +63043,253 @@
       <c r="CQ536" s="3"/>
     </row>
     <row r="537" spans="2:95" ht="15">
-      <c r="B537" s="4">
-        <v>4352107</v>
-      </c>
-      <c r="C537" s="4" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D537" s="4">
-        <v>0</v>
-      </c>
-      <c r="E537" s="4" t="s">
-        <v>1071</v>
+      <c r="B537" s="5">
+        <v>4351144</v>
+      </c>
+      <c r="C537" s="8" t="s">
+        <v>1095</v>
+      </c>
+      <c r="D537" s="5">
+        <v>30</v>
+      </c>
+      <c r="E537" s="5" t="s">
+        <v>1025</v>
       </c>
       <c r="F537" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G537" s="5"/>
-      <c r="H537" s="4" t="s">
+      <c r="H537" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I537" s="5"/>
       <c r="J537" s="7"/>
       <c r="K537" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L537" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M537" s="3"/>
-      <c r="N537" s="3"/>
-      <c r="O537" s="3"/>
-      <c r="P537" s="3"/>
-      <c r="Q537" s="3"/>
-      <c r="R537" s="3"/>
-      <c r="S537" s="3"/>
-      <c r="T537" s="3"/>
-      <c r="U537" s="3"/>
-      <c r="V537" s="3"/>
-      <c r="W537" s="3"/>
-      <c r="X537" s="3"/>
-      <c r="Y537" s="3"/>
-      <c r="Z537" s="3"/>
-      <c r="AA537" s="3"/>
-      <c r="AB537" s="3"/>
-      <c r="AC537" s="3"/>
-      <c r="AD537" s="3"/>
-      <c r="AE537" s="3"/>
-      <c r="AF537" s="3"/>
-      <c r="AG537" s="3"/>
-      <c r="AH537" s="3"/>
-      <c r="AI537" s="3"/>
-      <c r="AJ537" s="3"/>
-      <c r="AK537" s="3"/>
-      <c r="AL537" s="3"/>
-      <c r="AM537" s="3"/>
-      <c r="AN537" s="3"/>
-      <c r="AO537" s="3"/>
-      <c r="AP537" s="3"/>
-      <c r="AQ537" s="3"/>
-      <c r="AR537" s="3"/>
-      <c r="AS537" s="3"/>
-      <c r="AT537" s="3"/>
-      <c r="AU537" s="3"/>
-      <c r="AV537" s="3"/>
-      <c r="AW537" s="3"/>
-      <c r="AX537" s="3"/>
-      <c r="AY537" s="3"/>
-      <c r="AZ537" s="3"/>
-      <c r="BA537" s="3"/>
-      <c r="BB537" s="3"/>
-      <c r="BC537" s="3"/>
-      <c r="BD537" s="3"/>
-      <c r="BE537" s="3"/>
-      <c r="BF537" s="3"/>
-      <c r="BG537" s="3"/>
-      <c r="BH537" s="3"/>
-      <c r="BI537" s="3"/>
-      <c r="BJ537" s="3"/>
-      <c r="BK537" s="3"/>
-      <c r="BL537" s="3"/>
-      <c r="BM537" s="3"/>
-      <c r="BN537" s="3"/>
-      <c r="BO537" s="3"/>
-      <c r="BP537" s="3"/>
-      <c r="BQ537" s="3"/>
-      <c r="BR537" s="3"/>
-      <c r="BS537" s="3"/>
-      <c r="BT537" s="3"/>
-      <c r="BU537" s="3"/>
-      <c r="BV537" s="3"/>
-      <c r="BW537" s="3"/>
-      <c r="BX537" s="3"/>
-      <c r="BY537" s="3"/>
-      <c r="BZ537" s="3"/>
-      <c r="CA537" s="3"/>
-      <c r="CB537" s="3"/>
-      <c r="CC537" s="3"/>
-      <c r="CD537" s="3"/>
-      <c r="CE537" s="3"/>
-      <c r="CF537" s="3"/>
-      <c r="CG537" s="3"/>
-      <c r="CH537" s="3"/>
-      <c r="CI537" s="3"/>
-      <c r="CJ537" s="3"/>
-      <c r="CK537" s="3"/>
-      <c r="CL537" s="3"/>
-      <c r="CM537" s="3"/>
-      <c r="CN537" s="3"/>
-      <c r="CO537" s="3"/>
-      <c r="CP537" s="3"/>
-      <c r="CQ537" s="3"/>
+      <c r="M537" s="6"/>
+      <c r="N537" s="6"/>
+      <c r="O537" s="6"/>
+      <c r="P537" s="6"/>
+      <c r="Q537" s="6"/>
+      <c r="R537" s="6"/>
+      <c r="S537" s="6"/>
+      <c r="T537" s="6"/>
+      <c r="U537" s="6"/>
+      <c r="V537" s="6"/>
+      <c r="W537" s="6"/>
+      <c r="X537" s="6"/>
+      <c r="Y537" s="6"/>
+      <c r="Z537" s="6"/>
+      <c r="AA537" s="6"/>
+      <c r="AB537" s="6"/>
+      <c r="AC537" s="6"/>
+      <c r="AD537" s="6"/>
+      <c r="AE537" s="6"/>
+      <c r="AF537" s="6"/>
+      <c r="AG537" s="6"/>
+      <c r="AH537" s="6"/>
+      <c r="AI537" s="6"/>
+      <c r="AJ537" s="6"/>
+      <c r="AK537" s="6"/>
+      <c r="AL537" s="6"/>
+      <c r="AM537" s="6"/>
+      <c r="AN537" s="6"/>
+      <c r="AO537" s="6"/>
+      <c r="AP537" s="6"/>
+      <c r="AQ537" s="6"/>
+      <c r="AR537" s="6"/>
+      <c r="AS537" s="6"/>
+      <c r="AT537" s="6"/>
+      <c r="AU537" s="6"/>
+      <c r="AV537" s="6"/>
+      <c r="AW537" s="6"/>
+      <c r="AX537" s="6"/>
+      <c r="AY537" s="6"/>
+      <c r="AZ537" s="6"/>
+      <c r="BA537" s="6"/>
+      <c r="BB537" s="6"/>
+      <c r="BC537" s="6"/>
+      <c r="BD537" s="6"/>
+      <c r="BE537" s="6"/>
+      <c r="BF537" s="6"/>
+      <c r="BG537" s="6"/>
+      <c r="BH537" s="6"/>
+      <c r="BI537" s="6"/>
+      <c r="BJ537" s="6"/>
+      <c r="BK537" s="6"/>
+      <c r="BL537" s="6"/>
+      <c r="BM537" s="6"/>
+      <c r="BN537" s="6"/>
+      <c r="BO537" s="6"/>
+      <c r="BP537" s="6"/>
+      <c r="BQ537" s="6"/>
+      <c r="BR537" s="6"/>
+      <c r="BS537" s="6"/>
+      <c r="BT537" s="6"/>
+      <c r="BU537" s="6"/>
+      <c r="BV537" s="6"/>
+      <c r="BW537" s="6"/>
+      <c r="BX537" s="6"/>
+      <c r="BY537" s="6"/>
+      <c r="BZ537" s="6"/>
+      <c r="CA537" s="6"/>
+      <c r="CB537" s="6"/>
+      <c r="CC537" s="6"/>
+      <c r="CD537" s="6"/>
+      <c r="CE537" s="6"/>
+      <c r="CF537" s="6"/>
+      <c r="CG537" s="6"/>
+      <c r="CH537" s="6"/>
+      <c r="CI537" s="6"/>
+      <c r="CJ537" s="6"/>
+      <c r="CK537" s="6"/>
+      <c r="CL537" s="6"/>
+      <c r="CM537" s="6"/>
+      <c r="CN537" s="6"/>
+      <c r="CO537" s="6"/>
+      <c r="CP537" s="6"/>
+      <c r="CQ537" s="6"/>
     </row>
     <row r="538" spans="2:95" ht="15">
-      <c r="B538" s="4" t="s">
-        <v>870</v>
-      </c>
-      <c r="C538" s="4" t="s">
-        <v>871</v>
-      </c>
-      <c r="D538" s="4">
-        <v>1</v>
-      </c>
-      <c r="E538" s="4" t="s">
-        <v>501</v>
+      <c r="B538" s="5">
+        <v>4351145</v>
+      </c>
+      <c r="C538" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D538" s="5">
+        <v>30</v>
+      </c>
+      <c r="E538" s="5" t="s">
+        <v>1025</v>
       </c>
       <c r="F538" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G538" s="5"/>
-      <c r="H538" s="4" t="s">
+      <c r="H538" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I538" s="5"/>
       <c r="J538" s="7"/>
       <c r="K538" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L538" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M538" s="3"/>
-      <c r="N538" s="3"/>
-      <c r="O538" s="3"/>
-      <c r="P538" s="3"/>
-      <c r="Q538" s="3"/>
-      <c r="R538" s="3"/>
-      <c r="S538" s="3"/>
-      <c r="T538" s="3"/>
-      <c r="U538" s="3"/>
-      <c r="V538" s="3"/>
-      <c r="W538" s="3"/>
-      <c r="X538" s="3"/>
-      <c r="Y538" s="3"/>
-      <c r="Z538" s="3"/>
-      <c r="AA538" s="3"/>
-      <c r="AB538" s="3"/>
-      <c r="AC538" s="3"/>
-      <c r="AD538" s="3"/>
-      <c r="AE538" s="3"/>
-      <c r="AF538" s="3"/>
-      <c r="AG538" s="3"/>
-      <c r="AH538" s="3"/>
-      <c r="AI538" s="3"/>
-      <c r="AJ538" s="3"/>
-      <c r="AK538" s="3"/>
-      <c r="AL538" s="3"/>
-      <c r="AM538" s="3"/>
-      <c r="AN538" s="3"/>
-      <c r="AO538" s="3"/>
-      <c r="AP538" s="3"/>
-      <c r="AQ538" s="3"/>
-      <c r="AR538" s="3"/>
-      <c r="AS538" s="3"/>
-      <c r="AT538" s="3"/>
-      <c r="AU538" s="3"/>
-      <c r="AV538" s="3"/>
-      <c r="AW538" s="3"/>
-      <c r="AX538" s="3"/>
-      <c r="AY538" s="3"/>
-      <c r="AZ538" s="3"/>
-      <c r="BA538" s="3"/>
-      <c r="BB538" s="3"/>
-      <c r="BC538" s="3"/>
-      <c r="BD538" s="3"/>
-      <c r="BE538" s="3"/>
-      <c r="BF538" s="3"/>
-      <c r="BG538" s="3"/>
-      <c r="BH538" s="3"/>
-      <c r="BI538" s="3"/>
-      <c r="BJ538" s="3"/>
-      <c r="BK538" s="3"/>
-      <c r="BL538" s="3"/>
-      <c r="BM538" s="3"/>
-      <c r="BN538" s="3"/>
-      <c r="BO538" s="3"/>
-      <c r="BP538" s="3"/>
-      <c r="BQ538" s="3"/>
-      <c r="BR538" s="3"/>
-      <c r="BS538" s="3"/>
-      <c r="BT538" s="3"/>
-      <c r="BU538" s="3"/>
-      <c r="BV538" s="3"/>
-      <c r="BW538" s="3"/>
-      <c r="BX538" s="3"/>
-      <c r="BY538" s="3"/>
-      <c r="BZ538" s="3"/>
-      <c r="CA538" s="3"/>
-      <c r="CB538" s="3"/>
-      <c r="CC538" s="3"/>
-      <c r="CD538" s="3"/>
-      <c r="CE538" s="3"/>
-      <c r="CF538" s="3"/>
-      <c r="CG538" s="3"/>
-      <c r="CH538" s="3"/>
-      <c r="CI538" s="3"/>
-      <c r="CJ538" s="3"/>
-      <c r="CK538" s="3"/>
-      <c r="CL538" s="3"/>
-      <c r="CM538" s="3"/>
-      <c r="CN538" s="3"/>
-      <c r="CO538" s="3"/>
-      <c r="CP538" s="3"/>
-      <c r="CQ538" s="3"/>
+      <c r="M538" s="6"/>
+      <c r="N538" s="6"/>
+      <c r="O538" s="6"/>
+      <c r="P538" s="6"/>
+      <c r="Q538" s="6"/>
+      <c r="R538" s="6"/>
+      <c r="S538" s="6"/>
+      <c r="T538" s="6"/>
+      <c r="U538" s="6"/>
+      <c r="V538" s="6"/>
+      <c r="W538" s="6"/>
+      <c r="X538" s="6"/>
+      <c r="Y538" s="6"/>
+      <c r="Z538" s="6"/>
+      <c r="AA538" s="6"/>
+      <c r="AB538" s="6"/>
+      <c r="AC538" s="6"/>
+      <c r="AD538" s="6"/>
+      <c r="AE538" s="6"/>
+      <c r="AF538" s="6"/>
+      <c r="AG538" s="6"/>
+      <c r="AH538" s="6"/>
+      <c r="AI538" s="6"/>
+      <c r="AJ538" s="6"/>
+      <c r="AK538" s="6"/>
+      <c r="AL538" s="6"/>
+      <c r="AM538" s="6"/>
+      <c r="AN538" s="6"/>
+      <c r="AO538" s="6"/>
+      <c r="AP538" s="6"/>
+      <c r="AQ538" s="6"/>
+      <c r="AR538" s="6"/>
+      <c r="AS538" s="6"/>
+      <c r="AT538" s="6"/>
+      <c r="AU538" s="6"/>
+      <c r="AV538" s="6"/>
+      <c r="AW538" s="6"/>
+      <c r="AX538" s="6"/>
+      <c r="AY538" s="6"/>
+      <c r="AZ538" s="6"/>
+      <c r="BA538" s="6"/>
+      <c r="BB538" s="6"/>
+      <c r="BC538" s="6"/>
+      <c r="BD538" s="6"/>
+      <c r="BE538" s="6"/>
+      <c r="BF538" s="6"/>
+      <c r="BG538" s="6"/>
+      <c r="BH538" s="6"/>
+      <c r="BI538" s="6"/>
+      <c r="BJ538" s="6"/>
+      <c r="BK538" s="6"/>
+      <c r="BL538" s="6"/>
+      <c r="BM538" s="6"/>
+      <c r="BN538" s="6"/>
+      <c r="BO538" s="6"/>
+      <c r="BP538" s="6"/>
+      <c r="BQ538" s="6"/>
+      <c r="BR538" s="6"/>
+      <c r="BS538" s="6"/>
+      <c r="BT538" s="6"/>
+      <c r="BU538" s="6"/>
+      <c r="BV538" s="6"/>
+      <c r="BW538" s="6"/>
+      <c r="BX538" s="6"/>
+      <c r="BY538" s="6"/>
+      <c r="BZ538" s="6"/>
+      <c r="CA538" s="6"/>
+      <c r="CB538" s="6"/>
+      <c r="CC538" s="6"/>
+      <c r="CD538" s="6"/>
+      <c r="CE538" s="6"/>
+      <c r="CF538" s="6"/>
+      <c r="CG538" s="6"/>
+      <c r="CH538" s="6"/>
+      <c r="CI538" s="6"/>
+      <c r="CJ538" s="6"/>
+      <c r="CK538" s="6"/>
+      <c r="CL538" s="6"/>
+      <c r="CM538" s="6"/>
+      <c r="CN538" s="6"/>
+      <c r="CO538" s="6"/>
+      <c r="CP538" s="6"/>
+      <c r="CQ538" s="6"/>
     </row>
     <row r="539" spans="2:95" ht="15">
-      <c r="B539" s="4" t="s">
-        <v>1072</v>
+      <c r="B539" s="4">
+        <v>4352002</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>813</v>
+        <v>1064</v>
       </c>
       <c r="D539" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E539" s="4" t="s">
-        <v>67</v>
+        <v>1065</v>
       </c>
       <c r="F539" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G539" s="4" t="s">
-        <v>1073</v>
-      </c>
+      <c r="G539" s="5"/>
       <c r="H539" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I539" s="5"/>
       <c r="J539" s="7"/>
       <c r="K539" s="6" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="L539" s="6" t="s">
         <v>12</v>
@@ -63357,29 +63379,29 @@
       <c r="CQ539" s="3"/>
     </row>
     <row r="540" spans="2:95" ht="15">
-      <c r="B540" s="4" t="s">
-        <v>1074</v>
+      <c r="B540" s="4">
+        <v>4352101</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>263</v>
+        <v>1066</v>
       </c>
       <c r="D540" s="4">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E540" s="4" t="s">
-        <v>2</v>
+        <v>1025</v>
       </c>
       <c r="F540" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="5"/>
       <c r="H540" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I540" s="5"/>
       <c r="J540" s="7"/>
       <c r="K540" s="6" t="s">
-        <v>1094</v>
+        <v>127</v>
       </c>
       <c r="L540" s="6" t="s">
         <v>12</v>
@@ -63469,29 +63491,29 @@
       <c r="CQ540" s="3"/>
     </row>
     <row r="541" spans="2:95" ht="15">
-      <c r="B541" s="4" t="s">
-        <v>27</v>
+      <c r="B541" s="4">
+        <v>4352105</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D541" s="4">
-        <v>1</v>
+        <v>1067</v>
+      </c>
+      <c r="D541" s="5">
+        <v>0</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>2</v>
+        <v>1068</v>
       </c>
       <c r="F541" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G541" s="5"/>
       <c r="H541" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I541" s="5"/>
       <c r="J541" s="7"/>
       <c r="K541" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L541" s="6" t="s">
         <v>12</v>
@@ -63582,16 +63604,16 @@
     </row>
     <row r="542" spans="2:95" ht="15">
       <c r="B542" s="4">
-        <v>4352001</v>
+        <v>4352106</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
       <c r="D542" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E542" s="4" t="s">
-        <v>1065</v>
+        <v>2</v>
       </c>
       <c r="F542" s="5" t="s">
         <v>10</v>
@@ -63603,7 +63625,7 @@
       <c r="I542" s="5"/>
       <c r="J542" s="7"/>
       <c r="K542" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L542" s="6" t="s">
         <v>12</v>
@@ -63693,29 +63715,29 @@
       <c r="CQ542" s="3"/>
     </row>
     <row r="543" spans="2:95" ht="15">
-      <c r="B543" s="4" t="s">
-        <v>1076</v>
+      <c r="B543" s="4">
+        <v>4352107</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>940</v>
+        <v>1070</v>
       </c>
       <c r="D543" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E543" s="4" t="s">
-        <v>2</v>
+        <v>1071</v>
       </c>
       <c r="F543" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G543" s="5"/>
       <c r="H543" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I543" s="5"/>
       <c r="J543" s="7"/>
       <c r="K543" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L543" s="6" t="s">
         <v>12</v>
@@ -63805,17 +63827,17 @@
       <c r="CQ543" s="3"/>
     </row>
     <row r="544" spans="2:95" ht="15">
-      <c r="B544" s="4">
-        <v>3354134</v>
+      <c r="B544" s="4" t="s">
+        <v>870</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1056</v>
+        <v>871</v>
       </c>
       <c r="D544" s="4">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E544" s="4" t="s">
-        <v>2</v>
+        <v>501</v>
       </c>
       <c r="F544" s="5" t="s">
         <v>10</v>
@@ -63918,28 +63940,30 @@
     </row>
     <row r="545" spans="2:95" ht="15">
       <c r="B545" s="4" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>1078</v>
+        <v>813</v>
       </c>
       <c r="D545" s="4">
         <v>1</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F545" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G545" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="G545" s="4" t="s">
+        <v>1073</v>
+      </c>
       <c r="H545" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I545" s="5"/>
       <c r="J545" s="7"/>
       <c r="K545" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L545" s="6" t="s">
         <v>12</v>
@@ -64029,14 +64053,14 @@
       <c r="CQ545" s="3"/>
     </row>
     <row r="546" spans="2:95" ht="15">
-      <c r="B546" s="4">
-        <v>3353217</v>
+      <c r="B546" s="4" t="s">
+        <v>1074</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>1047</v>
+        <v>263</v>
       </c>
       <c r="D546" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546" s="4" t="s">
         <v>2</v>
@@ -64046,12 +64070,12 @@
       </c>
       <c r="G546" s="5"/>
       <c r="H546" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I546" s="5"/>
       <c r="J546" s="7"/>
       <c r="K546" s="6" t="s">
-        <v>33</v>
+        <v>1094</v>
       </c>
       <c r="L546" s="6" t="s">
         <v>12</v>
@@ -64141,11 +64165,11 @@
       <c r="CQ546" s="3"/>
     </row>
     <row r="547" spans="2:95" ht="15">
-      <c r="B547" s="4">
-        <v>3353213</v>
+      <c r="B547" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>1044</v>
+        <v>28</v>
       </c>
       <c r="D547" s="4">
         <v>1</v>
@@ -64163,7 +64187,7 @@
       <c r="I547" s="5"/>
       <c r="J547" s="7"/>
       <c r="K547" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L547" s="6" t="s">
         <v>12</v>
@@ -64253,29 +64277,29 @@
       <c r="CQ547" s="3"/>
     </row>
     <row r="548" spans="2:95" ht="15">
-      <c r="B548" s="4" t="s">
-        <v>124</v>
+      <c r="B548" s="4">
+        <v>4352001</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>125</v>
+        <v>1075</v>
       </c>
       <c r="D548" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>2</v>
+        <v>1065</v>
       </c>
       <c r="F548" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G548" s="5"/>
       <c r="H548" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I548" s="5"/>
       <c r="J548" s="7"/>
       <c r="K548" s="6" t="s">
-        <v>23</v>
+        <v>127</v>
       </c>
       <c r="L548" s="6" t="s">
         <v>12</v>
@@ -64366,10 +64390,10 @@
     </row>
     <row r="549" spans="2:95" ht="15">
       <c r="B549" s="4" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1080</v>
+        <v>940</v>
       </c>
       <c r="D549" s="4">
         <v>10</v>
@@ -64387,7 +64411,7 @@
       <c r="I549" s="5"/>
       <c r="J549" s="7"/>
       <c r="K549" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L549" s="6" t="s">
         <v>12</v>
@@ -64477,31 +64501,29 @@
       <c r="CQ549" s="3"/>
     </row>
     <row r="550" spans="2:95" ht="15">
-      <c r="B550" s="4" t="s">
-        <v>1081</v>
+      <c r="B550" s="4">
+        <v>3354134</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>956</v>
+        <v>1056</v>
       </c>
       <c r="D550" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="F550" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G550" s="4" t="s">
-        <v>1082</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G550" s="5"/>
       <c r="H550" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I550" s="5"/>
       <c r="J550" s="7"/>
       <c r="K550" s="6" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="L550" s="6" t="s">
         <v>12</v>
@@ -64592,10 +64614,10 @@
     </row>
     <row r="551" spans="2:95" ht="15">
       <c r="B551" s="4" t="s">
-        <v>815</v>
+        <v>1077</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>816</v>
+        <v>1078</v>
       </c>
       <c r="D551" s="4">
         <v>1</v>
@@ -64604,18 +64626,16 @@
         <v>2</v>
       </c>
       <c r="F551" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G551" s="4" t="s">
-        <v>1083</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G551" s="5"/>
       <c r="H551" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I551" s="5"/>
       <c r="J551" s="7"/>
       <c r="K551" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L551" s="6" t="s">
         <v>12</v>
@@ -64706,16 +64726,16 @@
     </row>
     <row r="552" spans="2:95" ht="15">
       <c r="B552" s="4">
-        <v>3350036</v>
+        <v>3353217</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1084</v>
+        <v>1047</v>
       </c>
       <c r="D552" s="4">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="E552" s="4" t="s">
-        <v>526</v>
+        <v>2</v>
       </c>
       <c r="F552" s="5" t="s">
         <v>10</v>
@@ -64727,7 +64747,7 @@
       <c r="I552" s="5"/>
       <c r="J552" s="7"/>
       <c r="K552" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L552" s="6" t="s">
         <v>12</v>
@@ -64817,11 +64837,11 @@
       <c r="CQ552" s="3"/>
     </row>
     <row r="553" spans="2:95" ht="15">
-      <c r="B553" s="4" t="s">
-        <v>1085</v>
+      <c r="B553" s="4">
+        <v>3353213</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>1086</v>
+        <v>1044</v>
       </c>
       <c r="D553" s="4">
         <v>1</v>
@@ -64839,7 +64859,7 @@
       <c r="I553" s="5"/>
       <c r="J553" s="7"/>
       <c r="K553" s="6" t="s">
-        <v>443</v>
+        <v>33</v>
       </c>
       <c r="L553" s="6" t="s">
         <v>12</v>
@@ -64930,13 +64950,13 @@
     </row>
     <row r="554" spans="2:95" ht="15">
       <c r="B554" s="4" t="s">
-        <v>1087</v>
+        <v>124</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1088</v>
+        <v>125</v>
       </c>
       <c r="D554" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E554" s="4" t="s">
         <v>2</v>
@@ -64946,12 +64966,12 @@
       </c>
       <c r="G554" s="5"/>
       <c r="H554" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I554" s="5"/>
       <c r="J554" s="7"/>
       <c r="K554" s="6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="L554" s="6" t="s">
         <v>12</v>
@@ -65040,8 +65060,684 @@
       <c r="CP554" s="3"/>
       <c r="CQ554" s="3"/>
     </row>
+    <row r="555" spans="2:95" ht="15">
+      <c r="B555" s="4" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D555" s="4">
+        <v>10</v>
+      </c>
+      <c r="E555" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G555" s="5"/>
+      <c r="H555" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I555" s="5"/>
+      <c r="J555" s="7"/>
+      <c r="K555" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L555" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M555" s="3"/>
+      <c r="N555" s="3"/>
+      <c r="O555" s="3"/>
+      <c r="P555" s="3"/>
+      <c r="Q555" s="3"/>
+      <c r="R555" s="3"/>
+      <c r="S555" s="3"/>
+      <c r="T555" s="3"/>
+      <c r="U555" s="3"/>
+      <c r="V555" s="3"/>
+      <c r="W555" s="3"/>
+      <c r="X555" s="3"/>
+      <c r="Y555" s="3"/>
+      <c r="Z555" s="3"/>
+      <c r="AA555" s="3"/>
+      <c r="AB555" s="3"/>
+      <c r="AC555" s="3"/>
+      <c r="AD555" s="3"/>
+      <c r="AE555" s="3"/>
+      <c r="AF555" s="3"/>
+      <c r="AG555" s="3"/>
+      <c r="AH555" s="3"/>
+      <c r="AI555" s="3"/>
+      <c r="AJ555" s="3"/>
+      <c r="AK555" s="3"/>
+      <c r="AL555" s="3"/>
+      <c r="AM555" s="3"/>
+      <c r="AN555" s="3"/>
+      <c r="AO555" s="3"/>
+      <c r="AP555" s="3"/>
+      <c r="AQ555" s="3"/>
+      <c r="AR555" s="3"/>
+      <c r="AS555" s="3"/>
+      <c r="AT555" s="3"/>
+      <c r="AU555" s="3"/>
+      <c r="AV555" s="3"/>
+      <c r="AW555" s="3"/>
+      <c r="AX555" s="3"/>
+      <c r="AY555" s="3"/>
+      <c r="AZ555" s="3"/>
+      <c r="BA555" s="3"/>
+      <c r="BB555" s="3"/>
+      <c r="BC555" s="3"/>
+      <c r="BD555" s="3"/>
+      <c r="BE555" s="3"/>
+      <c r="BF555" s="3"/>
+      <c r="BG555" s="3"/>
+      <c r="BH555" s="3"/>
+      <c r="BI555" s="3"/>
+      <c r="BJ555" s="3"/>
+      <c r="BK555" s="3"/>
+      <c r="BL555" s="3"/>
+      <c r="BM555" s="3"/>
+      <c r="BN555" s="3"/>
+      <c r="BO555" s="3"/>
+      <c r="BP555" s="3"/>
+      <c r="BQ555" s="3"/>
+      <c r="BR555" s="3"/>
+      <c r="BS555" s="3"/>
+      <c r="BT555" s="3"/>
+      <c r="BU555" s="3"/>
+      <c r="BV555" s="3"/>
+      <c r="BW555" s="3"/>
+      <c r="BX555" s="3"/>
+      <c r="BY555" s="3"/>
+      <c r="BZ555" s="3"/>
+      <c r="CA555" s="3"/>
+      <c r="CB555" s="3"/>
+      <c r="CC555" s="3"/>
+      <c r="CD555" s="3"/>
+      <c r="CE555" s="3"/>
+      <c r="CF555" s="3"/>
+      <c r="CG555" s="3"/>
+      <c r="CH555" s="3"/>
+      <c r="CI555" s="3"/>
+      <c r="CJ555" s="3"/>
+      <c r="CK555" s="3"/>
+      <c r="CL555" s="3"/>
+      <c r="CM555" s="3"/>
+      <c r="CN555" s="3"/>
+      <c r="CO555" s="3"/>
+      <c r="CP555" s="3"/>
+      <c r="CQ555" s="3"/>
+    </row>
+    <row r="556" spans="2:95" ht="15">
+      <c r="B556" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C556" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="D556" s="4">
+        <v>1</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G556" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="H556" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I556" s="5"/>
+      <c r="J556" s="7"/>
+      <c r="K556" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="L556" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M556" s="3"/>
+      <c r="N556" s="3"/>
+      <c r="O556" s="3"/>
+      <c r="P556" s="3"/>
+      <c r="Q556" s="3"/>
+      <c r="R556" s="3"/>
+      <c r="S556" s="3"/>
+      <c r="T556" s="3"/>
+      <c r="U556" s="3"/>
+      <c r="V556" s="3"/>
+      <c r="W556" s="3"/>
+      <c r="X556" s="3"/>
+      <c r="Y556" s="3"/>
+      <c r="Z556" s="3"/>
+      <c r="AA556" s="3"/>
+      <c r="AB556" s="3"/>
+      <c r="AC556" s="3"/>
+      <c r="AD556" s="3"/>
+      <c r="AE556" s="3"/>
+      <c r="AF556" s="3"/>
+      <c r="AG556" s="3"/>
+      <c r="AH556" s="3"/>
+      <c r="AI556" s="3"/>
+      <c r="AJ556" s="3"/>
+      <c r="AK556" s="3"/>
+      <c r="AL556" s="3"/>
+      <c r="AM556" s="3"/>
+      <c r="AN556" s="3"/>
+      <c r="AO556" s="3"/>
+      <c r="AP556" s="3"/>
+      <c r="AQ556" s="3"/>
+      <c r="AR556" s="3"/>
+      <c r="AS556" s="3"/>
+      <c r="AT556" s="3"/>
+      <c r="AU556" s="3"/>
+      <c r="AV556" s="3"/>
+      <c r="AW556" s="3"/>
+      <c r="AX556" s="3"/>
+      <c r="AY556" s="3"/>
+      <c r="AZ556" s="3"/>
+      <c r="BA556" s="3"/>
+      <c r="BB556" s="3"/>
+      <c r="BC556" s="3"/>
+      <c r="BD556" s="3"/>
+      <c r="BE556" s="3"/>
+      <c r="BF556" s="3"/>
+      <c r="BG556" s="3"/>
+      <c r="BH556" s="3"/>
+      <c r="BI556" s="3"/>
+      <c r="BJ556" s="3"/>
+      <c r="BK556" s="3"/>
+      <c r="BL556" s="3"/>
+      <c r="BM556" s="3"/>
+      <c r="BN556" s="3"/>
+      <c r="BO556" s="3"/>
+      <c r="BP556" s="3"/>
+      <c r="BQ556" s="3"/>
+      <c r="BR556" s="3"/>
+      <c r="BS556" s="3"/>
+      <c r="BT556" s="3"/>
+      <c r="BU556" s="3"/>
+      <c r="BV556" s="3"/>
+      <c r="BW556" s="3"/>
+      <c r="BX556" s="3"/>
+      <c r="BY556" s="3"/>
+      <c r="BZ556" s="3"/>
+      <c r="CA556" s="3"/>
+      <c r="CB556" s="3"/>
+      <c r="CC556" s="3"/>
+      <c r="CD556" s="3"/>
+      <c r="CE556" s="3"/>
+      <c r="CF556" s="3"/>
+      <c r="CG556" s="3"/>
+      <c r="CH556" s="3"/>
+      <c r="CI556" s="3"/>
+      <c r="CJ556" s="3"/>
+      <c r="CK556" s="3"/>
+      <c r="CL556" s="3"/>
+      <c r="CM556" s="3"/>
+      <c r="CN556" s="3"/>
+      <c r="CO556" s="3"/>
+      <c r="CP556" s="3"/>
+      <c r="CQ556" s="3"/>
+    </row>
+    <row r="557" spans="2:95" ht="15">
+      <c r="B557" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="C557" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D557" s="4">
+        <v>1</v>
+      </c>
+      <c r="E557" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G557" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H557" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I557" s="5"/>
+      <c r="J557" s="7"/>
+      <c r="K557" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L557" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M557" s="3"/>
+      <c r="N557" s="3"/>
+      <c r="O557" s="3"/>
+      <c r="P557" s="3"/>
+      <c r="Q557" s="3"/>
+      <c r="R557" s="3"/>
+      <c r="S557" s="3"/>
+      <c r="T557" s="3"/>
+      <c r="U557" s="3"/>
+      <c r="V557" s="3"/>
+      <c r="W557" s="3"/>
+      <c r="X557" s="3"/>
+      <c r="Y557" s="3"/>
+      <c r="Z557" s="3"/>
+      <c r="AA557" s="3"/>
+      <c r="AB557" s="3"/>
+      <c r="AC557" s="3"/>
+      <c r="AD557" s="3"/>
+      <c r="AE557" s="3"/>
+      <c r="AF557" s="3"/>
+      <c r="AG557" s="3"/>
+      <c r="AH557" s="3"/>
+      <c r="AI557" s="3"/>
+      <c r="AJ557" s="3"/>
+      <c r="AK557" s="3"/>
+      <c r="AL557" s="3"/>
+      <c r="AM557" s="3"/>
+      <c r="AN557" s="3"/>
+      <c r="AO557" s="3"/>
+      <c r="AP557" s="3"/>
+      <c r="AQ557" s="3"/>
+      <c r="AR557" s="3"/>
+      <c r="AS557" s="3"/>
+      <c r="AT557" s="3"/>
+      <c r="AU557" s="3"/>
+      <c r="AV557" s="3"/>
+      <c r="AW557" s="3"/>
+      <c r="AX557" s="3"/>
+      <c r="AY557" s="3"/>
+      <c r="AZ557" s="3"/>
+      <c r="BA557" s="3"/>
+      <c r="BB557" s="3"/>
+      <c r="BC557" s="3"/>
+      <c r="BD557" s="3"/>
+      <c r="BE557" s="3"/>
+      <c r="BF557" s="3"/>
+      <c r="BG557" s="3"/>
+      <c r="BH557" s="3"/>
+      <c r="BI557" s="3"/>
+      <c r="BJ557" s="3"/>
+      <c r="BK557" s="3"/>
+      <c r="BL557" s="3"/>
+      <c r="BM557" s="3"/>
+      <c r="BN557" s="3"/>
+      <c r="BO557" s="3"/>
+      <c r="BP557" s="3"/>
+      <c r="BQ557" s="3"/>
+      <c r="BR557" s="3"/>
+      <c r="BS557" s="3"/>
+      <c r="BT557" s="3"/>
+      <c r="BU557" s="3"/>
+      <c r="BV557" s="3"/>
+      <c r="BW557" s="3"/>
+      <c r="BX557" s="3"/>
+      <c r="BY557" s="3"/>
+      <c r="BZ557" s="3"/>
+      <c r="CA557" s="3"/>
+      <c r="CB557" s="3"/>
+      <c r="CC557" s="3"/>
+      <c r="CD557" s="3"/>
+      <c r="CE557" s="3"/>
+      <c r="CF557" s="3"/>
+      <c r="CG557" s="3"/>
+      <c r="CH557" s="3"/>
+      <c r="CI557" s="3"/>
+      <c r="CJ557" s="3"/>
+      <c r="CK557" s="3"/>
+      <c r="CL557" s="3"/>
+      <c r="CM557" s="3"/>
+      <c r="CN557" s="3"/>
+      <c r="CO557" s="3"/>
+      <c r="CP557" s="3"/>
+      <c r="CQ557" s="3"/>
+    </row>
+    <row r="558" spans="2:95" ht="15">
+      <c r="B558" s="4">
+        <v>3350036</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D558" s="4">
+        <v>520</v>
+      </c>
+      <c r="E558" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G558" s="5"/>
+      <c r="H558" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I558" s="5"/>
+      <c r="J558" s="7"/>
+      <c r="K558" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L558" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M558" s="3"/>
+      <c r="N558" s="3"/>
+      <c r="O558" s="3"/>
+      <c r="P558" s="3"/>
+      <c r="Q558" s="3"/>
+      <c r="R558" s="3"/>
+      <c r="S558" s="3"/>
+      <c r="T558" s="3"/>
+      <c r="U558" s="3"/>
+      <c r="V558" s="3"/>
+      <c r="W558" s="3"/>
+      <c r="X558" s="3"/>
+      <c r="Y558" s="3"/>
+      <c r="Z558" s="3"/>
+      <c r="AA558" s="3"/>
+      <c r="AB558" s="3"/>
+      <c r="AC558" s="3"/>
+      <c r="AD558" s="3"/>
+      <c r="AE558" s="3"/>
+      <c r="AF558" s="3"/>
+      <c r="AG558" s="3"/>
+      <c r="AH558" s="3"/>
+      <c r="AI558" s="3"/>
+      <c r="AJ558" s="3"/>
+      <c r="AK558" s="3"/>
+      <c r="AL558" s="3"/>
+      <c r="AM558" s="3"/>
+      <c r="AN558" s="3"/>
+      <c r="AO558" s="3"/>
+      <c r="AP558" s="3"/>
+      <c r="AQ558" s="3"/>
+      <c r="AR558" s="3"/>
+      <c r="AS558" s="3"/>
+      <c r="AT558" s="3"/>
+      <c r="AU558" s="3"/>
+      <c r="AV558" s="3"/>
+      <c r="AW558" s="3"/>
+      <c r="AX558" s="3"/>
+      <c r="AY558" s="3"/>
+      <c r="AZ558" s="3"/>
+      <c r="BA558" s="3"/>
+      <c r="BB558" s="3"/>
+      <c r="BC558" s="3"/>
+      <c r="BD558" s="3"/>
+      <c r="BE558" s="3"/>
+      <c r="BF558" s="3"/>
+      <c r="BG558" s="3"/>
+      <c r="BH558" s="3"/>
+      <c r="BI558" s="3"/>
+      <c r="BJ558" s="3"/>
+      <c r="BK558" s="3"/>
+      <c r="BL558" s="3"/>
+      <c r="BM558" s="3"/>
+      <c r="BN558" s="3"/>
+      <c r="BO558" s="3"/>
+      <c r="BP558" s="3"/>
+      <c r="BQ558" s="3"/>
+      <c r="BR558" s="3"/>
+      <c r="BS558" s="3"/>
+      <c r="BT558" s="3"/>
+      <c r="BU558" s="3"/>
+      <c r="BV558" s="3"/>
+      <c r="BW558" s="3"/>
+      <c r="BX558" s="3"/>
+      <c r="BY558" s="3"/>
+      <c r="BZ558" s="3"/>
+      <c r="CA558" s="3"/>
+      <c r="CB558" s="3"/>
+      <c r="CC558" s="3"/>
+      <c r="CD558" s="3"/>
+      <c r="CE558" s="3"/>
+      <c r="CF558" s="3"/>
+      <c r="CG558" s="3"/>
+      <c r="CH558" s="3"/>
+      <c r="CI558" s="3"/>
+      <c r="CJ558" s="3"/>
+      <c r="CK558" s="3"/>
+      <c r="CL558" s="3"/>
+      <c r="CM558" s="3"/>
+      <c r="CN558" s="3"/>
+      <c r="CO558" s="3"/>
+      <c r="CP558" s="3"/>
+      <c r="CQ558" s="3"/>
+    </row>
+    <row r="559" spans="2:95" ht="15">
+      <c r="B559" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D559" s="4">
+        <v>1</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G559" s="5"/>
+      <c r="H559" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I559" s="5"/>
+      <c r="J559" s="7"/>
+      <c r="K559" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="L559" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M559" s="3"/>
+      <c r="N559" s="3"/>
+      <c r="O559" s="3"/>
+      <c r="P559" s="3"/>
+      <c r="Q559" s="3"/>
+      <c r="R559" s="3"/>
+      <c r="S559" s="3"/>
+      <c r="T559" s="3"/>
+      <c r="U559" s="3"/>
+      <c r="V559" s="3"/>
+      <c r="W559" s="3"/>
+      <c r="X559" s="3"/>
+      <c r="Y559" s="3"/>
+      <c r="Z559" s="3"/>
+      <c r="AA559" s="3"/>
+      <c r="AB559" s="3"/>
+      <c r="AC559" s="3"/>
+      <c r="AD559" s="3"/>
+      <c r="AE559" s="3"/>
+      <c r="AF559" s="3"/>
+      <c r="AG559" s="3"/>
+      <c r="AH559" s="3"/>
+      <c r="AI559" s="3"/>
+      <c r="AJ559" s="3"/>
+      <c r="AK559" s="3"/>
+      <c r="AL559" s="3"/>
+      <c r="AM559" s="3"/>
+      <c r="AN559" s="3"/>
+      <c r="AO559" s="3"/>
+      <c r="AP559" s="3"/>
+      <c r="AQ559" s="3"/>
+      <c r="AR559" s="3"/>
+      <c r="AS559" s="3"/>
+      <c r="AT559" s="3"/>
+      <c r="AU559" s="3"/>
+      <c r="AV559" s="3"/>
+      <c r="AW559" s="3"/>
+      <c r="AX559" s="3"/>
+      <c r="AY559" s="3"/>
+      <c r="AZ559" s="3"/>
+      <c r="BA559" s="3"/>
+      <c r="BB559" s="3"/>
+      <c r="BC559" s="3"/>
+      <c r="BD559" s="3"/>
+      <c r="BE559" s="3"/>
+      <c r="BF559" s="3"/>
+      <c r="BG559" s="3"/>
+      <c r="BH559" s="3"/>
+      <c r="BI559" s="3"/>
+      <c r="BJ559" s="3"/>
+      <c r="BK559" s="3"/>
+      <c r="BL559" s="3"/>
+      <c r="BM559" s="3"/>
+      <c r="BN559" s="3"/>
+      <c r="BO559" s="3"/>
+      <c r="BP559" s="3"/>
+      <c r="BQ559" s="3"/>
+      <c r="BR559" s="3"/>
+      <c r="BS559" s="3"/>
+      <c r="BT559" s="3"/>
+      <c r="BU559" s="3"/>
+      <c r="BV559" s="3"/>
+      <c r="BW559" s="3"/>
+      <c r="BX559" s="3"/>
+      <c r="BY559" s="3"/>
+      <c r="BZ559" s="3"/>
+      <c r="CA559" s="3"/>
+      <c r="CB559" s="3"/>
+      <c r="CC559" s="3"/>
+      <c r="CD559" s="3"/>
+      <c r="CE559" s="3"/>
+      <c r="CF559" s="3"/>
+      <c r="CG559" s="3"/>
+      <c r="CH559" s="3"/>
+      <c r="CI559" s="3"/>
+      <c r="CJ559" s="3"/>
+      <c r="CK559" s="3"/>
+      <c r="CL559" s="3"/>
+      <c r="CM559" s="3"/>
+      <c r="CN559" s="3"/>
+      <c r="CO559" s="3"/>
+      <c r="CP559" s="3"/>
+      <c r="CQ559" s="3"/>
+    </row>
+    <row r="560" spans="2:95" ht="15">
+      <c r="B560" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D560" s="4">
+        <v>1</v>
+      </c>
+      <c r="E560" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G560" s="5"/>
+      <c r="H560" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I560" s="5"/>
+      <c r="J560" s="7"/>
+      <c r="K560" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L560" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M560" s="3"/>
+      <c r="N560" s="3"/>
+      <c r="O560" s="3"/>
+      <c r="P560" s="3"/>
+      <c r="Q560" s="3"/>
+      <c r="R560" s="3"/>
+      <c r="S560" s="3"/>
+      <c r="T560" s="3"/>
+      <c r="U560" s="3"/>
+      <c r="V560" s="3"/>
+      <c r="W560" s="3"/>
+      <c r="X560" s="3"/>
+      <c r="Y560" s="3"/>
+      <c r="Z560" s="3"/>
+      <c r="AA560" s="3"/>
+      <c r="AB560" s="3"/>
+      <c r="AC560" s="3"/>
+      <c r="AD560" s="3"/>
+      <c r="AE560" s="3"/>
+      <c r="AF560" s="3"/>
+      <c r="AG560" s="3"/>
+      <c r="AH560" s="3"/>
+      <c r="AI560" s="3"/>
+      <c r="AJ560" s="3"/>
+      <c r="AK560" s="3"/>
+      <c r="AL560" s="3"/>
+      <c r="AM560" s="3"/>
+      <c r="AN560" s="3"/>
+      <c r="AO560" s="3"/>
+      <c r="AP560" s="3"/>
+      <c r="AQ560" s="3"/>
+      <c r="AR560" s="3"/>
+      <c r="AS560" s="3"/>
+      <c r="AT560" s="3"/>
+      <c r="AU560" s="3"/>
+      <c r="AV560" s="3"/>
+      <c r="AW560" s="3"/>
+      <c r="AX560" s="3"/>
+      <c r="AY560" s="3"/>
+      <c r="AZ560" s="3"/>
+      <c r="BA560" s="3"/>
+      <c r="BB560" s="3"/>
+      <c r="BC560" s="3"/>
+      <c r="BD560" s="3"/>
+      <c r="BE560" s="3"/>
+      <c r="BF560" s="3"/>
+      <c r="BG560" s="3"/>
+      <c r="BH560" s="3"/>
+      <c r="BI560" s="3"/>
+      <c r="BJ560" s="3"/>
+      <c r="BK560" s="3"/>
+      <c r="BL560" s="3"/>
+      <c r="BM560" s="3"/>
+      <c r="BN560" s="3"/>
+      <c r="BO560" s="3"/>
+      <c r="BP560" s="3"/>
+      <c r="BQ560" s="3"/>
+      <c r="BR560" s="3"/>
+      <c r="BS560" s="3"/>
+      <c r="BT560" s="3"/>
+      <c r="BU560" s="3"/>
+      <c r="BV560" s="3"/>
+      <c r="BW560" s="3"/>
+      <c r="BX560" s="3"/>
+      <c r="BY560" s="3"/>
+      <c r="BZ560" s="3"/>
+      <c r="CA560" s="3"/>
+      <c r="CB560" s="3"/>
+      <c r="CC560" s="3"/>
+      <c r="CD560" s="3"/>
+      <c r="CE560" s="3"/>
+      <c r="CF560" s="3"/>
+      <c r="CG560" s="3"/>
+      <c r="CH560" s="3"/>
+      <c r="CI560" s="3"/>
+      <c r="CJ560" s="3"/>
+      <c r="CK560" s="3"/>
+      <c r="CL560" s="3"/>
+      <c r="CM560" s="3"/>
+      <c r="CN560" s="3"/>
+      <c r="CO560" s="3"/>
+      <c r="CP560" s="3"/>
+      <c r="CQ560" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CQ554" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CQ560" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/modele/stocker_temp.xlsx
+++ b/modele/stocker_temp.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POKORSSE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E527E338-6AE2-4B7A-8173-C12F8AF1EA45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C349672-E2CB-456F-B582-039912FD9EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$561</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$562</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="1114">
   <si>
     <t>Désignation:</t>
   </si>
@@ -3373,6 +3373,9 @@
   </si>
   <si>
     <t>LAVETTE JAUNE 51X36CM TECHLINE SACHET X25</t>
+  </si>
+  <si>
+    <t>BOBINE PAPIER BRUN VELIN LAIZE 300 MM - 70 GR - DIAM 300</t>
   </si>
 </sst>
 </file>
@@ -3673,10 +3676,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ561"/>
+  <dimension ref="A1:CQ562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H26" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52:L53"/>
+    <sheetView tabSelected="1" topLeftCell="D521" workbookViewId="0">
+      <selection activeCell="N540" sqref="N540"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -63502,7 +63505,7 @@
         <v>1066</v>
       </c>
       <c r="D541" s="4">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E541" s="4" t="s">
         <v>1025</v>
@@ -63607,129 +63610,129 @@
       <c r="CQ541" s="3"/>
     </row>
     <row r="542" spans="2:95" ht="15">
-      <c r="B542" s="4">
-        <v>4352105</v>
-      </c>
-      <c r="C542" s="4" t="s">
-        <v>1067</v>
+      <c r="B542" s="5">
+        <v>4352102</v>
+      </c>
+      <c r="C542" s="5" t="s">
+        <v>1113</v>
       </c>
       <c r="D542" s="5">
-        <v>0</v>
-      </c>
-      <c r="E542" s="4" t="s">
-        <v>1068</v>
+        <v>44</v>
+      </c>
+      <c r="E542" s="5" t="s">
+        <v>1025</v>
       </c>
       <c r="F542" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="5"/>
-      <c r="H542" s="4" t="s">
+      <c r="H542" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I542" s="5"/>
       <c r="J542" s="7"/>
       <c r="K542" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L542" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M542" s="3"/>
-      <c r="N542" s="3"/>
-      <c r="O542" s="3"/>
-      <c r="P542" s="3"/>
-      <c r="Q542" s="3"/>
-      <c r="R542" s="3"/>
-      <c r="S542" s="3"/>
-      <c r="T542" s="3"/>
-      <c r="U542" s="3"/>
-      <c r="V542" s="3"/>
-      <c r="W542" s="3"/>
-      <c r="X542" s="3"/>
-      <c r="Y542" s="3"/>
-      <c r="Z542" s="3"/>
-      <c r="AA542" s="3"/>
-      <c r="AB542" s="3"/>
-      <c r="AC542" s="3"/>
-      <c r="AD542" s="3"/>
-      <c r="AE542" s="3"/>
-      <c r="AF542" s="3"/>
-      <c r="AG542" s="3"/>
-      <c r="AH542" s="3"/>
-      <c r="AI542" s="3"/>
-      <c r="AJ542" s="3"/>
-      <c r="AK542" s="3"/>
-      <c r="AL542" s="3"/>
-      <c r="AM542" s="3"/>
-      <c r="AN542" s="3"/>
-      <c r="AO542" s="3"/>
-      <c r="AP542" s="3"/>
-      <c r="AQ542" s="3"/>
-      <c r="AR542" s="3"/>
-      <c r="AS542" s="3"/>
-      <c r="AT542" s="3"/>
-      <c r="AU542" s="3"/>
-      <c r="AV542" s="3"/>
-      <c r="AW542" s="3"/>
-      <c r="AX542" s="3"/>
-      <c r="AY542" s="3"/>
-      <c r="AZ542" s="3"/>
-      <c r="BA542" s="3"/>
-      <c r="BB542" s="3"/>
-      <c r="BC542" s="3"/>
-      <c r="BD542" s="3"/>
-      <c r="BE542" s="3"/>
-      <c r="BF542" s="3"/>
-      <c r="BG542" s="3"/>
-      <c r="BH542" s="3"/>
-      <c r="BI542" s="3"/>
-      <c r="BJ542" s="3"/>
-      <c r="BK542" s="3"/>
-      <c r="BL542" s="3"/>
-      <c r="BM542" s="3"/>
-      <c r="BN542" s="3"/>
-      <c r="BO542" s="3"/>
-      <c r="BP542" s="3"/>
-      <c r="BQ542" s="3"/>
-      <c r="BR542" s="3"/>
-      <c r="BS542" s="3"/>
-      <c r="BT542" s="3"/>
-      <c r="BU542" s="3"/>
-      <c r="BV542" s="3"/>
-      <c r="BW542" s="3"/>
-      <c r="BX542" s="3"/>
-      <c r="BY542" s="3"/>
-      <c r="BZ542" s="3"/>
-      <c r="CA542" s="3"/>
-      <c r="CB542" s="3"/>
-      <c r="CC542" s="3"/>
-      <c r="CD542" s="3"/>
-      <c r="CE542" s="3"/>
-      <c r="CF542" s="3"/>
-      <c r="CG542" s="3"/>
-      <c r="CH542" s="3"/>
-      <c r="CI542" s="3"/>
-      <c r="CJ542" s="3"/>
-      <c r="CK542" s="3"/>
-      <c r="CL542" s="3"/>
-      <c r="CM542" s="3"/>
-      <c r="CN542" s="3"/>
-      <c r="CO542" s="3"/>
-      <c r="CP542" s="3"/>
-      <c r="CQ542" s="3"/>
+      <c r="M542" s="6"/>
+      <c r="N542" s="6"/>
+      <c r="O542" s="6"/>
+      <c r="P542" s="6"/>
+      <c r="Q542" s="6"/>
+      <c r="R542" s="6"/>
+      <c r="S542" s="6"/>
+      <c r="T542" s="6"/>
+      <c r="U542" s="6"/>
+      <c r="V542" s="6"/>
+      <c r="W542" s="6"/>
+      <c r="X542" s="6"/>
+      <c r="Y542" s="6"/>
+      <c r="Z542" s="6"/>
+      <c r="AA542" s="6"/>
+      <c r="AB542" s="6"/>
+      <c r="AC542" s="6"/>
+      <c r="AD542" s="6"/>
+      <c r="AE542" s="6"/>
+      <c r="AF542" s="6"/>
+      <c r="AG542" s="6"/>
+      <c r="AH542" s="6"/>
+      <c r="AI542" s="6"/>
+      <c r="AJ542" s="6"/>
+      <c r="AK542" s="6"/>
+      <c r="AL542" s="6"/>
+      <c r="AM542" s="6"/>
+      <c r="AN542" s="6"/>
+      <c r="AO542" s="6"/>
+      <c r="AP542" s="6"/>
+      <c r="AQ542" s="6"/>
+      <c r="AR542" s="6"/>
+      <c r="AS542" s="6"/>
+      <c r="AT542" s="6"/>
+      <c r="AU542" s="6"/>
+      <c r="AV542" s="6"/>
+      <c r="AW542" s="6"/>
+      <c r="AX542" s="6"/>
+      <c r="AY542" s="6"/>
+      <c r="AZ542" s="6"/>
+      <c r="BA542" s="6"/>
+      <c r="BB542" s="6"/>
+      <c r="BC542" s="6"/>
+      <c r="BD542" s="6"/>
+      <c r="BE542" s="6"/>
+      <c r="BF542" s="6"/>
+      <c r="BG542" s="6"/>
+      <c r="BH542" s="6"/>
+      <c r="BI542" s="6"/>
+      <c r="BJ542" s="6"/>
+      <c r="BK542" s="6"/>
+      <c r="BL542" s="6"/>
+      <c r="BM542" s="6"/>
+      <c r="BN542" s="6"/>
+      <c r="BO542" s="6"/>
+      <c r="BP542" s="6"/>
+      <c r="BQ542" s="6"/>
+      <c r="BR542" s="6"/>
+      <c r="BS542" s="6"/>
+      <c r="BT542" s="6"/>
+      <c r="BU542" s="6"/>
+      <c r="BV542" s="6"/>
+      <c r="BW542" s="6"/>
+      <c r="BX542" s="6"/>
+      <c r="BY542" s="6"/>
+      <c r="BZ542" s="6"/>
+      <c r="CA542" s="6"/>
+      <c r="CB542" s="6"/>
+      <c r="CC542" s="6"/>
+      <c r="CD542" s="6"/>
+      <c r="CE542" s="6"/>
+      <c r="CF542" s="6"/>
+      <c r="CG542" s="6"/>
+      <c r="CH542" s="6"/>
+      <c r="CI542" s="6"/>
+      <c r="CJ542" s="6"/>
+      <c r="CK542" s="6"/>
+      <c r="CL542" s="6"/>
+      <c r="CM542" s="6"/>
+      <c r="CN542" s="6"/>
+      <c r="CO542" s="6"/>
+      <c r="CP542" s="6"/>
+      <c r="CQ542" s="6"/>
     </row>
     <row r="543" spans="2:95" ht="15">
       <c r="B543" s="4">
-        <v>4352106</v>
+        <v>4352105</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D543" s="4">
+        <v>1067</v>
+      </c>
+      <c r="D543" s="5">
         <v>0</v>
       </c>
       <c r="E543" s="4" t="s">
-        <v>2</v>
+        <v>1068</v>
       </c>
       <c r="F543" s="5" t="s">
         <v>10</v>
@@ -63832,16 +63835,16 @@
     </row>
     <row r="544" spans="2:95" ht="15">
       <c r="B544" s="4">
-        <v>4352107</v>
+        <v>4352106</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D544" s="4">
         <v>0</v>
       </c>
       <c r="E544" s="4" t="s">
-        <v>1071</v>
+        <v>2</v>
       </c>
       <c r="F544" s="5" t="s">
         <v>10</v>
@@ -63943,17 +63946,17 @@
       <c r="CQ544" s="3"/>
     </row>
     <row r="545" spans="2:95" ht="15">
-      <c r="B545" s="4" t="s">
-        <v>870</v>
+      <c r="B545" s="4">
+        <v>4352107</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>871</v>
+        <v>1070</v>
       </c>
       <c r="D545" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>501</v>
+        <v>1071</v>
       </c>
       <c r="F545" s="5" t="s">
         <v>10</v>
@@ -64056,30 +64059,28 @@
     </row>
     <row r="546" spans="2:95" ht="15">
       <c r="B546" s="4" t="s">
-        <v>1072</v>
+        <v>870</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>813</v>
+        <v>871</v>
       </c>
       <c r="D546" s="4">
         <v>1</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="F546" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G546" s="4" t="s">
-        <v>1073</v>
-      </c>
+      <c r="G546" s="5"/>
       <c r="H546" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I546" s="5"/>
       <c r="J546" s="7"/>
       <c r="K546" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L546" s="6" t="s">
         <v>12</v>
@@ -64170,28 +64171,30 @@
     </row>
     <row r="547" spans="2:95" ht="15">
       <c r="B547" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>263</v>
+        <v>813</v>
       </c>
       <c r="D547" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F547" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G547" s="5"/>
+      <c r="G547" s="4" t="s">
+        <v>1073</v>
+      </c>
       <c r="H547" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I547" s="5"/>
       <c r="J547" s="7"/>
       <c r="K547" s="6" t="s">
-        <v>1094</v>
+        <v>17</v>
       </c>
       <c r="L547" s="6" t="s">
         <v>12</v>
@@ -64282,13 +64285,13 @@
     </row>
     <row r="548" spans="2:95" ht="15">
       <c r="B548" s="4" t="s">
-        <v>27</v>
+        <v>1074</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="D548" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E548" s="4" t="s">
         <v>2</v>
@@ -64303,7 +64306,7 @@
       <c r="I548" s="5"/>
       <c r="J548" s="7"/>
       <c r="K548" s="6" t="s">
-        <v>17</v>
+        <v>1094</v>
       </c>
       <c r="L548" s="6" t="s">
         <v>12</v>
@@ -64393,29 +64396,29 @@
       <c r="CQ548" s="3"/>
     </row>
     <row r="549" spans="2:95" ht="15">
-      <c r="B549" s="4">
-        <v>4352001</v>
+      <c r="B549" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1075</v>
+        <v>28</v>
       </c>
       <c r="D549" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E549" s="4" t="s">
-        <v>1065</v>
+        <v>2</v>
       </c>
       <c r="F549" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G549" s="5"/>
       <c r="H549" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I549" s="5"/>
       <c r="J549" s="7"/>
       <c r="K549" s="6" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="L549" s="6" t="s">
         <v>12</v>
@@ -64505,29 +64508,29 @@
       <c r="CQ549" s="3"/>
     </row>
     <row r="550" spans="2:95" ht="15">
-      <c r="B550" s="4" t="s">
-        <v>1076</v>
+      <c r="B550" s="4">
+        <v>4352001</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>940</v>
+        <v>1075</v>
       </c>
       <c r="D550" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>2</v>
+        <v>1065</v>
       </c>
       <c r="F550" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G550" s="5"/>
       <c r="H550" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I550" s="5"/>
       <c r="J550" s="7"/>
       <c r="K550" s="6" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="L550" s="6" t="s">
         <v>12</v>
@@ -64617,14 +64620,14 @@
       <c r="CQ550" s="3"/>
     </row>
     <row r="551" spans="2:95" ht="15">
-      <c r="B551" s="4">
-        <v>3354134</v>
+      <c r="B551" s="4" t="s">
+        <v>1076</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>1056</v>
+        <v>940</v>
       </c>
       <c r="D551" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E551" s="4" t="s">
         <v>2</v>
@@ -64634,12 +64637,12 @@
       </c>
       <c r="G551" s="5"/>
       <c r="H551" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I551" s="5"/>
       <c r="J551" s="7"/>
       <c r="K551" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L551" s="6" t="s">
         <v>12</v>
@@ -64729,24 +64732,24 @@
       <c r="CQ551" s="3"/>
     </row>
     <row r="552" spans="2:95" ht="15">
-      <c r="B552" s="4" t="s">
-        <v>1077</v>
+      <c r="B552" s="4">
+        <v>3354134</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="D552" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E552" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F552" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G552" s="5"/>
       <c r="H552" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I552" s="5"/>
       <c r="J552" s="7"/>
@@ -64841,11 +64844,11 @@
       <c r="CQ552" s="3"/>
     </row>
     <row r="553" spans="2:95" ht="15">
-      <c r="B553" s="4">
-        <v>3353217</v>
+      <c r="B553" s="4" t="s">
+        <v>1077</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>1047</v>
+        <v>1078</v>
       </c>
       <c r="D553" s="4">
         <v>1</v>
@@ -64854,11 +64857,11 @@
         <v>2</v>
       </c>
       <c r="F553" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G553" s="5"/>
       <c r="H553" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I553" s="5"/>
       <c r="J553" s="7"/>
@@ -64954,10 +64957,10 @@
     </row>
     <row r="554" spans="2:95" ht="15">
       <c r="B554" s="4">
-        <v>3353213</v>
+        <v>3353217</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D554" s="4">
         <v>1</v>
@@ -64970,7 +64973,7 @@
       </c>
       <c r="G554" s="5"/>
       <c r="H554" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I554" s="5"/>
       <c r="J554" s="7"/>
@@ -65065,14 +65068,14 @@
       <c r="CQ554" s="3"/>
     </row>
     <row r="555" spans="2:95" ht="15">
-      <c r="B555" s="4" t="s">
-        <v>124</v>
+      <c r="B555" s="4">
+        <v>3353213</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>125</v>
+        <v>1044</v>
       </c>
       <c r="D555" s="4">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E555" s="4" t="s">
         <v>2</v>
@@ -65087,7 +65090,7 @@
       <c r="I555" s="5"/>
       <c r="J555" s="7"/>
       <c r="K555" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L555" s="6" t="s">
         <v>12</v>
@@ -65178,13 +65181,13 @@
     </row>
     <row r="556" spans="2:95" ht="15">
       <c r="B556" s="4" t="s">
-        <v>1079</v>
+        <v>124</v>
       </c>
       <c r="C556" s="4" t="s">
-        <v>1080</v>
+        <v>125</v>
       </c>
       <c r="D556" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="E556" s="4" t="s">
         <v>2</v>
@@ -65199,7 +65202,7 @@
       <c r="I556" s="5"/>
       <c r="J556" s="7"/>
       <c r="K556" s="6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="L556" s="6" t="s">
         <v>12</v>
@@ -65290,30 +65293,28 @@
     </row>
     <row r="557" spans="2:95" ht="15">
       <c r="B557" s="4" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C557" s="4" t="s">
-        <v>956</v>
+        <v>1080</v>
       </c>
       <c r="D557" s="4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E557" s="4" t="s">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="F557" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G557" s="4" t="s">
-        <v>1082</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G557" s="5"/>
       <c r="H557" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I557" s="5"/>
       <c r="J557" s="7"/>
       <c r="K557" s="6" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="L557" s="6" t="s">
         <v>12</v>
@@ -65404,22 +65405,22 @@
     </row>
     <row r="558" spans="2:95" ht="15">
       <c r="B558" s="4" t="s">
-        <v>815</v>
+        <v>1081</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>816</v>
+        <v>956</v>
       </c>
       <c r="D558" s="4">
         <v>1</v>
       </c>
       <c r="E558" s="4" t="s">
-        <v>2</v>
+        <v>736</v>
       </c>
       <c r="F558" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G558" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H558" s="4" t="s">
         <v>11</v>
@@ -65427,7 +65428,7 @@
       <c r="I558" s="5"/>
       <c r="J558" s="7"/>
       <c r="K558" s="6" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="L558" s="6" t="s">
         <v>12</v>
@@ -65517,24 +65518,26 @@
       <c r="CQ558" s="3"/>
     </row>
     <row r="559" spans="2:95" ht="15">
-      <c r="B559" s="4">
-        <v>3350036</v>
+      <c r="B559" s="4" t="s">
+        <v>815</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>1084</v>
+        <v>816</v>
       </c>
       <c r="D559" s="4">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="E559" s="4" t="s">
-        <v>526</v>
+        <v>2</v>
       </c>
       <c r="F559" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G559" s="5"/>
+      <c r="G559" s="4" t="s">
+        <v>1083</v>
+      </c>
       <c r="H559" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I559" s="5"/>
       <c r="J559" s="7"/>
@@ -65629,29 +65632,29 @@
       <c r="CQ559" s="3"/>
     </row>
     <row r="560" spans="2:95" ht="15">
-      <c r="B560" s="4" t="s">
-        <v>1085</v>
+      <c r="B560" s="4">
+        <v>3350036</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="D560" s="4">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="E560" s="4" t="s">
-        <v>2</v>
+        <v>526</v>
       </c>
       <c r="F560" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G560" s="5"/>
       <c r="H560" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I560" s="5"/>
       <c r="J560" s="7"/>
       <c r="K560" s="6" t="s">
-        <v>443</v>
+        <v>127</v>
       </c>
       <c r="L560" s="6" t="s">
         <v>12</v>
@@ -65742,10 +65745,10 @@
     </row>
     <row r="561" spans="2:95" ht="15">
       <c r="B561" s="4" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="D561" s="4">
         <v>1</v>
@@ -65758,12 +65761,12 @@
       </c>
       <c r="G561" s="5"/>
       <c r="H561" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I561" s="5"/>
       <c r="J561" s="7"/>
       <c r="K561" s="6" t="s">
-        <v>17</v>
+        <v>443</v>
       </c>
       <c r="L561" s="6" t="s">
         <v>12</v>
@@ -65852,8 +65855,120 @@
       <c r="CP561" s="3"/>
       <c r="CQ561" s="3"/>
     </row>
+    <row r="562" spans="2:95" ht="15">
+      <c r="B562" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C562" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D562" s="4">
+        <v>1</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G562" s="5"/>
+      <c r="H562" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I562" s="5"/>
+      <c r="J562" s="7"/>
+      <c r="K562" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L562" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M562" s="3"/>
+      <c r="N562" s="3"/>
+      <c r="O562" s="3"/>
+      <c r="P562" s="3"/>
+      <c r="Q562" s="3"/>
+      <c r="R562" s="3"/>
+      <c r="S562" s="3"/>
+      <c r="T562" s="3"/>
+      <c r="U562" s="3"/>
+      <c r="V562" s="3"/>
+      <c r="W562" s="3"/>
+      <c r="X562" s="3"/>
+      <c r="Y562" s="3"/>
+      <c r="Z562" s="3"/>
+      <c r="AA562" s="3"/>
+      <c r="AB562" s="3"/>
+      <c r="AC562" s="3"/>
+      <c r="AD562" s="3"/>
+      <c r="AE562" s="3"/>
+      <c r="AF562" s="3"/>
+      <c r="AG562" s="3"/>
+      <c r="AH562" s="3"/>
+      <c r="AI562" s="3"/>
+      <c r="AJ562" s="3"/>
+      <c r="AK562" s="3"/>
+      <c r="AL562" s="3"/>
+      <c r="AM562" s="3"/>
+      <c r="AN562" s="3"/>
+      <c r="AO562" s="3"/>
+      <c r="AP562" s="3"/>
+      <c r="AQ562" s="3"/>
+      <c r="AR562" s="3"/>
+      <c r="AS562" s="3"/>
+      <c r="AT562" s="3"/>
+      <c r="AU562" s="3"/>
+      <c r="AV562" s="3"/>
+      <c r="AW562" s="3"/>
+      <c r="AX562" s="3"/>
+      <c r="AY562" s="3"/>
+      <c r="AZ562" s="3"/>
+      <c r="BA562" s="3"/>
+      <c r="BB562" s="3"/>
+      <c r="BC562" s="3"/>
+      <c r="BD562" s="3"/>
+      <c r="BE562" s="3"/>
+      <c r="BF562" s="3"/>
+      <c r="BG562" s="3"/>
+      <c r="BH562" s="3"/>
+      <c r="BI562" s="3"/>
+      <c r="BJ562" s="3"/>
+      <c r="BK562" s="3"/>
+      <c r="BL562" s="3"/>
+      <c r="BM562" s="3"/>
+      <c r="BN562" s="3"/>
+      <c r="BO562" s="3"/>
+      <c r="BP562" s="3"/>
+      <c r="BQ562" s="3"/>
+      <c r="BR562" s="3"/>
+      <c r="BS562" s="3"/>
+      <c r="BT562" s="3"/>
+      <c r="BU562" s="3"/>
+      <c r="BV562" s="3"/>
+      <c r="BW562" s="3"/>
+      <c r="BX562" s="3"/>
+      <c r="BY562" s="3"/>
+      <c r="BZ562" s="3"/>
+      <c r="CA562" s="3"/>
+      <c r="CB562" s="3"/>
+      <c r="CC562" s="3"/>
+      <c r="CD562" s="3"/>
+      <c r="CE562" s="3"/>
+      <c r="CF562" s="3"/>
+      <c r="CG562" s="3"/>
+      <c r="CH562" s="3"/>
+      <c r="CI562" s="3"/>
+      <c r="CJ562" s="3"/>
+      <c r="CK562" s="3"/>
+      <c r="CL562" s="3"/>
+      <c r="CM562" s="3"/>
+      <c r="CN562" s="3"/>
+      <c r="CO562" s="3"/>
+      <c r="CP562" s="3"/>
+      <c r="CQ562" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CQ561" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CQ562" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/modele/stocker_temp.xlsx
+++ b/modele/stocker_temp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POKORSSE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C349672-E2CB-456F-B582-039912FD9EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D22775-661C-4BD5-8E5D-3CEA9CF20126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
@@ -3673,13 +3673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:CQ562"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D521" workbookViewId="0">
-      <selection activeCell="N540" sqref="N540"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E566" sqref="E566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3817,7 +3817,7 @@
       <c r="CP1" s="2"/>
       <c r="CQ1" s="2"/>
     </row>
-    <row r="2" spans="1:95" ht="15.75" customHeight="1">
+    <row r="2" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
@@ -3929,7 +3929,7 @@
       <c r="CP2" s="3"/>
       <c r="CQ2" s="3"/>
     </row>
-    <row r="3" spans="1:95" ht="15.75" customHeight="1">
+    <row r="3" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="CP3" s="3"/>
       <c r="CQ3" s="3"/>
     </row>
-    <row r="4" spans="1:95" ht="15.75" customHeight="1">
+    <row r="4" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
@@ -4153,7 +4153,7 @@
       <c r="CP4" s="3"/>
       <c r="CQ4" s="3"/>
     </row>
-    <row r="5" spans="1:95" ht="15.75" customHeight="1">
+    <row r="5" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="CP5" s="3"/>
       <c r="CQ5" s="3"/>
     </row>
-    <row r="6" spans="1:95" ht="15.75" customHeight="1">
+    <row r="6" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="CP6" s="3"/>
       <c r="CQ6" s="3"/>
     </row>
-    <row r="7" spans="1:95" ht="15.75" customHeight="1">
+    <row r="7" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="CP7" s="3"/>
       <c r="CQ7" s="3"/>
     </row>
-    <row r="8" spans="1:95" ht="15.75" customHeight="1">
+    <row r="8" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B8" s="4" t="s">
         <v>27</v>
       </c>
@@ -4601,7 +4601,7 @@
       <c r="CP8" s="3"/>
       <c r="CQ8" s="3"/>
     </row>
-    <row r="9" spans="1:95" ht="15.75" customHeight="1">
+    <row r="9" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B9" s="4" t="s">
         <v>30</v>
       </c>
@@ -4713,7 +4713,7 @@
       <c r="CP9" s="3"/>
       <c r="CQ9" s="3"/>
     </row>
-    <row r="10" spans="1:95" ht="15.75" customHeight="1">
+    <row r="10" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
@@ -4823,7 +4823,7 @@
       <c r="CP10" s="3"/>
       <c r="CQ10" s="3"/>
     </row>
-    <row r="11" spans="1:95" ht="15.75" customHeight="1">
+    <row r="11" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
@@ -4933,7 +4933,7 @@
       <c r="CP11" s="3"/>
       <c r="CQ11" s="3"/>
     </row>
-    <row r="12" spans="1:95" ht="15.75" customHeight="1">
+    <row r="12" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B12" s="4" t="s">
         <v>38</v>
       </c>
@@ -5043,7 +5043,7 @@
       <c r="CP12" s="3"/>
       <c r="CQ12" s="3"/>
     </row>
-    <row r="13" spans="1:95" ht="15.75" customHeight="1">
+    <row r="13" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="CP13" s="3"/>
       <c r="CQ13" s="3"/>
     </row>
-    <row r="14" spans="1:95" ht="15.75" customHeight="1">
+    <row r="14" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B14" s="4" t="s">
         <v>42</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="CP14" s="3"/>
       <c r="CQ14" s="3"/>
     </row>
-    <row r="15" spans="1:95" ht="15.75" customHeight="1">
+    <row r="15" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="CP15" s="3"/>
       <c r="CQ15" s="3"/>
     </row>
-    <row r="16" spans="1:95" ht="15.75" customHeight="1">
+    <row r="16" spans="1:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
@@ -5485,7 +5485,7 @@
       <c r="CP16" s="3"/>
       <c r="CQ16" s="3"/>
     </row>
-    <row r="17" spans="2:95" ht="15.75" customHeight="1">
+    <row r="17" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B17" s="4" t="s">
         <v>49</v>
       </c>
@@ -5595,7 +5595,7 @@
       <c r="CP17" s="3"/>
       <c r="CQ17" s="3"/>
     </row>
-    <row r="18" spans="2:95" ht="15.75" customHeight="1">
+    <row r="18" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B18" s="4" t="s">
         <v>52</v>
       </c>
@@ -5707,7 +5707,7 @@
       <c r="CP18" s="3"/>
       <c r="CQ18" s="3"/>
     </row>
-    <row r="19" spans="2:95" ht="15.75" customHeight="1">
+    <row r="19" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="CP19" s="3"/>
       <c r="CQ19" s="3"/>
     </row>
-    <row r="20" spans="2:95" ht="15.75" customHeight="1">
+    <row r="20" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
@@ -5929,7 +5929,7 @@
       <c r="CP20" s="3"/>
       <c r="CQ20" s="3"/>
     </row>
-    <row r="21" spans="2:95" ht="15.75" customHeight="1">
+    <row r="21" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B21" s="4" t="s">
         <v>60</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="CP21" s="3"/>
       <c r="CQ21" s="3"/>
     </row>
-    <row r="22" spans="2:95" ht="15.75" customHeight="1">
+    <row r="22" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
@@ -6151,7 +6151,7 @@
       <c r="CP22" s="3"/>
       <c r="CQ22" s="3"/>
     </row>
-    <row r="23" spans="2:95" ht="15.75" customHeight="1">
+    <row r="23" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
@@ -6261,7 +6261,7 @@
       <c r="CP23" s="3"/>
       <c r="CQ23" s="3"/>
     </row>
-    <row r="24" spans="2:95" ht="15.75" customHeight="1">
+    <row r="24" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B24" s="4" t="s">
         <v>68</v>
       </c>
@@ -6371,7 +6371,7 @@
       <c r="CP24" s="3"/>
       <c r="CQ24" s="3"/>
     </row>
-    <row r="25" spans="2:95" ht="15.75" customHeight="1">
+    <row r="25" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B25" s="4" t="s">
         <v>70</v>
       </c>
@@ -6483,7 +6483,7 @@
       <c r="CP25" s="3"/>
       <c r="CQ25" s="3"/>
     </row>
-    <row r="26" spans="2:95" ht="15.75" customHeight="1">
+    <row r="26" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B26" s="4" t="s">
         <v>73</v>
       </c>
@@ -6593,7 +6593,7 @@
       <c r="CP26" s="3"/>
       <c r="CQ26" s="3"/>
     </row>
-    <row r="27" spans="2:95" ht="15.75" customHeight="1">
+    <row r="27" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B27" s="4" t="s">
         <v>75</v>
       </c>
@@ -6703,7 +6703,7 @@
       <c r="CP27" s="3"/>
       <c r="CQ27" s="3"/>
     </row>
-    <row r="28" spans="2:95" ht="15.75" customHeight="1">
+    <row r="28" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B28" s="4" t="s">
         <v>78</v>
       </c>
@@ -6813,7 +6813,7 @@
       <c r="CP28" s="3"/>
       <c r="CQ28" s="3"/>
     </row>
-    <row r="29" spans="2:95" ht="15.75" customHeight="1">
+    <row r="29" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B29" s="4" t="s">
         <v>80</v>
       </c>
@@ -6923,7 +6923,7 @@
       <c r="CP29" s="3"/>
       <c r="CQ29" s="3"/>
     </row>
-    <row r="30" spans="2:95" ht="15.75" customHeight="1">
+    <row r="30" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B30" s="4" t="s">
         <v>82</v>
       </c>
@@ -7033,7 +7033,7 @@
       <c r="CP30" s="3"/>
       <c r="CQ30" s="3"/>
     </row>
-    <row r="31" spans="2:95" ht="15.75" customHeight="1">
+    <row r="31" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B31" s="4" t="s">
         <v>84</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="CP31" s="3"/>
       <c r="CQ31" s="3"/>
     </row>
-    <row r="32" spans="2:95" ht="15.75" customHeight="1">
+    <row r="32" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B32" s="4" t="s">
         <v>87</v>
       </c>
@@ -7257,7 +7257,7 @@
       <c r="CP32" s="3"/>
       <c r="CQ32" s="3"/>
     </row>
-    <row r="33" spans="2:95" ht="15.75" customHeight="1">
+    <row r="33" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B33" s="4" t="s">
         <v>89</v>
       </c>
@@ -7369,7 +7369,7 @@
       <c r="CP33" s="3"/>
       <c r="CQ33" s="3"/>
     </row>
-    <row r="34" spans="2:95" ht="15.75" customHeight="1">
+    <row r="34" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B34" s="4" t="s">
         <v>91</v>
       </c>
@@ -7481,7 +7481,7 @@
       <c r="CP34" s="3"/>
       <c r="CQ34" s="3"/>
     </row>
-    <row r="35" spans="2:95" ht="15.75" customHeight="1">
+    <row r="35" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B35" s="4" t="s">
         <v>93</v>
       </c>
@@ -7593,7 +7593,7 @@
       <c r="CP35" s="3"/>
       <c r="CQ35" s="3"/>
     </row>
-    <row r="36" spans="2:95" ht="15.75" customHeight="1">
+    <row r="36" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B36" s="4" t="s">
         <v>95</v>
       </c>
@@ -7705,7 +7705,7 @@
       <c r="CP36" s="3"/>
       <c r="CQ36" s="3"/>
     </row>
-    <row r="37" spans="2:95" ht="15.75" customHeight="1">
+    <row r="37" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B37" s="4" t="s">
         <v>97</v>
       </c>
@@ -7815,7 +7815,7 @@
       <c r="CP37" s="3"/>
       <c r="CQ37" s="3"/>
     </row>
-    <row r="38" spans="2:95" ht="15.75" customHeight="1">
+    <row r="38" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B38" s="4" t="s">
         <v>99</v>
       </c>
@@ -7927,7 +7927,7 @@
       <c r="CP38" s="3"/>
       <c r="CQ38" s="3"/>
     </row>
-    <row r="39" spans="2:95" ht="15.75" customHeight="1">
+    <row r="39" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B39" s="4" t="s">
         <v>101</v>
       </c>
@@ -8037,7 +8037,7 @@
       <c r="CP39" s="3"/>
       <c r="CQ39" s="3"/>
     </row>
-    <row r="40" spans="2:95" ht="15.75" customHeight="1">
+    <row r="40" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B40" s="4" t="s">
         <v>103</v>
       </c>
@@ -8149,7 +8149,7 @@
       <c r="CP40" s="3"/>
       <c r="CQ40" s="3"/>
     </row>
-    <row r="41" spans="2:95" ht="15.75" customHeight="1">
+    <row r="41" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B41" s="4" t="s">
         <v>105</v>
       </c>
@@ -8261,7 +8261,7 @@
       <c r="CP41" s="3"/>
       <c r="CQ41" s="3"/>
     </row>
-    <row r="42" spans="2:95" ht="15.75" customHeight="1">
+    <row r="42" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B42" s="4" t="s">
         <v>107</v>
       </c>
@@ -8375,7 +8375,7 @@
       <c r="CP42" s="3"/>
       <c r="CQ42" s="3"/>
     </row>
-    <row r="43" spans="2:95" ht="15.75" customHeight="1">
+    <row r="43" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B43" s="4" t="s">
         <v>110</v>
       </c>
@@ -8485,7 +8485,7 @@
       <c r="CP43" s="3"/>
       <c r="CQ43" s="3"/>
     </row>
-    <row r="44" spans="2:95" ht="15.75" customHeight="1">
+    <row r="44" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B44" s="4" t="s">
         <v>113</v>
       </c>
@@ -8599,7 +8599,7 @@
       <c r="CP44" s="3"/>
       <c r="CQ44" s="3"/>
     </row>
-    <row r="45" spans="2:95" ht="15.75" customHeight="1">
+    <row r="45" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B45" s="4" t="s">
         <v>117</v>
       </c>
@@ -8713,7 +8713,7 @@
       <c r="CP45" s="3"/>
       <c r="CQ45" s="3"/>
     </row>
-    <row r="46" spans="2:95" ht="15.75" customHeight="1">
+    <row r="46" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B46" s="4" t="s">
         <v>120</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="CP46" s="3"/>
       <c r="CQ46" s="3"/>
     </row>
-    <row r="47" spans="2:95" ht="15.75" customHeight="1">
+    <row r="47" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B47" s="4" t="s">
         <v>122</v>
       </c>
@@ -8935,7 +8935,7 @@
       <c r="CP47" s="3"/>
       <c r="CQ47" s="3"/>
     </row>
-    <row r="48" spans="2:95" ht="15.75" customHeight="1">
+    <row r="48" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B48" s="4" t="s">
         <v>124</v>
       </c>
@@ -9049,7 +9049,7 @@
       <c r="CP48" s="3"/>
       <c r="CQ48" s="3"/>
     </row>
-    <row r="49" spans="2:95" ht="15.75" customHeight="1">
+    <row r="49" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B49" s="4" t="s">
         <v>128</v>
       </c>
@@ -9159,7 +9159,7 @@
       <c r="CP49" s="3"/>
       <c r="CQ49" s="3"/>
     </row>
-    <row r="50" spans="2:95" ht="15.75" customHeight="1">
+    <row r="50" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B50" s="4" t="s">
         <v>131</v>
       </c>
@@ -9271,7 +9271,7 @@
       <c r="CP50" s="3"/>
       <c r="CQ50" s="3"/>
     </row>
-    <row r="51" spans="2:95" ht="15.75" customHeight="1">
+    <row r="51" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B51" s="4" t="s">
         <v>133</v>
       </c>
@@ -9383,7 +9383,7 @@
       <c r="CP51" s="3"/>
       <c r="CQ51" s="3"/>
     </row>
-    <row r="52" spans="2:95" ht="15.75" customHeight="1">
+    <row r="52" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B52" s="4" t="s">
         <v>135</v>
       </c>
@@ -9493,7 +9493,7 @@
       <c r="CP52" s="3"/>
       <c r="CQ52" s="3"/>
     </row>
-    <row r="53" spans="2:95" ht="15.75" customHeight="1">
+    <row r="53" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B53" s="5" t="s">
         <v>1111</v>
       </c>
@@ -9603,7 +9603,7 @@
       <c r="CP53" s="6"/>
       <c r="CQ53" s="6"/>
     </row>
-    <row r="54" spans="2:95" ht="15.75" customHeight="1">
+    <row r="54" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B54" s="4" t="s">
         <v>137</v>
       </c>
@@ -9715,7 +9715,7 @@
       <c r="CP54" s="3"/>
       <c r="CQ54" s="3"/>
     </row>
-    <row r="55" spans="2:95" ht="15.75" customHeight="1">
+    <row r="55" spans="2:95" ht="15.75" hidden="1" customHeight="1">
       <c r="B55" s="4" t="s">
         <v>140</v>
       </c>
@@ -9827,7 +9827,7 @@
       <c r="CP55" s="3"/>
       <c r="CQ55" s="3"/>
     </row>
-    <row r="56" spans="2:95" ht="15">
+    <row r="56" spans="2:95" ht="15" hidden="1">
       <c r="B56" s="4" t="s">
         <v>143</v>
       </c>
@@ -9937,7 +9937,7 @@
       <c r="CP56" s="3"/>
       <c r="CQ56" s="3"/>
     </row>
-    <row r="57" spans="2:95" ht="15">
+    <row r="57" spans="2:95" ht="15" hidden="1">
       <c r="B57" s="4" t="s">
         <v>145</v>
       </c>
@@ -10047,7 +10047,7 @@
       <c r="CP57" s="3"/>
       <c r="CQ57" s="3"/>
     </row>
-    <row r="58" spans="2:95" ht="15">
+    <row r="58" spans="2:95" ht="15" hidden="1">
       <c r="B58" s="4" t="s">
         <v>147</v>
       </c>
@@ -10157,7 +10157,7 @@
       <c r="CP58" s="3"/>
       <c r="CQ58" s="3"/>
     </row>
-    <row r="59" spans="2:95" ht="15">
+    <row r="59" spans="2:95" ht="15" hidden="1">
       <c r="B59" s="4" t="s">
         <v>149</v>
       </c>
@@ -10267,7 +10267,7 @@
       <c r="CP59" s="3"/>
       <c r="CQ59" s="3"/>
     </row>
-    <row r="60" spans="2:95" ht="15">
+    <row r="60" spans="2:95" ht="15" hidden="1">
       <c r="B60" s="4" t="s">
         <v>151</v>
       </c>
@@ -10377,7 +10377,7 @@
       <c r="CP60" s="3"/>
       <c r="CQ60" s="3"/>
     </row>
-    <row r="61" spans="2:95" ht="15">
+    <row r="61" spans="2:95" ht="15" hidden="1">
       <c r="B61" s="4" t="s">
         <v>153</v>
       </c>
@@ -10489,7 +10489,7 @@
       <c r="CP61" s="3"/>
       <c r="CQ61" s="3"/>
     </row>
-    <row r="62" spans="2:95" ht="15">
+    <row r="62" spans="2:95" ht="15" hidden="1">
       <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
@@ -10601,7 +10601,7 @@
       <c r="CP62" s="3"/>
       <c r="CQ62" s="3"/>
     </row>
-    <row r="63" spans="2:95" ht="15">
+    <row r="63" spans="2:95" ht="15" hidden="1">
       <c r="B63" s="4" t="s">
         <v>157</v>
       </c>
@@ -10711,7 +10711,7 @@
       <c r="CP63" s="3"/>
       <c r="CQ63" s="3"/>
     </row>
-    <row r="64" spans="2:95" ht="15">
+    <row r="64" spans="2:95" ht="15" hidden="1">
       <c r="B64" s="4" t="s">
         <v>159</v>
       </c>
@@ -10821,7 +10821,7 @@
       <c r="CP64" s="3"/>
       <c r="CQ64" s="3"/>
     </row>
-    <row r="65" spans="2:95" ht="15">
+    <row r="65" spans="2:95" ht="15" hidden="1">
       <c r="B65" s="4" t="s">
         <v>162</v>
       </c>
@@ -10931,7 +10931,7 @@
       <c r="CP65" s="3"/>
       <c r="CQ65" s="3"/>
     </row>
-    <row r="66" spans="2:95" ht="15">
+    <row r="66" spans="2:95" ht="15" hidden="1">
       <c r="B66" s="4" t="s">
         <v>164</v>
       </c>
@@ -11041,7 +11041,7 @@
       <c r="CP66" s="3"/>
       <c r="CQ66" s="3"/>
     </row>
-    <row r="67" spans="2:95" ht="15">
+    <row r="67" spans="2:95" ht="15" hidden="1">
       <c r="B67" s="4" t="s">
         <v>166</v>
       </c>
@@ -11151,7 +11151,7 @@
       <c r="CP67" s="3"/>
       <c r="CQ67" s="3"/>
     </row>
-    <row r="68" spans="2:95" ht="15">
+    <row r="68" spans="2:95" ht="15" hidden="1">
       <c r="B68" s="4" t="s">
         <v>168</v>
       </c>
@@ -11261,7 +11261,7 @@
       <c r="CP68" s="3"/>
       <c r="CQ68" s="3"/>
     </row>
-    <row r="69" spans="2:95" ht="15">
+    <row r="69" spans="2:95" ht="15" hidden="1">
       <c r="B69" s="4" t="s">
         <v>170</v>
       </c>
@@ -11373,7 +11373,7 @@
       <c r="CP69" s="3"/>
       <c r="CQ69" s="3"/>
     </row>
-    <row r="70" spans="2:95" ht="15">
+    <row r="70" spans="2:95" ht="15" hidden="1">
       <c r="B70" s="4" t="s">
         <v>172</v>
       </c>
@@ -11483,7 +11483,7 @@
       <c r="CP70" s="3"/>
       <c r="CQ70" s="3"/>
     </row>
-    <row r="71" spans="2:95" ht="15">
+    <row r="71" spans="2:95" ht="15" hidden="1">
       <c r="B71" s="4" t="s">
         <v>174</v>
       </c>
@@ -11593,7 +11593,7 @@
       <c r="CP71" s="3"/>
       <c r="CQ71" s="3"/>
     </row>
-    <row r="72" spans="2:95" ht="15">
+    <row r="72" spans="2:95" ht="15" hidden="1">
       <c r="B72" s="4" t="s">
         <v>176</v>
       </c>
@@ -11703,7 +11703,7 @@
       <c r="CP72" s="3"/>
       <c r="CQ72" s="3"/>
     </row>
-    <row r="73" spans="2:95" ht="15">
+    <row r="73" spans="2:95" ht="15" hidden="1">
       <c r="B73" s="4" t="s">
         <v>178</v>
       </c>
@@ -11815,7 +11815,7 @@
       <c r="CP73" s="3"/>
       <c r="CQ73" s="3"/>
     </row>
-    <row r="74" spans="2:95" ht="15">
+    <row r="74" spans="2:95" ht="15" hidden="1">
       <c r="B74" s="4" t="s">
         <v>181</v>
       </c>
@@ -11925,7 +11925,7 @@
       <c r="CP74" s="3"/>
       <c r="CQ74" s="3"/>
     </row>
-    <row r="75" spans="2:95" ht="15">
+    <row r="75" spans="2:95" ht="15" hidden="1">
       <c r="B75" s="4" t="s">
         <v>183</v>
       </c>
@@ -12035,7 +12035,7 @@
       <c r="CP75" s="3"/>
       <c r="CQ75" s="3"/>
     </row>
-    <row r="76" spans="2:95" ht="15">
+    <row r="76" spans="2:95" ht="15" hidden="1">
       <c r="B76" s="4" t="s">
         <v>185</v>
       </c>
@@ -12145,7 +12145,7 @@
       <c r="CP76" s="3"/>
       <c r="CQ76" s="3"/>
     </row>
-    <row r="77" spans="2:95" ht="15">
+    <row r="77" spans="2:95" ht="15" hidden="1">
       <c r="B77" s="4" t="s">
         <v>187</v>
       </c>
@@ -12255,7 +12255,7 @@
       <c r="CP77" s="3"/>
       <c r="CQ77" s="3"/>
     </row>
-    <row r="78" spans="2:95" ht="15">
+    <row r="78" spans="2:95" ht="15" hidden="1">
       <c r="B78" s="4" t="s">
         <v>189</v>
       </c>
@@ -12365,7 +12365,7 @@
       <c r="CP78" s="3"/>
       <c r="CQ78" s="3"/>
     </row>
-    <row r="79" spans="2:95" ht="15">
+    <row r="79" spans="2:95" ht="15" hidden="1">
       <c r="B79" s="4" t="s">
         <v>191</v>
       </c>
@@ -12475,7 +12475,7 @@
       <c r="CP79" s="3"/>
       <c r="CQ79" s="3"/>
     </row>
-    <row r="80" spans="2:95" ht="15">
+    <row r="80" spans="2:95" ht="15" hidden="1">
       <c r="B80" s="4" t="s">
         <v>193</v>
       </c>
@@ -12585,7 +12585,7 @@
       <c r="CP80" s="3"/>
       <c r="CQ80" s="3"/>
     </row>
-    <row r="81" spans="2:95" ht="15">
+    <row r="81" spans="2:95" ht="15" hidden="1">
       <c r="B81" s="4" t="s">
         <v>195</v>
       </c>
@@ -12695,7 +12695,7 @@
       <c r="CP81" s="3"/>
       <c r="CQ81" s="3"/>
     </row>
-    <row r="82" spans="2:95" ht="15">
+    <row r="82" spans="2:95" ht="15" hidden="1">
       <c r="B82" s="4" t="s">
         <v>197</v>
       </c>
@@ -12805,7 +12805,7 @@
       <c r="CP82" s="3"/>
       <c r="CQ82" s="3"/>
     </row>
-    <row r="83" spans="2:95" ht="15">
+    <row r="83" spans="2:95" ht="15" hidden="1">
       <c r="B83" s="4" t="s">
         <v>199</v>
       </c>
@@ -12915,7 +12915,7 @@
       <c r="CP83" s="3"/>
       <c r="CQ83" s="3"/>
     </row>
-    <row r="84" spans="2:95" ht="15">
+    <row r="84" spans="2:95" ht="15" hidden="1">
       <c r="B84" s="4" t="s">
         <v>201</v>
       </c>
@@ -13025,7 +13025,7 @@
       <c r="CP84" s="3"/>
       <c r="CQ84" s="3"/>
     </row>
-    <row r="85" spans="2:95" ht="15">
+    <row r="85" spans="2:95" ht="15" hidden="1">
       <c r="B85" s="4" t="s">
         <v>203</v>
       </c>
@@ -13135,7 +13135,7 @@
       <c r="CP85" s="3"/>
       <c r="CQ85" s="3"/>
     </row>
-    <row r="86" spans="2:95" ht="15">
+    <row r="86" spans="2:95" ht="15" hidden="1">
       <c r="B86" s="4" t="s">
         <v>205</v>
       </c>
@@ -13245,7 +13245,7 @@
       <c r="CP86" s="3"/>
       <c r="CQ86" s="3"/>
     </row>
-    <row r="87" spans="2:95" ht="15">
+    <row r="87" spans="2:95" ht="15" hidden="1">
       <c r="B87" s="4" t="s">
         <v>207</v>
       </c>
@@ -13355,7 +13355,7 @@
       <c r="CP87" s="3"/>
       <c r="CQ87" s="3"/>
     </row>
-    <row r="88" spans="2:95" ht="15">
+    <row r="88" spans="2:95" ht="15" hidden="1">
       <c r="B88" s="4" t="s">
         <v>209</v>
       </c>
@@ -13465,7 +13465,7 @@
       <c r="CP88" s="3"/>
       <c r="CQ88" s="3"/>
     </row>
-    <row r="89" spans="2:95" ht="15">
+    <row r="89" spans="2:95" ht="15" hidden="1">
       <c r="B89" s="4" t="s">
         <v>211</v>
       </c>
@@ -13575,7 +13575,7 @@
       <c r="CP89" s="3"/>
       <c r="CQ89" s="3"/>
     </row>
-    <row r="90" spans="2:95" ht="15">
+    <row r="90" spans="2:95" ht="15" hidden="1">
       <c r="B90" s="4" t="s">
         <v>213</v>
       </c>
@@ -13685,7 +13685,7 @@
       <c r="CP90" s="3"/>
       <c r="CQ90" s="3"/>
     </row>
-    <row r="91" spans="2:95" ht="15">
+    <row r="91" spans="2:95" ht="15" hidden="1">
       <c r="B91" s="4" t="s">
         <v>215</v>
       </c>
@@ -13795,7 +13795,7 @@
       <c r="CP91" s="3"/>
       <c r="CQ91" s="3"/>
     </row>
-    <row r="92" spans="2:95" ht="15">
+    <row r="92" spans="2:95" ht="15" hidden="1">
       <c r="B92" s="4" t="s">
         <v>217</v>
       </c>
@@ -13905,7 +13905,7 @@
       <c r="CP92" s="3"/>
       <c r="CQ92" s="3"/>
     </row>
-    <row r="93" spans="2:95" ht="15">
+    <row r="93" spans="2:95" ht="15" hidden="1">
       <c r="B93" s="4" t="s">
         <v>219</v>
       </c>
@@ -14015,7 +14015,7 @@
       <c r="CP93" s="3"/>
       <c r="CQ93" s="3"/>
     </row>
-    <row r="94" spans="2:95" ht="15">
+    <row r="94" spans="2:95" ht="15" hidden="1">
       <c r="B94" s="4" t="s">
         <v>221</v>
       </c>
@@ -14125,7 +14125,7 @@
       <c r="CP94" s="3"/>
       <c r="CQ94" s="3"/>
     </row>
-    <row r="95" spans="2:95" ht="15">
+    <row r="95" spans="2:95" ht="15" hidden="1">
       <c r="B95" s="4" t="s">
         <v>223</v>
       </c>
@@ -14235,7 +14235,7 @@
       <c r="CP95" s="3"/>
       <c r="CQ95" s="3"/>
     </row>
-    <row r="96" spans="2:95" ht="15">
+    <row r="96" spans="2:95" ht="15" hidden="1">
       <c r="B96" s="4" t="s">
         <v>225</v>
       </c>
@@ -14345,7 +14345,7 @@
       <c r="CP96" s="3"/>
       <c r="CQ96" s="3"/>
     </row>
-    <row r="97" spans="2:95" ht="15">
+    <row r="97" spans="2:95" ht="15" hidden="1">
       <c r="B97" s="4" t="s">
         <v>227</v>
       </c>
@@ -14455,7 +14455,7 @@
       <c r="CP97" s="3"/>
       <c r="CQ97" s="3"/>
     </row>
-    <row r="98" spans="2:95" ht="15">
+    <row r="98" spans="2:95" ht="15" hidden="1">
       <c r="B98" s="4" t="s">
         <v>230</v>
       </c>
@@ -14565,7 +14565,7 @@
       <c r="CP98" s="3"/>
       <c r="CQ98" s="3"/>
     </row>
-    <row r="99" spans="2:95" ht="15">
+    <row r="99" spans="2:95" ht="15" hidden="1">
       <c r="B99" s="4" t="s">
         <v>232</v>
       </c>
@@ -14675,7 +14675,7 @@
       <c r="CP99" s="3"/>
       <c r="CQ99" s="3"/>
     </row>
-    <row r="100" spans="2:95" ht="15">
+    <row r="100" spans="2:95" ht="15" hidden="1">
       <c r="B100" s="4" t="s">
         <v>234</v>
       </c>
@@ -14785,7 +14785,7 @@
       <c r="CP100" s="3"/>
       <c r="CQ100" s="3"/>
     </row>
-    <row r="101" spans="2:95" ht="15">
+    <row r="101" spans="2:95" ht="15" hidden="1">
       <c r="B101" s="4" t="s">
         <v>236</v>
       </c>
@@ -14895,7 +14895,7 @@
       <c r="CP101" s="3"/>
       <c r="CQ101" s="3"/>
     </row>
-    <row r="102" spans="2:95" ht="15">
+    <row r="102" spans="2:95" ht="15" hidden="1">
       <c r="B102" s="4" t="s">
         <v>238</v>
       </c>
@@ -15005,7 +15005,7 @@
       <c r="CP102" s="3"/>
       <c r="CQ102" s="3"/>
     </row>
-    <row r="103" spans="2:95" ht="15">
+    <row r="103" spans="2:95" ht="15" hidden="1">
       <c r="B103" s="4" t="s">
         <v>240</v>
       </c>
@@ -15117,7 +15117,7 @@
       <c r="CP103" s="3"/>
       <c r="CQ103" s="3"/>
     </row>
-    <row r="104" spans="2:95" ht="15">
+    <row r="104" spans="2:95" ht="15" hidden="1">
       <c r="B104" s="4" t="s">
         <v>242</v>
       </c>
@@ -15227,7 +15227,7 @@
       <c r="CP104" s="3"/>
       <c r="CQ104" s="3"/>
     </row>
-    <row r="105" spans="2:95" ht="15">
+    <row r="105" spans="2:95" ht="15" hidden="1">
       <c r="B105" s="4" t="s">
         <v>244</v>
       </c>
@@ -15337,7 +15337,7 @@
       <c r="CP105" s="3"/>
       <c r="CQ105" s="3"/>
     </row>
-    <row r="106" spans="2:95" ht="15">
+    <row r="106" spans="2:95" ht="15" hidden="1">
       <c r="B106" s="4" t="s">
         <v>246</v>
       </c>
@@ -15447,7 +15447,7 @@
       <c r="CP106" s="3"/>
       <c r="CQ106" s="3"/>
     </row>
-    <row r="107" spans="2:95" ht="15">
+    <row r="107" spans="2:95" ht="15" hidden="1">
       <c r="B107" s="4" t="s">
         <v>248</v>
       </c>
@@ -15557,7 +15557,7 @@
       <c r="CP107" s="3"/>
       <c r="CQ107" s="3"/>
     </row>
-    <row r="108" spans="2:95" ht="15">
+    <row r="108" spans="2:95" ht="15" hidden="1">
       <c r="B108" s="4" t="s">
         <v>250</v>
       </c>
@@ -15669,7 +15669,7 @@
       <c r="CP108" s="3"/>
       <c r="CQ108" s="3"/>
     </row>
-    <row r="109" spans="2:95" ht="15">
+    <row r="109" spans="2:95" ht="15" hidden="1">
       <c r="B109" s="4" t="s">
         <v>252</v>
       </c>
@@ -15779,7 +15779,7 @@
       <c r="CP109" s="3"/>
       <c r="CQ109" s="3"/>
     </row>
-    <row r="110" spans="2:95" ht="15">
+    <row r="110" spans="2:95" ht="15" hidden="1">
       <c r="B110" s="4" t="s">
         <v>254</v>
       </c>
@@ -15889,7 +15889,7 @@
       <c r="CP110" s="3"/>
       <c r="CQ110" s="3"/>
     </row>
-    <row r="111" spans="2:95" ht="15">
+    <row r="111" spans="2:95" ht="15" hidden="1">
       <c r="B111" s="4" t="s">
         <v>256</v>
       </c>
@@ -15999,7 +15999,7 @@
       <c r="CP111" s="3"/>
       <c r="CQ111" s="3"/>
     </row>
-    <row r="112" spans="2:95" ht="15">
+    <row r="112" spans="2:95" ht="15" hidden="1">
       <c r="B112" s="4" t="s">
         <v>258</v>
       </c>
@@ -16109,7 +16109,7 @@
       <c r="CP112" s="3"/>
       <c r="CQ112" s="3"/>
     </row>
-    <row r="113" spans="2:95" ht="15">
+    <row r="113" spans="2:95" ht="15" hidden="1">
       <c r="B113" s="4" t="s">
         <v>260</v>
       </c>
@@ -16219,7 +16219,7 @@
       <c r="CP113" s="3"/>
       <c r="CQ113" s="3"/>
     </row>
-    <row r="114" spans="2:95" ht="15">
+    <row r="114" spans="2:95" ht="15" hidden="1">
       <c r="B114" s="4" t="s">
         <v>262</v>
       </c>
@@ -16329,7 +16329,7 @@
       <c r="CP114" s="3"/>
       <c r="CQ114" s="3"/>
     </row>
-    <row r="115" spans="2:95" ht="15">
+    <row r="115" spans="2:95" ht="15" hidden="1">
       <c r="B115" s="4" t="s">
         <v>264</v>
       </c>
@@ -16439,7 +16439,7 @@
       <c r="CP115" s="3"/>
       <c r="CQ115" s="3"/>
     </row>
-    <row r="116" spans="2:95" ht="15">
+    <row r="116" spans="2:95" ht="15" hidden="1">
       <c r="B116" s="4" t="s">
         <v>266</v>
       </c>
@@ -16549,7 +16549,7 @@
       <c r="CP116" s="3"/>
       <c r="CQ116" s="3"/>
     </row>
-    <row r="117" spans="2:95" ht="15">
+    <row r="117" spans="2:95" ht="15" hidden="1">
       <c r="B117" s="4" t="s">
         <v>268</v>
       </c>
@@ -16659,7 +16659,7 @@
       <c r="CP117" s="3"/>
       <c r="CQ117" s="3"/>
     </row>
-    <row r="118" spans="2:95" ht="15">
+    <row r="118" spans="2:95" ht="15" hidden="1">
       <c r="B118" s="4" t="s">
         <v>270</v>
       </c>
@@ -16769,7 +16769,7 @@
       <c r="CP118" s="3"/>
       <c r="CQ118" s="3"/>
     </row>
-    <row r="119" spans="2:95" ht="15">
+    <row r="119" spans="2:95" ht="15" hidden="1">
       <c r="B119" s="4" t="s">
         <v>272</v>
       </c>
@@ -16879,7 +16879,7 @@
       <c r="CP119" s="3"/>
       <c r="CQ119" s="3"/>
     </row>
-    <row r="120" spans="2:95" ht="15">
+    <row r="120" spans="2:95" ht="15" hidden="1">
       <c r="B120" s="4" t="s">
         <v>274</v>
       </c>
@@ -16989,7 +16989,7 @@
       <c r="CP120" s="3"/>
       <c r="CQ120" s="3"/>
     </row>
-    <row r="121" spans="2:95" ht="15">
+    <row r="121" spans="2:95" ht="15" hidden="1">
       <c r="B121" s="4" t="s">
         <v>276</v>
       </c>
@@ -17099,7 +17099,7 @@
       <c r="CP121" s="3"/>
       <c r="CQ121" s="3"/>
     </row>
-    <row r="122" spans="2:95" ht="15">
+    <row r="122" spans="2:95" ht="15" hidden="1">
       <c r="B122" s="4" t="s">
         <v>278</v>
       </c>
@@ -17209,7 +17209,7 @@
       <c r="CP122" s="3"/>
       <c r="CQ122" s="3"/>
     </row>
-    <row r="123" spans="2:95" ht="15">
+    <row r="123" spans="2:95" ht="15" hidden="1">
       <c r="B123" s="4" t="s">
         <v>280</v>
       </c>
@@ -17321,7 +17321,7 @@
       <c r="CP123" s="3"/>
       <c r="CQ123" s="3"/>
     </row>
-    <row r="124" spans="2:95" ht="15">
+    <row r="124" spans="2:95" ht="15" hidden="1">
       <c r="B124" s="4" t="s">
         <v>282</v>
       </c>
@@ -17431,7 +17431,7 @@
       <c r="CP124" s="3"/>
       <c r="CQ124" s="3"/>
     </row>
-    <row r="125" spans="2:95" ht="15">
+    <row r="125" spans="2:95" ht="15" hidden="1">
       <c r="B125" s="4" t="s">
         <v>284</v>
       </c>
@@ -17543,7 +17543,7 @@
       <c r="CP125" s="3"/>
       <c r="CQ125" s="3"/>
     </row>
-    <row r="126" spans="2:95" ht="15">
+    <row r="126" spans="2:95" ht="15" hidden="1">
       <c r="B126" s="4" t="s">
         <v>286</v>
       </c>
@@ -17653,7 +17653,7 @@
       <c r="CP126" s="3"/>
       <c r="CQ126" s="3"/>
     </row>
-    <row r="127" spans="2:95" ht="15">
+    <row r="127" spans="2:95" ht="15" hidden="1">
       <c r="B127" s="4" t="s">
         <v>288</v>
       </c>
@@ -17765,7 +17765,7 @@
       <c r="CP127" s="3"/>
       <c r="CQ127" s="3"/>
     </row>
-    <row r="128" spans="2:95" ht="15">
+    <row r="128" spans="2:95" ht="15" hidden="1">
       <c r="B128" s="4" t="s">
         <v>290</v>
       </c>
@@ -17875,7 +17875,7 @@
       <c r="CP128" s="3"/>
       <c r="CQ128" s="3"/>
     </row>
-    <row r="129" spans="2:95" ht="15">
+    <row r="129" spans="2:95" ht="15" hidden="1">
       <c r="B129" s="4" t="s">
         <v>292</v>
       </c>
@@ -17987,7 +17987,7 @@
       <c r="CP129" s="3"/>
       <c r="CQ129" s="3"/>
     </row>
-    <row r="130" spans="2:95" ht="15">
+    <row r="130" spans="2:95" ht="15" hidden="1">
       <c r="B130" s="4" t="s">
         <v>294</v>
       </c>
@@ -18099,7 +18099,7 @@
       <c r="CP130" s="3"/>
       <c r="CQ130" s="3"/>
     </row>
-    <row r="131" spans="2:95" ht="15">
+    <row r="131" spans="2:95" ht="15" hidden="1">
       <c r="B131" s="4" t="s">
         <v>296</v>
       </c>
@@ -18209,7 +18209,7 @@
       <c r="CP131" s="3"/>
       <c r="CQ131" s="3"/>
     </row>
-    <row r="132" spans="2:95" ht="15">
+    <row r="132" spans="2:95" ht="15" hidden="1">
       <c r="B132" s="4" t="s">
         <v>298</v>
       </c>
@@ -18319,7 +18319,7 @@
       <c r="CP132" s="3"/>
       <c r="CQ132" s="3"/>
     </row>
-    <row r="133" spans="2:95" ht="15">
+    <row r="133" spans="2:95" ht="15" hidden="1">
       <c r="B133" s="4" t="s">
         <v>300</v>
       </c>
@@ -18429,7 +18429,7 @@
       <c r="CP133" s="3"/>
       <c r="CQ133" s="3"/>
     </row>
-    <row r="134" spans="2:95" ht="15">
+    <row r="134" spans="2:95" ht="15" hidden="1">
       <c r="B134" s="4" t="s">
         <v>302</v>
       </c>
@@ -18539,7 +18539,7 @@
       <c r="CP134" s="3"/>
       <c r="CQ134" s="3"/>
     </row>
-    <row r="135" spans="2:95" ht="15">
+    <row r="135" spans="2:95" ht="15" hidden="1">
       <c r="B135" s="4" t="s">
         <v>304</v>
       </c>
@@ -18649,7 +18649,7 @@
       <c r="CP135" s="3"/>
       <c r="CQ135" s="3"/>
     </row>
-    <row r="136" spans="2:95" ht="15">
+    <row r="136" spans="2:95" ht="15" hidden="1">
       <c r="B136" s="4" t="s">
         <v>306</v>
       </c>
@@ -18759,7 +18759,7 @@
       <c r="CP136" s="3"/>
       <c r="CQ136" s="3"/>
     </row>
-    <row r="137" spans="2:95" ht="15">
+    <row r="137" spans="2:95" ht="15" hidden="1">
       <c r="B137" s="4" t="s">
         <v>308</v>
       </c>
@@ -18869,7 +18869,7 @@
       <c r="CP137" s="3"/>
       <c r="CQ137" s="3"/>
     </row>
-    <row r="138" spans="2:95" ht="15">
+    <row r="138" spans="2:95" ht="15" hidden="1">
       <c r="B138" s="4" t="s">
         <v>310</v>
       </c>
@@ -18979,7 +18979,7 @@
       <c r="CP138" s="3"/>
       <c r="CQ138" s="3"/>
     </row>
-    <row r="139" spans="2:95" ht="15">
+    <row r="139" spans="2:95" ht="15" hidden="1">
       <c r="B139" s="4" t="s">
         <v>312</v>
       </c>
@@ -19089,7 +19089,7 @@
       <c r="CP139" s="3"/>
       <c r="CQ139" s="3"/>
     </row>
-    <row r="140" spans="2:95" ht="15">
+    <row r="140" spans="2:95" ht="15" hidden="1">
       <c r="B140" s="4" t="s">
         <v>314</v>
       </c>
@@ -19199,7 +19199,7 @@
       <c r="CP140" s="3"/>
       <c r="CQ140" s="3"/>
     </row>
-    <row r="141" spans="2:95" ht="15">
+    <row r="141" spans="2:95" ht="15" hidden="1">
       <c r="B141" s="4" t="s">
         <v>316</v>
       </c>
@@ -19311,7 +19311,7 @@
       <c r="CP141" s="3"/>
       <c r="CQ141" s="3"/>
     </row>
-    <row r="142" spans="2:95" ht="15">
+    <row r="142" spans="2:95" ht="15" hidden="1">
       <c r="B142" s="4" t="s">
         <v>318</v>
       </c>
@@ -19421,7 +19421,7 @@
       <c r="CP142" s="3"/>
       <c r="CQ142" s="3"/>
     </row>
-    <row r="143" spans="2:95" ht="15">
+    <row r="143" spans="2:95" ht="15" hidden="1">
       <c r="B143" s="4" t="s">
         <v>320</v>
       </c>
@@ -19531,7 +19531,7 @@
       <c r="CP143" s="3"/>
       <c r="CQ143" s="3"/>
     </row>
-    <row r="144" spans="2:95" ht="15">
+    <row r="144" spans="2:95" ht="15" hidden="1">
       <c r="B144" s="4" t="s">
         <v>322</v>
       </c>
@@ -19641,7 +19641,7 @@
       <c r="CP144" s="3"/>
       <c r="CQ144" s="3"/>
     </row>
-    <row r="145" spans="2:95" ht="15">
+    <row r="145" spans="2:95" ht="15" hidden="1">
       <c r="B145" s="4" t="s">
         <v>324</v>
       </c>
@@ -19751,7 +19751,7 @@
       <c r="CP145" s="3"/>
       <c r="CQ145" s="3"/>
     </row>
-    <row r="146" spans="2:95" ht="15">
+    <row r="146" spans="2:95" ht="15" hidden="1">
       <c r="B146" s="4" t="s">
         <v>326</v>
       </c>
@@ -19861,7 +19861,7 @@
       <c r="CP146" s="3"/>
       <c r="CQ146" s="3"/>
     </row>
-    <row r="147" spans="2:95" ht="15">
+    <row r="147" spans="2:95" ht="15" hidden="1">
       <c r="B147" s="4" t="s">
         <v>328</v>
       </c>
@@ -19971,7 +19971,7 @@
       <c r="CP147" s="3"/>
       <c r="CQ147" s="3"/>
     </row>
-    <row r="148" spans="2:95" ht="15">
+    <row r="148" spans="2:95" ht="15" hidden="1">
       <c r="B148" s="4" t="s">
         <v>330</v>
       </c>
@@ -20081,7 +20081,7 @@
       <c r="CP148" s="3"/>
       <c r="CQ148" s="3"/>
     </row>
-    <row r="149" spans="2:95" ht="15">
+    <row r="149" spans="2:95" ht="15" hidden="1">
       <c r="B149" s="4" t="s">
         <v>332</v>
       </c>
@@ -20191,7 +20191,7 @@
       <c r="CP149" s="3"/>
       <c r="CQ149" s="3"/>
     </row>
-    <row r="150" spans="2:95" ht="15">
+    <row r="150" spans="2:95" ht="15" hidden="1">
       <c r="B150" s="4" t="s">
         <v>334</v>
       </c>
@@ -20301,7 +20301,7 @@
       <c r="CP150" s="3"/>
       <c r="CQ150" s="3"/>
     </row>
-    <row r="151" spans="2:95" ht="15">
+    <row r="151" spans="2:95" ht="15" hidden="1">
       <c r="B151" s="4" t="s">
         <v>336</v>
       </c>
@@ -20411,7 +20411,7 @@
       <c r="CP151" s="3"/>
       <c r="CQ151" s="3"/>
     </row>
-    <row r="152" spans="2:95" ht="15">
+    <row r="152" spans="2:95" ht="15" hidden="1">
       <c r="B152" s="4" t="s">
         <v>338</v>
       </c>
@@ -20521,7 +20521,7 @@
       <c r="CP152" s="3"/>
       <c r="CQ152" s="3"/>
     </row>
-    <row r="153" spans="2:95" ht="15">
+    <row r="153" spans="2:95" ht="15" hidden="1">
       <c r="B153" s="4" t="s">
         <v>340</v>
       </c>
@@ -20631,7 +20631,7 @@
       <c r="CP153" s="3"/>
       <c r="CQ153" s="3"/>
     </row>
-    <row r="154" spans="2:95" ht="15">
+    <row r="154" spans="2:95" ht="15" hidden="1">
       <c r="B154" s="4" t="s">
         <v>342</v>
       </c>
@@ -20741,7 +20741,7 @@
       <c r="CP154" s="3"/>
       <c r="CQ154" s="3"/>
     </row>
-    <row r="155" spans="2:95" ht="15">
+    <row r="155" spans="2:95" ht="15" hidden="1">
       <c r="B155" s="4" t="s">
         <v>344</v>
       </c>
@@ -20851,7 +20851,7 @@
       <c r="CP155" s="3"/>
       <c r="CQ155" s="3"/>
     </row>
-    <row r="156" spans="2:95" ht="15">
+    <row r="156" spans="2:95" ht="15" hidden="1">
       <c r="B156" s="4" t="s">
         <v>346</v>
       </c>
@@ -20961,7 +20961,7 @@
       <c r="CP156" s="3"/>
       <c r="CQ156" s="3"/>
     </row>
-    <row r="157" spans="2:95" ht="15">
+    <row r="157" spans="2:95" ht="15" hidden="1">
       <c r="B157" s="4" t="s">
         <v>348</v>
       </c>
@@ -21071,7 +21071,7 @@
       <c r="CP157" s="3"/>
       <c r="CQ157" s="3"/>
     </row>
-    <row r="158" spans="2:95" ht="15">
+    <row r="158" spans="2:95" ht="15" hidden="1">
       <c r="B158" s="4" t="s">
         <v>350</v>
       </c>
@@ -21181,7 +21181,7 @@
       <c r="CP158" s="3"/>
       <c r="CQ158" s="3"/>
     </row>
-    <row r="159" spans="2:95" ht="15">
+    <row r="159" spans="2:95" ht="15" hidden="1">
       <c r="B159" s="4" t="s">
         <v>352</v>
       </c>
@@ -21291,7 +21291,7 @@
       <c r="CP159" s="3"/>
       <c r="CQ159" s="3"/>
     </row>
-    <row r="160" spans="2:95" ht="15">
+    <row r="160" spans="2:95" ht="15" hidden="1">
       <c r="B160" s="4" t="s">
         <v>354</v>
       </c>
@@ -21403,7 +21403,7 @@
       <c r="CP160" s="3"/>
       <c r="CQ160" s="3"/>
     </row>
-    <row r="161" spans="2:95" ht="15">
+    <row r="161" spans="2:95" ht="15" hidden="1">
       <c r="B161" s="4" t="s">
         <v>357</v>
       </c>
@@ -21513,7 +21513,7 @@
       <c r="CP161" s="3"/>
       <c r="CQ161" s="3"/>
     </row>
-    <row r="162" spans="2:95" ht="15">
+    <row r="162" spans="2:95" ht="15" hidden="1">
       <c r="B162" s="4" t="s">
         <v>359</v>
       </c>
@@ -21623,7 +21623,7 @@
       <c r="CP162" s="3"/>
       <c r="CQ162" s="3"/>
     </row>
-    <row r="163" spans="2:95" ht="15">
+    <row r="163" spans="2:95" ht="15" hidden="1">
       <c r="B163" s="4" t="s">
         <v>361</v>
       </c>
@@ -21733,7 +21733,7 @@
       <c r="CP163" s="3"/>
       <c r="CQ163" s="3"/>
     </row>
-    <row r="164" spans="2:95" ht="15">
+    <row r="164" spans="2:95" ht="15" hidden="1">
       <c r="B164" s="4" t="s">
         <v>363</v>
       </c>
@@ -21843,7 +21843,7 @@
       <c r="CP164" s="3"/>
       <c r="CQ164" s="3"/>
     </row>
-    <row r="165" spans="2:95" ht="15">
+    <row r="165" spans="2:95" ht="15" hidden="1">
       <c r="B165" s="4" t="s">
         <v>365</v>
       </c>
@@ -21953,7 +21953,7 @@
       <c r="CP165" s="3"/>
       <c r="CQ165" s="3"/>
     </row>
-    <row r="166" spans="2:95" ht="15">
+    <row r="166" spans="2:95" ht="15" hidden="1">
       <c r="B166" s="4" t="s">
         <v>367</v>
       </c>
@@ -22063,7 +22063,7 @@
       <c r="CP166" s="3"/>
       <c r="CQ166" s="3"/>
     </row>
-    <row r="167" spans="2:95" ht="15">
+    <row r="167" spans="2:95" ht="15" hidden="1">
       <c r="B167" s="4" t="s">
         <v>369</v>
       </c>
@@ -22173,7 +22173,7 @@
       <c r="CP167" s="3"/>
       <c r="CQ167" s="3"/>
     </row>
-    <row r="168" spans="2:95" ht="15">
+    <row r="168" spans="2:95" ht="15" hidden="1">
       <c r="B168" s="4" t="s">
         <v>371</v>
       </c>
@@ -22283,7 +22283,7 @@
       <c r="CP168" s="3"/>
       <c r="CQ168" s="3"/>
     </row>
-    <row r="169" spans="2:95" ht="15">
+    <row r="169" spans="2:95" ht="15" hidden="1">
       <c r="B169" s="4" t="s">
         <v>373</v>
       </c>
@@ -22393,7 +22393,7 @@
       <c r="CP169" s="3"/>
       <c r="CQ169" s="3"/>
     </row>
-    <row r="170" spans="2:95" ht="15">
+    <row r="170" spans="2:95" ht="15" hidden="1">
       <c r="B170" s="4" t="s">
         <v>375</v>
       </c>
@@ -22503,7 +22503,7 @@
       <c r="CP170" s="3"/>
       <c r="CQ170" s="3"/>
     </row>
-    <row r="171" spans="2:95" ht="15">
+    <row r="171" spans="2:95" ht="15" hidden="1">
       <c r="B171" s="4" t="s">
         <v>377</v>
       </c>
@@ -22613,7 +22613,7 @@
       <c r="CP171" s="3"/>
       <c r="CQ171" s="3"/>
     </row>
-    <row r="172" spans="2:95" ht="15">
+    <row r="172" spans="2:95" ht="15" hidden="1">
       <c r="B172" s="4" t="s">
         <v>379</v>
       </c>
@@ -22725,7 +22725,7 @@
       <c r="CP172" s="3"/>
       <c r="CQ172" s="3"/>
     </row>
-    <row r="173" spans="2:95" ht="15">
+    <row r="173" spans="2:95" ht="15" hidden="1">
       <c r="B173" s="4" t="s">
         <v>382</v>
       </c>
@@ -22835,7 +22835,7 @@
       <c r="CP173" s="3"/>
       <c r="CQ173" s="3"/>
     </row>
-    <row r="174" spans="2:95" ht="15">
+    <row r="174" spans="2:95" ht="15" hidden="1">
       <c r="B174" s="4" t="s">
         <v>384</v>
       </c>
@@ -22945,7 +22945,7 @@
       <c r="CP174" s="3"/>
       <c r="CQ174" s="3"/>
     </row>
-    <row r="175" spans="2:95" ht="15">
+    <row r="175" spans="2:95" ht="15" hidden="1">
       <c r="B175" s="4" t="s">
         <v>386</v>
       </c>
@@ -23055,7 +23055,7 @@
       <c r="CP175" s="3"/>
       <c r="CQ175" s="3"/>
     </row>
-    <row r="176" spans="2:95" ht="15">
+    <row r="176" spans="2:95" ht="15" hidden="1">
       <c r="B176" s="4" t="s">
         <v>388</v>
       </c>
@@ -23165,7 +23165,7 @@
       <c r="CP176" s="3"/>
       <c r="CQ176" s="3"/>
     </row>
-    <row r="177" spans="2:95" ht="15">
+    <row r="177" spans="2:95" ht="15" hidden="1">
       <c r="B177" s="4" t="s">
         <v>390</v>
       </c>
@@ -23275,7 +23275,7 @@
       <c r="CP177" s="3"/>
       <c r="CQ177" s="3"/>
     </row>
-    <row r="178" spans="2:95" ht="15">
+    <row r="178" spans="2:95" ht="15" hidden="1">
       <c r="B178" s="4" t="s">
         <v>392</v>
       </c>
@@ -23385,7 +23385,7 @@
       <c r="CP178" s="3"/>
       <c r="CQ178" s="3"/>
     </row>
-    <row r="179" spans="2:95" ht="15">
+    <row r="179" spans="2:95" ht="15" hidden="1">
       <c r="B179" s="4" t="s">
         <v>394</v>
       </c>
@@ -23495,7 +23495,7 @@
       <c r="CP179" s="3"/>
       <c r="CQ179" s="3"/>
     </row>
-    <row r="180" spans="2:95" ht="15">
+    <row r="180" spans="2:95" ht="15" hidden="1">
       <c r="B180" s="4" t="s">
         <v>396</v>
       </c>
@@ -23605,7 +23605,7 @@
       <c r="CP180" s="3"/>
       <c r="CQ180" s="3"/>
     </row>
-    <row r="181" spans="2:95" ht="15">
+    <row r="181" spans="2:95" ht="15" hidden="1">
       <c r="B181" s="4" t="s">
         <v>398</v>
       </c>
@@ -23715,7 +23715,7 @@
       <c r="CP181" s="3"/>
       <c r="CQ181" s="3"/>
     </row>
-    <row r="182" spans="2:95" ht="15">
+    <row r="182" spans="2:95" ht="15" hidden="1">
       <c r="B182" s="4" t="s">
         <v>400</v>
       </c>
@@ -23825,7 +23825,7 @@
       <c r="CP182" s="3"/>
       <c r="CQ182" s="3"/>
     </row>
-    <row r="183" spans="2:95" ht="15">
+    <row r="183" spans="2:95" ht="15" hidden="1">
       <c r="B183" s="4" t="s">
         <v>402</v>
       </c>
@@ -23935,7 +23935,7 @@
       <c r="CP183" s="3"/>
       <c r="CQ183" s="3"/>
     </row>
-    <row r="184" spans="2:95" ht="15">
+    <row r="184" spans="2:95" ht="15" hidden="1">
       <c r="B184" s="4" t="s">
         <v>404</v>
       </c>
@@ -24045,7 +24045,7 @@
       <c r="CP184" s="3"/>
       <c r="CQ184" s="3"/>
     </row>
-    <row r="185" spans="2:95" ht="15">
+    <row r="185" spans="2:95" ht="15" hidden="1">
       <c r="B185" s="4" t="s">
         <v>406</v>
       </c>
@@ -24155,7 +24155,7 @@
       <c r="CP185" s="3"/>
       <c r="CQ185" s="3"/>
     </row>
-    <row r="186" spans="2:95" ht="15">
+    <row r="186" spans="2:95" ht="15" hidden="1">
       <c r="B186" s="4" t="s">
         <v>408</v>
       </c>
@@ -24265,7 +24265,7 @@
       <c r="CP186" s="3"/>
       <c r="CQ186" s="3"/>
     </row>
-    <row r="187" spans="2:95" ht="15">
+    <row r="187" spans="2:95" ht="15" hidden="1">
       <c r="B187" s="4" t="s">
         <v>410</v>
       </c>
@@ -24375,7 +24375,7 @@
       <c r="CP187" s="3"/>
       <c r="CQ187" s="3"/>
     </row>
-    <row r="188" spans="2:95" ht="15">
+    <row r="188" spans="2:95" ht="15" hidden="1">
       <c r="B188" s="4" t="s">
         <v>412</v>
       </c>
@@ -24485,7 +24485,7 @@
       <c r="CP188" s="3"/>
       <c r="CQ188" s="3"/>
     </row>
-    <row r="189" spans="2:95" ht="15">
+    <row r="189" spans="2:95" ht="15" hidden="1">
       <c r="B189" s="4" t="s">
         <v>414</v>
       </c>
@@ -24595,7 +24595,7 @@
       <c r="CP189" s="3"/>
       <c r="CQ189" s="3"/>
     </row>
-    <row r="190" spans="2:95" ht="15">
+    <row r="190" spans="2:95" ht="15" hidden="1">
       <c r="B190" s="4" t="s">
         <v>416</v>
       </c>
@@ -24705,7 +24705,7 @@
       <c r="CP190" s="3"/>
       <c r="CQ190" s="3"/>
     </row>
-    <row r="191" spans="2:95" ht="15">
+    <row r="191" spans="2:95" ht="15" hidden="1">
       <c r="B191" s="4" t="s">
         <v>418</v>
       </c>
@@ -24815,7 +24815,7 @@
       <c r="CP191" s="3"/>
       <c r="CQ191" s="3"/>
     </row>
-    <row r="192" spans="2:95" ht="15">
+    <row r="192" spans="2:95" ht="15" hidden="1">
       <c r="B192" s="4" t="s">
         <v>420</v>
       </c>
@@ -24925,7 +24925,7 @@
       <c r="CP192" s="3"/>
       <c r="CQ192" s="3"/>
     </row>
-    <row r="193" spans="2:95" ht="15">
+    <row r="193" spans="2:95" ht="15" hidden="1">
       <c r="B193" s="4" t="s">
         <v>422</v>
       </c>
@@ -25035,7 +25035,7 @@
       <c r="CP193" s="3"/>
       <c r="CQ193" s="3"/>
     </row>
-    <row r="194" spans="2:95" ht="15">
+    <row r="194" spans="2:95" ht="15" hidden="1">
       <c r="B194" s="4" t="s">
         <v>424</v>
       </c>
@@ -25145,7 +25145,7 @@
       <c r="CP194" s="3"/>
       <c r="CQ194" s="3"/>
     </row>
-    <row r="195" spans="2:95" ht="15">
+    <row r="195" spans="2:95" ht="15" hidden="1">
       <c r="B195" s="4" t="s">
         <v>426</v>
       </c>
@@ -25255,7 +25255,7 @@
       <c r="CP195" s="3"/>
       <c r="CQ195" s="3"/>
     </row>
-    <row r="196" spans="2:95" ht="15">
+    <row r="196" spans="2:95" ht="15" hidden="1">
       <c r="B196" s="4" t="s">
         <v>428</v>
       </c>
@@ -25365,7 +25365,7 @@
       <c r="CP196" s="3"/>
       <c r="CQ196" s="3"/>
     </row>
-    <row r="197" spans="2:95" ht="15">
+    <row r="197" spans="2:95" ht="15" hidden="1">
       <c r="B197" s="4" t="s">
         <v>430</v>
       </c>
@@ -25475,7 +25475,7 @@
       <c r="CP197" s="3"/>
       <c r="CQ197" s="3"/>
     </row>
-    <row r="198" spans="2:95" ht="15">
+    <row r="198" spans="2:95" ht="15" hidden="1">
       <c r="B198" s="4" t="s">
         <v>433</v>
       </c>
@@ -25587,7 +25587,7 @@
       <c r="CP198" s="3"/>
       <c r="CQ198" s="3"/>
     </row>
-    <row r="199" spans="2:95" ht="15">
+    <row r="199" spans="2:95" ht="15" hidden="1">
       <c r="B199" s="4" t="s">
         <v>435</v>
       </c>
@@ -25697,7 +25697,7 @@
       <c r="CP199" s="3"/>
       <c r="CQ199" s="3"/>
     </row>
-    <row r="200" spans="2:95" ht="15">
+    <row r="200" spans="2:95" ht="15" hidden="1">
       <c r="B200" s="4" t="s">
         <v>437</v>
       </c>
@@ -25807,7 +25807,7 @@
       <c r="CP200" s="3"/>
       <c r="CQ200" s="3"/>
     </row>
-    <row r="201" spans="2:95" ht="15">
+    <row r="201" spans="2:95" ht="15" hidden="1">
       <c r="B201" s="4" t="s">
         <v>439</v>
       </c>
@@ -25919,7 +25919,7 @@
       <c r="CP201" s="3"/>
       <c r="CQ201" s="3"/>
     </row>
-    <row r="202" spans="2:95" ht="15">
+    <row r="202" spans="2:95" ht="15" hidden="1">
       <c r="B202" s="4" t="s">
         <v>441</v>
       </c>
@@ -26033,7 +26033,7 @@
       <c r="CP202" s="3"/>
       <c r="CQ202" s="3"/>
     </row>
-    <row r="203" spans="2:95" ht="15">
+    <row r="203" spans="2:95" ht="15" hidden="1">
       <c r="B203" s="4" t="s">
         <v>444</v>
       </c>
@@ -26145,7 +26145,7 @@
       <c r="CP203" s="3"/>
       <c r="CQ203" s="3"/>
     </row>
-    <row r="204" spans="2:95" ht="15">
+    <row r="204" spans="2:95" ht="15" hidden="1">
       <c r="B204" s="4" t="s">
         <v>446</v>
       </c>
@@ -26257,7 +26257,7 @@
       <c r="CP204" s="3"/>
       <c r="CQ204" s="3"/>
     </row>
-    <row r="205" spans="2:95" ht="15">
+    <row r="205" spans="2:95" ht="15" hidden="1">
       <c r="B205" s="4" t="s">
         <v>448</v>
       </c>
@@ -26369,7 +26369,7 @@
       <c r="CP205" s="3"/>
       <c r="CQ205" s="3"/>
     </row>
-    <row r="206" spans="2:95" ht="15">
+    <row r="206" spans="2:95" ht="15" hidden="1">
       <c r="B206" s="4" t="s">
         <v>450</v>
       </c>
@@ -26481,7 +26481,7 @@
       <c r="CP206" s="3"/>
       <c r="CQ206" s="3"/>
     </row>
-    <row r="207" spans="2:95" ht="15">
+    <row r="207" spans="2:95" ht="15" hidden="1">
       <c r="B207" s="4" t="s">
         <v>452</v>
       </c>
@@ -26593,7 +26593,7 @@
       <c r="CP207" s="3"/>
       <c r="CQ207" s="3"/>
     </row>
-    <row r="208" spans="2:95" ht="15">
+    <row r="208" spans="2:95" ht="15" hidden="1">
       <c r="B208" s="4" t="s">
         <v>454</v>
       </c>
@@ -26705,7 +26705,7 @@
       <c r="CP208" s="3"/>
       <c r="CQ208" s="3"/>
     </row>
-    <row r="209" spans="2:95" ht="15">
+    <row r="209" spans="2:95" ht="15" hidden="1">
       <c r="B209" s="4" t="s">
         <v>456</v>
       </c>
@@ -26817,7 +26817,7 @@
       <c r="CP209" s="3"/>
       <c r="CQ209" s="3"/>
     </row>
-    <row r="210" spans="2:95" ht="15">
+    <row r="210" spans="2:95" ht="15" hidden="1">
       <c r="B210" s="4" t="s">
         <v>456</v>
       </c>
@@ -26927,7 +26927,7 @@
       <c r="CP210" s="3"/>
       <c r="CQ210" s="3"/>
     </row>
-    <row r="211" spans="2:95" ht="15">
+    <row r="211" spans="2:95" ht="15" hidden="1">
       <c r="B211" s="4" t="s">
         <v>439</v>
       </c>
@@ -27039,7 +27039,7 @@
       <c r="CP211" s="3"/>
       <c r="CQ211" s="3"/>
     </row>
-    <row r="212" spans="2:95" ht="15">
+    <row r="212" spans="2:95" ht="15" hidden="1">
       <c r="B212" s="4" t="s">
         <v>458</v>
       </c>
@@ -27151,7 +27151,7 @@
       <c r="CP212" s="3"/>
       <c r="CQ212" s="3"/>
     </row>
-    <row r="213" spans="2:95" ht="15">
+    <row r="213" spans="2:95" ht="15" hidden="1">
       <c r="B213" s="4" t="s">
         <v>460</v>
       </c>
@@ -27263,7 +27263,7 @@
       <c r="CP213" s="3"/>
       <c r="CQ213" s="3"/>
     </row>
-    <row r="214" spans="2:95" ht="15">
+    <row r="214" spans="2:95" ht="15" hidden="1">
       <c r="B214" s="4" t="s">
         <v>462</v>
       </c>
@@ -27375,7 +27375,7 @@
       <c r="CP214" s="3"/>
       <c r="CQ214" s="3"/>
     </row>
-    <row r="215" spans="2:95" ht="15">
+    <row r="215" spans="2:95" ht="15" hidden="1">
       <c r="B215" s="4" t="s">
         <v>464</v>
       </c>
@@ -27485,7 +27485,7 @@
       <c r="CP215" s="3"/>
       <c r="CQ215" s="3"/>
     </row>
-    <row r="216" spans="2:95" ht="15">
+    <row r="216" spans="2:95" ht="15" hidden="1">
       <c r="B216" s="4" t="s">
         <v>456</v>
       </c>
@@ -27595,7 +27595,7 @@
       <c r="CP216" s="3"/>
       <c r="CQ216" s="3"/>
     </row>
-    <row r="217" spans="2:95" ht="15">
+    <row r="217" spans="2:95" ht="15" hidden="1">
       <c r="B217" s="4" t="s">
         <v>458</v>
       </c>
@@ -27707,7 +27707,7 @@
       <c r="CP217" s="3"/>
       <c r="CQ217" s="3"/>
     </row>
-    <row r="218" spans="2:95" ht="15">
+    <row r="218" spans="2:95" ht="15" hidden="1">
       <c r="B218" s="4" t="s">
         <v>468</v>
       </c>
@@ -27819,7 +27819,7 @@
       <c r="CP218" s="3"/>
       <c r="CQ218" s="3"/>
     </row>
-    <row r="219" spans="2:95" ht="15">
+    <row r="219" spans="2:95" ht="15" hidden="1">
       <c r="B219" s="4" t="s">
         <v>470</v>
       </c>
@@ -27931,7 +27931,7 @@
       <c r="CP219" s="3"/>
       <c r="CQ219" s="3"/>
     </row>
-    <row r="220" spans="2:95" ht="15">
+    <row r="220" spans="2:95" ht="15" hidden="1">
       <c r="B220" s="4" t="s">
         <v>472</v>
       </c>
@@ -28043,7 +28043,7 @@
       <c r="CP220" s="3"/>
       <c r="CQ220" s="3"/>
     </row>
-    <row r="221" spans="2:95" ht="15">
+    <row r="221" spans="2:95" ht="15" hidden="1">
       <c r="B221" s="4" t="s">
         <v>474</v>
       </c>
@@ -28155,7 +28155,7 @@
       <c r="CP221" s="3"/>
       <c r="CQ221" s="3"/>
     </row>
-    <row r="222" spans="2:95" ht="15">
+    <row r="222" spans="2:95" ht="15" hidden="1">
       <c r="B222" s="4" t="s">
         <v>476</v>
       </c>
@@ -28265,7 +28265,7 @@
       <c r="CP222" s="3"/>
       <c r="CQ222" s="3"/>
     </row>
-    <row r="223" spans="2:95" ht="15">
+    <row r="223" spans="2:95" ht="15" hidden="1">
       <c r="B223" s="4" t="s">
         <v>478</v>
       </c>
@@ -28377,7 +28377,7 @@
       <c r="CP223" s="3"/>
       <c r="CQ223" s="3"/>
     </row>
-    <row r="224" spans="2:95" ht="15">
+    <row r="224" spans="2:95" ht="15" hidden="1">
       <c r="B224" s="4" t="s">
         <v>478</v>
       </c>
@@ -28489,7 +28489,7 @@
       <c r="CP224" s="3"/>
       <c r="CQ224" s="3"/>
     </row>
-    <row r="225" spans="2:95" ht="15">
+    <row r="225" spans="2:95" ht="15" hidden="1">
       <c r="B225" s="4" t="s">
         <v>481</v>
       </c>
@@ -28601,7 +28601,7 @@
       <c r="CP225" s="3"/>
       <c r="CQ225" s="3"/>
     </row>
-    <row r="226" spans="2:95" ht="15">
+    <row r="226" spans="2:95" ht="15" hidden="1">
       <c r="B226" s="4" t="s">
         <v>483</v>
       </c>
@@ -28711,7 +28711,7 @@
       <c r="CP226" s="3"/>
       <c r="CQ226" s="3"/>
     </row>
-    <row r="227" spans="2:95" ht="15">
+    <row r="227" spans="2:95" ht="15" hidden="1">
       <c r="B227" s="4" t="s">
         <v>485</v>
       </c>
@@ -28821,7 +28821,7 @@
       <c r="CP227" s="3"/>
       <c r="CQ227" s="3"/>
     </row>
-    <row r="228" spans="2:95" ht="15">
+    <row r="228" spans="2:95" ht="15" hidden="1">
       <c r="B228" s="4" t="s">
         <v>487</v>
       </c>
@@ -28931,7 +28931,7 @@
       <c r="CP228" s="3"/>
       <c r="CQ228" s="3"/>
     </row>
-    <row r="229" spans="2:95" ht="15">
+    <row r="229" spans="2:95" ht="15" hidden="1">
       <c r="B229" s="4" t="s">
         <v>489</v>
       </c>
@@ -29043,7 +29043,7 @@
       <c r="CP229" s="3"/>
       <c r="CQ229" s="3"/>
     </row>
-    <row r="230" spans="2:95" ht="15">
+    <row r="230" spans="2:95" ht="15" hidden="1">
       <c r="B230" s="4" t="s">
         <v>491</v>
       </c>
@@ -29153,7 +29153,7 @@
       <c r="CP230" s="3"/>
       <c r="CQ230" s="3"/>
     </row>
-    <row r="231" spans="2:95" ht="15">
+    <row r="231" spans="2:95" ht="15" hidden="1">
       <c r="B231" s="4" t="s">
         <v>493</v>
       </c>
@@ -29263,7 +29263,7 @@
       <c r="CP231" s="3"/>
       <c r="CQ231" s="3"/>
     </row>
-    <row r="232" spans="2:95" ht="15">
+    <row r="232" spans="2:95" ht="15" hidden="1">
       <c r="B232" s="4" t="s">
         <v>495</v>
       </c>
@@ -29373,7 +29373,7 @@
       <c r="CP232" s="3"/>
       <c r="CQ232" s="3"/>
     </row>
-    <row r="233" spans="2:95" ht="15">
+    <row r="233" spans="2:95" ht="15" hidden="1">
       <c r="B233" s="4" t="s">
         <v>497</v>
       </c>
@@ -29483,7 +29483,7 @@
       <c r="CP233" s="3"/>
       <c r="CQ233" s="3"/>
     </row>
-    <row r="234" spans="2:95" ht="15">
+    <row r="234" spans="2:95" ht="15" hidden="1">
       <c r="B234" s="4" t="s">
         <v>499</v>
       </c>
@@ -29595,7 +29595,7 @@
       <c r="CP234" s="3"/>
       <c r="CQ234" s="3"/>
     </row>
-    <row r="235" spans="2:95" ht="15">
+    <row r="235" spans="2:95" ht="15" hidden="1">
       <c r="B235" s="4" t="s">
         <v>502</v>
       </c>
@@ -29705,7 +29705,7 @@
       <c r="CP235" s="3"/>
       <c r="CQ235" s="3"/>
     </row>
-    <row r="236" spans="2:95" ht="15">
+    <row r="236" spans="2:95" ht="15" hidden="1">
       <c r="B236" s="4" t="s">
         <v>499</v>
       </c>
@@ -29817,7 +29817,7 @@
       <c r="CP236" s="3"/>
       <c r="CQ236" s="3"/>
     </row>
-    <row r="237" spans="2:95" ht="15">
+    <row r="237" spans="2:95" ht="15" hidden="1">
       <c r="B237" s="4" t="s">
         <v>504</v>
       </c>
@@ -29929,7 +29929,7 @@
       <c r="CP237" s="3"/>
       <c r="CQ237" s="3"/>
     </row>
-    <row r="238" spans="2:95" ht="15">
+    <row r="238" spans="2:95" ht="15" hidden="1">
       <c r="B238" s="4" t="s">
         <v>506</v>
       </c>
@@ -30039,7 +30039,7 @@
       <c r="CP238" s="3"/>
       <c r="CQ238" s="3"/>
     </row>
-    <row r="239" spans="2:95" ht="15">
+    <row r="239" spans="2:95" ht="15" hidden="1">
       <c r="B239" s="4" t="s">
         <v>504</v>
       </c>
@@ -30151,7 +30151,7 @@
       <c r="CP239" s="3"/>
       <c r="CQ239" s="3"/>
     </row>
-    <row r="240" spans="2:95" ht="15">
+    <row r="240" spans="2:95" ht="15" hidden="1">
       <c r="B240" s="4" t="s">
         <v>509</v>
       </c>
@@ -30261,7 +30261,7 @@
       <c r="CP240" s="3"/>
       <c r="CQ240" s="3"/>
     </row>
-    <row r="241" spans="2:95" ht="15">
+    <row r="241" spans="2:95" ht="15" hidden="1">
       <c r="B241" s="4" t="s">
         <v>511</v>
       </c>
@@ -30371,7 +30371,7 @@
       <c r="CP241" s="3"/>
       <c r="CQ241" s="3"/>
     </row>
-    <row r="242" spans="2:95" ht="15">
+    <row r="242" spans="2:95" ht="15" hidden="1">
       <c r="B242" s="4" t="s">
         <v>513</v>
       </c>
@@ -30483,7 +30483,7 @@
       <c r="CP242" s="3"/>
       <c r="CQ242" s="3"/>
     </row>
-    <row r="243" spans="2:95" ht="15">
+    <row r="243" spans="2:95" ht="15" hidden="1">
       <c r="B243" s="4" t="s">
         <v>515</v>
       </c>
@@ -30593,7 +30593,7 @@
       <c r="CP243" s="3"/>
       <c r="CQ243" s="3"/>
     </row>
-    <row r="244" spans="2:95" ht="15">
+    <row r="244" spans="2:95" ht="15" hidden="1">
       <c r="B244" s="4" t="s">
         <v>517</v>
       </c>
@@ -30703,7 +30703,7 @@
       <c r="CP244" s="3"/>
       <c r="CQ244" s="3"/>
     </row>
-    <row r="245" spans="2:95" ht="15">
+    <row r="245" spans="2:95" ht="15" hidden="1">
       <c r="B245" s="4" t="s">
         <v>519</v>
       </c>
@@ -30815,7 +30815,7 @@
       <c r="CP245" s="3"/>
       <c r="CQ245" s="3"/>
     </row>
-    <row r="246" spans="2:95" ht="15">
+    <row r="246" spans="2:95" ht="15" hidden="1">
       <c r="B246" s="4" t="s">
         <v>521</v>
       </c>
@@ -30925,7 +30925,7 @@
       <c r="CP246" s="3"/>
       <c r="CQ246" s="3"/>
     </row>
-    <row r="247" spans="2:95" ht="15">
+    <row r="247" spans="2:95" ht="15" hidden="1">
       <c r="B247" s="4" t="s">
         <v>524</v>
       </c>
@@ -31037,7 +31037,7 @@
       <c r="CP247" s="3"/>
       <c r="CQ247" s="3"/>
     </row>
-    <row r="248" spans="2:95" ht="15">
+    <row r="248" spans="2:95" ht="15" hidden="1">
       <c r="B248" s="4" t="s">
         <v>527</v>
       </c>
@@ -31147,7 +31147,7 @@
       <c r="CP248" s="3"/>
       <c r="CQ248" s="3"/>
     </row>
-    <row r="249" spans="2:95" ht="15">
+    <row r="249" spans="2:95" ht="15" hidden="1">
       <c r="B249" s="4" t="s">
         <v>530</v>
       </c>
@@ -31257,7 +31257,7 @@
       <c r="CP249" s="3"/>
       <c r="CQ249" s="3"/>
     </row>
-    <row r="250" spans="2:95" ht="15">
+    <row r="250" spans="2:95" ht="15" hidden="1">
       <c r="B250" s="4" t="s">
         <v>532</v>
       </c>
@@ -31369,7 +31369,7 @@
       <c r="CP250" s="3"/>
       <c r="CQ250" s="3"/>
     </row>
-    <row r="251" spans="2:95" ht="15">
+    <row r="251" spans="2:95" ht="15" hidden="1">
       <c r="B251" s="4" t="s">
         <v>534</v>
       </c>
@@ -31481,7 +31481,7 @@
       <c r="CP251" s="3"/>
       <c r="CQ251" s="3"/>
     </row>
-    <row r="252" spans="2:95" ht="15">
+    <row r="252" spans="2:95" ht="15" hidden="1">
       <c r="B252" s="4" t="s">
         <v>536</v>
       </c>
@@ -31593,7 +31593,7 @@
       <c r="CP252" s="3"/>
       <c r="CQ252" s="3"/>
     </row>
-    <row r="253" spans="2:95" ht="15">
+    <row r="253" spans="2:95" ht="15" hidden="1">
       <c r="B253" s="4" t="s">
         <v>538</v>
       </c>
@@ -31705,7 +31705,7 @@
       <c r="CP253" s="3"/>
       <c r="CQ253" s="3"/>
     </row>
-    <row r="254" spans="2:95" ht="15">
+    <row r="254" spans="2:95" ht="15" hidden="1">
       <c r="B254" s="4" t="s">
         <v>540</v>
       </c>
@@ -31815,7 +31815,7 @@
       <c r="CP254" s="3"/>
       <c r="CQ254" s="3"/>
     </row>
-    <row r="255" spans="2:95" ht="15">
+    <row r="255" spans="2:95" ht="15" hidden="1">
       <c r="B255" s="4" t="s">
         <v>542</v>
       </c>
@@ -31925,7 +31925,7 @@
       <c r="CP255" s="3"/>
       <c r="CQ255" s="3"/>
     </row>
-    <row r="256" spans="2:95" ht="15">
+    <row r="256" spans="2:95" ht="15" hidden="1">
       <c r="B256" s="4" t="s">
         <v>544</v>
       </c>
@@ -32037,7 +32037,7 @@
       <c r="CP256" s="3"/>
       <c r="CQ256" s="3"/>
     </row>
-    <row r="257" spans="2:95" ht="15">
+    <row r="257" spans="2:95" ht="15" hidden="1">
       <c r="B257" s="4" t="s">
         <v>546</v>
       </c>
@@ -32147,7 +32147,7 @@
       <c r="CP257" s="3"/>
       <c r="CQ257" s="3"/>
     </row>
-    <row r="258" spans="2:95" ht="15">
+    <row r="258" spans="2:95" ht="15" hidden="1">
       <c r="B258" s="4" t="s">
         <v>548</v>
       </c>
@@ -32257,7 +32257,7 @@
       <c r="CP258" s="3"/>
       <c r="CQ258" s="3"/>
     </row>
-    <row r="259" spans="2:95" ht="15">
+    <row r="259" spans="2:95" ht="15" hidden="1">
       <c r="B259" s="4" t="s">
         <v>550</v>
       </c>
@@ -32367,7 +32367,7 @@
       <c r="CP259" s="3"/>
       <c r="CQ259" s="3"/>
     </row>
-    <row r="260" spans="2:95" ht="15">
+    <row r="260" spans="2:95" ht="15" hidden="1">
       <c r="B260" s="4" t="s">
         <v>552</v>
       </c>
@@ -32477,7 +32477,7 @@
       <c r="CP260" s="3"/>
       <c r="CQ260" s="3"/>
     </row>
-    <row r="261" spans="2:95" ht="15">
+    <row r="261" spans="2:95" ht="15" hidden="1">
       <c r="B261" s="4" t="s">
         <v>554</v>
       </c>
@@ -32587,7 +32587,7 @@
       <c r="CP261" s="3"/>
       <c r="CQ261" s="3"/>
     </row>
-    <row r="262" spans="2:95" ht="15">
+    <row r="262" spans="2:95" ht="15" hidden="1">
       <c r="B262" s="4" t="s">
         <v>556</v>
       </c>
@@ -32697,7 +32697,7 @@
       <c r="CP262" s="3"/>
       <c r="CQ262" s="3"/>
     </row>
-    <row r="263" spans="2:95" ht="15">
+    <row r="263" spans="2:95" ht="15" hidden="1">
       <c r="B263" s="4" t="s">
         <v>558</v>
       </c>
@@ -32807,7 +32807,7 @@
       <c r="CP263" s="3"/>
       <c r="CQ263" s="3"/>
     </row>
-    <row r="264" spans="2:95" ht="15">
+    <row r="264" spans="2:95" ht="15" hidden="1">
       <c r="B264" s="4" t="s">
         <v>560</v>
       </c>
@@ -32919,7 +32919,7 @@
       <c r="CP264" s="3"/>
       <c r="CQ264" s="3"/>
     </row>
-    <row r="265" spans="2:95" ht="15">
+    <row r="265" spans="2:95" ht="15" hidden="1">
       <c r="B265" s="4" t="s">
         <v>562</v>
       </c>
@@ -33031,7 +33031,7 @@
       <c r="CP265" s="3"/>
       <c r="CQ265" s="3"/>
     </row>
-    <row r="266" spans="2:95" ht="15">
+    <row r="266" spans="2:95" ht="15" hidden="1">
       <c r="B266" s="4" t="s">
         <v>564</v>
       </c>
@@ -33141,7 +33141,7 @@
       <c r="CP266" s="3"/>
       <c r="CQ266" s="3"/>
     </row>
-    <row r="267" spans="2:95" ht="15">
+    <row r="267" spans="2:95" ht="15" hidden="1">
       <c r="B267" s="4" t="s">
         <v>566</v>
       </c>
@@ -33251,7 +33251,7 @@
       <c r="CP267" s="3"/>
       <c r="CQ267" s="3"/>
     </row>
-    <row r="268" spans="2:95" ht="15">
+    <row r="268" spans="2:95" ht="15" hidden="1">
       <c r="B268" s="4" t="s">
         <v>568</v>
       </c>
@@ -33361,7 +33361,7 @@
       <c r="CP268" s="3"/>
       <c r="CQ268" s="3"/>
     </row>
-    <row r="269" spans="2:95" ht="15">
+    <row r="269" spans="2:95" ht="15" hidden="1">
       <c r="B269" s="4" t="s">
         <v>570</v>
       </c>
@@ -33473,7 +33473,7 @@
       <c r="CP269" s="3"/>
       <c r="CQ269" s="3"/>
     </row>
-    <row r="270" spans="2:95" ht="15">
+    <row r="270" spans="2:95" ht="15" hidden="1">
       <c r="B270" s="4" t="s">
         <v>572</v>
       </c>
@@ -33583,7 +33583,7 @@
       <c r="CP270" s="3"/>
       <c r="CQ270" s="3"/>
     </row>
-    <row r="271" spans="2:95" ht="15">
+    <row r="271" spans="2:95" ht="15" hidden="1">
       <c r="B271" s="4" t="s">
         <v>574</v>
       </c>
@@ -33693,7 +33693,7 @@
       <c r="CP271" s="3"/>
       <c r="CQ271" s="3"/>
     </row>
-    <row r="272" spans="2:95" ht="15">
+    <row r="272" spans="2:95" ht="15" hidden="1">
       <c r="B272" s="4" t="s">
         <v>576</v>
       </c>
@@ -33805,7 +33805,7 @@
       <c r="CP272" s="3"/>
       <c r="CQ272" s="3"/>
     </row>
-    <row r="273" spans="2:95" ht="15">
+    <row r="273" spans="2:95" ht="15" hidden="1">
       <c r="B273" s="4" t="s">
         <v>578</v>
       </c>
@@ -33915,7 +33915,7 @@
       <c r="CP273" s="3"/>
       <c r="CQ273" s="3"/>
     </row>
-    <row r="274" spans="2:95" ht="15">
+    <row r="274" spans="2:95" ht="15" hidden="1">
       <c r="B274" s="4" t="s">
         <v>580</v>
       </c>
@@ -34027,7 +34027,7 @@
       <c r="CP274" s="3"/>
       <c r="CQ274" s="3"/>
     </row>
-    <row r="275" spans="2:95" ht="15">
+    <row r="275" spans="2:95" ht="15" hidden="1">
       <c r="B275" s="4" t="s">
         <v>583</v>
       </c>
@@ -34137,7 +34137,7 @@
       <c r="CP275" s="3"/>
       <c r="CQ275" s="3"/>
     </row>
-    <row r="276" spans="2:95" ht="15">
+    <row r="276" spans="2:95" ht="15" hidden="1">
       <c r="B276" s="4" t="s">
         <v>585</v>
       </c>
@@ -34247,7 +34247,7 @@
       <c r="CP276" s="3"/>
       <c r="CQ276" s="3"/>
     </row>
-    <row r="277" spans="2:95" ht="15">
+    <row r="277" spans="2:95" ht="15" hidden="1">
       <c r="B277" s="4" t="s">
         <v>587</v>
       </c>
@@ -34357,7 +34357,7 @@
       <c r="CP277" s="3"/>
       <c r="CQ277" s="3"/>
     </row>
-    <row r="278" spans="2:95" ht="15">
+    <row r="278" spans="2:95" ht="15" hidden="1">
       <c r="B278" s="4" t="s">
         <v>589</v>
       </c>
@@ -34467,7 +34467,7 @@
       <c r="CP278" s="3"/>
       <c r="CQ278" s="3"/>
     </row>
-    <row r="279" spans="2:95" ht="15">
+    <row r="279" spans="2:95" ht="15" hidden="1">
       <c r="B279" s="4" t="s">
         <v>591</v>
       </c>
@@ -34577,7 +34577,7 @@
       <c r="CP279" s="3"/>
       <c r="CQ279" s="3"/>
     </row>
-    <row r="280" spans="2:95" ht="15">
+    <row r="280" spans="2:95" ht="15" hidden="1">
       <c r="B280" s="4" t="s">
         <v>593</v>
       </c>
@@ -34689,7 +34689,7 @@
       <c r="CP280" s="3"/>
       <c r="CQ280" s="3"/>
     </row>
-    <row r="281" spans="2:95" ht="15">
+    <row r="281" spans="2:95" ht="15" hidden="1">
       <c r="B281" s="4" t="s">
         <v>595</v>
       </c>
@@ -34799,7 +34799,7 @@
       <c r="CP281" s="3"/>
       <c r="CQ281" s="3"/>
     </row>
-    <row r="282" spans="2:95" ht="15">
+    <row r="282" spans="2:95" ht="15" hidden="1">
       <c r="B282" s="4" t="s">
         <v>597</v>
       </c>
@@ -34909,7 +34909,7 @@
       <c r="CP282" s="3"/>
       <c r="CQ282" s="3"/>
     </row>
-    <row r="283" spans="2:95" ht="15">
+    <row r="283" spans="2:95" ht="15" hidden="1">
       <c r="B283" s="4" t="s">
         <v>599</v>
       </c>
@@ -35019,7 +35019,7 @@
       <c r="CP283" s="3"/>
       <c r="CQ283" s="3"/>
     </row>
-    <row r="284" spans="2:95" ht="15">
+    <row r="284" spans="2:95" ht="15" hidden="1">
       <c r="B284" s="4" t="s">
         <v>601</v>
       </c>
@@ -35129,7 +35129,7 @@
       <c r="CP284" s="3"/>
       <c r="CQ284" s="3"/>
     </row>
-    <row r="285" spans="2:95" ht="15">
+    <row r="285" spans="2:95" ht="15" hidden="1">
       <c r="B285" s="4" t="s">
         <v>603</v>
       </c>
@@ -35241,7 +35241,7 @@
       <c r="CP285" s="3"/>
       <c r="CQ285" s="3"/>
     </row>
-    <row r="286" spans="2:95" ht="15">
+    <row r="286" spans="2:95" ht="15" hidden="1">
       <c r="B286" s="4" t="s">
         <v>605</v>
       </c>
@@ -35351,7 +35351,7 @@
       <c r="CP286" s="3"/>
       <c r="CQ286" s="3"/>
     </row>
-    <row r="287" spans="2:95" ht="15">
+    <row r="287" spans="2:95" ht="15" hidden="1">
       <c r="B287" s="4" t="s">
         <v>607</v>
       </c>
@@ -35463,7 +35463,7 @@
       <c r="CP287" s="3"/>
       <c r="CQ287" s="3"/>
     </row>
-    <row r="288" spans="2:95" ht="15">
+    <row r="288" spans="2:95" ht="15" hidden="1">
       <c r="B288" s="4" t="s">
         <v>609</v>
       </c>
@@ -35573,7 +35573,7 @@
       <c r="CP288" s="3"/>
       <c r="CQ288" s="3"/>
     </row>
-    <row r="289" spans="2:95" ht="15">
+    <row r="289" spans="2:95" ht="15" hidden="1">
       <c r="B289" s="4" t="s">
         <v>611</v>
       </c>
@@ -35685,7 +35685,7 @@
       <c r="CP289" s="3"/>
       <c r="CQ289" s="3"/>
     </row>
-    <row r="290" spans="2:95" ht="15">
+    <row r="290" spans="2:95" ht="15" hidden="1">
       <c r="B290" s="4" t="s">
         <v>613</v>
       </c>
@@ -35795,7 +35795,7 @@
       <c r="CP290" s="3"/>
       <c r="CQ290" s="3"/>
     </row>
-    <row r="291" spans="2:95" ht="15">
+    <row r="291" spans="2:95" ht="15" hidden="1">
       <c r="B291" s="4" t="s">
         <v>615</v>
       </c>
@@ -35905,7 +35905,7 @@
       <c r="CP291" s="3"/>
       <c r="CQ291" s="3"/>
     </row>
-    <row r="292" spans="2:95" ht="15">
+    <row r="292" spans="2:95" ht="15" hidden="1">
       <c r="B292" s="4" t="s">
         <v>617</v>
       </c>
@@ -36017,7 +36017,7 @@
       <c r="CP292" s="3"/>
       <c r="CQ292" s="3"/>
     </row>
-    <row r="293" spans="2:95" ht="15">
+    <row r="293" spans="2:95" ht="15" hidden="1">
       <c r="B293" s="4" t="s">
         <v>620</v>
       </c>
@@ -36127,7 +36127,7 @@
       <c r="CP293" s="3"/>
       <c r="CQ293" s="3"/>
     </row>
-    <row r="294" spans="2:95" ht="15">
+    <row r="294" spans="2:95" ht="15" hidden="1">
       <c r="B294" s="4" t="s">
         <v>622</v>
       </c>
@@ -36237,7 +36237,7 @@
       <c r="CP294" s="3"/>
       <c r="CQ294" s="3"/>
     </row>
-    <row r="295" spans="2:95" ht="15">
+    <row r="295" spans="2:95" ht="15" hidden="1">
       <c r="B295" s="4" t="s">
         <v>624</v>
       </c>
@@ -36347,7 +36347,7 @@
       <c r="CP295" s="3"/>
       <c r="CQ295" s="3"/>
     </row>
-    <row r="296" spans="2:95" ht="15">
+    <row r="296" spans="2:95" ht="15" hidden="1">
       <c r="B296" s="4" t="s">
         <v>626</v>
       </c>
@@ -36457,7 +36457,7 @@
       <c r="CP296" s="3"/>
       <c r="CQ296" s="3"/>
     </row>
-    <row r="297" spans="2:95" ht="15">
+    <row r="297" spans="2:95" ht="15" hidden="1">
       <c r="B297" s="4" t="s">
         <v>628</v>
       </c>
@@ -36567,7 +36567,7 @@
       <c r="CP297" s="3"/>
       <c r="CQ297" s="3"/>
     </row>
-    <row r="298" spans="2:95" ht="15">
+    <row r="298" spans="2:95" ht="15" hidden="1">
       <c r="B298" s="4" t="s">
         <v>630</v>
       </c>
@@ -36677,7 +36677,7 @@
       <c r="CP298" s="3"/>
       <c r="CQ298" s="3"/>
     </row>
-    <row r="299" spans="2:95" ht="15">
+    <row r="299" spans="2:95" ht="15" hidden="1">
       <c r="B299" s="4" t="s">
         <v>632</v>
       </c>
@@ -36787,7 +36787,7 @@
       <c r="CP299" s="3"/>
       <c r="CQ299" s="3"/>
     </row>
-    <row r="300" spans="2:95" ht="15">
+    <row r="300" spans="2:95" ht="15" hidden="1">
       <c r="B300" s="4" t="s">
         <v>634</v>
       </c>
@@ -36897,7 +36897,7 @@
       <c r="CP300" s="3"/>
       <c r="CQ300" s="3"/>
     </row>
-    <row r="301" spans="2:95" ht="15">
+    <row r="301" spans="2:95" ht="15" hidden="1">
       <c r="B301" s="4" t="s">
         <v>636</v>
       </c>
@@ -37007,7 +37007,7 @@
       <c r="CP301" s="3"/>
       <c r="CQ301" s="3"/>
     </row>
-    <row r="302" spans="2:95" ht="15">
+    <row r="302" spans="2:95" ht="15" hidden="1">
       <c r="B302" s="4" t="s">
         <v>638</v>
       </c>
@@ -37117,7 +37117,7 @@
       <c r="CP302" s="3"/>
       <c r="CQ302" s="3"/>
     </row>
-    <row r="303" spans="2:95" ht="15">
+    <row r="303" spans="2:95" ht="15" hidden="1">
       <c r="B303" s="4" t="s">
         <v>640</v>
       </c>
@@ -37229,7 +37229,7 @@
       <c r="CP303" s="3"/>
       <c r="CQ303" s="3"/>
     </row>
-    <row r="304" spans="2:95" ht="15">
+    <row r="304" spans="2:95" ht="15" hidden="1">
       <c r="B304" s="4" t="s">
         <v>642</v>
       </c>
@@ -37341,7 +37341,7 @@
       <c r="CP304" s="3"/>
       <c r="CQ304" s="3"/>
     </row>
-    <row r="305" spans="2:95" ht="15">
+    <row r="305" spans="2:95" ht="15" hidden="1">
       <c r="B305" s="4" t="s">
         <v>644</v>
       </c>
@@ -37453,7 +37453,7 @@
       <c r="CP305" s="3"/>
       <c r="CQ305" s="3"/>
     </row>
-    <row r="306" spans="2:95" ht="15">
+    <row r="306" spans="2:95" ht="15" hidden="1">
       <c r="B306" s="4" t="s">
         <v>646</v>
       </c>
@@ -37565,7 +37565,7 @@
       <c r="CP306" s="3"/>
       <c r="CQ306" s="3"/>
     </row>
-    <row r="307" spans="2:95" ht="15">
+    <row r="307" spans="2:95" ht="15" hidden="1">
       <c r="B307" s="4" t="s">
         <v>648</v>
       </c>
@@ -37675,7 +37675,7 @@
       <c r="CP307" s="3"/>
       <c r="CQ307" s="3"/>
     </row>
-    <row r="308" spans="2:95" ht="15">
+    <row r="308" spans="2:95" ht="15" hidden="1">
       <c r="B308" s="4" t="s">
         <v>650</v>
       </c>
@@ -37785,7 +37785,7 @@
       <c r="CP308" s="3"/>
       <c r="CQ308" s="3"/>
     </row>
-    <row r="309" spans="2:95" ht="15">
+    <row r="309" spans="2:95" ht="15" hidden="1">
       <c r="B309" s="4" t="s">
         <v>652</v>
       </c>
@@ -37895,7 +37895,7 @@
       <c r="CP309" s="3"/>
       <c r="CQ309" s="3"/>
     </row>
-    <row r="310" spans="2:95" ht="15">
+    <row r="310" spans="2:95" ht="15" hidden="1">
       <c r="B310" s="4" t="s">
         <v>654</v>
       </c>
@@ -38005,7 +38005,7 @@
       <c r="CP310" s="3"/>
       <c r="CQ310" s="3"/>
     </row>
-    <row r="311" spans="2:95" ht="15">
+    <row r="311" spans="2:95" ht="15" hidden="1">
       <c r="B311" s="4" t="s">
         <v>656</v>
       </c>
@@ -38115,7 +38115,7 @@
       <c r="CP311" s="3"/>
       <c r="CQ311" s="3"/>
     </row>
-    <row r="312" spans="2:95" ht="15">
+    <row r="312" spans="2:95" ht="15" hidden="1">
       <c r="B312" s="4" t="s">
         <v>658</v>
       </c>
@@ -38225,7 +38225,7 @@
       <c r="CP312" s="3"/>
       <c r="CQ312" s="3"/>
     </row>
-    <row r="313" spans="2:95" ht="15">
+    <row r="313" spans="2:95" ht="15" hidden="1">
       <c r="B313" s="4" t="s">
         <v>660</v>
       </c>
@@ -38335,7 +38335,7 @@
       <c r="CP313" s="3"/>
       <c r="CQ313" s="3"/>
     </row>
-    <row r="314" spans="2:95" ht="15">
+    <row r="314" spans="2:95" ht="15" hidden="1">
       <c r="B314" s="4" t="s">
         <v>662</v>
       </c>
@@ -38445,7 +38445,7 @@
       <c r="CP314" s="3"/>
       <c r="CQ314" s="3"/>
     </row>
-    <row r="315" spans="2:95" ht="15">
+    <row r="315" spans="2:95" ht="15" hidden="1">
       <c r="B315" s="4" t="s">
         <v>664</v>
       </c>
@@ -38555,7 +38555,7 @@
       <c r="CP315" s="3"/>
       <c r="CQ315" s="3"/>
     </row>
-    <row r="316" spans="2:95" ht="15">
+    <row r="316" spans="2:95" ht="15" hidden="1">
       <c r="B316" s="4" t="s">
         <v>666</v>
       </c>
@@ -38665,7 +38665,7 @@
       <c r="CP316" s="3"/>
       <c r="CQ316" s="3"/>
     </row>
-    <row r="317" spans="2:95" ht="15">
+    <row r="317" spans="2:95" ht="15" hidden="1">
       <c r="B317" s="4" t="s">
         <v>668</v>
       </c>
@@ -38775,7 +38775,7 @@
       <c r="CP317" s="3"/>
       <c r="CQ317" s="3"/>
     </row>
-    <row r="318" spans="2:95" ht="15">
+    <row r="318" spans="2:95" ht="15" hidden="1">
       <c r="B318" s="4" t="s">
         <v>670</v>
       </c>
@@ -38885,7 +38885,7 @@
       <c r="CP318" s="3"/>
       <c r="CQ318" s="3"/>
     </row>
-    <row r="319" spans="2:95" ht="15">
+    <row r="319" spans="2:95" ht="15" hidden="1">
       <c r="B319" s="4" t="s">
         <v>672</v>
       </c>
@@ -38995,7 +38995,7 @@
       <c r="CP319" s="3"/>
       <c r="CQ319" s="3"/>
     </row>
-    <row r="320" spans="2:95" ht="15">
+    <row r="320" spans="2:95" ht="15" hidden="1">
       <c r="B320" s="4" t="s">
         <v>674</v>
       </c>
@@ -39105,7 +39105,7 @@
       <c r="CP320" s="3"/>
       <c r="CQ320" s="3"/>
     </row>
-    <row r="321" spans="2:95" ht="15">
+    <row r="321" spans="2:95" ht="15" hidden="1">
       <c r="B321" s="4" t="s">
         <v>676</v>
       </c>
@@ -39215,7 +39215,7 @@
       <c r="CP321" s="3"/>
       <c r="CQ321" s="3"/>
     </row>
-    <row r="322" spans="2:95" ht="15">
+    <row r="322" spans="2:95" ht="15" hidden="1">
       <c r="B322" s="4" t="s">
         <v>678</v>
       </c>
@@ -39325,7 +39325,7 @@
       <c r="CP322" s="3"/>
       <c r="CQ322" s="3"/>
     </row>
-    <row r="323" spans="2:95" ht="15">
+    <row r="323" spans="2:95" ht="15" hidden="1">
       <c r="B323" s="4" t="s">
         <v>680</v>
       </c>
@@ -39435,7 +39435,7 @@
       <c r="CP323" s="3"/>
       <c r="CQ323" s="3"/>
     </row>
-    <row r="324" spans="2:95" ht="15">
+    <row r="324" spans="2:95" ht="15" hidden="1">
       <c r="B324" s="4" t="s">
         <v>682</v>
       </c>
@@ -39545,7 +39545,7 @@
       <c r="CP324" s="3"/>
       <c r="CQ324" s="3"/>
     </row>
-    <row r="325" spans="2:95" ht="15">
+    <row r="325" spans="2:95" ht="15" hidden="1">
       <c r="B325" s="4" t="s">
         <v>684</v>
       </c>
@@ -39655,7 +39655,7 @@
       <c r="CP325" s="3"/>
       <c r="CQ325" s="3"/>
     </row>
-    <row r="326" spans="2:95" ht="15">
+    <row r="326" spans="2:95" ht="15" hidden="1">
       <c r="B326" s="4" t="s">
         <v>686</v>
       </c>
@@ -39765,7 +39765,7 @@
       <c r="CP326" s="3"/>
       <c r="CQ326" s="3"/>
     </row>
-    <row r="327" spans="2:95" ht="15">
+    <row r="327" spans="2:95" ht="15" hidden="1">
       <c r="B327" s="4" t="s">
         <v>688</v>
       </c>
@@ -39875,7 +39875,7 @@
       <c r="CP327" s="3"/>
       <c r="CQ327" s="3"/>
     </row>
-    <row r="328" spans="2:95" ht="15">
+    <row r="328" spans="2:95" ht="15" hidden="1">
       <c r="B328" s="4" t="s">
         <v>690</v>
       </c>
@@ -39985,7 +39985,7 @@
       <c r="CP328" s="3"/>
       <c r="CQ328" s="3"/>
     </row>
-    <row r="329" spans="2:95" ht="15">
+    <row r="329" spans="2:95" ht="15" hidden="1">
       <c r="B329" s="4" t="s">
         <v>692</v>
       </c>
@@ -40095,7 +40095,7 @@
       <c r="CP329" s="3"/>
       <c r="CQ329" s="3"/>
     </row>
-    <row r="330" spans="2:95" ht="15">
+    <row r="330" spans="2:95" ht="15" hidden="1">
       <c r="B330" s="4" t="s">
         <v>694</v>
       </c>
@@ -40205,7 +40205,7 @@
       <c r="CP330" s="3"/>
       <c r="CQ330" s="3"/>
     </row>
-    <row r="331" spans="2:95" ht="15">
+    <row r="331" spans="2:95" ht="15" hidden="1">
       <c r="B331" s="4" t="s">
         <v>696</v>
       </c>
@@ -40315,7 +40315,7 @@
       <c r="CP331" s="3"/>
       <c r="CQ331" s="3"/>
     </row>
-    <row r="332" spans="2:95" ht="15">
+    <row r="332" spans="2:95" ht="15" hidden="1">
       <c r="B332" s="4" t="s">
         <v>698</v>
       </c>
@@ -40425,7 +40425,7 @@
       <c r="CP332" s="3"/>
       <c r="CQ332" s="3"/>
     </row>
-    <row r="333" spans="2:95" ht="15">
+    <row r="333" spans="2:95" ht="15" hidden="1">
       <c r="B333" s="4" t="s">
         <v>700</v>
       </c>
@@ -40535,7 +40535,7 @@
       <c r="CP333" s="3"/>
       <c r="CQ333" s="3"/>
     </row>
-    <row r="334" spans="2:95" ht="15">
+    <row r="334" spans="2:95" ht="15" hidden="1">
       <c r="B334" s="4" t="s">
         <v>702</v>
       </c>
@@ -40645,7 +40645,7 @@
       <c r="CP334" s="3"/>
       <c r="CQ334" s="3"/>
     </row>
-    <row r="335" spans="2:95" ht="15">
+    <row r="335" spans="2:95" ht="15" hidden="1">
       <c r="B335" s="4" t="s">
         <v>704</v>
       </c>
@@ -40755,7 +40755,7 @@
       <c r="CP335" s="3"/>
       <c r="CQ335" s="3"/>
     </row>
-    <row r="336" spans="2:95" ht="15">
+    <row r="336" spans="2:95" ht="15" hidden="1">
       <c r="B336" s="4" t="s">
         <v>706</v>
       </c>
@@ -40865,7 +40865,7 @@
       <c r="CP336" s="3"/>
       <c r="CQ336" s="3"/>
     </row>
-    <row r="337" spans="2:95" ht="15">
+    <row r="337" spans="2:95" ht="15" hidden="1">
       <c r="B337" s="4" t="s">
         <v>708</v>
       </c>
@@ -40975,7 +40975,7 @@
       <c r="CP337" s="3"/>
       <c r="CQ337" s="3"/>
     </row>
-    <row r="338" spans="2:95" ht="15">
+    <row r="338" spans="2:95" ht="15" hidden="1">
       <c r="B338" s="4" t="s">
         <v>710</v>
       </c>
@@ -41085,7 +41085,7 @@
       <c r="CP338" s="3"/>
       <c r="CQ338" s="3"/>
     </row>
-    <row r="339" spans="2:95" ht="15">
+    <row r="339" spans="2:95" ht="15" hidden="1">
       <c r="B339" s="4" t="s">
         <v>712</v>
       </c>
@@ -41195,7 +41195,7 @@
       <c r="CP339" s="3"/>
       <c r="CQ339" s="3"/>
     </row>
-    <row r="340" spans="2:95" ht="15">
+    <row r="340" spans="2:95" ht="15" hidden="1">
       <c r="B340" s="4" t="s">
         <v>714</v>
       </c>
@@ -41305,7 +41305,7 @@
       <c r="CP340" s="3"/>
       <c r="CQ340" s="3"/>
     </row>
-    <row r="341" spans="2:95" ht="15">
+    <row r="341" spans="2:95" ht="15" hidden="1">
       <c r="B341" s="4" t="s">
         <v>716</v>
       </c>
@@ -41415,7 +41415,7 @@
       <c r="CP341" s="3"/>
       <c r="CQ341" s="3"/>
     </row>
-    <row r="342" spans="2:95" ht="15">
+    <row r="342" spans="2:95" ht="15" hidden="1">
       <c r="B342" s="4" t="s">
         <v>718</v>
       </c>
@@ -41525,7 +41525,7 @@
       <c r="CP342" s="3"/>
       <c r="CQ342" s="3"/>
     </row>
-    <row r="343" spans="2:95" ht="15">
+    <row r="343" spans="2:95" ht="15" hidden="1">
       <c r="B343" s="4" t="s">
         <v>720</v>
       </c>
@@ -41635,7 +41635,7 @@
       <c r="CP343" s="3"/>
       <c r="CQ343" s="3"/>
     </row>
-    <row r="344" spans="2:95" ht="15">
+    <row r="344" spans="2:95" ht="15" hidden="1">
       <c r="B344" s="4" t="s">
         <v>722</v>
       </c>
@@ -41745,7 +41745,7 @@
       <c r="CP344" s="3"/>
       <c r="CQ344" s="3"/>
     </row>
-    <row r="345" spans="2:95" ht="15">
+    <row r="345" spans="2:95" ht="15" hidden="1">
       <c r="B345" s="4" t="s">
         <v>724</v>
       </c>
@@ -41855,7 +41855,7 @@
       <c r="CP345" s="3"/>
       <c r="CQ345" s="3"/>
     </row>
-    <row r="346" spans="2:95" ht="15">
+    <row r="346" spans="2:95" ht="15" hidden="1">
       <c r="B346" s="4">
         <v>4351142</v>
       </c>
@@ -41967,7 +41967,7 @@
       <c r="CP346" s="3"/>
       <c r="CQ346" s="3"/>
     </row>
-    <row r="347" spans="2:95" ht="15">
+    <row r="347" spans="2:95" ht="15" hidden="1">
       <c r="B347" s="4" t="s">
         <v>728</v>
       </c>
@@ -42077,7 +42077,7 @@
       <c r="CP347" s="3"/>
       <c r="CQ347" s="3"/>
     </row>
-    <row r="348" spans="2:95" ht="15">
+    <row r="348" spans="2:95" ht="15" hidden="1">
       <c r="B348" s="4" t="s">
         <v>730</v>
       </c>
@@ -42187,7 +42187,7 @@
       <c r="CP348" s="3"/>
       <c r="CQ348" s="3"/>
     </row>
-    <row r="349" spans="2:95" ht="15">
+    <row r="349" spans="2:95" ht="15" hidden="1">
       <c r="B349" s="4" t="s">
         <v>732</v>
       </c>
@@ -42297,7 +42297,7 @@
       <c r="CP349" s="3"/>
       <c r="CQ349" s="3"/>
     </row>
-    <row r="350" spans="2:95" ht="15">
+    <row r="350" spans="2:95" ht="15" hidden="1">
       <c r="B350" s="4" t="s">
         <v>734</v>
       </c>
@@ -42407,7 +42407,7 @@
       <c r="CP350" s="3"/>
       <c r="CQ350" s="3"/>
     </row>
-    <row r="351" spans="2:95" ht="15">
+    <row r="351" spans="2:95" ht="15" hidden="1">
       <c r="B351" s="4" t="s">
         <v>737</v>
       </c>
@@ -42517,7 +42517,7 @@
       <c r="CP351" s="3"/>
       <c r="CQ351" s="3"/>
     </row>
-    <row r="352" spans="2:95" ht="15">
+    <row r="352" spans="2:95" ht="15" hidden="1">
       <c r="B352" s="4" t="s">
         <v>739</v>
       </c>
@@ -42627,7 +42627,7 @@
       <c r="CP352" s="3"/>
       <c r="CQ352" s="3"/>
     </row>
-    <row r="353" spans="2:95" ht="15">
+    <row r="353" spans="2:95" ht="15" hidden="1">
       <c r="B353" s="4" t="s">
         <v>49</v>
       </c>
@@ -42737,7 +42737,7 @@
       <c r="CP353" s="3"/>
       <c r="CQ353" s="3"/>
     </row>
-    <row r="354" spans="2:95" ht="15">
+    <row r="354" spans="2:95" ht="15" hidden="1">
       <c r="B354" s="4" t="s">
         <v>70</v>
       </c>
@@ -42847,7 +42847,7 @@
       <c r="CP354" s="3"/>
       <c r="CQ354" s="3"/>
     </row>
-    <row r="355" spans="2:95" ht="15">
+    <row r="355" spans="2:95" ht="15" hidden="1">
       <c r="B355" s="4" t="s">
         <v>742</v>
       </c>
@@ -42957,7 +42957,7 @@
       <c r="CP355" s="3"/>
       <c r="CQ355" s="3"/>
     </row>
-    <row r="356" spans="2:95" ht="15">
+    <row r="356" spans="2:95" ht="15" hidden="1">
       <c r="B356" s="4" t="s">
         <v>744</v>
       </c>
@@ -43067,7 +43067,7 @@
       <c r="CP356" s="3"/>
       <c r="CQ356" s="3"/>
     </row>
-    <row r="357" spans="2:95" ht="15">
+    <row r="357" spans="2:95" ht="15" hidden="1">
       <c r="B357" s="4" t="s">
         <v>746</v>
       </c>
@@ -43177,7 +43177,7 @@
       <c r="CP357" s="3"/>
       <c r="CQ357" s="3"/>
     </row>
-    <row r="358" spans="2:95" ht="15">
+    <row r="358" spans="2:95" ht="15" hidden="1">
       <c r="B358" s="4" t="s">
         <v>748</v>
       </c>
@@ -43287,7 +43287,7 @@
       <c r="CP358" s="3"/>
       <c r="CQ358" s="3"/>
     </row>
-    <row r="359" spans="2:95" ht="15">
+    <row r="359" spans="2:95" ht="15" hidden="1">
       <c r="B359" s="4" t="s">
         <v>750</v>
       </c>
@@ -43399,7 +43399,7 @@
       <c r="CP359" s="3"/>
       <c r="CQ359" s="3"/>
     </row>
-    <row r="360" spans="2:95" ht="15">
+    <row r="360" spans="2:95" ht="15" hidden="1">
       <c r="B360" s="4" t="s">
         <v>753</v>
       </c>
@@ -43509,7 +43509,7 @@
       <c r="CP360" s="3"/>
       <c r="CQ360" s="3"/>
     </row>
-    <row r="361" spans="2:95" ht="15">
+    <row r="361" spans="2:95" ht="15" hidden="1">
       <c r="B361" s="4" t="s">
         <v>755</v>
       </c>
@@ -43619,7 +43619,7 @@
       <c r="CP361" s="3"/>
       <c r="CQ361" s="3"/>
     </row>
-    <row r="362" spans="2:95" ht="15">
+    <row r="362" spans="2:95" ht="15" hidden="1">
       <c r="B362" s="4" t="s">
         <v>757</v>
       </c>
@@ -43729,7 +43729,7 @@
       <c r="CP362" s="3"/>
       <c r="CQ362" s="3"/>
     </row>
-    <row r="363" spans="2:95" ht="15">
+    <row r="363" spans="2:95" ht="15" hidden="1">
       <c r="B363" s="4" t="s">
         <v>759</v>
       </c>
@@ -43839,7 +43839,7 @@
       <c r="CP363" s="3"/>
       <c r="CQ363" s="3"/>
     </row>
-    <row r="364" spans="2:95" ht="15">
+    <row r="364" spans="2:95" ht="15" hidden="1">
       <c r="B364" s="4" t="s">
         <v>761</v>
       </c>
@@ -43949,7 +43949,7 @@
       <c r="CP364" s="3"/>
       <c r="CQ364" s="3"/>
     </row>
-    <row r="365" spans="2:95" ht="15">
+    <row r="365" spans="2:95" ht="15" hidden="1">
       <c r="B365" s="4" t="s">
         <v>763</v>
       </c>
@@ -44059,7 +44059,7 @@
       <c r="CP365" s="3"/>
       <c r="CQ365" s="3"/>
     </row>
-    <row r="366" spans="2:95" ht="15">
+    <row r="366" spans="2:95" ht="15" hidden="1">
       <c r="B366" s="4" t="s">
         <v>765</v>
       </c>
@@ -44169,7 +44169,7 @@
       <c r="CP366" s="3"/>
       <c r="CQ366" s="3"/>
     </row>
-    <row r="367" spans="2:95" ht="15">
+    <row r="367" spans="2:95" ht="15" hidden="1">
       <c r="B367" s="4" t="s">
         <v>767</v>
       </c>
@@ -44279,7 +44279,7 @@
       <c r="CP367" s="3"/>
       <c r="CQ367" s="3"/>
     </row>
-    <row r="368" spans="2:95" ht="15">
+    <row r="368" spans="2:95" ht="15" hidden="1">
       <c r="B368" s="4" t="s">
         <v>769</v>
       </c>
@@ -44389,7 +44389,7 @@
       <c r="CP368" s="3"/>
       <c r="CQ368" s="3"/>
     </row>
-    <row r="369" spans="2:95" ht="15">
+    <row r="369" spans="2:95" ht="15" hidden="1">
       <c r="B369" s="4" t="s">
         <v>771</v>
       </c>
@@ -44499,7 +44499,7 @@
       <c r="CP369" s="3"/>
       <c r="CQ369" s="3"/>
     </row>
-    <row r="370" spans="2:95" ht="15">
+    <row r="370" spans="2:95" ht="15" hidden="1">
       <c r="B370" s="4" t="s">
         <v>773</v>
       </c>
@@ -44613,7 +44613,7 @@
       <c r="CP370" s="3"/>
       <c r="CQ370" s="3"/>
     </row>
-    <row r="371" spans="2:95" ht="15">
+    <row r="371" spans="2:95" ht="15" hidden="1">
       <c r="B371" s="4" t="s">
         <v>776</v>
       </c>
@@ -44723,7 +44723,7 @@
       <c r="CP371" s="3"/>
       <c r="CQ371" s="3"/>
     </row>
-    <row r="372" spans="2:95" ht="15">
+    <row r="372" spans="2:95" ht="15" hidden="1">
       <c r="B372" s="4" t="s">
         <v>778</v>
       </c>
@@ -44833,7 +44833,7 @@
       <c r="CP372" s="3"/>
       <c r="CQ372" s="3"/>
     </row>
-    <row r="373" spans="2:95" ht="15">
+    <row r="373" spans="2:95" ht="15" hidden="1">
       <c r="B373" s="4" t="s">
         <v>780</v>
       </c>
@@ -44943,7 +44943,7 @@
       <c r="CP373" s="3"/>
       <c r="CQ373" s="3"/>
     </row>
-    <row r="374" spans="2:95" ht="15">
+    <row r="374" spans="2:95" ht="15" hidden="1">
       <c r="B374" s="4" t="s">
         <v>782</v>
       </c>
@@ -45055,7 +45055,7 @@
       <c r="CP374" s="3"/>
       <c r="CQ374" s="3"/>
     </row>
-    <row r="375" spans="2:95" ht="15">
+    <row r="375" spans="2:95" ht="15" hidden="1">
       <c r="B375" s="4" t="s">
         <v>784</v>
       </c>
@@ -45167,7 +45167,7 @@
       <c r="CP375" s="3"/>
       <c r="CQ375" s="3"/>
     </row>
-    <row r="376" spans="2:95" ht="15">
+    <row r="376" spans="2:95" ht="15" hidden="1">
       <c r="B376" s="4" t="s">
         <v>786</v>
       </c>
@@ -45277,7 +45277,7 @@
       <c r="CP376" s="3"/>
       <c r="CQ376" s="3"/>
     </row>
-    <row r="377" spans="2:95" ht="15">
+    <row r="377" spans="2:95" ht="15" hidden="1">
       <c r="B377" s="4" t="s">
         <v>788</v>
       </c>
@@ -45389,7 +45389,7 @@
       <c r="CP377" s="3"/>
       <c r="CQ377" s="3"/>
     </row>
-    <row r="378" spans="2:95" ht="15">
+    <row r="378" spans="2:95" ht="15" hidden="1">
       <c r="B378" s="4" t="s">
         <v>790</v>
       </c>
@@ -45501,7 +45501,7 @@
       <c r="CP378" s="3"/>
       <c r="CQ378" s="3"/>
     </row>
-    <row r="379" spans="2:95" ht="15">
+    <row r="379" spans="2:95" ht="15" hidden="1">
       <c r="B379" s="4" t="s">
         <v>792</v>
       </c>
@@ -45611,7 +45611,7 @@
       <c r="CP379" s="3"/>
       <c r="CQ379" s="3"/>
     </row>
-    <row r="380" spans="2:95" ht="15">
+    <row r="380" spans="2:95" ht="15" hidden="1">
       <c r="B380" s="4" t="s">
         <v>794</v>
       </c>
@@ -45721,7 +45721,7 @@
       <c r="CP380" s="3"/>
       <c r="CQ380" s="3"/>
     </row>
-    <row r="381" spans="2:95" ht="15">
+    <row r="381" spans="2:95" ht="15" hidden="1">
       <c r="B381" s="4" t="s">
         <v>796</v>
       </c>
@@ -45831,7 +45831,7 @@
       <c r="CP381" s="3"/>
       <c r="CQ381" s="3"/>
     </row>
-    <row r="382" spans="2:95" ht="15">
+    <row r="382" spans="2:95" ht="15" hidden="1">
       <c r="B382" s="4" t="s">
         <v>798</v>
       </c>
@@ -45941,7 +45941,7 @@
       <c r="CP382" s="3"/>
       <c r="CQ382" s="3"/>
     </row>
-    <row r="383" spans="2:95" ht="15">
+    <row r="383" spans="2:95" ht="15" hidden="1">
       <c r="B383" s="4" t="s">
         <v>800</v>
       </c>
@@ -46051,7 +46051,7 @@
       <c r="CP383" s="3"/>
       <c r="CQ383" s="3"/>
     </row>
-    <row r="384" spans="2:95" ht="15">
+    <row r="384" spans="2:95" ht="15" hidden="1">
       <c r="B384" s="4" t="s">
         <v>802</v>
       </c>
@@ -46161,7 +46161,7 @@
       <c r="CP384" s="3"/>
       <c r="CQ384" s="3"/>
     </row>
-    <row r="385" spans="2:95" ht="15">
+    <row r="385" spans="2:95" ht="15" hidden="1">
       <c r="B385" s="4" t="s">
         <v>804</v>
       </c>
@@ -46275,7 +46275,7 @@
       <c r="CP385" s="3"/>
       <c r="CQ385" s="3"/>
     </row>
-    <row r="386" spans="2:95" ht="15">
+    <row r="386" spans="2:95" ht="15" hidden="1">
       <c r="B386" s="4" t="s">
         <v>808</v>
       </c>
@@ -46385,7 +46385,7 @@
       <c r="CP386" s="3"/>
       <c r="CQ386" s="3"/>
     </row>
-    <row r="387" spans="2:95" ht="15">
+    <row r="387" spans="2:95" ht="15" hidden="1">
       <c r="B387" s="4" t="s">
         <v>810</v>
       </c>
@@ -46497,7 +46497,7 @@
       <c r="CP387" s="3"/>
       <c r="CQ387" s="3"/>
     </row>
-    <row r="388" spans="2:95" ht="15">
+    <row r="388" spans="2:95" ht="15" hidden="1">
       <c r="B388" s="4" t="s">
         <v>812</v>
       </c>
@@ -46611,7 +46611,7 @@
       <c r="CP388" s="3"/>
       <c r="CQ388" s="3"/>
     </row>
-    <row r="389" spans="2:95" ht="15">
+    <row r="389" spans="2:95" ht="15" hidden="1">
       <c r="B389" s="4" t="s">
         <v>815</v>
       </c>
@@ -46725,7 +46725,7 @@
       <c r="CP389" s="3"/>
       <c r="CQ389" s="3"/>
     </row>
-    <row r="390" spans="2:95" ht="15">
+    <row r="390" spans="2:95" ht="15" hidden="1">
       <c r="B390" s="4" t="s">
         <v>818</v>
       </c>
@@ -46839,7 +46839,7 @@
       <c r="CP390" s="3"/>
       <c r="CQ390" s="3"/>
     </row>
-    <row r="391" spans="2:95" ht="15">
+    <row r="391" spans="2:95" ht="15" hidden="1">
       <c r="B391" s="4" t="s">
         <v>821</v>
       </c>
@@ -46953,7 +46953,7 @@
       <c r="CP391" s="3"/>
       <c r="CQ391" s="3"/>
     </row>
-    <row r="392" spans="2:95" ht="15">
+    <row r="392" spans="2:95" ht="15" hidden="1">
       <c r="B392" s="4" t="s">
         <v>824</v>
       </c>
@@ -47065,7 +47065,7 @@
       <c r="CP392" s="3"/>
       <c r="CQ392" s="3"/>
     </row>
-    <row r="393" spans="2:95" ht="15">
+    <row r="393" spans="2:95" ht="15" hidden="1">
       <c r="B393" s="4" t="s">
         <v>826</v>
       </c>
@@ -47177,7 +47177,7 @@
       <c r="CP393" s="3"/>
       <c r="CQ393" s="3"/>
     </row>
-    <row r="394" spans="2:95" ht="15">
+    <row r="394" spans="2:95" ht="15" hidden="1">
       <c r="B394" s="4" t="s">
         <v>828</v>
       </c>
@@ -47291,7 +47291,7 @@
       <c r="CP394" s="3"/>
       <c r="CQ394" s="3"/>
     </row>
-    <row r="395" spans="2:95" ht="15">
+    <row r="395" spans="2:95" ht="15" hidden="1">
       <c r="B395" s="4" t="s">
         <v>831</v>
       </c>
@@ -47403,7 +47403,7 @@
       <c r="CP395" s="3"/>
       <c r="CQ395" s="3"/>
     </row>
-    <row r="396" spans="2:95" ht="15">
+    <row r="396" spans="2:95" ht="15" hidden="1">
       <c r="B396" s="4" t="s">
         <v>833</v>
       </c>
@@ -47517,7 +47517,7 @@
       <c r="CP396" s="3"/>
       <c r="CQ396" s="3"/>
     </row>
-    <row r="397" spans="2:95" ht="15">
+    <row r="397" spans="2:95" ht="15" hidden="1">
       <c r="B397" s="4" t="s">
         <v>836</v>
       </c>
@@ -47629,7 +47629,7 @@
       <c r="CP397" s="3"/>
       <c r="CQ397" s="3"/>
     </row>
-    <row r="398" spans="2:95" ht="15">
+    <row r="398" spans="2:95" ht="15" hidden="1">
       <c r="B398" s="4" t="s">
         <v>838</v>
       </c>
@@ -47741,7 +47741,7 @@
       <c r="CP398" s="3"/>
       <c r="CQ398" s="3"/>
     </row>
-    <row r="399" spans="2:95" ht="15">
+    <row r="399" spans="2:95" ht="15" hidden="1">
       <c r="B399" s="4" t="s">
         <v>840</v>
       </c>
@@ -47853,7 +47853,7 @@
       <c r="CP399" s="3"/>
       <c r="CQ399" s="3"/>
     </row>
-    <row r="400" spans="2:95" ht="15">
+    <row r="400" spans="2:95" ht="15" hidden="1">
       <c r="B400" s="5" t="s">
         <v>1099</v>
       </c>
@@ -47963,7 +47963,7 @@
       <c r="CP400" s="6"/>
       <c r="CQ400" s="6"/>
     </row>
-    <row r="401" spans="2:95" ht="15">
+    <row r="401" spans="2:95" ht="15" hidden="1">
       <c r="B401" s="5" t="s">
         <v>1100</v>
       </c>
@@ -48073,7 +48073,7 @@
       <c r="CP401" s="6"/>
       <c r="CQ401" s="6"/>
     </row>
-    <row r="402" spans="2:95" ht="15">
+    <row r="402" spans="2:95" ht="15" hidden="1">
       <c r="B402" s="5" t="s">
         <v>1101</v>
       </c>
@@ -48183,7 +48183,7 @@
       <c r="CP402" s="6"/>
       <c r="CQ402" s="6"/>
     </row>
-    <row r="403" spans="2:95" ht="15">
+    <row r="403" spans="2:95" ht="15" hidden="1">
       <c r="B403" s="5" t="s">
         <v>1102</v>
       </c>
@@ -48293,7 +48293,7 @@
       <c r="CP403" s="6"/>
       <c r="CQ403" s="6"/>
     </row>
-    <row r="404" spans="2:95" ht="15">
+    <row r="404" spans="2:95" ht="15" hidden="1">
       <c r="B404" s="5" t="s">
         <v>1103</v>
       </c>
@@ -48403,7 +48403,7 @@
       <c r="CP404" s="6"/>
       <c r="CQ404" s="6"/>
     </row>
-    <row r="405" spans="2:95" ht="15">
+    <row r="405" spans="2:95" ht="15" hidden="1">
       <c r="B405" s="5" t="s">
         <v>1104</v>
       </c>
@@ -48513,7 +48513,7 @@
       <c r="CP405" s="6"/>
       <c r="CQ405" s="6"/>
     </row>
-    <row r="406" spans="2:95" ht="15">
+    <row r="406" spans="2:95" ht="15" hidden="1">
       <c r="B406" s="4" t="s">
         <v>842</v>
       </c>
@@ -48623,7 +48623,7 @@
       <c r="CP406" s="3"/>
       <c r="CQ406" s="3"/>
     </row>
-    <row r="407" spans="2:95" ht="15">
+    <row r="407" spans="2:95" ht="15" hidden="1">
       <c r="B407" s="4" t="s">
         <v>844</v>
       </c>
@@ -48735,7 +48735,7 @@
       <c r="CP407" s="3"/>
       <c r="CQ407" s="3"/>
     </row>
-    <row r="408" spans="2:95" ht="15">
+    <row r="408" spans="2:95" ht="15" hidden="1">
       <c r="B408" s="4" t="s">
         <v>846</v>
       </c>
@@ -48847,7 +48847,7 @@
       <c r="CP408" s="3"/>
       <c r="CQ408" s="3"/>
     </row>
-    <row r="409" spans="2:95" ht="15">
+    <row r="409" spans="2:95" ht="15" hidden="1">
       <c r="B409" s="4" t="s">
         <v>848</v>
       </c>
@@ -48957,7 +48957,7 @@
       <c r="CP409" s="3"/>
       <c r="CQ409" s="3"/>
     </row>
-    <row r="410" spans="2:95" ht="15">
+    <row r="410" spans="2:95" ht="15" hidden="1">
       <c r="B410" s="4" t="s">
         <v>850</v>
       </c>
@@ -49069,7 +49069,7 @@
       <c r="CP410" s="3"/>
       <c r="CQ410" s="3"/>
     </row>
-    <row r="411" spans="2:95" ht="15">
+    <row r="411" spans="2:95" ht="15" hidden="1">
       <c r="B411" s="4" t="s">
         <v>852</v>
       </c>
@@ -49179,7 +49179,7 @@
       <c r="CP411" s="3"/>
       <c r="CQ411" s="3"/>
     </row>
-    <row r="412" spans="2:95" ht="15">
+    <row r="412" spans="2:95" ht="15" hidden="1">
       <c r="B412" s="4" t="s">
         <v>854</v>
       </c>
@@ -49289,7 +49289,7 @@
       <c r="CP412" s="3"/>
       <c r="CQ412" s="3"/>
     </row>
-    <row r="413" spans="2:95" ht="15">
+    <row r="413" spans="2:95" ht="15" hidden="1">
       <c r="B413" s="4" t="s">
         <v>856</v>
       </c>
@@ -49399,7 +49399,7 @@
       <c r="CP413" s="3"/>
       <c r="CQ413" s="3"/>
     </row>
-    <row r="414" spans="2:95" ht="15">
+    <row r="414" spans="2:95" ht="15" hidden="1">
       <c r="B414" s="4" t="s">
         <v>858</v>
       </c>
@@ -49511,7 +49511,7 @@
       <c r="CP414" s="3"/>
       <c r="CQ414" s="3"/>
     </row>
-    <row r="415" spans="2:95" ht="15">
+    <row r="415" spans="2:95" ht="15" hidden="1">
       <c r="B415" s="4" t="s">
         <v>860</v>
       </c>
@@ -49623,7 +49623,7 @@
       <c r="CP415" s="3"/>
       <c r="CQ415" s="3"/>
     </row>
-    <row r="416" spans="2:95" ht="15">
+    <row r="416" spans="2:95" ht="15" hidden="1">
       <c r="B416" s="4" t="s">
         <v>862</v>
       </c>
@@ -49735,7 +49735,7 @@
       <c r="CP416" s="3"/>
       <c r="CQ416" s="3"/>
     </row>
-    <row r="417" spans="2:95" ht="15">
+    <row r="417" spans="2:95" ht="15" hidden="1">
       <c r="B417" s="4" t="s">
         <v>864</v>
       </c>
@@ -49847,7 +49847,7 @@
       <c r="CP417" s="3"/>
       <c r="CQ417" s="3"/>
     </row>
-    <row r="418" spans="2:95" ht="15">
+    <row r="418" spans="2:95" ht="15" hidden="1">
       <c r="B418" s="4" t="s">
         <v>866</v>
       </c>
@@ -49959,7 +49959,7 @@
       <c r="CP418" s="3"/>
       <c r="CQ418" s="3"/>
     </row>
-    <row r="419" spans="2:95" ht="15">
+    <row r="419" spans="2:95" ht="15" hidden="1">
       <c r="B419" s="4" t="s">
         <v>868</v>
       </c>
@@ -50071,7 +50071,7 @@
       <c r="CP419" s="3"/>
       <c r="CQ419" s="3"/>
     </row>
-    <row r="420" spans="2:95" ht="15">
+    <row r="420" spans="2:95" ht="15" hidden="1">
       <c r="B420" s="4" t="s">
         <v>870</v>
       </c>
@@ -50183,7 +50183,7 @@
       <c r="CP420" s="3"/>
       <c r="CQ420" s="3"/>
     </row>
-    <row r="421" spans="2:95" ht="15">
+    <row r="421" spans="2:95" ht="15" hidden="1">
       <c r="B421" s="4" t="s">
         <v>873</v>
       </c>
@@ -50293,7 +50293,7 @@
       <c r="CP421" s="3"/>
       <c r="CQ421" s="3"/>
     </row>
-    <row r="422" spans="2:95" ht="15">
+    <row r="422" spans="2:95" ht="15" hidden="1">
       <c r="B422" s="4" t="s">
         <v>875</v>
       </c>
@@ -50405,7 +50405,7 @@
       <c r="CP422" s="3"/>
       <c r="CQ422" s="3"/>
     </row>
-    <row r="423" spans="2:95" ht="15">
+    <row r="423" spans="2:95" ht="15" hidden="1">
       <c r="B423" s="4" t="s">
         <v>877</v>
       </c>
@@ -50517,7 +50517,7 @@
       <c r="CP423" s="3"/>
       <c r="CQ423" s="3"/>
     </row>
-    <row r="424" spans="2:95" ht="15">
+    <row r="424" spans="2:95" ht="15" hidden="1">
       <c r="B424" s="4" t="s">
         <v>879</v>
       </c>
@@ -50629,7 +50629,7 @@
       <c r="CP424" s="3"/>
       <c r="CQ424" s="3"/>
     </row>
-    <row r="425" spans="2:95" ht="15">
+    <row r="425" spans="2:95" ht="15" hidden="1">
       <c r="B425" s="4" t="s">
         <v>881</v>
       </c>
@@ -50741,7 +50741,7 @@
       <c r="CP425" s="3"/>
       <c r="CQ425" s="3"/>
     </row>
-    <row r="426" spans="2:95" ht="15">
+    <row r="426" spans="2:95" ht="15" hidden="1">
       <c r="B426" s="4" t="s">
         <v>883</v>
       </c>
@@ -50853,7 +50853,7 @@
       <c r="CP426" s="3"/>
       <c r="CQ426" s="3"/>
     </row>
-    <row r="427" spans="2:95" ht="15">
+    <row r="427" spans="2:95" ht="15" hidden="1">
       <c r="B427" s="4" t="s">
         <v>885</v>
       </c>
@@ -50965,7 +50965,7 @@
       <c r="CP427" s="3"/>
       <c r="CQ427" s="3"/>
     </row>
-    <row r="428" spans="2:95" ht="15">
+    <row r="428" spans="2:95" ht="15" hidden="1">
       <c r="B428" s="4" t="s">
         <v>887</v>
       </c>
@@ -51077,7 +51077,7 @@
       <c r="CP428" s="3"/>
       <c r="CQ428" s="3"/>
     </row>
-    <row r="429" spans="2:95" ht="15">
+    <row r="429" spans="2:95" ht="15" hidden="1">
       <c r="B429" s="4" t="s">
         <v>889</v>
       </c>
@@ -51189,7 +51189,7 @@
       <c r="CP429" s="3"/>
       <c r="CQ429" s="3"/>
     </row>
-    <row r="430" spans="2:95" ht="15">
+    <row r="430" spans="2:95" ht="15" hidden="1">
       <c r="B430" s="4" t="s">
         <v>891</v>
       </c>
@@ -51299,7 +51299,7 @@
       <c r="CP430" s="3"/>
       <c r="CQ430" s="3"/>
     </row>
-    <row r="431" spans="2:95" ht="15">
+    <row r="431" spans="2:95" ht="15" hidden="1">
       <c r="B431" s="4" t="s">
         <v>894</v>
       </c>
@@ -51409,7 +51409,7 @@
       <c r="CP431" s="3"/>
       <c r="CQ431" s="3"/>
     </row>
-    <row r="432" spans="2:95" ht="15">
+    <row r="432" spans="2:95" ht="15" hidden="1">
       <c r="B432" s="4" t="s">
         <v>896</v>
       </c>
@@ -51519,7 +51519,7 @@
       <c r="CP432" s="3"/>
       <c r="CQ432" s="3"/>
     </row>
-    <row r="433" spans="2:95" ht="15">
+    <row r="433" spans="2:95" ht="15" hidden="1">
       <c r="B433" s="4" t="s">
         <v>898</v>
       </c>
@@ -51629,7 +51629,7 @@
       <c r="CP433" s="3"/>
       <c r="CQ433" s="3"/>
     </row>
-    <row r="434" spans="2:95" ht="15">
+    <row r="434" spans="2:95" ht="15" hidden="1">
       <c r="B434" s="4" t="s">
         <v>900</v>
       </c>
@@ -51739,7 +51739,7 @@
       <c r="CP434" s="3"/>
       <c r="CQ434" s="3"/>
     </row>
-    <row r="435" spans="2:95" ht="15">
+    <row r="435" spans="2:95" ht="15" hidden="1">
       <c r="B435" s="4" t="s">
         <v>902</v>
       </c>
@@ -51849,7 +51849,7 @@
       <c r="CP435" s="3"/>
       <c r="CQ435" s="3"/>
     </row>
-    <row r="436" spans="2:95" ht="15">
+    <row r="436" spans="2:95" ht="15" hidden="1">
       <c r="B436" s="4" t="s">
         <v>904</v>
       </c>
@@ -51959,7 +51959,7 @@
       <c r="CP436" s="3"/>
       <c r="CQ436" s="3"/>
     </row>
-    <row r="437" spans="2:95" ht="15">
+    <row r="437" spans="2:95" ht="15" hidden="1">
       <c r="B437" s="4" t="s">
         <v>906</v>
       </c>
@@ -52069,7 +52069,7 @@
       <c r="CP437" s="3"/>
       <c r="CQ437" s="3"/>
     </row>
-    <row r="438" spans="2:95" ht="15">
+    <row r="438" spans="2:95" ht="15" hidden="1">
       <c r="B438" s="4" t="s">
         <v>908</v>
       </c>
@@ -52179,7 +52179,7 @@
       <c r="CP438" s="3"/>
       <c r="CQ438" s="3"/>
     </row>
-    <row r="439" spans="2:95" ht="15">
+    <row r="439" spans="2:95" ht="15" hidden="1">
       <c r="B439" s="4" t="s">
         <v>910</v>
       </c>
@@ -52289,7 +52289,7 @@
       <c r="CP439" s="3"/>
       <c r="CQ439" s="3"/>
     </row>
-    <row r="440" spans="2:95" ht="15">
+    <row r="440" spans="2:95" ht="15" hidden="1">
       <c r="B440" s="4" t="s">
         <v>913</v>
       </c>
@@ -52399,7 +52399,7 @@
       <c r="CP440" s="3"/>
       <c r="CQ440" s="3"/>
     </row>
-    <row r="441" spans="2:95" ht="15">
+    <row r="441" spans="2:95" ht="15" hidden="1">
       <c r="B441" s="4" t="s">
         <v>915</v>
       </c>
@@ -52509,7 +52509,7 @@
       <c r="CP441" s="3"/>
       <c r="CQ441" s="3"/>
     </row>
-    <row r="442" spans="2:95" ht="15">
+    <row r="442" spans="2:95" ht="15" hidden="1">
       <c r="B442" s="4" t="s">
         <v>917</v>
       </c>
@@ -52621,7 +52621,7 @@
       <c r="CP442" s="3"/>
       <c r="CQ442" s="3"/>
     </row>
-    <row r="443" spans="2:95" ht="15">
+    <row r="443" spans="2:95" ht="15" hidden="1">
       <c r="B443" s="4" t="s">
         <v>919</v>
       </c>
@@ -52731,7 +52731,7 @@
       <c r="CP443" s="3"/>
       <c r="CQ443" s="3"/>
     </row>
-    <row r="444" spans="2:95" ht="15">
+    <row r="444" spans="2:95" ht="15" hidden="1">
       <c r="B444" s="4" t="s">
         <v>921</v>
       </c>
@@ -52843,7 +52843,7 @@
       <c r="CP444" s="3"/>
       <c r="CQ444" s="3"/>
     </row>
-    <row r="445" spans="2:95" ht="15">
+    <row r="445" spans="2:95" ht="15" hidden="1">
       <c r="B445" s="4" t="s">
         <v>923</v>
       </c>
@@ -52953,7 +52953,7 @@
       <c r="CP445" s="3"/>
       <c r="CQ445" s="3"/>
     </row>
-    <row r="446" spans="2:95" ht="15">
+    <row r="446" spans="2:95" ht="15" hidden="1">
       <c r="B446" s="4" t="s">
         <v>925</v>
       </c>
@@ -53063,7 +53063,7 @@
       <c r="CP446" s="3"/>
       <c r="CQ446" s="3"/>
     </row>
-    <row r="447" spans="2:95" ht="15">
+    <row r="447" spans="2:95" ht="15" hidden="1">
       <c r="B447" s="4" t="s">
         <v>927</v>
       </c>
@@ -53175,7 +53175,7 @@
       <c r="CP447" s="3"/>
       <c r="CQ447" s="3"/>
     </row>
-    <row r="448" spans="2:95" ht="15">
+    <row r="448" spans="2:95" ht="15" hidden="1">
       <c r="B448" s="4" t="s">
         <v>929</v>
       </c>
@@ -53285,7 +53285,7 @@
       <c r="CP448" s="3"/>
       <c r="CQ448" s="3"/>
     </row>
-    <row r="449" spans="2:95" ht="15">
+    <row r="449" spans="2:95" ht="15" hidden="1">
       <c r="B449" s="4" t="s">
         <v>931</v>
       </c>
@@ -53395,7 +53395,7 @@
       <c r="CP449" s="3"/>
       <c r="CQ449" s="3"/>
     </row>
-    <row r="450" spans="2:95" ht="15">
+    <row r="450" spans="2:95" ht="15" hidden="1">
       <c r="B450" s="4" t="s">
         <v>933</v>
       </c>
@@ -53505,7 +53505,7 @@
       <c r="CP450" s="3"/>
       <c r="CQ450" s="3"/>
     </row>
-    <row r="451" spans="2:95" ht="15">
+    <row r="451" spans="2:95" ht="15" hidden="1">
       <c r="B451" s="4" t="s">
         <v>935</v>
       </c>
@@ -53615,7 +53615,7 @@
       <c r="CP451" s="3"/>
       <c r="CQ451" s="3"/>
     </row>
-    <row r="452" spans="2:95" ht="15">
+    <row r="452" spans="2:95" ht="15" hidden="1">
       <c r="B452" s="4" t="s">
         <v>937</v>
       </c>
@@ -53725,7 +53725,7 @@
       <c r="CP452" s="3"/>
       <c r="CQ452" s="3"/>
     </row>
-    <row r="453" spans="2:95" ht="15">
+    <row r="453" spans="2:95" ht="15" hidden="1">
       <c r="B453" s="4" t="s">
         <v>939</v>
       </c>
@@ -53839,7 +53839,7 @@
       <c r="CP453" s="3"/>
       <c r="CQ453" s="3"/>
     </row>
-    <row r="454" spans="2:95" ht="15">
+    <row r="454" spans="2:95" ht="15" hidden="1">
       <c r="B454" s="4" t="s">
         <v>942</v>
       </c>
@@ -53951,7 +53951,7 @@
       <c r="CP454" s="3"/>
       <c r="CQ454" s="3"/>
     </row>
-    <row r="455" spans="2:95" ht="15">
+    <row r="455" spans="2:95" ht="15" hidden="1">
       <c r="B455" s="4" t="s">
         <v>240</v>
       </c>
@@ -54061,7 +54061,7 @@
       <c r="CP455" s="3"/>
       <c r="CQ455" s="3"/>
     </row>
-    <row r="456" spans="2:95" ht="15">
+    <row r="456" spans="2:95" ht="15" hidden="1">
       <c r="B456" s="4" t="s">
         <v>944</v>
       </c>
@@ -54171,7 +54171,7 @@
       <c r="CP456" s="3"/>
       <c r="CQ456" s="3"/>
     </row>
-    <row r="457" spans="2:95" ht="15">
+    <row r="457" spans="2:95" ht="15" hidden="1">
       <c r="B457" s="4" t="s">
         <v>946</v>
       </c>
@@ -54281,7 +54281,7 @@
       <c r="CP457" s="3"/>
       <c r="CQ457" s="3"/>
     </row>
-    <row r="458" spans="2:95" ht="15">
+    <row r="458" spans="2:95" ht="15" hidden="1">
       <c r="B458" s="4" t="s">
         <v>948</v>
       </c>
@@ -54391,7 +54391,7 @@
       <c r="CP458" s="3"/>
       <c r="CQ458" s="3"/>
     </row>
-    <row r="459" spans="2:95" ht="15">
+    <row r="459" spans="2:95" ht="15" hidden="1">
       <c r="B459" s="4" t="s">
         <v>950</v>
       </c>
@@ -54501,7 +54501,7 @@
       <c r="CP459" s="3"/>
       <c r="CQ459" s="3"/>
     </row>
-    <row r="460" spans="2:95" ht="15">
+    <row r="460" spans="2:95" ht="15" hidden="1">
       <c r="B460" s="4" t="s">
         <v>952</v>
       </c>
@@ -54615,7 +54615,7 @@
       <c r="CP460" s="3"/>
       <c r="CQ460" s="3"/>
     </row>
-    <row r="461" spans="2:95" ht="15">
+    <row r="461" spans="2:95" ht="15" hidden="1">
       <c r="B461" s="4" t="s">
         <v>955</v>
       </c>
@@ -54729,7 +54729,7 @@
       <c r="CP461" s="3"/>
       <c r="CQ461" s="3"/>
     </row>
-    <row r="462" spans="2:95" ht="15">
+    <row r="462" spans="2:95" ht="15" hidden="1">
       <c r="B462" s="4" t="s">
         <v>959</v>
       </c>
@@ -54841,7 +54841,7 @@
       <c r="CP462" s="3"/>
       <c r="CQ462" s="3"/>
     </row>
-    <row r="463" spans="2:95" ht="15">
+    <row r="463" spans="2:95" ht="15" hidden="1">
       <c r="B463" s="4" t="s">
         <v>499</v>
       </c>
@@ -54951,7 +54951,7 @@
       <c r="CP463" s="3"/>
       <c r="CQ463" s="3"/>
     </row>
-    <row r="464" spans="2:95" ht="15">
+    <row r="464" spans="2:95" ht="15" hidden="1">
       <c r="B464" s="4" t="s">
         <v>961</v>
       </c>
@@ -55061,7 +55061,7 @@
       <c r="CP464" s="3"/>
       <c r="CQ464" s="3"/>
     </row>
-    <row r="465" spans="2:95" ht="15">
+    <row r="465" spans="2:95" ht="15" hidden="1">
       <c r="B465" s="4" t="s">
         <v>963</v>
       </c>
@@ -55171,7 +55171,7 @@
       <c r="CP465" s="3"/>
       <c r="CQ465" s="3"/>
     </row>
-    <row r="466" spans="2:95" ht="15">
+    <row r="466" spans="2:95" ht="15" hidden="1">
       <c r="B466" s="4" t="s">
         <v>965</v>
       </c>
@@ -55281,7 +55281,7 @@
       <c r="CP466" s="3"/>
       <c r="CQ466" s="3"/>
     </row>
-    <row r="467" spans="2:95" ht="15">
+    <row r="467" spans="2:95" ht="15" hidden="1">
       <c r="B467" s="4" t="s">
         <v>967</v>
       </c>
@@ -55391,7 +55391,7 @@
       <c r="CP467" s="3"/>
       <c r="CQ467" s="3"/>
     </row>
-    <row r="468" spans="2:95" ht="15">
+    <row r="468" spans="2:95" ht="15" hidden="1">
       <c r="B468" s="4" t="s">
         <v>969</v>
       </c>
@@ -55501,7 +55501,7 @@
       <c r="CP468" s="3"/>
       <c r="CQ468" s="3"/>
     </row>
-    <row r="469" spans="2:95" ht="15">
+    <row r="469" spans="2:95" ht="15" hidden="1">
       <c r="B469" s="4" t="s">
         <v>971</v>
       </c>
@@ -55611,7 +55611,7 @@
       <c r="CP469" s="3"/>
       <c r="CQ469" s="3"/>
     </row>
-    <row r="470" spans="2:95" ht="15">
+    <row r="470" spans="2:95" ht="15" hidden="1">
       <c r="B470" s="4" t="s">
         <v>973</v>
       </c>
@@ -55721,7 +55721,7 @@
       <c r="CP470" s="3"/>
       <c r="CQ470" s="3"/>
     </row>
-    <row r="471" spans="2:95" ht="15">
+    <row r="471" spans="2:95" ht="15" hidden="1">
       <c r="B471" s="4" t="s">
         <v>975</v>
       </c>
@@ -55831,7 +55831,7 @@
       <c r="CP471" s="3"/>
       <c r="CQ471" s="3"/>
     </row>
-    <row r="472" spans="2:95" ht="15">
+    <row r="472" spans="2:95" ht="15" hidden="1">
       <c r="B472" s="4" t="s">
         <v>977</v>
       </c>
@@ -55941,7 +55941,7 @@
       <c r="CP472" s="3"/>
       <c r="CQ472" s="3"/>
     </row>
-    <row r="473" spans="2:95" ht="15">
+    <row r="473" spans="2:95" ht="15" hidden="1">
       <c r="B473" s="4" t="s">
         <v>979</v>
       </c>
@@ -56051,7 +56051,7 @@
       <c r="CP473" s="3"/>
       <c r="CQ473" s="3"/>
     </row>
-    <row r="474" spans="2:95" ht="15">
+    <row r="474" spans="2:95" ht="15" hidden="1">
       <c r="B474" s="4" t="s">
         <v>981</v>
       </c>
@@ -56161,7 +56161,7 @@
       <c r="CP474" s="3"/>
       <c r="CQ474" s="3"/>
     </row>
-    <row r="475" spans="2:95" ht="15">
+    <row r="475" spans="2:95" ht="15" hidden="1">
       <c r="B475" s="4" t="s">
         <v>983</v>
       </c>
@@ -56271,7 +56271,7 @@
       <c r="CP475" s="3"/>
       <c r="CQ475" s="3"/>
     </row>
-    <row r="476" spans="2:95" ht="15">
+    <row r="476" spans="2:95" ht="15" hidden="1">
       <c r="B476" s="4" t="s">
         <v>985</v>
       </c>
@@ -56381,7 +56381,7 @@
       <c r="CP476" s="3"/>
       <c r="CQ476" s="3"/>
     </row>
-    <row r="477" spans="2:95" ht="15">
+    <row r="477" spans="2:95" ht="15" hidden="1">
       <c r="B477" s="4" t="s">
         <v>987</v>
       </c>
@@ -56491,7 +56491,7 @@
       <c r="CP477" s="3"/>
       <c r="CQ477" s="3"/>
     </row>
-    <row r="478" spans="2:95" ht="15">
+    <row r="478" spans="2:95" ht="15" hidden="1">
       <c r="B478" s="4" t="s">
         <v>989</v>
       </c>
@@ -56601,7 +56601,7 @@
       <c r="CP478" s="3"/>
       <c r="CQ478" s="3"/>
     </row>
-    <row r="479" spans="2:95" ht="15">
+    <row r="479" spans="2:95" ht="15" hidden="1">
       <c r="B479" s="4" t="s">
         <v>991</v>
       </c>
@@ -56711,7 +56711,7 @@
       <c r="CP479" s="3"/>
       <c r="CQ479" s="3"/>
     </row>
-    <row r="480" spans="2:95" ht="15">
+    <row r="480" spans="2:95" ht="15" hidden="1">
       <c r="B480" s="4" t="s">
         <v>993</v>
       </c>
@@ -56821,7 +56821,7 @@
       <c r="CP480" s="3"/>
       <c r="CQ480" s="3"/>
     </row>
-    <row r="481" spans="2:95" ht="15">
+    <row r="481" spans="2:95" ht="15" hidden="1">
       <c r="B481" s="4" t="s">
         <v>995</v>
       </c>
@@ -56931,7 +56931,7 @@
       <c r="CP481" s="3"/>
       <c r="CQ481" s="3"/>
     </row>
-    <row r="482" spans="2:95" ht="15">
+    <row r="482" spans="2:95" ht="15" hidden="1">
       <c r="B482" s="4" t="s">
         <v>997</v>
       </c>
@@ -57041,7 +57041,7 @@
       <c r="CP482" s="3"/>
       <c r="CQ482" s="3"/>
     </row>
-    <row r="483" spans="2:95" ht="15">
+    <row r="483" spans="2:95" ht="15" hidden="1">
       <c r="B483" s="4" t="s">
         <v>999</v>
       </c>
@@ -57151,7 +57151,7 @@
       <c r="CP483" s="3"/>
       <c r="CQ483" s="3"/>
     </row>
-    <row r="484" spans="2:95" ht="15">
+    <row r="484" spans="2:95" ht="15" hidden="1">
       <c r="B484" s="4" t="s">
         <v>1001</v>
       </c>
@@ -57263,7 +57263,7 @@
       <c r="CP484" s="3"/>
       <c r="CQ484" s="3"/>
     </row>
-    <row r="485" spans="2:95" ht="15">
+    <row r="485" spans="2:95" ht="15" hidden="1">
       <c r="B485" s="4" t="s">
         <v>1003</v>
       </c>
@@ -57373,7 +57373,7 @@
       <c r="CP485" s="3"/>
       <c r="CQ485" s="3"/>
     </row>
-    <row r="486" spans="2:95" ht="15">
+    <row r="486" spans="2:95" ht="15" hidden="1">
       <c r="B486" s="4" t="s">
         <v>1005</v>
       </c>
@@ -57483,7 +57483,7 @@
       <c r="CP486" s="3"/>
       <c r="CQ486" s="3"/>
     </row>
-    <row r="487" spans="2:95" ht="15">
+    <row r="487" spans="2:95" ht="15" hidden="1">
       <c r="B487" s="4" t="s">
         <v>1007</v>
       </c>
@@ -57593,7 +57593,7 @@
       <c r="CP487" s="3"/>
       <c r="CQ487" s="3"/>
     </row>
-    <row r="488" spans="2:95" ht="15">
+    <row r="488" spans="2:95" ht="15" hidden="1">
       <c r="B488" s="4">
         <v>1501501</v>
       </c>
@@ -57703,7 +57703,7 @@
       <c r="CP488" s="3"/>
       <c r="CQ488" s="3"/>
     </row>
-    <row r="489" spans="2:95" ht="15">
+    <row r="489" spans="2:95" ht="15" hidden="1">
       <c r="B489" s="4">
         <v>1502211</v>
       </c>
@@ -57813,7 +57813,7 @@
       <c r="CP489" s="3"/>
       <c r="CQ489" s="3"/>
     </row>
-    <row r="490" spans="2:95" ht="15">
+    <row r="490" spans="2:95" ht="15" hidden="1">
       <c r="B490" s="4">
         <v>1502218</v>
       </c>
@@ -57923,7 +57923,7 @@
       <c r="CP490" s="3"/>
       <c r="CQ490" s="3"/>
     </row>
-    <row r="491" spans="2:95" ht="15">
+    <row r="491" spans="2:95" ht="15" hidden="1">
       <c r="B491" s="4">
         <v>1502230</v>
       </c>
@@ -58033,7 +58033,7 @@
       <c r="CP491" s="3"/>
       <c r="CQ491" s="3"/>
     </row>
-    <row r="492" spans="2:95" ht="15">
+    <row r="492" spans="2:95" ht="15" hidden="1">
       <c r="B492" s="4">
         <v>1502231</v>
       </c>
@@ -58143,7 +58143,7 @@
       <c r="CP492" s="3"/>
       <c r="CQ492" s="3"/>
     </row>
-    <row r="493" spans="2:95" ht="15">
+    <row r="493" spans="2:95" ht="15" hidden="1">
       <c r="B493" s="4">
         <v>1502250</v>
       </c>
@@ -58253,7 +58253,7 @@
       <c r="CP493" s="3"/>
       <c r="CQ493" s="3"/>
     </row>
-    <row r="494" spans="2:95" ht="15">
+    <row r="494" spans="2:95" ht="15" hidden="1">
       <c r="B494" s="4">
         <v>1502251</v>
       </c>
@@ -58363,7 +58363,7 @@
       <c r="CP494" s="3"/>
       <c r="CQ494" s="3"/>
     </row>
-    <row r="495" spans="2:95" ht="15">
+    <row r="495" spans="2:95" ht="15" hidden="1">
       <c r="B495" s="4">
         <v>1502252</v>
       </c>
@@ -58473,7 +58473,7 @@
       <c r="CP495" s="3"/>
       <c r="CQ495" s="3"/>
     </row>
-    <row r="496" spans="2:95" ht="15">
+    <row r="496" spans="2:95" ht="15" hidden="1">
       <c r="B496" s="4">
         <v>1502256</v>
       </c>
@@ -58583,7 +58583,7 @@
       <c r="CP496" s="3"/>
       <c r="CQ496" s="3"/>
     </row>
-    <row r="497" spans="2:95" ht="15">
+    <row r="497" spans="2:95" ht="15" hidden="1">
       <c r="B497" s="4">
         <v>1502257</v>
       </c>
@@ -58693,7 +58693,7 @@
       <c r="CP497" s="3"/>
       <c r="CQ497" s="3"/>
     </row>
-    <row r="498" spans="2:95" ht="15">
+    <row r="498" spans="2:95" ht="15" hidden="1">
       <c r="B498" s="4">
         <v>1502258</v>
       </c>
@@ -58803,7 +58803,7 @@
       <c r="CP498" s="3"/>
       <c r="CQ498" s="3"/>
     </row>
-    <row r="499" spans="2:95" ht="15">
+    <row r="499" spans="2:95" ht="15" hidden="1">
       <c r="B499" s="4">
         <v>3341405</v>
       </c>
@@ -58915,7 +58915,7 @@
       <c r="CP499" s="3"/>
       <c r="CQ499" s="3"/>
     </row>
-    <row r="500" spans="2:95" ht="15">
+    <row r="500" spans="2:95" ht="15" hidden="1">
       <c r="B500" s="4">
         <v>3341407</v>
       </c>
@@ -59027,7 +59027,7 @@
       <c r="CP500" s="3"/>
       <c r="CQ500" s="3"/>
     </row>
-    <row r="501" spans="2:95" ht="15">
+    <row r="501" spans="2:95" ht="15" hidden="1">
       <c r="B501" s="4">
         <v>3341500</v>
       </c>
@@ -59139,7 +59139,7 @@
       <c r="CP501" s="3"/>
       <c r="CQ501" s="3"/>
     </row>
-    <row r="502" spans="2:95" ht="15">
+    <row r="502" spans="2:95" ht="15" hidden="1">
       <c r="B502" s="4">
         <v>3350012</v>
       </c>
@@ -59251,7 +59251,7 @@
       <c r="CP502" s="3"/>
       <c r="CQ502" s="3"/>
     </row>
-    <row r="503" spans="2:95" ht="15">
+    <row r="503" spans="2:95" ht="15" hidden="1">
       <c r="B503" s="4">
         <v>3350033</v>
       </c>
@@ -59363,7 +59363,7 @@
       <c r="CP503" s="3"/>
       <c r="CQ503" s="3"/>
     </row>
-    <row r="504" spans="2:95" ht="15">
+    <row r="504" spans="2:95" ht="15" hidden="1">
       <c r="B504" s="4">
         <v>3350034</v>
       </c>
@@ -59475,7 +59475,7 @@
       <c r="CP504" s="3"/>
       <c r="CQ504" s="3"/>
     </row>
-    <row r="505" spans="2:95" ht="15">
+    <row r="505" spans="2:95" ht="15" hidden="1">
       <c r="B505" s="4">
         <v>3350035</v>
       </c>
@@ -59595,7 +59595,7 @@
         <v>1097</v>
       </c>
       <c r="D506" s="5">
-        <v>368</v>
+        <v>552</v>
       </c>
       <c r="E506" s="5" t="s">
         <v>523</v>
@@ -59699,7 +59699,7 @@
       <c r="CP506" s="6"/>
       <c r="CQ506" s="6"/>
     </row>
-    <row r="507" spans="2:95" ht="15">
+    <row r="507" spans="2:95" ht="15" hidden="1">
       <c r="B507" s="4">
         <v>3351310</v>
       </c>
@@ -59809,7 +59809,7 @@
       <c r="CP507" s="3"/>
       <c r="CQ507" s="3"/>
     </row>
-    <row r="508" spans="2:95" ht="15">
+    <row r="508" spans="2:95" ht="15" hidden="1">
       <c r="B508" s="4">
         <v>3352102</v>
       </c>
@@ -59919,7 +59919,7 @@
       <c r="CP508" s="3"/>
       <c r="CQ508" s="3"/>
     </row>
-    <row r="509" spans="2:95" ht="15">
+    <row r="509" spans="2:95" ht="15" hidden="1">
       <c r="B509" s="4">
         <v>3352411</v>
       </c>
@@ -60031,7 +60031,7 @@
       <c r="CP509" s="3"/>
       <c r="CQ509" s="3"/>
     </row>
-    <row r="510" spans="2:95" ht="15">
+    <row r="510" spans="2:95" ht="15" hidden="1">
       <c r="B510" s="4">
         <v>3352412</v>
       </c>
@@ -60145,7 +60145,7 @@
       <c r="CP510" s="3"/>
       <c r="CQ510" s="3"/>
     </row>
-    <row r="511" spans="2:95" ht="15">
+    <row r="511" spans="2:95" ht="15" hidden="1">
       <c r="B511" s="4">
         <v>3353101</v>
       </c>
@@ -60255,7 +60255,7 @@
       <c r="CP511" s="3"/>
       <c r="CQ511" s="3"/>
     </row>
-    <row r="512" spans="2:95" ht="15">
+    <row r="512" spans="2:95" ht="15" hidden="1">
       <c r="B512" s="4">
         <v>3353105</v>
       </c>
@@ -60365,7 +60365,7 @@
       <c r="CP512" s="3"/>
       <c r="CQ512" s="3"/>
     </row>
-    <row r="513" spans="2:95" ht="15">
+    <row r="513" spans="2:95" ht="15" hidden="1">
       <c r="B513" s="4">
         <v>3353106</v>
       </c>
@@ -60475,7 +60475,7 @@
       <c r="CP513" s="3"/>
       <c r="CQ513" s="3"/>
     </row>
-    <row r="514" spans="2:95" ht="15">
+    <row r="514" spans="2:95" ht="15" hidden="1">
       <c r="B514" s="4">
         <v>3353107</v>
       </c>
@@ -60587,7 +60587,7 @@
       <c r="CP514" s="3"/>
       <c r="CQ514" s="3"/>
     </row>
-    <row r="515" spans="2:95" ht="15">
+    <row r="515" spans="2:95" ht="15" hidden="1">
       <c r="B515" s="4">
         <v>3353201</v>
       </c>
@@ -60699,7 +60699,7 @@
       <c r="CP515" s="3"/>
       <c r="CQ515" s="3"/>
     </row>
-    <row r="516" spans="2:95" ht="15">
+    <row r="516" spans="2:95" ht="15" hidden="1">
       <c r="B516" s="4">
         <v>3353205</v>
       </c>
@@ -60809,7 +60809,7 @@
       <c r="CP516" s="3"/>
       <c r="CQ516" s="3"/>
     </row>
-    <row r="517" spans="2:95" ht="15">
+    <row r="517" spans="2:95" ht="15" hidden="1">
       <c r="B517" s="4">
         <v>3353207</v>
       </c>
@@ -60921,7 +60921,7 @@
       <c r="CP517" s="3"/>
       <c r="CQ517" s="3"/>
     </row>
-    <row r="518" spans="2:95" ht="15">
+    <row r="518" spans="2:95" ht="15" hidden="1">
       <c r="B518" s="4">
         <v>3353211</v>
       </c>
@@ -61033,7 +61033,7 @@
       <c r="CP518" s="3"/>
       <c r="CQ518" s="3"/>
     </row>
-    <row r="519" spans="2:95" ht="15">
+    <row r="519" spans="2:95" ht="15" hidden="1">
       <c r="B519" s="4">
         <v>3353213</v>
       </c>
@@ -61145,7 +61145,7 @@
       <c r="CP519" s="3"/>
       <c r="CQ519" s="3"/>
     </row>
-    <row r="520" spans="2:95" ht="15">
+    <row r="520" spans="2:95" ht="15" hidden="1">
       <c r="B520" s="4">
         <v>3353214</v>
       </c>
@@ -61257,7 +61257,7 @@
       <c r="CP520" s="3"/>
       <c r="CQ520" s="3"/>
     </row>
-    <row r="521" spans="2:95" ht="15">
+    <row r="521" spans="2:95" ht="15" hidden="1">
       <c r="B521" s="4">
         <v>3353216</v>
       </c>
@@ -61369,7 +61369,7 @@
       <c r="CP521" s="3"/>
       <c r="CQ521" s="3"/>
     </row>
-    <row r="522" spans="2:95" ht="15">
+    <row r="522" spans="2:95" ht="15" hidden="1">
       <c r="B522" s="4">
         <v>3353217</v>
       </c>
@@ -61481,7 +61481,7 @@
       <c r="CP522" s="3"/>
       <c r="CQ522" s="3"/>
     </row>
-    <row r="523" spans="2:95" ht="15">
+    <row r="523" spans="2:95" ht="15" hidden="1">
       <c r="B523" s="4">
         <v>3353309</v>
       </c>
@@ -61593,7 +61593,7 @@
       <c r="CP523" s="3"/>
       <c r="CQ523" s="3"/>
     </row>
-    <row r="524" spans="2:95" ht="15">
+    <row r="524" spans="2:95" ht="15" hidden="1">
       <c r="B524" s="4">
         <v>3353312</v>
       </c>
@@ -61705,7 +61705,7 @@
       <c r="CP524" s="3"/>
       <c r="CQ524" s="3"/>
     </row>
-    <row r="525" spans="2:95" ht="15">
+    <row r="525" spans="2:95" ht="15" hidden="1">
       <c r="B525" s="4">
         <v>3354110</v>
       </c>
@@ -61817,7 +61817,7 @@
       <c r="CP525" s="3"/>
       <c r="CQ525" s="3"/>
     </row>
-    <row r="526" spans="2:95" ht="15">
+    <row r="526" spans="2:95" ht="15" hidden="1">
       <c r="B526" s="4">
         <v>3354120</v>
       </c>
@@ -61929,7 +61929,7 @@
       <c r="CP526" s="3"/>
       <c r="CQ526" s="3"/>
     </row>
-    <row r="527" spans="2:95" ht="15">
+    <row r="527" spans="2:95" ht="15" hidden="1">
       <c r="B527" s="4">
         <v>3354121</v>
       </c>
@@ -62041,7 +62041,7 @@
       <c r="CP527" s="3"/>
       <c r="CQ527" s="3"/>
     </row>
-    <row r="528" spans="2:95" ht="15">
+    <row r="528" spans="2:95" ht="15" hidden="1">
       <c r="B528" s="4">
         <v>3354122</v>
       </c>
@@ -62153,7 +62153,7 @@
       <c r="CP528" s="3"/>
       <c r="CQ528" s="3"/>
     </row>
-    <row r="529" spans="2:95" ht="15">
+    <row r="529" spans="2:95" ht="15" hidden="1">
       <c r="B529" s="4">
         <v>3354123</v>
       </c>
@@ -62265,7 +62265,7 @@
       <c r="CP529" s="3"/>
       <c r="CQ529" s="3"/>
     </row>
-    <row r="530" spans="2:95" ht="15">
+    <row r="530" spans="2:95" ht="15" hidden="1">
       <c r="B530" s="4">
         <v>3354124</v>
       </c>
@@ -62377,7 +62377,7 @@
       <c r="CP530" s="3"/>
       <c r="CQ530" s="3"/>
     </row>
-    <row r="531" spans="2:95" ht="15">
+    <row r="531" spans="2:95" ht="15" hidden="1">
       <c r="B531" s="4">
         <v>3354134</v>
       </c>
@@ -62489,7 +62489,7 @@
       <c r="CP531" s="3"/>
       <c r="CQ531" s="3"/>
     </row>
-    <row r="532" spans="2:95" ht="15">
+    <row r="532" spans="2:95" ht="15" hidden="1">
       <c r="B532" s="4">
         <v>3354140</v>
       </c>
@@ -62601,7 +62601,7 @@
       <c r="CP532" s="3"/>
       <c r="CQ532" s="3"/>
     </row>
-    <row r="533" spans="2:95" ht="15">
+    <row r="533" spans="2:95" ht="15" hidden="1">
       <c r="B533" s="4">
         <v>3354220</v>
       </c>
@@ -62713,7 +62713,7 @@
       <c r="CP533" s="3"/>
       <c r="CQ533" s="3"/>
     </row>
-    <row r="534" spans="2:95" ht="15">
+    <row r="534" spans="2:95" ht="15" hidden="1">
       <c r="B534" s="4">
         <v>3354240</v>
       </c>
@@ -62825,7 +62825,7 @@
       <c r="CP534" s="3"/>
       <c r="CQ534" s="3"/>
     </row>
-    <row r="535" spans="2:95" ht="15">
+    <row r="535" spans="2:95" ht="15" hidden="1">
       <c r="B535" s="4">
         <v>4351138</v>
       </c>
@@ -62937,7 +62937,7 @@
       <c r="CP535" s="3"/>
       <c r="CQ535" s="3"/>
     </row>
-    <row r="536" spans="2:95" ht="15">
+    <row r="536" spans="2:95" ht="15" hidden="1">
       <c r="B536" s="4">
         <v>4351139</v>
       </c>
@@ -63049,7 +63049,7 @@
       <c r="CP536" s="3"/>
       <c r="CQ536" s="3"/>
     </row>
-    <row r="537" spans="2:95" ht="15">
+    <row r="537" spans="2:95" ht="15" hidden="1">
       <c r="B537" s="4">
         <v>4351143</v>
       </c>
@@ -63161,7 +63161,7 @@
       <c r="CP537" s="3"/>
       <c r="CQ537" s="3"/>
     </row>
-    <row r="538" spans="2:95" ht="15">
+    <row r="538" spans="2:95" ht="15" hidden="1">
       <c r="B538" s="5">
         <v>4351144</v>
       </c>
@@ -63273,7 +63273,7 @@
       <c r="CP538" s="6"/>
       <c r="CQ538" s="6"/>
     </row>
-    <row r="539" spans="2:95" ht="15">
+    <row r="539" spans="2:95" ht="15" hidden="1">
       <c r="B539" s="5">
         <v>4351145</v>
       </c>
@@ -63385,7 +63385,7 @@
       <c r="CP539" s="6"/>
       <c r="CQ539" s="6"/>
     </row>
-    <row r="540" spans="2:95" ht="15">
+    <row r="540" spans="2:95" ht="15" hidden="1">
       <c r="B540" s="4">
         <v>4352002</v>
       </c>
@@ -63497,7 +63497,7 @@
       <c r="CP540" s="3"/>
       <c r="CQ540" s="3"/>
     </row>
-    <row r="541" spans="2:95" ht="15">
+    <row r="541" spans="2:95" ht="15" hidden="1">
       <c r="B541" s="4">
         <v>4352101</v>
       </c>
@@ -63609,7 +63609,7 @@
       <c r="CP541" s="3"/>
       <c r="CQ541" s="3"/>
     </row>
-    <row r="542" spans="2:95" ht="15">
+    <row r="542" spans="2:95" ht="15" hidden="1">
       <c r="B542" s="5">
         <v>4352102</v>
       </c>
@@ -63721,7 +63721,7 @@
       <c r="CP542" s="6"/>
       <c r="CQ542" s="6"/>
     </row>
-    <row r="543" spans="2:95" ht="15">
+    <row r="543" spans="2:95" ht="15" hidden="1">
       <c r="B543" s="4">
         <v>4352105</v>
       </c>
@@ -63833,7 +63833,7 @@
       <c r="CP543" s="3"/>
       <c r="CQ543" s="3"/>
     </row>
-    <row r="544" spans="2:95" ht="15">
+    <row r="544" spans="2:95" ht="15" hidden="1">
       <c r="B544" s="4">
         <v>4352106</v>
       </c>
@@ -63945,7 +63945,7 @@
       <c r="CP544" s="3"/>
       <c r="CQ544" s="3"/>
     </row>
-    <row r="545" spans="2:95" ht="15">
+    <row r="545" spans="2:95" ht="15" hidden="1">
       <c r="B545" s="4">
         <v>4352107</v>
       </c>
@@ -64057,7 +64057,7 @@
       <c r="CP545" s="3"/>
       <c r="CQ545" s="3"/>
     </row>
-    <row r="546" spans="2:95" ht="15">
+    <row r="546" spans="2:95" ht="15" hidden="1">
       <c r="B546" s="4" t="s">
         <v>870</v>
       </c>
@@ -64169,7 +64169,7 @@
       <c r="CP546" s="3"/>
       <c r="CQ546" s="3"/>
     </row>
-    <row r="547" spans="2:95" ht="15">
+    <row r="547" spans="2:95" ht="15" hidden="1">
       <c r="B547" s="4" t="s">
         <v>1072</v>
       </c>
@@ -64283,7 +64283,7 @@
       <c r="CP547" s="3"/>
       <c r="CQ547" s="3"/>
     </row>
-    <row r="548" spans="2:95" ht="15">
+    <row r="548" spans="2:95" ht="15" hidden="1">
       <c r="B548" s="4" t="s">
         <v>1074</v>
       </c>
@@ -64395,7 +64395,7 @@
       <c r="CP548" s="3"/>
       <c r="CQ548" s="3"/>
     </row>
-    <row r="549" spans="2:95" ht="15">
+    <row r="549" spans="2:95" ht="15" hidden="1">
       <c r="B549" s="4" t="s">
         <v>27</v>
       </c>
@@ -64507,7 +64507,7 @@
       <c r="CP549" s="3"/>
       <c r="CQ549" s="3"/>
     </row>
-    <row r="550" spans="2:95" ht="15">
+    <row r="550" spans="2:95" ht="15" hidden="1">
       <c r="B550" s="4">
         <v>4352001</v>
       </c>
@@ -64619,7 +64619,7 @@
       <c r="CP550" s="3"/>
       <c r="CQ550" s="3"/>
     </row>
-    <row r="551" spans="2:95" ht="15">
+    <row r="551" spans="2:95" ht="15" hidden="1">
       <c r="B551" s="4" t="s">
         <v>1076</v>
       </c>
@@ -64731,7 +64731,7 @@
       <c r="CP551" s="3"/>
       <c r="CQ551" s="3"/>
     </row>
-    <row r="552" spans="2:95" ht="15">
+    <row r="552" spans="2:95" ht="15" hidden="1">
       <c r="B552" s="4">
         <v>3354134</v>
       </c>
@@ -64843,7 +64843,7 @@
       <c r="CP552" s="3"/>
       <c r="CQ552" s="3"/>
     </row>
-    <row r="553" spans="2:95" ht="15">
+    <row r="553" spans="2:95" ht="15" hidden="1">
       <c r="B553" s="4" t="s">
         <v>1077</v>
       </c>
@@ -64955,7 +64955,7 @@
       <c r="CP553" s="3"/>
       <c r="CQ553" s="3"/>
     </row>
-    <row r="554" spans="2:95" ht="15">
+    <row r="554" spans="2:95" ht="15" hidden="1">
       <c r="B554" s="4">
         <v>3353217</v>
       </c>
@@ -65067,7 +65067,7 @@
       <c r="CP554" s="3"/>
       <c r="CQ554" s="3"/>
     </row>
-    <row r="555" spans="2:95" ht="15">
+    <row r="555" spans="2:95" ht="15" hidden="1">
       <c r="B555" s="4">
         <v>3353213</v>
       </c>
@@ -65179,7 +65179,7 @@
       <c r="CP555" s="3"/>
       <c r="CQ555" s="3"/>
     </row>
-    <row r="556" spans="2:95" ht="15">
+    <row r="556" spans="2:95" ht="15" hidden="1">
       <c r="B556" s="4" t="s">
         <v>124</v>
       </c>
@@ -65291,7 +65291,7 @@
       <c r="CP556" s="3"/>
       <c r="CQ556" s="3"/>
     </row>
-    <row r="557" spans="2:95" ht="15">
+    <row r="557" spans="2:95" ht="15" hidden="1">
       <c r="B557" s="4" t="s">
         <v>1079</v>
       </c>
@@ -65403,7 +65403,7 @@
       <c r="CP557" s="3"/>
       <c r="CQ557" s="3"/>
     </row>
-    <row r="558" spans="2:95" ht="15">
+    <row r="558" spans="2:95" ht="15" hidden="1">
       <c r="B558" s="4" t="s">
         <v>1081</v>
       </c>
@@ -65517,7 +65517,7 @@
       <c r="CP558" s="3"/>
       <c r="CQ558" s="3"/>
     </row>
-    <row r="559" spans="2:95" ht="15">
+    <row r="559" spans="2:95" ht="15" hidden="1">
       <c r="B559" s="4" t="s">
         <v>815</v>
       </c>
@@ -65631,7 +65631,7 @@
       <c r="CP559" s="3"/>
       <c r="CQ559" s="3"/>
     </row>
-    <row r="560" spans="2:95" ht="15">
+    <row r="560" spans="2:95" ht="15" hidden="1">
       <c r="B560" s="4">
         <v>3350036</v>
       </c>
@@ -65743,7 +65743,7 @@
       <c r="CP560" s="3"/>
       <c r="CQ560" s="3"/>
     </row>
-    <row r="561" spans="2:95" ht="15">
+    <row r="561" spans="2:95" ht="15" hidden="1">
       <c r="B561" s="4" t="s">
         <v>1085</v>
       </c>
@@ -65855,7 +65855,7 @@
       <c r="CP561" s="3"/>
       <c r="CQ561" s="3"/>
     </row>
-    <row r="562" spans="2:95" ht="15">
+    <row r="562" spans="2:95" ht="15" hidden="1">
       <c r="B562" s="4" t="s">
         <v>1087</v>
       </c>
@@ -65968,7 +65968,13 @@
       <c r="CQ562" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CQ562" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CQ562" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PAPIER THERMOSCELLANT 22G+4G /M² - LAIZE 480 MM FERAG"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/modele/stocker_temp.xlsx
+++ b/modele/stocker_temp.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POKORSSE\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D22775-661C-4BD5-8E5D-3CEA9CF20126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B85FD-7502-4FFF-AA1E-B4C9A84DD4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$562</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Feuille 1'!$A$1:$CQ$565</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3550" uniqueCount="1117">
   <si>
     <t>Désignation:</t>
   </si>
@@ -3376,6 +3376,15 @@
   </si>
   <si>
     <t>BOBINE PAPIER BRUN VELIN LAIZE 300 MM - 70 GR - DIAM 300</t>
+  </si>
+  <si>
+    <t>ADDITIF MOUILLAGE URAPRESS PLUS T - CUVE DE 1000 L</t>
+  </si>
+  <si>
+    <t>ADDITIF MOUILLAGE URAPRESS PLUS T - CUVE DE 218 L</t>
+  </si>
+  <si>
+    <t>SOLUTION DE NETTOYAGE - EUROSTAR NV -</t>
   </si>
 </sst>
 </file>
@@ -3676,10 +3685,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CQ562"/>
+  <dimension ref="A1:CQ565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E566" sqref="E566"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N523" sqref="N523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -38005,7 +38014,7 @@
       <c r="CP310" s="3"/>
       <c r="CQ310" s="3"/>
     </row>
-    <row r="311" spans="2:95" ht="15" hidden="1">
+    <row r="311" spans="2:95" ht="15">
       <c r="B311" s="4" t="s">
         <v>656</v>
       </c>
@@ -59587,7 +59596,7 @@
       <c r="CP505" s="3"/>
       <c r="CQ505" s="3"/>
     </row>
-    <row r="506" spans="2:95" ht="15">
+    <row r="506" spans="2:95" ht="15" hidden="1">
       <c r="B506" s="5">
         <v>3350037</v>
       </c>
@@ -60145,7 +60154,7 @@
       <c r="CP510" s="3"/>
       <c r="CQ510" s="3"/>
     </row>
-    <row r="511" spans="2:95" ht="15" hidden="1">
+    <row r="511" spans="2:95" ht="15">
       <c r="B511" s="4">
         <v>3353101</v>
       </c>
@@ -60255,7 +60264,7 @@
       <c r="CP511" s="3"/>
       <c r="CQ511" s="3"/>
     </row>
-    <row r="512" spans="2:95" ht="15" hidden="1">
+    <row r="512" spans="2:95" ht="15">
       <c r="B512" s="4">
         <v>3353105</v>
       </c>
@@ -60365,7 +60374,7 @@
       <c r="CP512" s="3"/>
       <c r="CQ512" s="3"/>
     </row>
-    <row r="513" spans="2:95" ht="15" hidden="1">
+    <row r="513" spans="2:95" ht="15">
       <c r="B513" s="4">
         <v>3353106</v>
       </c>
@@ -60475,7 +60484,7 @@
       <c r="CP513" s="3"/>
       <c r="CQ513" s="3"/>
     </row>
-    <row r="514" spans="2:95" ht="15" hidden="1">
+    <row r="514" spans="2:95" ht="15">
       <c r="B514" s="4">
         <v>3353107</v>
       </c>
@@ -60587,7 +60596,7 @@
       <c r="CP514" s="3"/>
       <c r="CQ514" s="3"/>
     </row>
-    <row r="515" spans="2:95" ht="15" hidden="1">
+    <row r="515" spans="2:95" ht="15">
       <c r="B515" s="4">
         <v>3353201</v>
       </c>
@@ -60699,7 +60708,7 @@
       <c r="CP515" s="3"/>
       <c r="CQ515" s="3"/>
     </row>
-    <row r="516" spans="2:95" ht="15" hidden="1">
+    <row r="516" spans="2:95" ht="15">
       <c r="B516" s="4">
         <v>3353205</v>
       </c>
@@ -60809,7 +60818,7 @@
       <c r="CP516" s="3"/>
       <c r="CQ516" s="3"/>
     </row>
-    <row r="517" spans="2:95" ht="15" hidden="1">
+    <row r="517" spans="2:95" ht="15">
       <c r="B517" s="4">
         <v>3353207</v>
       </c>
@@ -60921,7 +60930,7 @@
       <c r="CP517" s="3"/>
       <c r="CQ517" s="3"/>
     </row>
-    <row r="518" spans="2:95" ht="15" hidden="1">
+    <row r="518" spans="2:95" ht="15">
       <c r="B518" s="4">
         <v>3353211</v>
       </c>
@@ -61033,7 +61042,7 @@
       <c r="CP518" s="3"/>
       <c r="CQ518" s="3"/>
     </row>
-    <row r="519" spans="2:95" ht="15" hidden="1">
+    <row r="519" spans="2:95" ht="15">
       <c r="B519" s="4">
         <v>3353213</v>
       </c>
@@ -61145,7 +61154,7 @@
       <c r="CP519" s="3"/>
       <c r="CQ519" s="3"/>
     </row>
-    <row r="520" spans="2:95" ht="15" hidden="1">
+    <row r="520" spans="2:95" ht="15">
       <c r="B520" s="4">
         <v>3353214</v>
       </c>
@@ -61257,7 +61266,7 @@
       <c r="CP520" s="3"/>
       <c r="CQ520" s="3"/>
     </row>
-    <row r="521" spans="2:95" ht="15" hidden="1">
+    <row r="521" spans="2:95" ht="15">
       <c r="B521" s="4">
         <v>3353216</v>
       </c>
@@ -61369,7 +61378,7 @@
       <c r="CP521" s="3"/>
       <c r="CQ521" s="3"/>
     </row>
-    <row r="522" spans="2:95" ht="15" hidden="1">
+    <row r="522" spans="2:95" ht="15">
       <c r="B522" s="4">
         <v>3353217</v>
       </c>
@@ -61377,7 +61386,7 @@
         <v>1047</v>
       </c>
       <c r="D522" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E522" s="4" t="s">
         <v>51</v>
@@ -61481,24 +61490,24 @@
       <c r="CP522" s="3"/>
       <c r="CQ522" s="3"/>
     </row>
-    <row r="523" spans="2:95" ht="15" hidden="1">
-      <c r="B523" s="4">
-        <v>3353309</v>
-      </c>
-      <c r="C523" s="4" t="s">
-        <v>1048</v>
+    <row r="523" spans="2:95" ht="15">
+      <c r="B523" s="5">
+        <v>3353301</v>
+      </c>
+      <c r="C523" s="5" t="s">
+        <v>1116</v>
       </c>
       <c r="D523" s="5">
-        <v>0</v>
-      </c>
-      <c r="E523" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E523" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F523" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G523" s="5"/>
-      <c r="H523" s="4" t="s">
+      <c r="H523" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I523" s="5"/>
@@ -61509,102 +61518,102 @@
       <c r="L523" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M523" s="3"/>
-      <c r="N523" s="3"/>
-      <c r="O523" s="3"/>
-      <c r="P523" s="3"/>
-      <c r="Q523" s="3"/>
-      <c r="R523" s="3"/>
-      <c r="S523" s="3"/>
-      <c r="T523" s="3"/>
-      <c r="U523" s="3"/>
-      <c r="V523" s="3"/>
-      <c r="W523" s="3"/>
-      <c r="X523" s="3"/>
-      <c r="Y523" s="3"/>
-      <c r="Z523" s="3"/>
-      <c r="AA523" s="3"/>
-      <c r="AB523" s="3"/>
-      <c r="AC523" s="3"/>
-      <c r="AD523" s="3"/>
-      <c r="AE523" s="3"/>
-      <c r="AF523" s="3"/>
-      <c r="AG523" s="3"/>
-      <c r="AH523" s="3"/>
-      <c r="AI523" s="3"/>
-      <c r="AJ523" s="3"/>
-      <c r="AK523" s="3"/>
-      <c r="AL523" s="3"/>
-      <c r="AM523" s="3"/>
-      <c r="AN523" s="3"/>
-      <c r="AO523" s="3"/>
-      <c r="AP523" s="3"/>
-      <c r="AQ523" s="3"/>
-      <c r="AR523" s="3"/>
-      <c r="AS523" s="3"/>
-      <c r="AT523" s="3"/>
-      <c r="AU523" s="3"/>
-      <c r="AV523" s="3"/>
-      <c r="AW523" s="3"/>
-      <c r="AX523" s="3"/>
-      <c r="AY523" s="3"/>
-      <c r="AZ523" s="3"/>
-      <c r="BA523" s="3"/>
-      <c r="BB523" s="3"/>
-      <c r="BC523" s="3"/>
-      <c r="BD523" s="3"/>
-      <c r="BE523" s="3"/>
-      <c r="BF523" s="3"/>
-      <c r="BG523" s="3"/>
-      <c r="BH523" s="3"/>
-      <c r="BI523" s="3"/>
-      <c r="BJ523" s="3"/>
-      <c r="BK523" s="3"/>
-      <c r="BL523" s="3"/>
-      <c r="BM523" s="3"/>
-      <c r="BN523" s="3"/>
-      <c r="BO523" s="3"/>
-      <c r="BP523" s="3"/>
-      <c r="BQ523" s="3"/>
-      <c r="BR523" s="3"/>
-      <c r="BS523" s="3"/>
-      <c r="BT523" s="3"/>
-      <c r="BU523" s="3"/>
-      <c r="BV523" s="3"/>
-      <c r="BW523" s="3"/>
-      <c r="BX523" s="3"/>
-      <c r="BY523" s="3"/>
-      <c r="BZ523" s="3"/>
-      <c r="CA523" s="3"/>
-      <c r="CB523" s="3"/>
-      <c r="CC523" s="3"/>
-      <c r="CD523" s="3"/>
-      <c r="CE523" s="3"/>
-      <c r="CF523" s="3"/>
-      <c r="CG523" s="3"/>
-      <c r="CH523" s="3"/>
-      <c r="CI523" s="3"/>
-      <c r="CJ523" s="3"/>
-      <c r="CK523" s="3"/>
-      <c r="CL523" s="3"/>
-      <c r="CM523" s="3"/>
-      <c r="CN523" s="3"/>
-      <c r="CO523" s="3"/>
-      <c r="CP523" s="3"/>
-      <c r="CQ523" s="3"/>
+      <c r="M523" s="6"/>
+      <c r="N523" s="6"/>
+      <c r="O523" s="6"/>
+      <c r="P523" s="6"/>
+      <c r="Q523" s="6"/>
+      <c r="R523" s="6"/>
+      <c r="S523" s="6"/>
+      <c r="T523" s="6"/>
+      <c r="U523" s="6"/>
+      <c r="V523" s="6"/>
+      <c r="W523" s="6"/>
+      <c r="X523" s="6"/>
+      <c r="Y523" s="6"/>
+      <c r="Z523" s="6"/>
+      <c r="AA523" s="6"/>
+      <c r="AB523" s="6"/>
+      <c r="AC523" s="6"/>
+      <c r="AD523" s="6"/>
+      <c r="AE523" s="6"/>
+      <c r="AF523" s="6"/>
+      <c r="AG523" s="6"/>
+      <c r="AH523" s="6"/>
+      <c r="AI523" s="6"/>
+      <c r="AJ523" s="6"/>
+      <c r="AK523" s="6"/>
+      <c r="AL523" s="6"/>
+      <c r="AM523" s="6"/>
+      <c r="AN523" s="6"/>
+      <c r="AO523" s="6"/>
+      <c r="AP523" s="6"/>
+      <c r="AQ523" s="6"/>
+      <c r="AR523" s="6"/>
+      <c r="AS523" s="6"/>
+      <c r="AT523" s="6"/>
+      <c r="AU523" s="6"/>
+      <c r="AV523" s="6"/>
+      <c r="AW523" s="6"/>
+      <c r="AX523" s="6"/>
+      <c r="AY523" s="6"/>
+      <c r="AZ523" s="6"/>
+      <c r="BA523" s="6"/>
+      <c r="BB523" s="6"/>
+      <c r="BC523" s="6"/>
+      <c r="BD523" s="6"/>
+      <c r="BE523" s="6"/>
+      <c r="BF523" s="6"/>
+      <c r="BG523" s="6"/>
+      <c r="BH523" s="6"/>
+      <c r="BI523" s="6"/>
+      <c r="BJ523" s="6"/>
+      <c r="BK523" s="6"/>
+      <c r="BL523" s="6"/>
+      <c r="BM523" s="6"/>
+      <c r="BN523" s="6"/>
+      <c r="BO523" s="6"/>
+      <c r="BP523" s="6"/>
+      <c r="BQ523" s="6"/>
+      <c r="BR523" s="6"/>
+      <c r="BS523" s="6"/>
+      <c r="BT523" s="6"/>
+      <c r="BU523" s="6"/>
+      <c r="BV523" s="6"/>
+      <c r="BW523" s="6"/>
+      <c r="BX523" s="6"/>
+      <c r="BY523" s="6"/>
+      <c r="BZ523" s="6"/>
+      <c r="CA523" s="6"/>
+      <c r="CB523" s="6"/>
+      <c r="CC523" s="6"/>
+      <c r="CD523" s="6"/>
+      <c r="CE523" s="6"/>
+      <c r="CF523" s="6"/>
+      <c r="CG523" s="6"/>
+      <c r="CH523" s="6"/>
+      <c r="CI523" s="6"/>
+      <c r="CJ523" s="6"/>
+      <c r="CK523" s="6"/>
+      <c r="CL523" s="6"/>
+      <c r="CM523" s="6"/>
+      <c r="CN523" s="6"/>
+      <c r="CO523" s="6"/>
+      <c r="CP523" s="6"/>
+      <c r="CQ523" s="6"/>
     </row>
-    <row r="524" spans="2:95" ht="15" hidden="1">
+    <row r="524" spans="2:95" ht="15">
       <c r="B524" s="4">
-        <v>3353312</v>
+        <v>3353309</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D524" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E524" s="4" t="s">
-        <v>1042</v>
+        <v>51</v>
       </c>
       <c r="F524" s="5" t="s">
         <v>10</v>
@@ -61705,18 +61714,18 @@
       <c r="CP524" s="3"/>
       <c r="CQ524" s="3"/>
     </row>
-    <row r="525" spans="2:95" ht="15" hidden="1">
+    <row r="525" spans="2:95" ht="15">
       <c r="B525" s="4">
-        <v>3354110</v>
+        <v>3353312</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D525" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E525" s="4" t="s">
-        <v>51</v>
+        <v>1042</v>
       </c>
       <c r="F525" s="5" t="s">
         <v>10</v>
@@ -61819,10 +61828,10 @@
     </row>
     <row r="526" spans="2:95" ht="15" hidden="1">
       <c r="B526" s="4">
-        <v>3354120</v>
+        <v>3354110</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D526" s="5">
         <v>0</v>
@@ -61931,10 +61940,10 @@
     </row>
     <row r="527" spans="2:95" ht="15" hidden="1">
       <c r="B527" s="4">
-        <v>3354121</v>
+        <v>3354120</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D527" s="5">
         <v>0</v>
@@ -62043,10 +62052,10 @@
     </row>
     <row r="528" spans="2:95" ht="15" hidden="1">
       <c r="B528" s="4">
-        <v>3354122</v>
+        <v>3354121</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D528" s="5">
         <v>0</v>
@@ -62155,10 +62164,10 @@
     </row>
     <row r="529" spans="2:95" ht="15" hidden="1">
       <c r="B529" s="4">
-        <v>3354123</v>
+        <v>3354122</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D529" s="5">
         <v>0</v>
@@ -62267,10 +62276,10 @@
     </row>
     <row r="530" spans="2:95" ht="15" hidden="1">
       <c r="B530" s="4">
-        <v>3354124</v>
+        <v>3354123</v>
       </c>
       <c r="C530" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D530" s="5">
         <v>0</v>
@@ -62379,10 +62388,10 @@
     </row>
     <row r="531" spans="2:95" ht="15" hidden="1">
       <c r="B531" s="4">
-        <v>3354134</v>
+        <v>3354124</v>
       </c>
       <c r="C531" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D531" s="5">
         <v>0</v>
@@ -62491,16 +62500,16 @@
     </row>
     <row r="532" spans="2:95" ht="15" hidden="1">
       <c r="B532" s="4">
-        <v>3354140</v>
+        <v>3354134</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D532" s="4">
+        <v>1056</v>
+      </c>
+      <c r="D532" s="5">
         <v>0</v>
       </c>
       <c r="E532" s="4" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="F532" s="5" t="s">
         <v>10</v>
@@ -62603,13 +62612,13 @@
     </row>
     <row r="533" spans="2:95" ht="15" hidden="1">
       <c r="B533" s="4">
-        <v>3354220</v>
+        <v>3354140</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D533" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E533" s="4" t="s">
         <v>2</v>
@@ -62715,10 +62724,10 @@
     </row>
     <row r="534" spans="2:95" ht="15" hidden="1">
       <c r="B534" s="4">
-        <v>3354240</v>
+        <v>3354220</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D534" s="4">
         <v>10</v>
@@ -62827,16 +62836,16 @@
     </row>
     <row r="535" spans="2:95" ht="15" hidden="1">
       <c r="B535" s="4">
-        <v>4351138</v>
+        <v>3354240</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D535" s="5">
-        <v>0</v>
+        <v>1059</v>
+      </c>
+      <c r="D535" s="4">
+        <v>10</v>
       </c>
       <c r="E535" s="4" t="s">
-        <v>1061</v>
+        <v>2</v>
       </c>
       <c r="F535" s="5" t="s">
         <v>10</v>
@@ -62848,7 +62857,7 @@
       <c r="I535" s="5"/>
       <c r="J535" s="7"/>
       <c r="K535" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L535" s="6" t="s">
         <v>12</v>
@@ -62939,16 +62948,16 @@
     </row>
     <row r="536" spans="2:95" ht="15" hidden="1">
       <c r="B536" s="4">
-        <v>4351139</v>
+        <v>4351138</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D536" s="4">
+        <v>1060</v>
+      </c>
+      <c r="D536" s="5">
         <v>0</v>
       </c>
       <c r="E536" s="4" t="s">
-        <v>1025</v>
+        <v>1061</v>
       </c>
       <c r="F536" s="5" t="s">
         <v>10</v>
@@ -63051,13 +63060,13 @@
     </row>
     <row r="537" spans="2:95" ht="15" hidden="1">
       <c r="B537" s="4">
-        <v>4351143</v>
+        <v>4351139</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="D537" s="4">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="E537" s="4" t="s">
         <v>1025</v>
@@ -63162,23 +63171,23 @@
       <c r="CQ537" s="3"/>
     </row>
     <row r="538" spans="2:95" ht="15" hidden="1">
-      <c r="B538" s="5">
-        <v>4351144</v>
-      </c>
-      <c r="C538" s="8" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D538" s="5">
-        <v>30</v>
-      </c>
-      <c r="E538" s="5" t="s">
+      <c r="B538" s="4">
+        <v>4351143</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D538" s="4">
+        <v>48</v>
+      </c>
+      <c r="E538" s="4" t="s">
         <v>1025</v>
       </c>
       <c r="F538" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G538" s="5"/>
-      <c r="H538" s="5" t="s">
+      <c r="H538" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I538" s="5"/>
@@ -63189,96 +63198,96 @@
       <c r="L538" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M538" s="6"/>
-      <c r="N538" s="6"/>
-      <c r="O538" s="6"/>
-      <c r="P538" s="6"/>
-      <c r="Q538" s="6"/>
-      <c r="R538" s="6"/>
-      <c r="S538" s="6"/>
-      <c r="T538" s="6"/>
-      <c r="U538" s="6"/>
-      <c r="V538" s="6"/>
-      <c r="W538" s="6"/>
-      <c r="X538" s="6"/>
-      <c r="Y538" s="6"/>
-      <c r="Z538" s="6"/>
-      <c r="AA538" s="6"/>
-      <c r="AB538" s="6"/>
-      <c r="AC538" s="6"/>
-      <c r="AD538" s="6"/>
-      <c r="AE538" s="6"/>
-      <c r="AF538" s="6"/>
-      <c r="AG538" s="6"/>
-      <c r="AH538" s="6"/>
-      <c r="AI538" s="6"/>
-      <c r="AJ538" s="6"/>
-      <c r="AK538" s="6"/>
-      <c r="AL538" s="6"/>
-      <c r="AM538" s="6"/>
-      <c r="AN538" s="6"/>
-      <c r="AO538" s="6"/>
-      <c r="AP538" s="6"/>
-      <c r="AQ538" s="6"/>
-      <c r="AR538" s="6"/>
-      <c r="AS538" s="6"/>
-      <c r="AT538" s="6"/>
-      <c r="AU538" s="6"/>
-      <c r="AV538" s="6"/>
-      <c r="AW538" s="6"/>
-      <c r="AX538" s="6"/>
-      <c r="AY538" s="6"/>
-      <c r="AZ538" s="6"/>
-      <c r="BA538" s="6"/>
-      <c r="BB538" s="6"/>
-      <c r="BC538" s="6"/>
-      <c r="BD538" s="6"/>
-      <c r="BE538" s="6"/>
-      <c r="BF538" s="6"/>
-      <c r="BG538" s="6"/>
-      <c r="BH538" s="6"/>
-      <c r="BI538" s="6"/>
-      <c r="BJ538" s="6"/>
-      <c r="BK538" s="6"/>
-      <c r="BL538" s="6"/>
-      <c r="BM538" s="6"/>
-      <c r="BN538" s="6"/>
-      <c r="BO538" s="6"/>
-      <c r="BP538" s="6"/>
-      <c r="BQ538" s="6"/>
-      <c r="BR538" s="6"/>
-      <c r="BS538" s="6"/>
-      <c r="BT538" s="6"/>
-      <c r="BU538" s="6"/>
-      <c r="BV538" s="6"/>
-      <c r="BW538" s="6"/>
-      <c r="BX538" s="6"/>
-      <c r="BY538" s="6"/>
-      <c r="BZ538" s="6"/>
-      <c r="CA538" s="6"/>
-      <c r="CB538" s="6"/>
-      <c r="CC538" s="6"/>
-      <c r="CD538" s="6"/>
-      <c r="CE538" s="6"/>
-      <c r="CF538" s="6"/>
-      <c r="CG538" s="6"/>
-      <c r="CH538" s="6"/>
-      <c r="CI538" s="6"/>
-      <c r="CJ538" s="6"/>
-      <c r="CK538" s="6"/>
-      <c r="CL538" s="6"/>
-      <c r="CM538" s="6"/>
-      <c r="CN538" s="6"/>
-      <c r="CO538" s="6"/>
-      <c r="CP538" s="6"/>
-      <c r="CQ538" s="6"/>
+      <c r="M538" s="3"/>
+      <c r="N538" s="3"/>
+      <c r="O538" s="3"/>
+      <c r="P538" s="3"/>
+      <c r="Q538" s="3"/>
+      <c r="R538" s="3"/>
+      <c r="S538" s="3"/>
+      <c r="T538" s="3"/>
+      <c r="U538" s="3"/>
+      <c r="V538" s="3"/>
+      <c r="W538" s="3"/>
+      <c r="X538" s="3"/>
+      <c r="Y538" s="3"/>
+      <c r="Z538" s="3"/>
+      <c r="AA538" s="3"/>
+      <c r="AB538" s="3"/>
+      <c r="AC538" s="3"/>
+      <c r="AD538" s="3"/>
+      <c r="AE538" s="3"/>
+      <c r="AF538" s="3"/>
+      <c r="AG538" s="3"/>
+      <c r="AH538" s="3"/>
+      <c r="AI538" s="3"/>
+      <c r="AJ538" s="3"/>
+      <c r="AK538" s="3"/>
+      <c r="AL538" s="3"/>
+      <c r="AM538" s="3"/>
+      <c r="AN538" s="3"/>
+      <c r="AO538" s="3"/>
+      <c r="AP538" s="3"/>
+      <c r="AQ538" s="3"/>
+      <c r="AR538" s="3"/>
+      <c r="AS538" s="3"/>
+      <c r="AT538" s="3"/>
+      <c r="AU538" s="3"/>
+      <c r="AV538" s="3"/>
+      <c r="AW538" s="3"/>
+      <c r="AX538" s="3"/>
+      <c r="AY538" s="3"/>
+      <c r="AZ538" s="3"/>
+      <c r="BA538" s="3"/>
+      <c r="BB538" s="3"/>
+      <c r="BC538" s="3"/>
+      <c r="BD538" s="3"/>
+      <c r="BE538" s="3"/>
+      <c r="BF538" s="3"/>
+      <c r="BG538" s="3"/>
+      <c r="BH538" s="3"/>
+      <c r="BI538" s="3"/>
+      <c r="BJ538" s="3"/>
+      <c r="BK538" s="3"/>
+      <c r="BL538" s="3"/>
+      <c r="BM538" s="3"/>
+      <c r="BN538" s="3"/>
+      <c r="BO538" s="3"/>
+      <c r="BP538" s="3"/>
+      <c r="BQ538" s="3"/>
+      <c r="BR538" s="3"/>
+      <c r="BS538" s="3"/>
+      <c r="BT538" s="3"/>
+      <c r="BU538" s="3"/>
+      <c r="BV538" s="3"/>
+      <c r="BW538" s="3"/>
+      <c r="BX538" s="3"/>
+      <c r="BY538" s="3"/>
+      <c r="BZ538" s="3"/>
+      <c r="CA538" s="3"/>
+      <c r="CB538" s="3"/>
+      <c r="CC538" s="3"/>
+      <c r="CD538" s="3"/>
+      <c r="CE538" s="3"/>
+      <c r="CF538" s="3"/>
+      <c r="CG538" s="3"/>
+      <c r="CH538" s="3"/>
+      <c r="CI538" s="3"/>
+      <c r="CJ538" s="3"/>
+      <c r="CK538" s="3"/>
+      <c r="CL538" s="3"/>
+      <c r="CM538" s="3"/>
+      <c r="CN538" s="3"/>
+      <c r="CO538" s="3"/>
+      <c r="CP538" s="3"/>
+      <c r="CQ538" s="3"/>
     </row>
     <row r="539" spans="2:95" ht="15" hidden="1">
       <c r="B539" s="5">
-        <v>4351145</v>
+        <v>4351144</v>
       </c>
       <c r="C539" s="8" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D539" s="5">
         <v>30</v>
@@ -63386,23 +63395,23 @@
       <c r="CQ539" s="6"/>
     </row>
     <row r="540" spans="2:95" ht="15" hidden="1">
-      <c r="B540" s="4">
-        <v>4352002</v>
-      </c>
-      <c r="C540" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D540" s="4">
-        <v>100</v>
-      </c>
-      <c r="E540" s="4" t="s">
-        <v>1065</v>
+      <c r="B540" s="5">
+        <v>4351145</v>
+      </c>
+      <c r="C540" s="8" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D540" s="5">
+        <v>30</v>
+      </c>
+      <c r="E540" s="5" t="s">
+        <v>1025</v>
       </c>
       <c r="F540" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G540" s="5"/>
-      <c r="H540" s="4" t="s">
+      <c r="H540" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I540" s="5"/>
@@ -63413,102 +63422,102 @@
       <c r="L540" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M540" s="3"/>
-      <c r="N540" s="3"/>
-      <c r="O540" s="3"/>
-      <c r="P540" s="3"/>
-      <c r="Q540" s="3"/>
-      <c r="R540" s="3"/>
-      <c r="S540" s="3"/>
-      <c r="T540" s="3"/>
-      <c r="U540" s="3"/>
-      <c r="V540" s="3"/>
-      <c r="W540" s="3"/>
-      <c r="X540" s="3"/>
-      <c r="Y540" s="3"/>
-      <c r="Z540" s="3"/>
-      <c r="AA540" s="3"/>
-      <c r="AB540" s="3"/>
-      <c r="AC540" s="3"/>
-      <c r="AD540" s="3"/>
-      <c r="AE540" s="3"/>
-      <c r="AF540" s="3"/>
-      <c r="AG540" s="3"/>
-      <c r="AH540" s="3"/>
-      <c r="AI540" s="3"/>
-      <c r="AJ540" s="3"/>
-      <c r="AK540" s="3"/>
-      <c r="AL540" s="3"/>
-      <c r="AM540" s="3"/>
-      <c r="AN540" s="3"/>
-      <c r="AO540" s="3"/>
-      <c r="AP540" s="3"/>
-      <c r="AQ540" s="3"/>
-      <c r="AR540" s="3"/>
-      <c r="AS540" s="3"/>
-      <c r="AT540" s="3"/>
-      <c r="AU540" s="3"/>
-      <c r="AV540" s="3"/>
-      <c r="AW540" s="3"/>
-      <c r="AX540" s="3"/>
-      <c r="AY540" s="3"/>
-      <c r="AZ540" s="3"/>
-      <c r="BA540" s="3"/>
-      <c r="BB540" s="3"/>
-      <c r="BC540" s="3"/>
-      <c r="BD540" s="3"/>
-      <c r="BE540" s="3"/>
-      <c r="BF540" s="3"/>
-      <c r="BG540" s="3"/>
-      <c r="BH540" s="3"/>
-      <c r="BI540" s="3"/>
-      <c r="BJ540" s="3"/>
-      <c r="BK540" s="3"/>
-      <c r="BL540" s="3"/>
-      <c r="BM540" s="3"/>
-      <c r="BN540" s="3"/>
-      <c r="BO540" s="3"/>
-      <c r="BP540" s="3"/>
-      <c r="BQ540" s="3"/>
-      <c r="BR540" s="3"/>
-      <c r="BS540" s="3"/>
-      <c r="BT540" s="3"/>
-      <c r="BU540" s="3"/>
-      <c r="BV540" s="3"/>
-      <c r="BW540" s="3"/>
-      <c r="BX540" s="3"/>
-      <c r="BY540" s="3"/>
-      <c r="BZ540" s="3"/>
-      <c r="CA540" s="3"/>
-      <c r="CB540" s="3"/>
-      <c r="CC540" s="3"/>
-      <c r="CD540" s="3"/>
-      <c r="CE540" s="3"/>
-      <c r="CF540" s="3"/>
-      <c r="CG540" s="3"/>
-      <c r="CH540" s="3"/>
-      <c r="CI540" s="3"/>
-      <c r="CJ540" s="3"/>
-      <c r="CK540" s="3"/>
-      <c r="CL540" s="3"/>
-      <c r="CM540" s="3"/>
-      <c r="CN540" s="3"/>
-      <c r="CO540" s="3"/>
-      <c r="CP540" s="3"/>
-      <c r="CQ540" s="3"/>
+      <c r="M540" s="6"/>
+      <c r="N540" s="6"/>
+      <c r="O540" s="6"/>
+      <c r="P540" s="6"/>
+      <c r="Q540" s="6"/>
+      <c r="R540" s="6"/>
+      <c r="S540" s="6"/>
+      <c r="T540" s="6"/>
+      <c r="U540" s="6"/>
+      <c r="V540" s="6"/>
+      <c r="W540" s="6"/>
+      <c r="X540" s="6"/>
+      <c r="Y540" s="6"/>
+      <c r="Z540" s="6"/>
+      <c r="AA540" s="6"/>
+      <c r="AB540" s="6"/>
+      <c r="AC540" s="6"/>
+      <c r="AD540" s="6"/>
+      <c r="AE540" s="6"/>
+      <c r="AF540" s="6"/>
+      <c r="AG540" s="6"/>
+      <c r="AH540" s="6"/>
+      <c r="AI540" s="6"/>
+      <c r="AJ540" s="6"/>
+      <c r="AK540" s="6"/>
+      <c r="AL540" s="6"/>
+      <c r="AM540" s="6"/>
+      <c r="AN540" s="6"/>
+      <c r="AO540" s="6"/>
+      <c r="AP540" s="6"/>
+      <c r="AQ540" s="6"/>
+      <c r="AR540" s="6"/>
+      <c r="AS540" s="6"/>
+      <c r="AT540" s="6"/>
+      <c r="AU540" s="6"/>
+      <c r="AV540" s="6"/>
+      <c r="AW540" s="6"/>
+      <c r="AX540" s="6"/>
+      <c r="AY540" s="6"/>
+      <c r="AZ540" s="6"/>
+      <c r="BA540" s="6"/>
+      <c r="BB540" s="6"/>
+      <c r="BC540" s="6"/>
+      <c r="BD540" s="6"/>
+      <c r="BE540" s="6"/>
+      <c r="BF540" s="6"/>
+      <c r="BG540" s="6"/>
+      <c r="BH540" s="6"/>
+      <c r="BI540" s="6"/>
+      <c r="BJ540" s="6"/>
+      <c r="BK540" s="6"/>
+      <c r="BL540" s="6"/>
+      <c r="BM540" s="6"/>
+      <c r="BN540" s="6"/>
+      <c r="BO540" s="6"/>
+      <c r="BP540" s="6"/>
+      <c r="BQ540" s="6"/>
+      <c r="BR540" s="6"/>
+      <c r="BS540" s="6"/>
+      <c r="BT540" s="6"/>
+      <c r="BU540" s="6"/>
+      <c r="BV540" s="6"/>
+      <c r="BW540" s="6"/>
+      <c r="BX540" s="6"/>
+      <c r="BY540" s="6"/>
+      <c r="BZ540" s="6"/>
+      <c r="CA540" s="6"/>
+      <c r="CB540" s="6"/>
+      <c r="CC540" s="6"/>
+      <c r="CD540" s="6"/>
+      <c r="CE540" s="6"/>
+      <c r="CF540" s="6"/>
+      <c r="CG540" s="6"/>
+      <c r="CH540" s="6"/>
+      <c r="CI540" s="6"/>
+      <c r="CJ540" s="6"/>
+      <c r="CK540" s="6"/>
+      <c r="CL540" s="6"/>
+      <c r="CM540" s="6"/>
+      <c r="CN540" s="6"/>
+      <c r="CO540" s="6"/>
+      <c r="CP540" s="6"/>
+      <c r="CQ540" s="6"/>
     </row>
     <row r="541" spans="2:95" ht="15" hidden="1">
       <c r="B541" s="4">
-        <v>4352101</v>
+        <v>4352002</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="D541" s="4">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E541" s="4" t="s">
-        <v>1025</v>
+        <v>1065</v>
       </c>
       <c r="F541" s="5" t="s">
         <v>10</v>
@@ -63610,23 +63619,23 @@
       <c r="CQ541" s="3"/>
     </row>
     <row r="542" spans="2:95" ht="15" hidden="1">
-      <c r="B542" s="5">
-        <v>4352102</v>
-      </c>
-      <c r="C542" s="5" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D542" s="5">
+      <c r="B542" s="4">
+        <v>4352101</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D542" s="4">
         <v>44</v>
       </c>
-      <c r="E542" s="5" t="s">
+      <c r="E542" s="4" t="s">
         <v>1025</v>
       </c>
       <c r="F542" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G542" s="5"/>
-      <c r="H542" s="5" t="s">
+      <c r="H542" s="4" t="s">
         <v>727</v>
       </c>
       <c r="I542" s="5"/>
@@ -63637,214 +63646,214 @@
       <c r="L542" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M542" s="6"/>
-      <c r="N542" s="6"/>
-      <c r="O542" s="6"/>
-      <c r="P542" s="6"/>
-      <c r="Q542" s="6"/>
-      <c r="R542" s="6"/>
-      <c r="S542" s="6"/>
-      <c r="T542" s="6"/>
-      <c r="U542" s="6"/>
-      <c r="V542" s="6"/>
-      <c r="W542" s="6"/>
-      <c r="X542" s="6"/>
-      <c r="Y542" s="6"/>
-      <c r="Z542" s="6"/>
-      <c r="AA542" s="6"/>
-      <c r="AB542" s="6"/>
-      <c r="AC542" s="6"/>
-      <c r="AD542" s="6"/>
-      <c r="AE542" s="6"/>
-      <c r="AF542" s="6"/>
-      <c r="AG542" s="6"/>
-      <c r="AH542" s="6"/>
-      <c r="AI542" s="6"/>
-      <c r="AJ542" s="6"/>
-      <c r="AK542" s="6"/>
-      <c r="AL542" s="6"/>
-      <c r="AM542" s="6"/>
-      <c r="AN542" s="6"/>
-      <c r="AO542" s="6"/>
-      <c r="AP542" s="6"/>
-      <c r="AQ542" s="6"/>
-      <c r="AR542" s="6"/>
-      <c r="AS542" s="6"/>
-      <c r="AT542" s="6"/>
-      <c r="AU542" s="6"/>
-      <c r="AV542" s="6"/>
-      <c r="AW542" s="6"/>
-      <c r="AX542" s="6"/>
-      <c r="AY542" s="6"/>
-      <c r="AZ542" s="6"/>
-      <c r="BA542" s="6"/>
-      <c r="BB542" s="6"/>
-      <c r="BC542" s="6"/>
-      <c r="BD542" s="6"/>
-      <c r="BE542" s="6"/>
-      <c r="BF542" s="6"/>
-      <c r="BG542" s="6"/>
-      <c r="BH542" s="6"/>
-      <c r="BI542" s="6"/>
-      <c r="BJ542" s="6"/>
-      <c r="BK542" s="6"/>
-      <c r="BL542" s="6"/>
-      <c r="BM542" s="6"/>
-      <c r="BN542" s="6"/>
-      <c r="BO542" s="6"/>
-      <c r="BP542" s="6"/>
-      <c r="BQ542" s="6"/>
-      <c r="BR542" s="6"/>
-      <c r="BS542" s="6"/>
-      <c r="BT542" s="6"/>
-      <c r="BU542" s="6"/>
-      <c r="BV542" s="6"/>
-      <c r="BW542" s="6"/>
-      <c r="BX542" s="6"/>
-      <c r="BY542" s="6"/>
-      <c r="BZ542" s="6"/>
-      <c r="CA542" s="6"/>
-      <c r="CB542" s="6"/>
-      <c r="CC542" s="6"/>
-      <c r="CD542" s="6"/>
-      <c r="CE542" s="6"/>
-      <c r="CF542" s="6"/>
-      <c r="CG542" s="6"/>
-      <c r="CH542" s="6"/>
-      <c r="CI542" s="6"/>
-      <c r="CJ542" s="6"/>
-      <c r="CK542" s="6"/>
-      <c r="CL542" s="6"/>
-      <c r="CM542" s="6"/>
-      <c r="CN542" s="6"/>
-      <c r="CO542" s="6"/>
-      <c r="CP542" s="6"/>
-      <c r="CQ542" s="6"/>
+      <c r="M542" s="3"/>
+      <c r="N542" s="3"/>
+      <c r="O542" s="3"/>
+      <c r="P542" s="3"/>
+      <c r="Q542" s="3"/>
+      <c r="R542" s="3"/>
+      <c r="S542" s="3"/>
+      <c r="T542" s="3"/>
+      <c r="U542" s="3"/>
+      <c r="V542" s="3"/>
+      <c r="W542" s="3"/>
+      <c r="X542" s="3"/>
+      <c r="Y542" s="3"/>
+      <c r="Z542" s="3"/>
+      <c r="AA542" s="3"/>
+      <c r="AB542" s="3"/>
+      <c r="AC542" s="3"/>
+      <c r="AD542" s="3"/>
+      <c r="AE542" s="3"/>
+      <c r="AF542" s="3"/>
+      <c r="AG542" s="3"/>
+      <c r="AH542" s="3"/>
+      <c r="AI542" s="3"/>
+      <c r="AJ542" s="3"/>
+      <c r="AK542" s="3"/>
+      <c r="AL542" s="3"/>
+      <c r="AM542" s="3"/>
+      <c r="AN542" s="3"/>
+      <c r="AO542" s="3"/>
+      <c r="AP542" s="3"/>
+      <c r="AQ542" s="3"/>
+      <c r="AR542" s="3"/>
+      <c r="AS542" s="3"/>
+      <c r="AT542" s="3"/>
+      <c r="AU542" s="3"/>
+      <c r="AV542" s="3"/>
+      <c r="AW542" s="3"/>
+      <c r="AX542" s="3"/>
+      <c r="AY542" s="3"/>
+      <c r="AZ542" s="3"/>
+      <c r="BA542" s="3"/>
+      <c r="BB542" s="3"/>
+      <c r="BC542" s="3"/>
+      <c r="BD542" s="3"/>
+      <c r="BE542" s="3"/>
+      <c r="BF542" s="3"/>
+      <c r="BG542" s="3"/>
+      <c r="BH542" s="3"/>
+      <c r="BI542" s="3"/>
+      <c r="BJ542" s="3"/>
+      <c r="BK542" s="3"/>
+      <c r="BL542" s="3"/>
+      <c r="BM542" s="3"/>
+      <c r="BN542" s="3"/>
+      <c r="BO542" s="3"/>
+      <c r="BP542" s="3"/>
+      <c r="BQ542" s="3"/>
+      <c r="BR542" s="3"/>
+      <c r="BS542" s="3"/>
+      <c r="BT542" s="3"/>
+      <c r="BU542" s="3"/>
+      <c r="BV542" s="3"/>
+      <c r="BW542" s="3"/>
+      <c r="BX542" s="3"/>
+      <c r="BY542" s="3"/>
+      <c r="BZ542" s="3"/>
+      <c r="CA542" s="3"/>
+      <c r="CB542" s="3"/>
+      <c r="CC542" s="3"/>
+      <c r="CD542" s="3"/>
+      <c r="CE542" s="3"/>
+      <c r="CF542" s="3"/>
+      <c r="CG542" s="3"/>
+      <c r="CH542" s="3"/>
+      <c r="CI542" s="3"/>
+      <c r="CJ542" s="3"/>
+      <c r="CK542" s="3"/>
+      <c r="CL542" s="3"/>
+      <c r="CM542" s="3"/>
+      <c r="CN542" s="3"/>
+      <c r="CO542" s="3"/>
+      <c r="CP542" s="3"/>
+      <c r="CQ542" s="3"/>
     </row>
     <row r="543" spans="2:95" ht="15" hidden="1">
-      <c r="B543" s="4">
-        <v>4352105</v>
-      </c>
-      <c r="C543" s="4" t="s">
-        <v>1067</v>
+      <c r="B543" s="5">
+        <v>4352102</v>
+      </c>
+      <c r="C543" s="5" t="s">
+        <v>1113</v>
       </c>
       <c r="D543" s="5">
-        <v>0</v>
-      </c>
-      <c r="E543" s="4" t="s">
-        <v>1068</v>
+        <v>44</v>
+      </c>
+      <c r="E543" s="5" t="s">
+        <v>1025</v>
       </c>
       <c r="F543" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G543" s="5"/>
-      <c r="H543" s="4" t="s">
+      <c r="H543" s="5" t="s">
         <v>727</v>
       </c>
       <c r="I543" s="5"/>
       <c r="J543" s="7"/>
       <c r="K543" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="L543" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M543" s="3"/>
-      <c r="N543" s="3"/>
-      <c r="O543" s="3"/>
-      <c r="P543" s="3"/>
-      <c r="Q543" s="3"/>
-      <c r="R543" s="3"/>
-      <c r="S543" s="3"/>
-      <c r="T543" s="3"/>
-      <c r="U543" s="3"/>
-      <c r="V543" s="3"/>
-      <c r="W543" s="3"/>
-      <c r="X543" s="3"/>
-      <c r="Y543" s="3"/>
-      <c r="Z543" s="3"/>
-      <c r="AA543" s="3"/>
-      <c r="AB543" s="3"/>
-      <c r="AC543" s="3"/>
-      <c r="AD543" s="3"/>
-      <c r="AE543" s="3"/>
-      <c r="AF543" s="3"/>
-      <c r="AG543" s="3"/>
-      <c r="AH543" s="3"/>
-      <c r="AI543" s="3"/>
-      <c r="AJ543" s="3"/>
-      <c r="AK543" s="3"/>
-      <c r="AL543" s="3"/>
-      <c r="AM543" s="3"/>
-      <c r="AN543" s="3"/>
-      <c r="AO543" s="3"/>
-      <c r="AP543" s="3"/>
-      <c r="AQ543" s="3"/>
-      <c r="AR543" s="3"/>
-      <c r="AS543" s="3"/>
-      <c r="AT543" s="3"/>
-      <c r="AU543" s="3"/>
-      <c r="AV543" s="3"/>
-      <c r="AW543" s="3"/>
-      <c r="AX543" s="3"/>
-      <c r="AY543" s="3"/>
-      <c r="AZ543" s="3"/>
-      <c r="BA543" s="3"/>
-      <c r="BB543" s="3"/>
-      <c r="BC543" s="3"/>
-      <c r="BD543" s="3"/>
-      <c r="BE543" s="3"/>
-      <c r="BF543" s="3"/>
-      <c r="BG543" s="3"/>
-      <c r="BH543" s="3"/>
-      <c r="BI543" s="3"/>
-      <c r="BJ543" s="3"/>
-      <c r="BK543" s="3"/>
-      <c r="BL543" s="3"/>
-      <c r="BM543" s="3"/>
-      <c r="BN543" s="3"/>
-      <c r="BO543" s="3"/>
-      <c r="BP543" s="3"/>
-      <c r="BQ543" s="3"/>
-      <c r="BR543" s="3"/>
-      <c r="BS543" s="3"/>
-      <c r="BT543" s="3"/>
-      <c r="BU543" s="3"/>
-      <c r="BV543" s="3"/>
-      <c r="BW543" s="3"/>
-      <c r="BX543" s="3"/>
-      <c r="BY543" s="3"/>
-      <c r="BZ543" s="3"/>
-      <c r="CA543" s="3"/>
-      <c r="CB543" s="3"/>
-      <c r="CC543" s="3"/>
-      <c r="CD543" s="3"/>
-      <c r="CE543" s="3"/>
-      <c r="CF543" s="3"/>
-      <c r="CG543" s="3"/>
-      <c r="CH543" s="3"/>
-      <c r="CI543" s="3"/>
-      <c r="CJ543" s="3"/>
-      <c r="CK543" s="3"/>
-      <c r="CL543" s="3"/>
-      <c r="CM543" s="3"/>
-      <c r="CN543" s="3"/>
-      <c r="CO543" s="3"/>
-      <c r="CP543" s="3"/>
-      <c r="CQ543" s="3"/>
+      <c r="M543" s="6"/>
+      <c r="N543" s="6"/>
+      <c r="O543" s="6"/>
+      <c r="P543" s="6"/>
+      <c r="Q543" s="6"/>
+      <c r="R543" s="6"/>
+      <c r="S543" s="6"/>
+      <c r="T543" s="6"/>
+      <c r="U543" s="6"/>
+      <c r="V543" s="6"/>
+      <c r="W543" s="6"/>
+      <c r="X543" s="6"/>
+      <c r="Y543" s="6"/>
+      <c r="Z543" s="6"/>
+      <c r="AA543" s="6"/>
+      <c r="AB543" s="6"/>
+      <c r="AC543" s="6"/>
+      <c r="AD543" s="6"/>
+      <c r="AE543" s="6"/>
+      <c r="AF543" s="6"/>
+      <c r="AG543" s="6"/>
+      <c r="AH543" s="6"/>
+      <c r="AI543" s="6"/>
+      <c r="AJ543" s="6"/>
+      <c r="AK543" s="6"/>
+      <c r="AL543" s="6"/>
+      <c r="AM543" s="6"/>
+      <c r="AN543" s="6"/>
+      <c r="AO543" s="6"/>
+      <c r="AP543" s="6"/>
+      <c r="AQ543" s="6"/>
+      <c r="AR543" s="6"/>
+      <c r="AS543" s="6"/>
+      <c r="AT543" s="6"/>
+      <c r="AU543" s="6"/>
+      <c r="AV543" s="6"/>
+      <c r="AW543" s="6"/>
+      <c r="AX543" s="6"/>
+      <c r="AY543" s="6"/>
+      <c r="AZ543" s="6"/>
+      <c r="BA543" s="6"/>
+      <c r="BB543" s="6"/>
+      <c r="BC543" s="6"/>
+      <c r="BD543" s="6"/>
+      <c r="BE543" s="6"/>
+      <c r="BF543" s="6"/>
+      <c r="BG543" s="6"/>
+      <c r="BH543" s="6"/>
+      <c r="BI543" s="6"/>
+      <c r="BJ543" s="6"/>
+      <c r="BK543" s="6"/>
+      <c r="BL543" s="6"/>
+      <c r="BM543" s="6"/>
+      <c r="BN543" s="6"/>
+      <c r="BO543" s="6"/>
+      <c r="BP543" s="6"/>
+      <c r="BQ543" s="6"/>
+      <c r="BR543" s="6"/>
+      <c r="BS543" s="6"/>
+      <c r="BT543" s="6"/>
+      <c r="BU543" s="6"/>
+      <c r="BV543" s="6"/>
+      <c r="BW543" s="6"/>
+      <c r="BX543" s="6"/>
+      <c r="BY543" s="6"/>
+      <c r="BZ543" s="6"/>
+      <c r="CA543" s="6"/>
+      <c r="CB543" s="6"/>
+      <c r="CC543" s="6"/>
+      <c r="CD543" s="6"/>
+      <c r="CE543" s="6"/>
+      <c r="CF543" s="6"/>
+      <c r="CG543" s="6"/>
+      <c r="CH543" s="6"/>
+      <c r="CI543" s="6"/>
+      <c r="CJ543" s="6"/>
+      <c r="CK543" s="6"/>
+      <c r="CL543" s="6"/>
+      <c r="CM543" s="6"/>
+      <c r="CN543" s="6"/>
+      <c r="CO543" s="6"/>
+      <c r="CP543" s="6"/>
+      <c r="CQ543" s="6"/>
     </row>
     <row r="544" spans="2:95" ht="15" hidden="1">
       <c r="B544" s="4">
-        <v>4352106</v>
+        <v>4352105</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D544" s="4">
+        <v>1067</v>
+      </c>
+      <c r="D544" s="5">
         <v>0</v>
       </c>
       <c r="E544" s="4" t="s">
-        <v>2</v>
+        <v>1068</v>
       </c>
       <c r="F544" s="5" t="s">
         <v>10</v>
@@ -63947,16 +63956,16 @@
     </row>
     <row r="545" spans="2:95" ht="15" hidden="1">
       <c r="B545" s="4">
-        <v>4352107</v>
+        <v>4352106</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="D545" s="4">
         <v>0</v>
       </c>
       <c r="E545" s="4" t="s">
-        <v>1071</v>
+        <v>2</v>
       </c>
       <c r="F545" s="5" t="s">
         <v>10</v>
@@ -64058,17 +64067,17 @@
       <c r="CQ545" s="3"/>
     </row>
     <row r="546" spans="2:95" ht="15" hidden="1">
-      <c r="B546" s="4" t="s">
-        <v>870</v>
+      <c r="B546" s="4">
+        <v>4352107</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>871</v>
+        <v>1070</v>
       </c>
       <c r="D546" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E546" s="4" t="s">
-        <v>501</v>
+        <v>1071</v>
       </c>
       <c r="F546" s="5" t="s">
         <v>10</v>
@@ -64171,30 +64180,28 @@
     </row>
     <row r="547" spans="2:95" ht="15" hidden="1">
       <c r="B547" s="4" t="s">
-        <v>1072</v>
+        <v>870</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>813</v>
+        <v>871</v>
       </c>
       <c r="D547" s="4">
         <v>1</v>
       </c>
       <c r="E547" s="4" t="s">
-        <v>67</v>
+        <v>501</v>
       </c>
       <c r="F547" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G547" s="4" t="s">
-        <v>1073</v>
-      </c>
+      <c r="G547" s="5"/>
       <c r="H547" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I547" s="5"/>
       <c r="J547" s="7"/>
       <c r="K547" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="L547" s="6" t="s">
         <v>12</v>
@@ -64285,28 +64292,30 @@
     </row>
     <row r="548" spans="2:95" ht="15" hidden="1">
       <c r="B548" s="4" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>263</v>
+        <v>813</v>
       </c>
       <c r="D548" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E548" s="4" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F548" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G548" s="5"/>
+      <c r="G548" s="4" t="s">
+        <v>1073</v>
+      </c>
       <c r="H548" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I548" s="5"/>
       <c r="J548" s="7"/>
       <c r="K548" s="6" t="s">
-        <v>1094</v>
+        <v>17</v>
       </c>
       <c r="L548" s="6" t="s">
         <v>12</v>
@@ -64397,13 +64406,13 @@
     </row>
     <row r="549" spans="2:95" ht="15" hidden="1">
       <c r="B549" s="4" t="s">
-        <v>27</v>
+        <v>1074</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>28</v>
+        <v>263</v>
       </c>
       <c r="D549" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E549" s="4" t="s">
         <v>2</v>
@@ -64418,7 +64427,7 @@
       <c r="I549" s="5"/>
       <c r="J549" s="7"/>
       <c r="K549" s="6" t="s">
-        <v>17</v>
+        <v>1094</v>
       </c>
       <c r="L549" s="6" t="s">
         <v>12</v>
@@ -64508,29 +64517,29 @@
       <c r="CQ549" s="3"/>
     </row>
     <row r="550" spans="2:95" ht="15" hidden="1">
-      <c r="B550" s="4">
-        <v>4352001</v>
+      <c r="B550" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>1075</v>
+        <v>28</v>
       </c>
       <c r="D550" s="4">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E550" s="4" t="s">
-        <v>1065</v>
+        <v>2</v>
       </c>
       <c r="F550" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G550" s="5"/>
       <c r="H550" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I550" s="5"/>
       <c r="J550" s="7"/>
       <c r="K550" s="6" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="L550" s="6" t="s">
         <v>12</v>
@@ -64620,29 +64629,29 @@
       <c r="CQ550" s="3"/>
     </row>
     <row r="551" spans="2:95" ht="15" hidden="1">
-      <c r="B551" s="4" t="s">
-        <v>1076</v>
+      <c r="B551" s="4">
+        <v>4352001</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>940</v>
+        <v>1075</v>
       </c>
       <c r="D551" s="4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E551" s="4" t="s">
-        <v>2</v>
+        <v>1065</v>
       </c>
       <c r="F551" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G551" s="5"/>
       <c r="H551" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I551" s="5"/>
       <c r="J551" s="7"/>
       <c r="K551" s="6" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="L551" s="6" t="s">
         <v>12</v>
@@ -64732,14 +64741,14 @@
       <c r="CQ551" s="3"/>
     </row>
     <row r="552" spans="2:95" ht="15" hidden="1">
-      <c r="B552" s="4">
-        <v>3354134</v>
+      <c r="B552" s="4" t="s">
+        <v>1076</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>1056</v>
+        <v>940</v>
       </c>
       <c r="D552" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E552" s="4" t="s">
         <v>2</v>
@@ -64749,12 +64758,12 @@
       </c>
       <c r="G552" s="5"/>
       <c r="H552" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I552" s="5"/>
       <c r="J552" s="7"/>
       <c r="K552" s="6" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L552" s="6" t="s">
         <v>12</v>
@@ -64844,24 +64853,24 @@
       <c r="CQ552" s="3"/>
     </row>
     <row r="553" spans="2:95" ht="15" hidden="1">
-      <c r="B553" s="4" t="s">
-        <v>1077</v>
+      <c r="B553" s="4">
+        <v>3354134</v>
       </c>
       <c r="C553" s="4" t="s">
-        <v>1078</v>
+        <v>1056</v>
       </c>
       <c r="D553" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E553" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F553" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G553" s="5"/>
       <c r="H553" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I553" s="5"/>
       <c r="J553" s="7"/>
@@ -64956,11 +64965,11 @@
       <c r="CQ553" s="3"/>
     </row>
     <row r="554" spans="2:95" ht="15" hidden="1">
-      <c r="B554" s="4">
-        <v>3353217</v>
+      <c r="B554" s="4" t="s">
+        <v>1077</v>
       </c>
       <c r="C554" s="4" t="s">
-        <v>1047</v>
+        <v>1078</v>
       </c>
       <c r="D554" s="4">
         <v>1</v>
@@ -64969,11 +64978,11 @@
         <v>2</v>
       </c>
       <c r="F554" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G554" s="5"/>
       <c r="H554" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I554" s="5"/>
       <c r="J554" s="7"/>
@@ -65067,12 +65076,12 @@
       <c r="CP554" s="3"/>
       <c r="CQ554" s="3"/>
     </row>
-    <row r="555" spans="2:95" ht="15" hidden="1">
+    <row r="555" spans="2:95" ht="15">
       <c r="B555" s="4">
-        <v>3353213</v>
+        <v>3353217</v>
       </c>
       <c r="C555" s="4" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="D555" s="4">
         <v>1</v>
@@ -65085,7 +65094,7 @@
       </c>
       <c r="G555" s="5"/>
       <c r="H555" s="4" t="s">
-        <v>11</v>
+        <v>727</v>
       </c>
       <c r="I555" s="5"/>
       <c r="J555" s="7"/>
@@ -65179,137 +65188,137 @@
       <c r="CP555" s="3"/>
       <c r="CQ555" s="3"/>
     </row>
-    <row r="556" spans="2:95" ht="15" hidden="1">
-      <c r="B556" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C556" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D556" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E556" s="4" t="s">
+    <row r="556" spans="2:95" ht="15">
+      <c r="B556" s="5">
+        <v>3353218</v>
+      </c>
+      <c r="C556" s="5" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D556" s="5">
+        <v>1</v>
+      </c>
+      <c r="E556" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F556" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G556" s="5"/>
-      <c r="H556" s="4" t="s">
-        <v>11</v>
+      <c r="H556" s="5" t="s">
+        <v>727</v>
       </c>
       <c r="I556" s="5"/>
       <c r="J556" s="7"/>
       <c r="K556" s="6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L556" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M556" s="3"/>
-      <c r="N556" s="3"/>
-      <c r="O556" s="3"/>
-      <c r="P556" s="3"/>
-      <c r="Q556" s="3"/>
-      <c r="R556" s="3"/>
-      <c r="S556" s="3"/>
-      <c r="T556" s="3"/>
-      <c r="U556" s="3"/>
-      <c r="V556" s="3"/>
-      <c r="W556" s="3"/>
-      <c r="X556" s="3"/>
-      <c r="Y556" s="3"/>
-      <c r="Z556" s="3"/>
-      <c r="AA556" s="3"/>
-      <c r="AB556" s="3"/>
-      <c r="AC556" s="3"/>
-      <c r="AD556" s="3"/>
-      <c r="AE556" s="3"/>
-      <c r="AF556" s="3"/>
-      <c r="AG556" s="3"/>
-      <c r="AH556" s="3"/>
-      <c r="AI556" s="3"/>
-      <c r="AJ556" s="3"/>
-      <c r="AK556" s="3"/>
-      <c r="AL556" s="3"/>
-      <c r="AM556" s="3"/>
-      <c r="AN556" s="3"/>
-      <c r="AO556" s="3"/>
-      <c r="AP556" s="3"/>
-      <c r="AQ556" s="3"/>
-      <c r="AR556" s="3"/>
-      <c r="AS556" s="3"/>
-      <c r="AT556" s="3"/>
-      <c r="AU556" s="3"/>
-      <c r="AV556" s="3"/>
-      <c r="AW556" s="3"/>
-      <c r="AX556" s="3"/>
-      <c r="AY556" s="3"/>
-      <c r="AZ556" s="3"/>
-      <c r="BA556" s="3"/>
-      <c r="BB556" s="3"/>
-      <c r="BC556" s="3"/>
-      <c r="BD556" s="3"/>
-      <c r="BE556" s="3"/>
-      <c r="BF556" s="3"/>
-      <c r="BG556" s="3"/>
-      <c r="BH556" s="3"/>
-      <c r="BI556" s="3"/>
-      <c r="BJ556" s="3"/>
-      <c r="BK556" s="3"/>
-      <c r="BL556" s="3"/>
-      <c r="BM556" s="3"/>
-      <c r="BN556" s="3"/>
-      <c r="BO556" s="3"/>
-      <c r="BP556" s="3"/>
-      <c r="BQ556" s="3"/>
-      <c r="BR556" s="3"/>
-      <c r="BS556" s="3"/>
-      <c r="BT556" s="3"/>
-      <c r="BU556" s="3"/>
-      <c r="BV556" s="3"/>
-      <c r="BW556" s="3"/>
-      <c r="BX556" s="3"/>
-      <c r="BY556" s="3"/>
-      <c r="BZ556" s="3"/>
-      <c r="CA556" s="3"/>
-      <c r="CB556" s="3"/>
-      <c r="CC556" s="3"/>
-      <c r="CD556" s="3"/>
-      <c r="CE556" s="3"/>
-      <c r="CF556" s="3"/>
-      <c r="CG556" s="3"/>
-      <c r="CH556" s="3"/>
-      <c r="CI556" s="3"/>
-      <c r="CJ556" s="3"/>
-      <c r="CK556" s="3"/>
-      <c r="CL556" s="3"/>
-      <c r="CM556" s="3"/>
-      <c r="CN556" s="3"/>
-      <c r="CO556" s="3"/>
-      <c r="CP556" s="3"/>
-      <c r="CQ556" s="3"/>
+      <c r="M556" s="6"/>
+      <c r="N556" s="6"/>
+      <c r="O556" s="6"/>
+      <c r="P556" s="6"/>
+      <c r="Q556" s="6"/>
+      <c r="R556" s="6"/>
+      <c r="S556" s="6"/>
+      <c r="T556" s="6"/>
+      <c r="U556" s="6"/>
+      <c r="V556" s="6"/>
+      <c r="W556" s="6"/>
+      <c r="X556" s="6"/>
+      <c r="Y556" s="6"/>
+      <c r="Z556" s="6"/>
+      <c r="AA556" s="6"/>
+      <c r="AB556" s="6"/>
+      <c r="AC556" s="6"/>
+      <c r="AD556" s="6"/>
+      <c r="AE556" s="6"/>
+      <c r="AF556" s="6"/>
+      <c r="AG556" s="6"/>
+      <c r="AH556" s="6"/>
+      <c r="AI556" s="6"/>
+      <c r="AJ556" s="6"/>
+      <c r="AK556" s="6"/>
+      <c r="AL556" s="6"/>
+      <c r="AM556" s="6"/>
+      <c r="AN556" s="6"/>
+      <c r="AO556" s="6"/>
+      <c r="AP556" s="6"/>
+      <c r="AQ556" s="6"/>
+      <c r="AR556" s="6"/>
+      <c r="AS556" s="6"/>
+      <c r="AT556" s="6"/>
+      <c r="AU556" s="6"/>
+      <c r="AV556" s="6"/>
+      <c r="AW556" s="6"/>
+      <c r="AX556" s="6"/>
+      <c r="AY556" s="6"/>
+      <c r="AZ556" s="6"/>
+      <c r="BA556" s="6"/>
+      <c r="BB556" s="6"/>
+      <c r="BC556" s="6"/>
+      <c r="BD556" s="6"/>
+      <c r="BE556" s="6"/>
+      <c r="BF556" s="6"/>
+      <c r="BG556" s="6"/>
+      <c r="BH556" s="6"/>
+      <c r="BI556" s="6"/>
+      <c r="BJ556" s="6"/>
+      <c r="BK556" s="6"/>
+      <c r="BL556" s="6"/>
+      <c r="BM556" s="6"/>
+      <c r="BN556" s="6"/>
+      <c r="BO556" s="6"/>
+      <c r="BP556" s="6"/>
+      <c r="BQ556" s="6"/>
+      <c r="BR556" s="6"/>
+      <c r="BS556" s="6"/>
+      <c r="BT556" s="6"/>
+      <c r="BU556" s="6"/>
+      <c r="BV556" s="6"/>
+      <c r="BW556" s="6"/>
+      <c r="BX556" s="6"/>
+      <c r="BY556" s="6"/>
+      <c r="BZ556" s="6"/>
+      <c r="CA556" s="6"/>
+      <c r="CB556" s="6"/>
+      <c r="CC556" s="6"/>
+      <c r="CD556" s="6"/>
+      <c r="CE556" s="6"/>
+      <c r="CF556" s="6"/>
+      <c r="CG556" s="6"/>
+      <c r="CH556" s="6"/>
+      <c r="CI556" s="6"/>
+      <c r="CJ556" s="6"/>
+      <c r="CK556" s="6"/>
+      <c r="CL556" s="6"/>
+      <c r="CM556" s="6"/>
+      <c r="CN556" s="6"/>
+      <c r="CO556" s="6"/>
+      <c r="CP556" s="6"/>
+      <c r="CQ556" s="6"/>
     </row>
-    <row r="557" spans="2:95" ht="15" hidden="1">
-      <c r="B557" s="4" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C557" s="4" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D557" s="4">
-        <v>10</v>
-      </c>
-      <c r="E557" s="4" t="s">
+    <row r="557" spans="2:95" ht="15">
+      <c r="B557" s="5">
+        <v>3353219</v>
+      </c>
+      <c r="C557" s="5" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D557" s="5">
+        <v>1</v>
+      </c>
+      <c r="E557" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F557" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G557" s="5"/>
-      <c r="H557" s="4" t="s">
-        <v>11</v>
+      <c r="H557" s="5" t="s">
+        <v>727</v>
       </c>
       <c r="I557" s="5"/>
       <c r="J557" s="7"/>
@@ -65319,116 +65328,114 @@
       <c r="L557" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M557" s="3"/>
-      <c r="N557" s="3"/>
-      <c r="O557" s="3"/>
-      <c r="P557" s="3"/>
-      <c r="Q557" s="3"/>
-      <c r="R557" s="3"/>
-      <c r="S557" s="3"/>
-      <c r="T557" s="3"/>
-      <c r="U557" s="3"/>
-      <c r="V557" s="3"/>
-      <c r="W557" s="3"/>
-      <c r="X557" s="3"/>
-      <c r="Y557" s="3"/>
-      <c r="Z557" s="3"/>
-      <c r="AA557" s="3"/>
-      <c r="AB557" s="3"/>
-      <c r="AC557" s="3"/>
-      <c r="AD557" s="3"/>
-      <c r="AE557" s="3"/>
-      <c r="AF557" s="3"/>
-      <c r="AG557" s="3"/>
-      <c r="AH557" s="3"/>
-      <c r="AI557" s="3"/>
-      <c r="AJ557" s="3"/>
-      <c r="AK557" s="3"/>
-      <c r="AL557" s="3"/>
-      <c r="AM557" s="3"/>
-      <c r="AN557" s="3"/>
-      <c r="AO557" s="3"/>
-      <c r="AP557" s="3"/>
-      <c r="AQ557" s="3"/>
-      <c r="AR557" s="3"/>
-      <c r="AS557" s="3"/>
-      <c r="AT557" s="3"/>
-      <c r="AU557" s="3"/>
-      <c r="AV557" s="3"/>
-      <c r="AW557" s="3"/>
-      <c r="AX557" s="3"/>
-      <c r="AY557" s="3"/>
-      <c r="AZ557" s="3"/>
-      <c r="BA557" s="3"/>
-      <c r="BB557" s="3"/>
-      <c r="BC557" s="3"/>
-      <c r="BD557" s="3"/>
-      <c r="BE557" s="3"/>
-      <c r="BF557" s="3"/>
-      <c r="BG557" s="3"/>
-      <c r="BH557" s="3"/>
-      <c r="BI557" s="3"/>
-      <c r="BJ557" s="3"/>
-      <c r="BK557" s="3"/>
-      <c r="BL557" s="3"/>
-      <c r="BM557" s="3"/>
-      <c r="BN557" s="3"/>
-      <c r="BO557" s="3"/>
-      <c r="BP557" s="3"/>
-      <c r="BQ557" s="3"/>
-      <c r="BR557" s="3"/>
-      <c r="BS557" s="3"/>
-      <c r="BT557" s="3"/>
-      <c r="BU557" s="3"/>
-      <c r="BV557" s="3"/>
-      <c r="BW557" s="3"/>
-      <c r="BX557" s="3"/>
-      <c r="BY557" s="3"/>
-      <c r="BZ557" s="3"/>
-      <c r="CA557" s="3"/>
-      <c r="CB557" s="3"/>
-      <c r="CC557" s="3"/>
-      <c r="CD557" s="3"/>
-      <c r="CE557" s="3"/>
-      <c r="CF557" s="3"/>
-      <c r="CG557" s="3"/>
-      <c r="CH557" s="3"/>
-      <c r="CI557" s="3"/>
-      <c r="CJ557" s="3"/>
-      <c r="CK557" s="3"/>
-      <c r="CL557" s="3"/>
-      <c r="CM557" s="3"/>
-      <c r="CN557" s="3"/>
-      <c r="CO557" s="3"/>
-      <c r="CP557" s="3"/>
-      <c r="CQ557" s="3"/>
+      <c r="M557" s="6"/>
+      <c r="N557" s="6"/>
+      <c r="O557" s="6"/>
+      <c r="P557" s="6"/>
+      <c r="Q557" s="6"/>
+      <c r="R557" s="6"/>
+      <c r="S557" s="6"/>
+      <c r="T557" s="6"/>
+      <c r="U557" s="6"/>
+      <c r="V557" s="6"/>
+      <c r="W557" s="6"/>
+      <c r="X557" s="6"/>
+      <c r="Y557" s="6"/>
+      <c r="Z557" s="6"/>
+      <c r="AA557" s="6"/>
+      <c r="AB557" s="6"/>
+      <c r="AC557" s="6"/>
+      <c r="AD557" s="6"/>
+      <c r="AE557" s="6"/>
+      <c r="AF557" s="6"/>
+      <c r="AG557" s="6"/>
+      <c r="AH557" s="6"/>
+      <c r="AI557" s="6"/>
+      <c r="AJ557" s="6"/>
+      <c r="AK557" s="6"/>
+      <c r="AL557" s="6"/>
+      <c r="AM557" s="6"/>
+      <c r="AN557" s="6"/>
+      <c r="AO557" s="6"/>
+      <c r="AP557" s="6"/>
+      <c r="AQ557" s="6"/>
+      <c r="AR557" s="6"/>
+      <c r="AS557" s="6"/>
+      <c r="AT557" s="6"/>
+      <c r="AU557" s="6"/>
+      <c r="AV557" s="6"/>
+      <c r="AW557" s="6"/>
+      <c r="AX557" s="6"/>
+      <c r="AY557" s="6"/>
+      <c r="AZ557" s="6"/>
+      <c r="BA557" s="6"/>
+      <c r="BB557" s="6"/>
+      <c r="BC557" s="6"/>
+      <c r="BD557" s="6"/>
+      <c r="BE557" s="6"/>
+      <c r="BF557" s="6"/>
+      <c r="BG557" s="6"/>
+      <c r="BH557" s="6"/>
+      <c r="BI557" s="6"/>
+      <c r="BJ557" s="6"/>
+      <c r="BK557" s="6"/>
+      <c r="BL557" s="6"/>
+      <c r="BM557" s="6"/>
+      <c r="BN557" s="6"/>
+      <c r="BO557" s="6"/>
+      <c r="BP557" s="6"/>
+      <c r="BQ557" s="6"/>
+      <c r="BR557" s="6"/>
+      <c r="BS557" s="6"/>
+      <c r="BT557" s="6"/>
+      <c r="BU557" s="6"/>
+      <c r="BV557" s="6"/>
+      <c r="BW557" s="6"/>
+      <c r="BX557" s="6"/>
+      <c r="BY557" s="6"/>
+      <c r="BZ557" s="6"/>
+      <c r="CA557" s="6"/>
+      <c r="CB557" s="6"/>
+      <c r="CC557" s="6"/>
+      <c r="CD557" s="6"/>
+      <c r="CE557" s="6"/>
+      <c r="CF557" s="6"/>
+      <c r="CG557" s="6"/>
+      <c r="CH557" s="6"/>
+      <c r="CI557" s="6"/>
+      <c r="CJ557" s="6"/>
+      <c r="CK557" s="6"/>
+      <c r="CL557" s="6"/>
+      <c r="CM557" s="6"/>
+      <c r="CN557" s="6"/>
+      <c r="CO557" s="6"/>
+      <c r="CP557" s="6"/>
+      <c r="CQ557" s="6"/>
     </row>
-    <row r="558" spans="2:95" ht="15" hidden="1">
-      <c r="B558" s="4" t="s">
-        <v>1081</v>
+    <row r="558" spans="2:95" ht="15">
+      <c r="B558" s="4">
+        <v>3353213</v>
       </c>
       <c r="C558" s="4" t="s">
-        <v>956</v>
+        <v>1044</v>
       </c>
       <c r="D558" s="4">
         <v>1</v>
       </c>
       <c r="E558" s="4" t="s">
-        <v>736</v>
+        <v>2</v>
       </c>
       <c r="F558" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G558" s="4" t="s">
-        <v>1082</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G558" s="5"/>
       <c r="H558" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I558" s="5"/>
       <c r="J558" s="7"/>
       <c r="K558" s="6" t="s">
-        <v>180</v>
+        <v>33</v>
       </c>
       <c r="L558" s="6" t="s">
         <v>12</v>
@@ -65519,13 +65526,13 @@
     </row>
     <row r="559" spans="2:95" ht="15" hidden="1">
       <c r="B559" s="4" t="s">
-        <v>815</v>
+        <v>124</v>
       </c>
       <c r="C559" s="4" t="s">
-        <v>816</v>
+        <v>125</v>
       </c>
       <c r="D559" s="4">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E559" s="4" t="s">
         <v>2</v>
@@ -65533,16 +65540,14 @@
       <c r="F559" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G559" s="4" t="s">
-        <v>1083</v>
-      </c>
+      <c r="G559" s="5"/>
       <c r="H559" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I559" s="5"/>
       <c r="J559" s="7"/>
       <c r="K559" s="6" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="L559" s="6" t="s">
         <v>12</v>
@@ -65632,29 +65637,29 @@
       <c r="CQ559" s="3"/>
     </row>
     <row r="560" spans="2:95" ht="15" hidden="1">
-      <c r="B560" s="4">
-        <v>3350036</v>
+      <c r="B560" s="4" t="s">
+        <v>1079</v>
       </c>
       <c r="C560" s="4" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="D560" s="4">
-        <v>520</v>
+        <v>10</v>
       </c>
       <c r="E560" s="4" t="s">
-        <v>526</v>
+        <v>2</v>
       </c>
       <c r="F560" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G560" s="5"/>
       <c r="H560" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I560" s="5"/>
       <c r="J560" s="7"/>
       <c r="K560" s="6" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="L560" s="6" t="s">
         <v>12</v>
@@ -65745,28 +65750,30 @@
     </row>
     <row r="561" spans="2:95" ht="15" hidden="1">
       <c r="B561" s="4" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="C561" s="4" t="s">
-        <v>1086</v>
+        <v>956</v>
       </c>
       <c r="D561" s="4">
         <v>1</v>
       </c>
       <c r="E561" s="4" t="s">
-        <v>2</v>
+        <v>736</v>
       </c>
       <c r="F561" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G561" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="G561" s="4" t="s">
+        <v>1082</v>
+      </c>
       <c r="H561" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I561" s="5"/>
       <c r="J561" s="7"/>
       <c r="K561" s="6" t="s">
-        <v>443</v>
+        <v>180</v>
       </c>
       <c r="L561" s="6" t="s">
         <v>12</v>
@@ -65857,10 +65864,10 @@
     </row>
     <row r="562" spans="2:95" ht="15" hidden="1">
       <c r="B562" s="4" t="s">
-        <v>1087</v>
+        <v>815</v>
       </c>
       <c r="C562" s="4" t="s">
-        <v>1088</v>
+        <v>816</v>
       </c>
       <c r="D562" s="4">
         <v>1</v>
@@ -65871,14 +65878,16 @@
       <c r="F562" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G562" s="5"/>
+      <c r="G562" s="4" t="s">
+        <v>1083</v>
+      </c>
       <c r="H562" s="4" t="s">
-        <v>727</v>
+        <v>11</v>
       </c>
       <c r="I562" s="5"/>
       <c r="J562" s="7"/>
       <c r="K562" s="6" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="L562" s="6" t="s">
         <v>12</v>
@@ -65967,11 +65976,363 @@
       <c r="CP562" s="3"/>
       <c r="CQ562" s="3"/>
     </row>
+    <row r="563" spans="2:95" ht="15" hidden="1">
+      <c r="B563" s="4">
+        <v>3350036</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D563" s="4">
+        <v>520</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G563" s="5"/>
+      <c r="H563" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I563" s="5"/>
+      <c r="J563" s="7"/>
+      <c r="K563" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="L563" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M563" s="3"/>
+      <c r="N563" s="3"/>
+      <c r="O563" s="3"/>
+      <c r="P563" s="3"/>
+      <c r="Q563" s="3"/>
+      <c r="R563" s="3"/>
+      <c r="S563" s="3"/>
+      <c r="T563" s="3"/>
+      <c r="U563" s="3"/>
+      <c r="V563" s="3"/>
+      <c r="W563" s="3"/>
+      <c r="X563" s="3"/>
+      <c r="Y563" s="3"/>
+      <c r="Z563" s="3"/>
+      <c r="AA563" s="3"/>
+      <c r="AB563" s="3"/>
+      <c r="AC563" s="3"/>
+      <c r="AD563" s="3"/>
+      <c r="AE563" s="3"/>
+      <c r="AF563" s="3"/>
+      <c r="AG563" s="3"/>
+      <c r="AH563" s="3"/>
+      <c r="AI563" s="3"/>
+      <c r="AJ563" s="3"/>
+      <c r="AK563" s="3"/>
+      <c r="AL563" s="3"/>
+      <c r="AM563" s="3"/>
+      <c r="AN563" s="3"/>
+      <c r="AO563" s="3"/>
+      <c r="AP563" s="3"/>
+      <c r="AQ563" s="3"/>
+      <c r="AR563" s="3"/>
+      <c r="AS563" s="3"/>
+      <c r="AT563" s="3"/>
+      <c r="AU563" s="3"/>
+      <c r="AV563" s="3"/>
+      <c r="AW563" s="3"/>
+      <c r="AX563" s="3"/>
+      <c r="AY563" s="3"/>
+      <c r="AZ563" s="3"/>
+      <c r="BA563" s="3"/>
+      <c r="BB563" s="3"/>
+      <c r="BC563" s="3"/>
+      <c r="BD563" s="3"/>
+      <c r="BE563" s="3"/>
+      <c r="BF563" s="3"/>
+      <c r="BG563" s="3"/>
+      <c r="BH563" s="3"/>
+      <c r="BI563" s="3"/>
+      <c r="BJ563" s="3"/>
+      <c r="BK563" s="3"/>
+      <c r="BL563" s="3"/>
+      <c r="BM563" s="3"/>
+      <c r="BN563" s="3"/>
+      <c r="BO563" s="3"/>
+      <c r="BP563" s="3"/>
+      <c r="BQ563" s="3"/>
+      <c r="BR563" s="3"/>
+      <c r="BS563" s="3"/>
+      <c r="BT563" s="3"/>
+      <c r="BU563" s="3"/>
+      <c r="BV563" s="3"/>
+      <c r="BW563" s="3"/>
+      <c r="BX563" s="3"/>
+      <c r="BY563" s="3"/>
+      <c r="BZ563" s="3"/>
+      <c r="CA563" s="3"/>
+      <c r="CB563" s="3"/>
+      <c r="CC563" s="3"/>
+      <c r="CD563" s="3"/>
+      <c r="CE563" s="3"/>
+      <c r="CF563" s="3"/>
+      <c r="CG563" s="3"/>
+      <c r="CH563" s="3"/>
+      <c r="CI563" s="3"/>
+      <c r="CJ563" s="3"/>
+      <c r="CK563" s="3"/>
+      <c r="CL563" s="3"/>
+      <c r="CM563" s="3"/>
+      <c r="CN563" s="3"/>
+      <c r="CO563" s="3"/>
+      <c r="CP563" s="3"/>
+      <c r="CQ563" s="3"/>
+    </row>
+    <row r="564" spans="2:95" ht="15" hidden="1">
+      <c r="B564" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D564" s="4">
+        <v>1</v>
+      </c>
+      <c r="E564" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G564" s="5"/>
+      <c r="H564" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I564" s="5"/>
+      <c r="J564" s="7"/>
+      <c r="K564" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="L564" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M564" s="3"/>
+      <c r="N564" s="3"/>
+      <c r="O564" s="3"/>
+      <c r="P564" s="3"/>
+      <c r="Q564" s="3"/>
+      <c r="R564" s="3"/>
+      <c r="S564" s="3"/>
+      <c r="T564" s="3"/>
+      <c r="U564" s="3"/>
+      <c r="V564" s="3"/>
+      <c r="W564" s="3"/>
+      <c r="X564" s="3"/>
+      <c r="Y564" s="3"/>
+      <c r="Z564" s="3"/>
+      <c r="AA564" s="3"/>
+      <c r="AB564" s="3"/>
+      <c r="AC564" s="3"/>
+      <c r="AD564" s="3"/>
+      <c r="AE564" s="3"/>
+      <c r="AF564" s="3"/>
+      <c r="AG564" s="3"/>
+      <c r="AH564" s="3"/>
+      <c r="AI564" s="3"/>
+      <c r="AJ564" s="3"/>
+      <c r="AK564" s="3"/>
+      <c r="AL564" s="3"/>
+      <c r="AM564" s="3"/>
+      <c r="AN564" s="3"/>
+      <c r="AO564" s="3"/>
+      <c r="AP564" s="3"/>
+      <c r="AQ564" s="3"/>
+      <c r="AR564" s="3"/>
+      <c r="AS564" s="3"/>
+      <c r="AT564" s="3"/>
+      <c r="AU564" s="3"/>
+      <c r="AV564" s="3"/>
+      <c r="AW564" s="3"/>
+      <c r="AX564" s="3"/>
+      <c r="AY564" s="3"/>
+      <c r="AZ564" s="3"/>
+      <c r="BA564" s="3"/>
+      <c r="BB564" s="3"/>
+      <c r="BC564" s="3"/>
+      <c r="BD564" s="3"/>
+      <c r="BE564" s="3"/>
+      <c r="BF564" s="3"/>
+      <c r="BG564" s="3"/>
+      <c r="BH564" s="3"/>
+      <c r="BI564" s="3"/>
+      <c r="BJ564" s="3"/>
+      <c r="BK564" s="3"/>
+      <c r="BL564" s="3"/>
+      <c r="BM564" s="3"/>
+      <c r="BN564" s="3"/>
+      <c r="BO564" s="3"/>
+      <c r="BP564" s="3"/>
+      <c r="BQ564" s="3"/>
+      <c r="BR564" s="3"/>
+      <c r="BS564" s="3"/>
+      <c r="BT564" s="3"/>
+      <c r="BU564" s="3"/>
+      <c r="BV564" s="3"/>
+      <c r="BW564" s="3"/>
+      <c r="BX564" s="3"/>
+      <c r="BY564" s="3"/>
+      <c r="BZ564" s="3"/>
+      <c r="CA564" s="3"/>
+      <c r="CB564" s="3"/>
+      <c r="CC564" s="3"/>
+      <c r="CD564" s="3"/>
+      <c r="CE564" s="3"/>
+      <c r="CF564" s="3"/>
+      <c r="CG564" s="3"/>
+      <c r="CH564" s="3"/>
+      <c r="CI564" s="3"/>
+      <c r="CJ564" s="3"/>
+      <c r="CK564" s="3"/>
+      <c r="CL564" s="3"/>
+      <c r="CM564" s="3"/>
+      <c r="CN564" s="3"/>
+      <c r="CO564" s="3"/>
+      <c r="CP564" s="3"/>
+      <c r="CQ564" s="3"/>
+    </row>
+    <row r="565" spans="2:95" ht="15" hidden="1">
+      <c r="B565" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D565" s="4">
+        <v>1</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G565" s="5"/>
+      <c r="H565" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="I565" s="5"/>
+      <c r="J565" s="7"/>
+      <c r="K565" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L565" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M565" s="3"/>
+      <c r="N565" s="3"/>
+      <c r="O565" s="3"/>
+      <c r="P565" s="3"/>
+      <c r="Q565" s="3"/>
+      <c r="R565" s="3"/>
+      <c r="S565" s="3"/>
+      <c r="T565" s="3"/>
+      <c r="U565" s="3"/>
+      <c r="V565" s="3"/>
+      <c r="W565" s="3"/>
+      <c r="X565" s="3"/>
+      <c r="Y565" s="3"/>
+      <c r="Z565" s="3"/>
+      <c r="AA565" s="3"/>
+      <c r="AB565" s="3"/>
+      <c r="AC565" s="3"/>
+      <c r="AD565" s="3"/>
+      <c r="AE565" s="3"/>
+      <c r="AF565" s="3"/>
+      <c r="AG565" s="3"/>
+      <c r="AH565" s="3"/>
+      <c r="AI565" s="3"/>
+      <c r="AJ565" s="3"/>
+      <c r="AK565" s="3"/>
+      <c r="AL565" s="3"/>
+      <c r="AM565" s="3"/>
+      <c r="AN565" s="3"/>
+      <c r="AO565" s="3"/>
+      <c r="AP565" s="3"/>
+      <c r="AQ565" s="3"/>
+      <c r="AR565" s="3"/>
+      <c r="AS565" s="3"/>
+      <c r="AT565" s="3"/>
+      <c r="AU565" s="3"/>
+      <c r="AV565" s="3"/>
+      <c r="AW565" s="3"/>
+      <c r="AX565" s="3"/>
+      <c r="AY565" s="3"/>
+      <c r="AZ565" s="3"/>
+      <c r="BA565" s="3"/>
+      <c r="BB565" s="3"/>
+      <c r="BC565" s="3"/>
+      <c r="BD565" s="3"/>
+      <c r="BE565" s="3"/>
+      <c r="BF565" s="3"/>
+      <c r="BG565" s="3"/>
+      <c r="BH565" s="3"/>
+      <c r="BI565" s="3"/>
+      <c r="BJ565" s="3"/>
+      <c r="BK565" s="3"/>
+      <c r="BL565" s="3"/>
+      <c r="BM565" s="3"/>
+      <c r="BN565" s="3"/>
+      <c r="BO565" s="3"/>
+      <c r="BP565" s="3"/>
+      <c r="BQ565" s="3"/>
+      <c r="BR565" s="3"/>
+      <c r="BS565" s="3"/>
+      <c r="BT565" s="3"/>
+      <c r="BU565" s="3"/>
+      <c r="BV565" s="3"/>
+      <c r="BW565" s="3"/>
+      <c r="BX565" s="3"/>
+      <c r="BY565" s="3"/>
+      <c r="BZ565" s="3"/>
+      <c r="CA565" s="3"/>
+      <c r="CB565" s="3"/>
+      <c r="CC565" s="3"/>
+      <c r="CD565" s="3"/>
+      <c r="CE565" s="3"/>
+      <c r="CF565" s="3"/>
+      <c r="CG565" s="3"/>
+      <c r="CH565" s="3"/>
+      <c r="CI565" s="3"/>
+      <c r="CJ565" s="3"/>
+      <c r="CK565" s="3"/>
+      <c r="CL565" s="3"/>
+      <c r="CM565" s="3"/>
+      <c r="CN565" s="3"/>
+      <c r="CO565" s="3"/>
+      <c r="CP565" s="3"/>
+      <c r="CQ565" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CQ562" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
+  <autoFilter ref="A1:CQ565" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
       <filters>
-        <filter val="PAPIER THERMOSCELLANT 22G+4G /M² - LAIZE 480 MM FERAG"/>
+        <filter val="3353101"/>
+        <filter val="3353105"/>
+        <filter val="3353106"/>
+        <filter val="3353107"/>
+        <filter val="3353201"/>
+        <filter val="3353205"/>
+        <filter val="3353207"/>
+        <filter val="3353211"/>
+        <filter val="3353213"/>
+        <filter val="3353214"/>
+        <filter val="3353216"/>
+        <filter val="3353217"/>
+        <filter val="3353218"/>
+        <filter val="3353219"/>
+        <filter val="3353309"/>
+        <filter val="3353312"/>
+        <filter val="E523353"/>
       </filters>
     </filterColumn>
   </autoFilter>
